--- a/inputs/input_template_excel.xlsx
+++ b/inputs/input_template_excel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="218">
   <si>
     <t xml:space="preserve">Tool for optimizing and simulating off- and on-grid electrification solutions</t>
   </si>
@@ -165,9 +165,15 @@
     <t xml:space="preserve">restore_oemof_if_existant</t>
   </si>
   <si>
+    <t xml:space="preserve">True</t>
+  </si>
+  <si>
     <t xml:space="preserve">restore_blackouts_if_existant</t>
   </si>
   <si>
+    <t xml:space="preserve">False</t>
+  </si>
+  <si>
     <t xml:space="preserve">base_case_with_min_loading</t>
   </si>
   <si>
@@ -264,6 +270,9 @@
     <t xml:space="preserve">display_graphs_solar</t>
   </si>
   <si>
+    <t xml:space="preserve">todo: change names from”display”, as inaccurate</t>
+  </si>
+  <si>
     <t xml:space="preserve">display_graphs_demand</t>
   </si>
   <si>
@@ -558,6 +567,9 @@
     <t xml:space="preserve">pv_file</t>
   </si>
   <si>
+    <t xml:space="preserve">Z_low</t>
+  </si>
+  <si>
     <t xml:space="preserve">A</t>
   </si>
   <si>
@@ -567,12 +579,18 @@
     <t xml:space="preserve">./inputs/pv_gen_zambia.csv</t>
   </si>
   <si>
+    <t xml:space="preserve">Z_median</t>
+  </si>
+  <si>
     <t xml:space="preserve">B</t>
   </si>
   <si>
     <t xml:space="preserve">./inputs/demand_zambia_median.csv</t>
   </si>
   <si>
+    <t xml:space="preserve">Z_high</t>
+  </si>
+  <si>
     <t xml:space="preserve">C</t>
   </si>
   <si>
@@ -658,17 +676,21 @@
   </si>
   <si>
     <t xml:space="preserve">default</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="DD/MM/YY\ HH:MM"/>
-    <numFmt numFmtId="167" formatCode="#,##0.00"/>
+    <numFmt numFmtId="167" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="168" formatCode="#,##0.00"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -780,7 +802,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -829,7 +851,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -837,7 +859,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -845,7 +871,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -859,14 +885,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -952,19 +970,19 @@
   </sheetPr>
   <dimension ref="B2:G21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D18" activeCellId="1" sqref="B2:C2 D18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="2.15816326530612"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="2.02551020408163"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="2.42857142857143"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="58.8571428571429"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="2.29591836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.36734693877551"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="2.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="2.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="58.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="2.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="8.37"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1166,7 +1184,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -1181,16 +1199,16 @@
   </sheetPr>
   <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B23" activeCellId="1" sqref="B2:C2 B23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.10714285714286"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.0765306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="7" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.36734693877551"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="7" width="18.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.37"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1306,74 +1324,67 @@
       <c r="B13" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="12" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+      <c r="C13" s="12" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="12" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <v>47</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="12" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <v>49</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>48</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="12" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <v>51</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="12" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>52</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="12" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>53</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="12" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>46</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C20" s="7" t="n">
         <v>365</v>
@@ -1381,7 +1392,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C21" s="13" t="n">
         <v>43101</v>
@@ -1389,22 +1400,21 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23" s="14" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <v>60</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>48</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1418,44 +1428,42 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="C27" s="12" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <v>64</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="C30" s="12" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <v>69</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1465,174 +1473,165 @@
       <c r="A32" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="12"/>
+      <c r="C32" s="14"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="11"/>
       <c r="B33" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="C33" s="12"/>
+        <v>70</v>
+      </c>
+      <c r="C33" s="14"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="11"/>
       <c r="B34" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="11"/>
       <c r="B35" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="12"/>
+      <c r="C36" s="14"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C37" s="0"/>
-      <c r="D37" s="14"/>
-      <c r="G37" s="14"/>
+      <c r="D37" s="15"/>
+      <c r="G37" s="15"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="C38" s="12" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>76</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="C39" s="12" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>77</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="C40" s="12" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>78</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="C41" s="12" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>79</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C42" s="12"/>
+      <c r="C42" s="14"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B43" s="14"/>
+      <c r="B43" s="15"/>
       <c r="C43" s="0"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="C44" s="12" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <v>80</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="C45" s="12" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <v>82</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="C46" s="12" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>83</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="C47" s="12" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>84</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C48" s="12"/>
+      <c r="C48" s="14"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="11" t="s">
         <v>39</v>
       </c>
       <c r="B49" s="11"/>
-      <c r="C49" s="12"/>
+      <c r="C49" s="14"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="C50" s="12" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <v>85</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="C51" s="12" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <v>86</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="C52" s="12" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <v>87</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="C53" s="12" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <v>88</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C54" s="12"/>
+      <c r="C54" s="14"/>
     </row>
     <row r="55" customFormat="false" ht="13.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="11" t="s">
@@ -1642,44 +1641,40 @@
     </row>
     <row r="56" customFormat="false" ht="13.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B56" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="C56" s="12" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>89</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B57" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="C57" s="12" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>90</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="C58" s="12" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>91</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="C59" s="12" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>92</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -1694,741 +1689,741 @@
   </sheetPr>
   <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A44" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B52" activeCellId="1" sqref="B2:C2 B52"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B52" activeCellId="0" sqref="B52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.1020408163265"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.98979591836735"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="7" width="8.10204081632653"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="15" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="7" width="8.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="16" width="14.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="8.37"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>92</v>
+        <v>94</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>95</v>
       </c>
       <c r="D1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B2" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="C2" s="15" t="s">
-        <v>94</v>
+      <c r="C2" s="16" t="s">
+        <v>97</v>
       </c>
       <c r="D2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B3" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>96</v>
+      <c r="C3" s="16" t="s">
+        <v>99</v>
       </c>
       <c r="D3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B4" s="7" t="n">
         <v>7</v>
       </c>
-      <c r="C4" s="15" t="s">
-        <v>98</v>
+      <c r="C4" s="16" t="s">
+        <v>101</v>
       </c>
       <c r="D4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B5" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>96</v>
+      <c r="C5" s="16" t="s">
+        <v>99</v>
       </c>
       <c r="D5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B6" s="7" t="n">
         <v>10</v>
       </c>
-      <c r="C6" s="15" t="s">
-        <v>101</v>
+      <c r="C6" s="16" t="s">
+        <v>104</v>
       </c>
       <c r="D6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B7" s="7" t="n">
         <v>10</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>103</v>
+      <c r="C7" s="16" t="s">
+        <v>106</v>
       </c>
       <c r="D7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B8" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>105</v>
+      <c r="C8" s="16" t="s">
+        <v>108</v>
       </c>
       <c r="D8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B9" s="7" t="n">
         <v>50</v>
       </c>
-      <c r="C9" s="15" t="s">
-        <v>107</v>
+      <c r="C9" s="16" t="s">
+        <v>110</v>
       </c>
       <c r="D9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B10" s="7" t="n">
         <v>40</v>
       </c>
-      <c r="C10" s="15" t="s">
-        <v>109</v>
+      <c r="C10" s="16" t="s">
+        <v>112</v>
       </c>
       <c r="D10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B11" s="7" t="n">
         <v>0.5</v>
       </c>
-      <c r="C11" s="15" t="s">
-        <v>111</v>
+      <c r="C11" s="16" t="s">
+        <v>114</v>
       </c>
       <c r="D11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B12" s="7" t="n">
         <v>400</v>
       </c>
-      <c r="C12" s="15" t="s">
-        <v>113</v>
+      <c r="C12" s="16" t="s">
+        <v>116</v>
       </c>
       <c r="D12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B13" s="7" t="n">
         <v>25</v>
       </c>
-      <c r="C13" s="15" t="s">
-        <v>115</v>
+      <c r="C13" s="16" t="s">
+        <v>118</v>
       </c>
       <c r="D13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B14" s="7" t="n">
         <v>0.023</v>
       </c>
-      <c r="C14" s="15" t="s">
-        <v>103</v>
+      <c r="C14" s="16" t="s">
+        <v>106</v>
       </c>
       <c r="D14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B15" s="7" t="n">
         <v>0.33</v>
       </c>
-      <c r="C15" s="15" t="s">
-        <v>96</v>
+      <c r="C15" s="16" t="s">
+        <v>99</v>
       </c>
       <c r="D15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B16" s="7" t="n">
         <v>10</v>
       </c>
-      <c r="C16" s="15" t="s">
-        <v>109</v>
+      <c r="C16" s="16" t="s">
+        <v>112</v>
       </c>
       <c r="D16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B17" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="C17" s="15" t="s">
-        <v>96</v>
+      <c r="C17" s="16" t="s">
+        <v>99</v>
       </c>
       <c r="D17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B18" s="7" t="n">
         <v>0.2</v>
       </c>
-      <c r="C18" s="15" t="s">
-        <v>96</v>
+      <c r="C18" s="16" t="s">
+        <v>99</v>
       </c>
       <c r="D18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B19" s="7" t="n">
         <v>10</v>
       </c>
-      <c r="C19" s="15" t="s">
-        <v>122</v>
+      <c r="C19" s="16" t="s">
+        <v>125</v>
       </c>
       <c r="D19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B20" s="7" t="n">
         <v>0.2</v>
       </c>
-      <c r="C20" s="15" t="s">
-        <v>113</v>
+      <c r="C20" s="16" t="s">
+        <v>116</v>
       </c>
       <c r="D20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B21" s="7" t="n">
         <v>15000</v>
       </c>
-      <c r="C21" s="15" t="s">
-        <v>125</v>
+      <c r="C21" s="16" t="s">
+        <v>128</v>
       </c>
       <c r="D21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B22" s="7" t="n">
         <v>50</v>
       </c>
-      <c r="C22" s="15" t="s">
-        <v>127</v>
+      <c r="C22" s="16" t="s">
+        <v>130</v>
       </c>
       <c r="D22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B23" s="7" t="n">
         <v>20</v>
       </c>
-      <c r="C23" s="15" t="s">
-        <v>127</v>
+      <c r="C23" s="16" t="s">
+        <v>130</v>
       </c>
       <c r="D23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B24" s="7" t="n">
         <v>0.12</v>
       </c>
-      <c r="C24" s="15" t="s">
-        <v>113</v>
+      <c r="C24" s="16" t="s">
+        <v>116</v>
       </c>
       <c r="D24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B25" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="C25" s="15" t="s">
-        <v>96</v>
+      <c r="C25" s="16" t="s">
+        <v>99</v>
       </c>
       <c r="D25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B26" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="C26" s="15" t="s">
-        <v>96</v>
+      <c r="C26" s="16" t="s">
+        <v>99</v>
       </c>
       <c r="D26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B27" s="7" t="n">
         <v>0.2</v>
       </c>
-      <c r="C27" s="15" t="s">
-        <v>96</v>
+      <c r="C27" s="16" t="s">
+        <v>99</v>
       </c>
       <c r="D27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B28" s="7" t="n">
         <v>0.5</v>
       </c>
-      <c r="C28" s="15" t="s">
-        <v>111</v>
+      <c r="C28" s="16" t="s">
+        <v>114</v>
       </c>
       <c r="D28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B29" s="7" t="n">
         <v>600</v>
       </c>
-      <c r="C29" s="15" t="s">
-        <v>113</v>
+      <c r="C29" s="16" t="s">
+        <v>116</v>
       </c>
       <c r="D29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B30" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="C30" s="15" t="s">
-        <v>115</v>
+      <c r="C30" s="16" t="s">
+        <v>118</v>
       </c>
       <c r="D30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B31" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="C31" s="15" t="s">
-        <v>103</v>
+      <c r="C31" s="16" t="s">
+        <v>106</v>
       </c>
       <c r="D31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B32" s="7" t="n">
         <v>0.98</v>
       </c>
-      <c r="C32" s="15" t="s">
-        <v>96</v>
+      <c r="C32" s="16" t="s">
+        <v>99</v>
       </c>
       <c r="D32" s="0"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B33" s="7" t="n">
         <v>20</v>
       </c>
-      <c r="C33" s="15" t="s">
-        <v>109</v>
+      <c r="C33" s="16" t="s">
+        <v>112</v>
       </c>
       <c r="D33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B34" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="C34" s="15" t="s">
-        <v>113</v>
+      <c r="C34" s="16" t="s">
+        <v>116</v>
       </c>
       <c r="D34" s="0"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B35" s="7" t="n">
         <v>15000</v>
       </c>
-      <c r="C35" s="15"/>
+      <c r="C35" s="16"/>
       <c r="D35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B36" s="7" t="n">
         <v>200</v>
       </c>
-      <c r="C36" s="15" t="s">
-        <v>107</v>
+      <c r="C36" s="16" t="s">
+        <v>110</v>
       </c>
       <c r="D36" s="0"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B37" s="7" t="n">
         <v>20</v>
       </c>
-      <c r="C37" s="15" t="s">
-        <v>109</v>
+      <c r="C37" s="16" t="s">
+        <v>112</v>
       </c>
       <c r="D37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B38" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="C38" s="15" t="s">
-        <v>144</v>
+      <c r="C38" s="16" t="s">
+        <v>147</v>
       </c>
       <c r="D38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B39" s="7" t="n">
         <v>950</v>
       </c>
-      <c r="C39" s="15" t="s">
-        <v>113</v>
+      <c r="C39" s="16" t="s">
+        <v>116</v>
       </c>
       <c r="D39" s="0"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B40" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="C40" s="15" t="s">
-        <v>115</v>
+      <c r="C40" s="16" t="s">
+        <v>118</v>
       </c>
       <c r="D40" s="0"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B41" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="C41" s="15" t="s">
-        <v>103</v>
+      <c r="C41" s="16" t="s">
+        <v>106</v>
       </c>
       <c r="D41" s="0"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B42" s="7" t="n">
         <v>20</v>
       </c>
-      <c r="C42" s="15" t="s">
-        <v>109</v>
+      <c r="C42" s="16" t="s">
+        <v>112</v>
       </c>
       <c r="D42" s="0"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B43" s="7" t="n">
         <v>0.5</v>
       </c>
-      <c r="C43" s="15" t="s">
-        <v>96</v>
+      <c r="C43" s="16" t="s">
+        <v>99</v>
       </c>
       <c r="D43" s="0"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B44" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="C44" s="15" t="s">
-        <v>151</v>
+      <c r="C44" s="16" t="s">
+        <v>154</v>
       </c>
       <c r="D44" s="0"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B45" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="C45" s="15" t="s">
-        <v>96</v>
+      <c r="C45" s="16" t="s">
+        <v>99</v>
       </c>
       <c r="D45" s="0"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B46" s="7" t="n">
         <v>0.2</v>
       </c>
-      <c r="C46" s="15" t="s">
-        <v>96</v>
+      <c r="C46" s="16" t="s">
+        <v>99</v>
       </c>
       <c r="D46" s="0"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B47" s="7" t="n">
         <v>800</v>
       </c>
-      <c r="C47" s="15" t="s">
-        <v>113</v>
+      <c r="C47" s="16" t="s">
+        <v>116</v>
       </c>
       <c r="D47" s="0"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B48" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="C48" s="15" t="s">
-        <v>115</v>
+      <c r="C48" s="16" t="s">
+        <v>118</v>
       </c>
       <c r="D48" s="0"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B49" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="C49" s="15" t="s">
-        <v>109</v>
+      <c r="C49" s="16" t="s">
+        <v>112</v>
       </c>
       <c r="D49" s="0"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B50" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="C50" s="15" t="s">
-        <v>96</v>
+      <c r="C50" s="16" t="s">
+        <v>99</v>
       </c>
       <c r="D50" s="0"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="B51" s="16" t="n">
+        <v>161</v>
+      </c>
+      <c r="B51" s="17" t="n">
         <v>0.2</v>
       </c>
-      <c r="C51" s="15" t="s">
-        <v>96</v>
+      <c r="C51" s="16" t="s">
+        <v>99</v>
       </c>
       <c r="D51" s="0"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B52" s="7" t="n">
         <v>0.9</v>
       </c>
-      <c r="C52" s="15" t="s">
-        <v>96</v>
+      <c r="C52" s="16" t="s">
+        <v>99</v>
       </c>
       <c r="D52" s="0"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="C53" s="15" t="s">
-        <v>162</v>
+        <v>164</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>165</v>
       </c>
       <c r="D53" s="0"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B54" s="7" t="n">
         <v>6</v>
       </c>
-      <c r="C54" s="15" t="s">
-        <v>109</v>
+      <c r="C54" s="16" t="s">
+        <v>112</v>
       </c>
       <c r="D54" s="0"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B55" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="C55" s="15" t="s">
-        <v>96</v>
+      <c r="C55" s="16" t="s">
+        <v>99</v>
       </c>
       <c r="D55" s="0"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B56" s="7" t="n">
         <v>0.9</v>
       </c>
-      <c r="C56" s="15" t="s">
-        <v>96</v>
+      <c r="C56" s="16" t="s">
+        <v>99</v>
       </c>
       <c r="D56" s="0"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B57" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="C57" s="15" t="s">
-        <v>96</v>
+      <c r="C57" s="16" t="s">
+        <v>99</v>
       </c>
       <c r="D57" s="0"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B58" s="7" t="n">
         <v>0.12</v>
       </c>
-      <c r="C58" s="15" t="s">
-        <v>96</v>
+      <c r="C58" s="16" t="s">
+        <v>99</v>
       </c>
       <c r="D58" s="0"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B59" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="C59" s="15" t="s">
-        <v>96</v>
+      <c r="C59" s="16" t="s">
+        <v>99</v>
       </c>
       <c r="D59" s="0"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B60" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="C60" s="15" t="s">
-        <v>96</v>
+      <c r="C60" s="16" t="s">
+        <v>99</v>
       </c>
       <c r="D60" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -2443,32 +2438,32 @@
   </sheetPr>
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="B2:C2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.37"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>171</v>
+        <v>173</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>174</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B2" s="7" t="n">
         <v>2</v>
@@ -2482,7 +2477,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B3" s="7" t="n">
         <v>20</v>
@@ -2497,7 +2492,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -2512,78 +2507,80 @@
   </sheetPr>
   <dimension ref="A2:D5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="1" sqref="B2:C2 C5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="17" min="1" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="32.530612244898"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="29.6989795918367"/>
-    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="8.36734693877551"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="8.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="31.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="4" style="0" width="8.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="32.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="29.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="20" style="0" width="8.37"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="n">
-        <v>1</v>
+      <c r="A3" s="7" t="s">
+        <v>180</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="n">
-        <v>2</v>
+      <c r="A4" s="7" t="s">
+        <v>184</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="n">
-        <v>3</v>
+      <c r="A5" s="7" t="s">
+        <v>187</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="C5" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="D5" s="0" t="s">
         <v>183</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>179</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -2598,16 +2595,16 @@
   </sheetPr>
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F16" activeCellId="1" sqref="B2:C2 F16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I39" activeCellId="0" sqref="I39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.8061224489796"/>
-    <col collapsed="false" hidden="false" max="8" min="2" style="0" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="18" min="9" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="8.36734693877551"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="9.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="9" style="0" width="10.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="19" style="0" width="8.37"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2616,416 +2613,399 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="17" t="s">
-        <v>184</v>
+      <c r="A2" s="18" t="s">
+        <v>190</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="103.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="H16" s="20" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" s="21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="G18" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="H18" s="21" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="G19" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="H19" s="21" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="G20" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="H20" s="21" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="G21" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="H21" s="21" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="G22" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="H22" s="21" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="B14" s="0" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="103.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="18" t="s">
-        <v>186</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="C16" s="19" t="s">
+      <c r="B23" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="G23" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="H23" s="21" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="G24" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="H24" s="21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="19" t="s">
         <v>203</v>
       </c>
-      <c r="D16" s="19" t="s">
-        <v>204</v>
-      </c>
-      <c r="E16" s="19" t="s">
+      <c r="B25" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="G25" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="H25" s="21" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="19" t="s">
         <v>205</v>
       </c>
-      <c r="F16" s="19" t="s">
-        <v>206</v>
-      </c>
-      <c r="G16" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="H16" s="19" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="18" t="s">
-        <v>209</v>
-      </c>
-      <c r="B17" s="20" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="C17" s="20" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="D17" s="20" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E17" s="20" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F17" s="20" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G17" s="20" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H17" s="20" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>202</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>202</v>
-      </c>
-      <c r="F18" s="21" t="s">
-        <v>202</v>
-      </c>
-      <c r="G18" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="H18" s="21" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="B19" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="D19" s="22" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E19" s="22" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F19" s="21" t="s">
-        <v>198</v>
-      </c>
-      <c r="G19" s="20" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H19" s="21" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="18" t="s">
-        <v>192</v>
-      </c>
-      <c r="B20" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="D20" s="22" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E20" s="22" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F20" s="21" t="s">
-        <v>198</v>
-      </c>
-      <c r="G20" s="20" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H20" s="21" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="18" t="s">
-        <v>193</v>
-      </c>
-      <c r="B21" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>198</v>
-      </c>
-      <c r="E21" s="22" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F21" s="21" t="s">
-        <v>198</v>
-      </c>
-      <c r="G21" s="20" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H21" s="21" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="B22" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="D22" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="E22" s="21" t="s">
-        <v>198</v>
-      </c>
-      <c r="F22" s="21" t="s">
-        <v>198</v>
-      </c>
-      <c r="G22" s="20" t="s">
-        <v>198</v>
-      </c>
-      <c r="H22" s="21" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="D23" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="E23" s="20" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F23" s="21" t="s">
-        <v>198</v>
-      </c>
-      <c r="G23" s="20" t="s">
-        <v>198</v>
-      </c>
-      <c r="H23" s="21" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="D24" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="F24" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="G24" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="H24" s="20" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="18" t="s">
-        <v>197</v>
-      </c>
-      <c r="B25" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="D25" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="E25" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="F25" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="G25" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="H25" s="21" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="18" t="s">
-        <v>199</v>
-      </c>
       <c r="B26" s="21" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="F26" s="21" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="G26" s="21" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="H26" s="21" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>

--- a/inputs/input_template_excel.xlsx
+++ b/inputs/input_template_excel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="210">
   <si>
     <t xml:space="preserve">Tool for optimizing and simulating off- and on-grid electrification solutions</t>
   </si>
@@ -558,43 +558,19 @@
     <t xml:space="preserve">project_site_name</t>
   </si>
   <si>
-    <t xml:space="preserve">location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">demand_file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pv_file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Z_low</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">./inputs/demand_zambia_low.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">./inputs/pv_gen_zambia.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Z_median</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">./inputs/demand_zambia_median.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Z_high</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">./inputs/demand_zambia_high.csv</t>
+    <t xml:space="preserve">timeseries_file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Masbate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/home/local/RL-INSTITUT/martha.hoffmann/Nextcloud/Masterthesis/ASEP_Test/Example1_Masbate.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atulayan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/home/local/RL-INSTITUT/martha.hoffmann/Nextcloud/Masterthesis/ASEP_Test/Example2_Atulayan.csv</t>
   </si>
   <si>
     <t xml:space="preserve">Attribute</t>
@@ -977,11 +953,11 @@
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="2.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="2.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="2.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="58.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="2.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="58.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="2.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="8.37"/>
   </cols>
   <sheetData>
@@ -1199,7 +1175,7 @@
   </sheetPr>
   <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
     </sheetView>
   </sheetViews>
@@ -2505,20 +2481,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:D5"/>
+  <dimension ref="A2:B4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="8.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="31.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="4" style="0" width="8.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="32.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="29.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="20" style="0" width="8.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="3" style="0" width="8.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="32.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="29.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="19" style="0" width="8.37"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2528,53 +2505,21 @@
       <c r="B2" s="0" t="s">
         <v>177</v>
       </c>
-      <c r="C2" s="0" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="B3" s="0" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B4" s="0" t="s">
         <v>181</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>185</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>186</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>188</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>189</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -2614,66 +2559,66 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="18" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2681,70 +2626,70 @@
         <v>51</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="103.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="19" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="H16" s="20" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="19" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="B17" s="21" t="s">
         <v>46</v>
@@ -2770,22 +2715,22 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="19" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="B18" s="21" t="s">
         <v>164</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="D18" s="21" t="s">
         <v>164</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="G18" s="21" t="s">
         <v>164</v>
@@ -2796,13 +2741,13 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="19" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="B19" s="21" t="s">
         <v>48</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="D19" s="21" t="s">
         <v>48</v>
@@ -2811,7 +2756,7 @@
         <v>46</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="G19" s="21" t="s">
         <v>48</v>
@@ -2822,13 +2767,13 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="19" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="B20" s="21" t="s">
         <v>48</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="D20" s="21" t="s">
         <v>48</v>
@@ -2837,7 +2782,7 @@
         <v>46</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="G20" s="21" t="s">
         <v>48</v>
@@ -2848,22 +2793,22 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="19" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="B21" s="21" t="s">
         <v>48</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="E21" s="21" t="s">
         <v>46</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="G21" s="21" t="s">
         <v>48</v>
@@ -2874,7 +2819,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="19" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="B22" s="21" t="s">
         <v>164</v>
@@ -2886,21 +2831,21 @@
         <v>164</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="F22" s="21" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="G22" s="21" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="H22" s="21" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="19" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="B23" s="21" t="s">
         <v>164</v>
@@ -2915,10 +2860,10 @@
         <v>48</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="G23" s="21" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="H23" s="21" t="s">
         <v>164</v>
@@ -2929,22 +2874,22 @@
         <v>51</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="G24" s="21" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="H24" s="21" t="s">
         <v>46</v>
@@ -2952,54 +2897,54 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="19" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="F25" s="21" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="G25" s="21" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="H25" s="21" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="19" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="F26" s="21" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="G26" s="21" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="H26" s="21" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>

--- a/inputs/input_template_excel.xlsx
+++ b/inputs/input_template_excel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="980" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="216">
   <si>
     <t xml:space="preserve">Tool for optimizing and simulating off- and on-grid electrification solutions</t>
   </si>
@@ -561,16 +561,34 @@
     <t xml:space="preserve">timeseries_file</t>
   </si>
   <si>
+    <t xml:space="preserve">title_demand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">title_pv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">title_wind</t>
+  </si>
+  <si>
     <t xml:space="preserve">Masbate</t>
   </si>
   <si>
-    <t xml:space="preserve">/home/local/RL-INSTITUT/martha.hoffmann/Nextcloud/Masterthesis/ASEP_Test/Example1_Masbate.csv</t>
+    <t xml:space="preserve">./inputs/Example1_Masbate.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SolarPV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wind</t>
   </si>
   <si>
     <t xml:space="preserve">Atulayan</t>
   </si>
   <si>
-    <t xml:space="preserve">/home/local/RL-INSTITUT/martha.hoffmann/Nextcloud/Masterthesis/ASEP_Test/Example2_Atulayan.csv</t>
+    <t xml:space="preserve">./inputs/Example2_Atulayan.csv</t>
   </si>
   <si>
     <t xml:space="preserve">Attribute</t>
@@ -946,19 +964,19 @@
   </sheetPr>
   <dimension ref="B2:G21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="2.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="2.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="58.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="2.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="8.37"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="2.02551020408163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="1.88775510204082"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="2.29591836734694"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="58.1836734693878"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="2.15816326530612"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1160,7 +1178,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -1175,16 +1193,16 @@
   </sheetPr>
   <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="7" width="18.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.37"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.10714285714286"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="7" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1650,7 +1668,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -1665,17 +1683,17 @@
   </sheetPr>
   <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B52" activeCellId="0" sqref="B52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="7" width="8.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="16" width="14.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="8.37"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.6989795918367"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="7" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="16" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2399,7 +2417,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -2414,13 +2432,13 @@
   </sheetPr>
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.37"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2468,7 +2486,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -2481,21 +2499,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:B4"/>
+  <dimension ref="A2:E4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="3" style="0" width="8.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="32.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="29.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="19" style="0" width="8.37"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.5867346938776"/>
+    <col collapsed="false" hidden="false" max="16" min="3" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="32.1275510204082"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="29.2908163265306"/>
+    <col collapsed="false" hidden="false" max="1023" min="19" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2505,27 +2523,54 @@
       <c r="B2" s="0" t="s">
         <v>177</v>
       </c>
+      <c r="C2" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="16" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>179</v>
+        <v>182</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="16" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>181</v>
+        <v>187</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -2540,16 +2585,16 @@
   </sheetPr>
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I39" activeCellId="0" sqref="I39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="9.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="9" style="0" width="10.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="19" style="0" width="8.37"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.5408163265306"/>
+    <col collapsed="false" hidden="false" max="8" min="2" style="0" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="18" min="9" style="0" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2559,66 +2604,66 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="18" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2626,70 +2671,70 @@
         <v>51</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="103.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="19" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="H16" s="20" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="19" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="B17" s="21" t="s">
         <v>46</v>
@@ -2715,22 +2760,22 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="19" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="B18" s="21" t="s">
         <v>164</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="D18" s="21" t="s">
         <v>164</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="G18" s="21" t="s">
         <v>164</v>
@@ -2741,13 +2786,13 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="19" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="B19" s="21" t="s">
         <v>48</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="D19" s="21" t="s">
         <v>48</v>
@@ -2756,7 +2801,7 @@
         <v>46</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="G19" s="21" t="s">
         <v>48</v>
@@ -2767,13 +2812,13 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="19" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="B20" s="21" t="s">
         <v>48</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="D20" s="21" t="s">
         <v>48</v>
@@ -2782,7 +2827,7 @@
         <v>46</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="G20" s="21" t="s">
         <v>48</v>
@@ -2793,22 +2838,22 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="19" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="B21" s="21" t="s">
         <v>48</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="E21" s="21" t="s">
         <v>46</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="G21" s="21" t="s">
         <v>48</v>
@@ -2819,7 +2864,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="19" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B22" s="21" t="s">
         <v>164</v>
@@ -2831,21 +2876,21 @@
         <v>164</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="F22" s="21" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="G22" s="21" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="H22" s="21" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="19" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="B23" s="21" t="s">
         <v>164</v>
@@ -2860,10 +2905,10 @@
         <v>48</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="G23" s="21" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="H23" s="21" t="s">
         <v>164</v>
@@ -2874,22 +2919,22 @@
         <v>51</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="G24" s="21" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="H24" s="21" t="s">
         <v>46</v>
@@ -2897,60 +2942,60 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="19" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="F25" s="21" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="G25" s="21" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="H25" s="21" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="19" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="F26" s="21" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="G26" s="21" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="H26" s="21" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>

--- a/inputs/input_template_excel.xlsx
+++ b/inputs/input_template_excel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="980" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="217">
   <si>
     <t xml:space="preserve">Tool for optimizing and simulating off- and on-grid electrification solutions</t>
   </si>
@@ -543,7 +543,7 @@
     <t xml:space="preserve">white_noise_demand</t>
   </si>
   <si>
-    <t xml:space="preserve">white_noise_irradiation</t>
+    <t xml:space="preserve">white_noise_pv</t>
   </si>
   <si>
     <t xml:space="preserve">Min</t>
@@ -559,6 +559,9 @@
   </si>
   <si>
     <t xml:space="preserve">timeseries_file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">title_time</t>
   </si>
   <si>
     <t xml:space="preserve">title_demand</t>
@@ -964,19 +967,19 @@
   </sheetPr>
   <dimension ref="B2:G21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="2.02551020408163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="1.88775510204082"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="2.29591836734694"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="58.1836734693878"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="2.15816326530612"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.23469387755102"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="1.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="2.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="58.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="2.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="8.22"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1178,7 +1181,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -1193,16 +1196,16 @@
   </sheetPr>
   <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.10714285714286"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.8061224489796"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="7" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.23469387755102"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="7" width="17.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.22"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1668,7 +1671,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -1683,17 +1686,17 @@
   </sheetPr>
   <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B52" activeCellId="0" sqref="B52"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A60" activeCellId="0" sqref="A60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.6989795918367"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.85204081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="7" width="7.96428571428571"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="16" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="7" width="7.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="16" width="14.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="8.22"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2111,7 +2114,9 @@
       <c r="B35" s="7" t="n">
         <v>15000</v>
       </c>
-      <c r="C35" s="16"/>
+      <c r="C35" s="16" t="s">
+        <v>108</v>
+      </c>
       <c r="D35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2417,7 +2422,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -2432,13 +2437,13 @@
   </sheetPr>
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.22"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2486,7 +2491,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -2499,21 +2504,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:E4"/>
+  <dimension ref="A2:F4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C34" activeCellId="0" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.5867346938776"/>
-    <col collapsed="false" hidden="false" max="16" min="3" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="32.1275510204082"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="29.2908163265306"/>
-    <col collapsed="false" hidden="false" max="1023" min="19" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="11.3418367346939"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="3" style="0" width="8.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="32.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="29.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="20" style="0" width="8.22"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2532,16 +2536,19 @@
       <c r="E2" s="0" t="s">
         <v>180</v>
       </c>
+      <c r="F2" s="0" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="16" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>184</v>
@@ -2549,28 +2556,34 @@
       <c r="E3" s="0" t="s">
         <v>185</v>
       </c>
+      <c r="F3" s="0" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>184</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>185</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -2585,16 +2598,16 @@
   </sheetPr>
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I39" activeCellId="0" sqref="I39"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.5408163265306"/>
-    <col collapsed="false" hidden="false" max="8" min="2" style="0" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="18" min="9" style="0" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="8.23469387755102"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="9.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="9" style="0" width="10.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="19" style="0" width="8.22"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2604,66 +2617,66 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="18" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>196</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2671,70 +2684,70 @@
         <v>51</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="103.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="19" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H16" s="20" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="19" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B17" s="21" t="s">
         <v>46</v>
@@ -2760,48 +2773,48 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="19" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>164</v>
+        <v>48</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>206</v>
+        <v>46</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>164</v>
+        <v>48</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>206</v>
+        <v>46</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>206</v>
+        <v>46</v>
       </c>
       <c r="G18" s="21" t="s">
-        <v>164</v>
+        <v>48</v>
       </c>
       <c r="H18" s="21" t="s">
-        <v>164</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="19" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B19" s="21" t="s">
         <v>48</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="D19" s="21" t="s">
         <v>48</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>46</v>
+        <v>207</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="G19" s="21" t="s">
         <v>48</v>
@@ -2812,22 +2825,22 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="19" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B20" s="21" t="s">
         <v>48</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="D20" s="21" t="s">
         <v>48</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>46</v>
+        <v>207</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="G20" s="21" t="s">
         <v>48</v>
@@ -2838,22 +2851,22 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="19" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B21" s="21" t="s">
         <v>48</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>46</v>
+        <v>207</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="G21" s="21" t="s">
         <v>48</v>
@@ -2864,7 +2877,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="19" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B22" s="21" t="s">
         <v>164</v>
@@ -2876,21 +2889,21 @@
         <v>164</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F22" s="21" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G22" s="21" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H22" s="21" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="19" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B23" s="21" t="s">
         <v>164</v>
@@ -2905,10 +2918,10 @@
         <v>48</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G23" s="21" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H23" s="21" t="s">
         <v>164</v>
@@ -2919,22 +2932,22 @@
         <v>51</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G24" s="21" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H24" s="21" t="s">
         <v>46</v>
@@ -2942,60 +2955,60 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="19" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F25" s="21" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G25" s="21" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H25" s="21" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F26" s="21" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G26" s="21" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H26" s="21" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>

--- a/inputs/input_template_excel.xlsx
+++ b/inputs/input_template_excel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="242">
   <si>
     <t xml:space="preserve">Tool for optimizing and simulating off- and on-grid electrification solutions</t>
   </si>
@@ -165,30 +165,27 @@
     <t xml:space="preserve">restore_oemof_if_existant</t>
   </si>
   <si>
+    <t xml:space="preserve">False</t>
+  </si>
+  <si>
+    <t xml:space="preserve">restore_blackouts_if_existant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">base_case_with_min_loading</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not working currently</t>
+  </si>
+  <si>
+    <t xml:space="preserve">allow_shortage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">include_stability_constraint</t>
+  </si>
+  <si>
     <t xml:space="preserve">True</t>
   </si>
   <si>
-    <t xml:space="preserve">restore_blackouts_if_existant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">False</t>
-  </si>
-  <si>
-    <t xml:space="preserve">base_case_with_min_loading</t>
-  </si>
-  <si>
-    <t xml:space="preserve">not working currently</t>
-  </si>
-  <si>
-    <t xml:space="preserve">allow_shortage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">setting_batch_capacity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">include_stability_constraint</t>
-  </si>
-  <si>
     <t xml:space="preserve">setting_pcc_utility_owned</t>
   </si>
   <si>
@@ -231,9 +228,6 @@
     <t xml:space="preserve">cmdline_option_value</t>
   </si>
   <si>
-    <t xml:space="preserve">1*10**(-1)</t>
-  </si>
-  <si>
     <t xml:space="preserve">debug</t>
   </si>
   <si>
@@ -315,6 +309,9 @@
     <t xml:space="preserve">Unit</t>
   </si>
   <si>
+    <t xml:space="preserve">old</t>
+  </si>
+  <si>
     <t xml:space="preserve">blackout_duration</t>
   </si>
   <si>
@@ -339,7 +336,7 @@
     <t xml:space="preserve">combustion_value_fuel</t>
   </si>
   <si>
-    <t xml:space="preserve">kWh/unit</t>
+    <t xml:space="preserve">kWh/l</t>
   </si>
   <si>
     <t xml:space="preserve">costs_var_unsupplied_load</t>
@@ -375,13 +372,19 @@
     <t xml:space="preserve">genset_cost_investment</t>
   </si>
   <si>
-    <t xml:space="preserve">/unit</t>
+    <t xml:space="preserve">/kW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">using capex of eu islands input parameters</t>
   </si>
   <si>
     <t xml:space="preserve">genset_cost_opex</t>
   </si>
   <si>
-    <t xml:space="preserve">/unit/a</t>
+    <t xml:space="preserve">/kW/a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">per kW/a, not operating hours</t>
   </si>
   <si>
     <t xml:space="preserve">genset_cost_var</t>
@@ -390,6 +393,9 @@
     <t xml:space="preserve">genset_efficiency</t>
   </si>
   <si>
+    <t xml:space="preserve">not info from sheet</t>
+  </si>
+  <si>
     <t xml:space="preserve">genset_lifetime</t>
   </si>
   <si>
@@ -456,6 +462,15 @@
     <t xml:space="preserve">price_fuel</t>
   </si>
   <si>
+    <t xml:space="preserve">/l</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We show prices for Philippines from 15-Oct-2018 to 21-Jan-2019. The average value for Philippines during that period was 0.89 Euro with a minimum of 0.77 Euro on 07-Jan-2019 and a maximum of 1.02 Euro on 15-Oct-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.globalpetrolprices.com/Philippines/gasoline_prices/</t>
+  </si>
+  <si>
     <t xml:space="preserve">project_cost_fix</t>
   </si>
   <si>
@@ -474,9 +489,15 @@
     <t xml:space="preserve">pv_cost_investment</t>
   </si>
   <si>
+    <t xml:space="preserve">/kWp</t>
+  </si>
+  <si>
     <t xml:space="preserve">pv_cost_opex</t>
   </si>
   <si>
+    <t xml:space="preserve">/kWp/a</t>
+  </si>
+  <si>
     <t xml:space="preserve">pv_cost_var</t>
   </si>
   <si>
@@ -498,12 +519,18 @@
     <t xml:space="preserve">storage_capacity_min</t>
   </si>
   <si>
+    <t xml:space="preserve">Max DOD 80%</t>
+  </si>
+  <si>
     <t xml:space="preserve">storage_cost_investment</t>
   </si>
   <si>
     <t xml:space="preserve">storage_cost_opex</t>
   </si>
   <si>
+    <t xml:space="preserve">/kWh/a</t>
+  </si>
+  <si>
     <t xml:space="preserve">storage_cost_var</t>
   </si>
   <si>
@@ -546,6 +573,24 @@
     <t xml:space="preserve">white_noise_pv</t>
   </si>
   <si>
+    <t xml:space="preserve">white_noise_wind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wind_batch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wind_cost_investment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wind_cost_opex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wind_cost_var</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wind_lifetime</t>
+  </si>
+  <si>
     <t xml:space="preserve">Min</t>
   </si>
   <si>
@@ -672,10 +717,40 @@
     <t xml:space="preserve">perform_simulation</t>
   </si>
   <si>
+    <t xml:space="preserve">capacity_pv_kWp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">capacity_storage_kWh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">capacity_genset_kW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">peak_demand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">genset_with_minimal_loading</t>
+  </si>
+  <si>
+    <t xml:space="preserve">do not use for optimization of generator capacities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">capacity_pcc_consumption_kW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">optimization currently not supported</t>
+  </si>
+  <si>
+    <t xml:space="preserve">capacity_pcc_feedin_kW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">capacity_wind_kW</t>
+  </si>
+  <si>
     <t xml:space="preserve">default</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
   </si>
 </sst>
 </file>
@@ -799,7 +874,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -882,6 +957,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -967,19 +1046,16 @@
   </sheetPr>
   <dimension ref="B2:G21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D18" activeCellId="1" sqref="B29 D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="1.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="2.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="58.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="2.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="8.22"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="1.08163265306122"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="47.515306122449"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="1.08163265306122"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1181,7 +1257,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -1194,18 +1270,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G59"/>
+  <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C20" activeCellId="1" sqref="B29 C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="7" width="17.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.22"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.10714285714286"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.2755102040816"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="7" width="13.7704081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1330,34 +1405,34 @@
         <v>47</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="0" t="s">
         <v>49</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="12" t="s">
         <v>52</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1365,119 +1440,121 @@
         <v>53</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>46</v>
+        <v>52</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="0" t="s">
         <v>55</v>
+      </c>
+      <c r="C19" s="7" t="n">
+        <v>365</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="7" t="n">
-        <v>365</v>
+      <c r="C20" s="13" t="n">
+        <v>43101</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="13" t="n">
-        <v>43101</v>
+      <c r="C21" s="7" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" s="7" t="s">
         <v>59</v>
       </c>
+      <c r="C22" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23" s="0" t="s">
+      <c r="C23" s="0"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="0"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="0" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="0"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" s="0"/>
+      <c r="C25" s="7" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="C26" s="7" t="s">
         <v>63</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="C27" s="12" t="s">
-        <v>48</v>
+      <c r="C27" s="7" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="C28" s="7" t="s">
         <v>66</v>
+      </c>
+      <c r="C28" s="7" t="n">
+        <f aca="false">10^-3</f>
+        <v>0.001</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C30" s="0"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="14"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="11"/>
+      <c r="B32" s="0" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="0"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="11" t="s">
-        <v>33</v>
       </c>
       <c r="C32" s="14"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="11"/>
       <c r="B33" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C33" s="14"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="11"/>
@@ -1489,189 +1566,180 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="11"/>
-      <c r="B35" s="0" t="s">
+      <c r="C35" s="14"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C36" s="0"/>
+      <c r="D36" s="15"/>
+      <c r="G36" s="15"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="0" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="14"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C37" s="0"/>
-      <c r="D37" s="15"/>
-      <c r="G37" s="15"/>
+      <c r="C37" s="12" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="0" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="0" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C41" s="14"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B42" s="15"/>
+      <c r="C42" s="0"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="C43" s="12" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="0" t="s">
+      <c r="D43" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="C41" s="12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C42" s="14"/>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B43" s="15"/>
-      <c r="C43" s="0"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="0" t="s">
         <v>80</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D44" s="0" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C47" s="14"/>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B48" s="11"/>
+      <c r="C48" s="14"/>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="C46" s="12" t="s">
+      <c r="C49" s="12" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="C47" s="12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C48" s="14"/>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B49" s="11"/>
-      <c r="C49" s="14"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="0" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C53" s="14"/>
+    </row>
+    <row r="54" customFormat="false" ht="13.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C54" s="0"/>
+    </row>
+    <row r="55" customFormat="false" ht="13.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B55" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="C52" s="12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="C53" s="12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C54" s="14"/>
-    </row>
-    <row r="55" customFormat="false" ht="13.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C55" s="0"/>
+      <c r="C55" s="12" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="13.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B56" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B57" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="C56" s="12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="13.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B57" s="0" t="s">
-        <v>90</v>
-      </c>
       <c r="C57" s="12" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="0" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="C59" s="12" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -1684,745 +1752,964 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D60"/>
+  <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A60" activeCellId="0" sqref="A60"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="B29 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="7" width="7.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="16" width="14.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="8.22"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.8928571428571"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="7" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="16" width="10.6632653061225"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="D1" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D2" s="0"/>
+      <c r="D2" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="B3" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D3" s="0"/>
+      <c r="D3" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="B4" s="7" t="n">
-        <v>7</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D4" s="0"/>
+      <c r="D4" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B5" s="7" t="n">
         <v>0</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D5" s="0"/>
+        <v>98</v>
+      </c>
+      <c r="D5" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" s="7" t="n">
+        <v>8.8</v>
+      </c>
+      <c r="C6" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="B6" s="7" t="n">
+      <c r="D6" s="7" t="n">
         <v>10</v>
       </c>
-      <c r="C6" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="D6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" s="7" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C7" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="B7" s="7" t="n">
+      <c r="D7" s="7" t="n">
         <v>10</v>
       </c>
-      <c r="C7" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="D7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="B8" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="D8" s="0"/>
+      <c r="D8" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="B9" s="7" t="n">
+      <c r="D9" s="7" t="n">
         <v>50</v>
       </c>
-      <c r="C9" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="D9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" s="7" t="n">
+        <v>20</v>
+      </c>
+      <c r="C10" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="B10" s="7" t="n">
+      <c r="D10" s="7" t="n">
         <v>40</v>
       </c>
-      <c r="C10" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="D10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B11" s="7" t="n">
         <v>0.5</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="D11" s="0"/>
+        <v>113</v>
+      </c>
+      <c r="D11" s="7" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" s="7" t="n">
+        <v>650</v>
+      </c>
+      <c r="C12" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="B12" s="7" t="n">
+      <c r="D12" s="7" t="n">
         <v>400</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="E12" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="D12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>117</v>
       </c>
       <c r="B13" s="7" t="n">
-        <v>25</v>
+        <v>0.01</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="D13" s="0"/>
+      <c r="D13" s="7" t="n">
+        <v>25</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B14" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D14" s="7" t="n">
         <v>0.023</v>
       </c>
-      <c r="C14" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="D14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B15" s="7" t="n">
         <v>0.33</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D15" s="0"/>
+        <v>98</v>
+      </c>
+      <c r="D15" s="7" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B16" s="7" t="n">
+        <v>20</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="D16" s="7" t="n">
         <v>10</v>
       </c>
-      <c r="C16" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="D16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B17" s="7" t="n">
         <v>1</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D17" s="0"/>
+        <v>98</v>
+      </c>
+      <c r="D17" s="7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B18" s="7" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D18" s="7" t="n">
         <v>0.2</v>
       </c>
-      <c r="C18" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B19" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D19" s="7" t="n">
         <v>10</v>
       </c>
-      <c r="C19" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="D19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B20" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D20" s="7" t="n">
         <v>0.2</v>
       </c>
-      <c r="C20" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="D20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B21" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="D21" s="7" t="n">
         <v>15000</v>
       </c>
-      <c r="C21" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="D21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B22" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="D22" s="7" t="n">
         <v>50</v>
       </c>
-      <c r="C22" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="D22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B23" s="7" t="n">
         <v>20</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="D23" s="0"/>
+        <v>132</v>
+      </c>
+      <c r="D23" s="7" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B24" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D24" s="7" t="n">
         <v>0.12</v>
       </c>
-      <c r="C24" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="D24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B25" s="7" t="n">
         <v>0</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D25" s="0"/>
+        <v>98</v>
+      </c>
+      <c r="D25" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B26" s="7" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D26" s="0"/>
+        <v>98</v>
+      </c>
+      <c r="D26" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B27" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D27" s="7" t="n">
         <v>0.2</v>
       </c>
-      <c r="C27" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B28" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="D28" s="7" t="n">
         <v>0.5</v>
       </c>
-      <c r="C28" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="D28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B29" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="D29" s="7" t="n">
         <v>600</v>
       </c>
-      <c r="C29" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="D29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B30" s="7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C30" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="D30" s="0"/>
+      <c r="D30" s="7" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B31" s="7" t="n">
         <v>0</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="D31" s="0"/>
+        <v>105</v>
+      </c>
+      <c r="D31" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B32" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D32" s="7" t="n">
         <v>0.98</v>
       </c>
-      <c r="C32" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D32" s="0"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B33" s="7" t="n">
         <v>20</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="D33" s="0"/>
+        <v>111</v>
+      </c>
+      <c r="D33" s="7" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B34" s="7" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="D34" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="C34" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="D34" s="0"/>
+      <c r="E34" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B35" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D35" s="7" t="n">
         <v>15000</v>
       </c>
-      <c r="C35" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="D35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B36" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D36" s="7" t="n">
         <v>200</v>
       </c>
-      <c r="C36" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="D36" s="0"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B37" s="7" t="n">
         <v>20</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="D37" s="0"/>
+        <v>111</v>
+      </c>
+      <c r="D37" s="7" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="B38" s="7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="D38" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="C38" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="D38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B39" s="7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="D39" s="7" t="n">
         <v>950</v>
       </c>
-      <c r="C39" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="D39" s="0"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B40" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="D40" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="C40" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="D40" s="0"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="B41" s="7" t="n">
         <v>0</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="D41" s="0"/>
+        <v>105</v>
+      </c>
+      <c r="D41" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="B42" s="7" t="n">
         <v>20</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="D42" s="0"/>
+        <v>111</v>
+      </c>
+      <c r="D42" s="7" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="B43" s="7" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D43" s="7" t="n">
         <v>0.5</v>
       </c>
-      <c r="C43" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D43" s="0"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="B44" s="7" t="n">
+        <v>602</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="D44" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="C44" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="D44" s="0"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="B45" s="7" t="n">
         <v>1</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D45" s="0"/>
+        <v>98</v>
+      </c>
+      <c r="D45" s="7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="B46" s="7" t="n">
         <v>0.2</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D46" s="0"/>
+        <v>98</v>
+      </c>
+      <c r="D46" s="7" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="B47" s="7" t="n">
+        <v>602</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D47" s="7" t="n">
         <v>800</v>
       </c>
-      <c r="C47" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="D47" s="0"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B48" s="7" t="n">
-        <v>0</v>
+        <v>17.2</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="D48" s="0"/>
+        <v>167</v>
+      </c>
+      <c r="D48" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="B49" s="7" t="n">
         <v>0</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="D49" s="0"/>
+        <v>111</v>
+      </c>
+      <c r="D49" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="B50" s="7" t="n">
         <v>1</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D50" s="0"/>
+        <v>98</v>
+      </c>
+      <c r="D50" s="7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="B51" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D51" s="17" t="n">
         <v>0.2</v>
       </c>
-      <c r="C51" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D51" s="0"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="B52" s="7" t="n">
         <v>0.9</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D52" s="0"/>
+        <v>98</v>
+      </c>
+      <c r="D52" s="7" t="n">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="D53" s="0"/>
+        <v>174</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="B54" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="D54" s="7" t="n">
         <v>6</v>
       </c>
-      <c r="C54" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="D54" s="0"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="B55" s="7" t="n">
         <v>0</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D55" s="0"/>
+        <v>98</v>
+      </c>
+      <c r="D55" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="B56" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D56" s="7" t="n">
         <v>0.9</v>
       </c>
-      <c r="C56" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D56" s="0"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="B57" s="7" t="n">
         <v>0</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D57" s="0"/>
+        <v>98</v>
+      </c>
+      <c r="D57" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="B58" s="7" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="C58" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D58" s="7" t="n">
         <v>0.12</v>
       </c>
-      <c r="C58" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D58" s="0"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="B59" s="7" t="n">
         <v>0</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D59" s="0"/>
+        <v>98</v>
+      </c>
+      <c r="D59" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="B60" s="7" t="n">
         <v>0</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D60" s="0"/>
+        <v>98</v>
+      </c>
+      <c r="D60" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="B61" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C61" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D61" s="0"/>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="B62" s="7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C62" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="D62" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="B63" s="7" t="n">
+        <v>1118</v>
+      </c>
+      <c r="C63" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="D63" s="7" t="n">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="B64" s="7" t="n">
+        <v>22.36</v>
+      </c>
+      <c r="C64" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D64" s="7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="B65" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C65" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D65" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="B66" s="7" t="n">
+        <v>20</v>
+      </c>
+      <c r="C66" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="D66" s="7" t="n">
+        <v>0.09</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -2437,61 +2724,58 @@
   </sheetPr>
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D4" activeCellId="1" sqref="B29 D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.22"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B2" s="7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C2" s="7" t="n">
-        <v>4</v>
+        <v>0.05</v>
       </c>
       <c r="D2" s="7" t="n">
-        <v>1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="B3" s="7" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C3" s="7" t="n">
-        <v>30</v>
+        <v>0.3</v>
       </c>
       <c r="D3" s="7" t="n">
-        <v>10</v>
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -2504,86 +2788,87 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:F4"/>
+  <dimension ref="A2:H4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C34" activeCellId="0" sqref="C34"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G15" activeCellId="1" sqref="B29 G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="3" style="0" width="8.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="32.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="29.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="20" style="0" width="8.22"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.3775510204082"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="25.6479591836735"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="23.4897959183673"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>181</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="H2" s="7"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="16" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>186</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="G3" s="7"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="16" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>186</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="G4" s="7"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -2596,18 +2881,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B29" activeCellId="0" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="9.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="9" style="0" width="10.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="19" style="0" width="8.22"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.0357142857143"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.89285714285714"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="8" min="4" style="0" width="9.98979591836735"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2617,398 +2902,485 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="18" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="B14" s="0" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="103.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="19" t="s">
-        <v>191</v>
-      </c>
       <c r="B16" s="20" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="C16" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="H16" s="20" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" s="22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="D16" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="F16" s="20" t="s">
-        <v>211</v>
-      </c>
-      <c r="G16" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="H16" s="20" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="B17" s="21" t="s">
+      <c r="B18" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C18" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="E18" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="G18" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="21" t="s">
+      <c r="H18" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="F17" s="21" t="s">
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="G19" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="H19" s="22" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="G20" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="H20" s="22" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="G21" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="H21" s="22" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="B22" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="G17" s="21" t="s">
+      <c r="C22" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="G22" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="H17" s="21" t="s">
+      <c r="H22" s="22" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="21" t="s">
+      <c r="I22" s="0" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="G23" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="H23" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="I23" s="0" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="F24" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="G24" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="H24" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="I24" s="0" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="F25" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="G25" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="H25" s="22" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="F26" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="G26" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="H26" s="22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="F27" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="G27" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="H27" s="21" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="F28" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="G28" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="H28" s="22" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="B29" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" s="21" t="s">
+      <c r="C29" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="D29" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="21" t="s">
+      <c r="E29" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="F29" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="G29" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="H29" s="22" t="s">
         <v>46</v>
-      </c>
-      <c r="G18" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="H18" s="21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>207</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>207</v>
-      </c>
-      <c r="F19" s="21" t="s">
-        <v>207</v>
-      </c>
-      <c r="G19" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="H19" s="21" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>207</v>
-      </c>
-      <c r="D20" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>207</v>
-      </c>
-      <c r="F20" s="21" t="s">
-        <v>207</v>
-      </c>
-      <c r="G20" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="H20" s="21" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="19" t="s">
-        <v>198</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>207</v>
-      </c>
-      <c r="D21" s="21" t="s">
-        <v>203</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>207</v>
-      </c>
-      <c r="F21" s="21" t="s">
-        <v>207</v>
-      </c>
-      <c r="G21" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="H21" s="21" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="19" t="s">
-        <v>199</v>
-      </c>
-      <c r="B22" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="D22" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="E22" s="21" t="s">
-        <v>203</v>
-      </c>
-      <c r="F22" s="21" t="s">
-        <v>203</v>
-      </c>
-      <c r="G22" s="21" t="s">
-        <v>203</v>
-      </c>
-      <c r="H22" s="21" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="19" t="s">
-        <v>200</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="D23" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="E23" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="F23" s="21" t="s">
-        <v>203</v>
-      </c>
-      <c r="G23" s="21" t="s">
-        <v>203</v>
-      </c>
-      <c r="H23" s="21" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>215</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>215</v>
-      </c>
-      <c r="D24" s="21" t="s">
-        <v>215</v>
-      </c>
-      <c r="E24" s="21" t="s">
-        <v>215</v>
-      </c>
-      <c r="F24" s="21" t="s">
-        <v>215</v>
-      </c>
-      <c r="G24" s="21" t="s">
-        <v>215</v>
-      </c>
-      <c r="H24" s="21" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="B25" s="21" t="s">
-        <v>215</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>215</v>
-      </c>
-      <c r="D25" s="21" t="s">
-        <v>215</v>
-      </c>
-      <c r="E25" s="21" t="s">
-        <v>215</v>
-      </c>
-      <c r="F25" s="21" t="s">
-        <v>215</v>
-      </c>
-      <c r="G25" s="21" t="s">
-        <v>215</v>
-      </c>
-      <c r="H25" s="21" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="19" t="s">
-        <v>204</v>
-      </c>
-      <c r="B26" s="21" t="s">
-        <v>215</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>215</v>
-      </c>
-      <c r="D26" s="21" t="s">
-        <v>215</v>
-      </c>
-      <c r="E26" s="21" t="s">
-        <v>215</v>
-      </c>
-      <c r="F26" s="21" t="s">
-        <v>215</v>
-      </c>
-      <c r="G26" s="21" t="s">
-        <v>215</v>
-      </c>
-      <c r="H26" s="21" t="s">
-        <v>215</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>

--- a/inputs/input_template_excel.xlsx
+++ b/inputs/input_template_excel.xlsx
@@ -165,12 +165,15 @@
     <t xml:space="preserve">restore_oemof_if_existant</t>
   </si>
   <si>
+    <t xml:space="preserve">True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">restore_blackouts_if_existant</t>
+  </si>
+  <si>
     <t xml:space="preserve">False</t>
   </si>
   <si>
-    <t xml:space="preserve">restore_blackouts_if_existant</t>
-  </si>
-  <si>
     <t xml:space="preserve">base_case_with_min_loading</t>
   </si>
   <si>
@@ -181,9 +184,6 @@
   </si>
   <si>
     <t xml:space="preserve">include_stability_constraint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">True</t>
   </si>
   <si>
     <t xml:space="preserve">setting_pcc_utility_owned</t>
@@ -1047,15 +1047,16 @@
   <dimension ref="B2:G21"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D18" activeCellId="1" sqref="B29 D18"/>
+      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="3" min="1" style="0" width="1.08163265306122"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="47.515306122449"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="46.9795918367347"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="1.08163265306122"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1273,14 +1274,15 @@
   <dimension ref="A1:G58"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C20" activeCellId="1" sqref="B29 C20"/>
+      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.10714285714286"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.2755102040816"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="7" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.0051020408163"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="7" width="13.5"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1405,34 +1407,34 @@
         <v>47</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="12" t="s">
-        <v>46</v>
-      </c>
       <c r="D15" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1440,7 +1442,7 @@
         <v>53</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D18" s="0" t="s">
         <v>54</v>
@@ -1475,7 +1477,7 @@
         <v>59</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D22" s="0" t="s">
         <v>60</v>
@@ -1503,7 +1505,7 @@
         <v>63</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1528,7 +1530,7 @@
         <v>67</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1581,7 +1583,7 @@
         <v>74</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1589,7 +1591,7 @@
         <v>75</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1597,7 +1599,7 @@
         <v>76</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1605,7 +1607,7 @@
         <v>77</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1623,7 +1625,7 @@
         <v>78</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D43" s="0" t="s">
         <v>79</v>
@@ -1634,7 +1636,7 @@
         <v>80</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1642,7 +1644,7 @@
         <v>81</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1650,7 +1652,7 @@
         <v>82</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1668,7 +1670,7 @@
         <v>83</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1676,7 +1678,7 @@
         <v>84</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1684,7 +1686,7 @@
         <v>85</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1692,7 +1694,7 @@
         <v>86</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1709,7 +1711,7 @@
         <v>87</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1717,7 +1719,7 @@
         <v>88</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1725,7 +1727,7 @@
         <v>89</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1733,7 +1735,7 @@
         <v>90</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1755,15 +1757,16 @@
   <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="B29 D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.8928571428571"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.4897959183673"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.23469387755102"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="7" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="16" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="16" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2725,10 +2728,13 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="1" sqref="B29 D4"/>
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -2791,15 +2797,17 @@
   <dimension ref="A2:H4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G15" activeCellId="1" sqref="B29 G15"/>
+      <selection pane="topLeft" activeCell="G15" activeCellId="0" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.3775510204082"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="25.6479591836735"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="23.4897959183673"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.1071428571429"/>
+    <col collapsed="false" hidden="false" max="17" min="3" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="25.3775510204082"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="23.0816326530612"/>
+    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2884,15 +2892,16 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B29" activeCellId="0" sqref="B29"/>
+      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.0357142857143"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.89285714285714"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="8" min="4" style="0" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.765306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.63775510204082"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="8" min="4" style="0" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2966,7 +2975,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>216</v>
@@ -3035,25 +3044,25 @@
         <v>229</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F17" s="22" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G17" s="22" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H17" s="22" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3061,25 +3070,25 @@
         <v>208</v>
       </c>
       <c r="B18" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="22" t="s">
-        <v>52</v>
-      </c>
       <c r="D18" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="22" t="s">
-        <v>52</v>
-      </c>
       <c r="F18" s="22" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G18" s="22" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H18" s="22" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3165,25 +3174,25 @@
         <v>235</v>
       </c>
       <c r="B22" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="22" t="s">
-        <v>52</v>
-      </c>
       <c r="D22" s="22" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F22" s="22" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G22" s="22" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H22" s="22" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I22" s="0" t="s">
         <v>236</v>
@@ -3275,16 +3284,16 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C26" s="22" t="s">
         <v>241</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E26" s="22" t="s">
         <v>241</v>
@@ -3296,7 +3305,7 @@
         <v>241</v>
       </c>
       <c r="H26" s="22" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3330,13 +3339,13 @@
         <v>219</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C28" s="22" t="s">
         <v>241</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E28" s="22" t="s">
         <v>241</v>
@@ -3356,13 +3365,13 @@
         <v>220</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C29" s="21" t="s">
         <v>241</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E29" s="21" t="s">
         <v>241</v>
@@ -3374,7 +3383,7 @@
         <v>241</v>
       </c>
       <c r="H29" s="22" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/inputs/input_template_excel.xlsx
+++ b/inputs/input_template_excel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="242">
   <si>
     <t xml:space="preserve">Tool for optimizing and simulating off- and on-grid electrification solutions</t>
   </si>
@@ -165,27 +165,27 @@
     <t xml:space="preserve">restore_oemof_if_existant</t>
   </si>
   <si>
+    <t xml:space="preserve">False</t>
+  </si>
+  <si>
+    <t xml:space="preserve">restore_blackouts_if_existant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">base_case_with_min_loading</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not working currently</t>
+  </si>
+  <si>
+    <t xml:space="preserve">allow_shortage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">include_stability_constraint</t>
+  </si>
+  <si>
     <t xml:space="preserve">True</t>
   </si>
   <si>
-    <t xml:space="preserve">restore_blackouts_if_existant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">False</t>
-  </si>
-  <si>
-    <t xml:space="preserve">base_case_with_min_loading</t>
-  </si>
-  <si>
-    <t xml:space="preserve">not working currently</t>
-  </si>
-  <si>
-    <t xml:space="preserve">allow_shortage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">include_stability_constraint</t>
-  </si>
-  <si>
     <t xml:space="preserve">setting_pcc_utility_owned</t>
   </si>
   <si>
@@ -261,10 +261,10 @@
     <t xml:space="preserve">setting_save_flows_electricity_mg</t>
   </si>
   <si>
+    <t xml:space="preserve">todo: change names from”display”, as inaccurate</t>
+  </si>
+  <si>
     <t xml:space="preserve">display_graphs_solar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">todo: change names from”display”, as inaccurate</t>
   </si>
   <si>
     <t xml:space="preserve">display_graphs_demand</t>
@@ -1046,17 +1046,17 @@
   </sheetPr>
   <dimension ref="B2:G21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="1.08163265306122"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="46.9795918367347"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="1.08163265306122"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.50510204081633"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="1.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="46.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="1.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="8.52"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1258,7 +1258,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -1273,16 +1273,16 @@
   </sheetPr>
   <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C29" activeCellId="0" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.10714285714286"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.0051020408163"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="7" width="13.5"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.50510204081633"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="7" width="13.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1407,34 +1407,34 @@
         <v>47</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="0" t="s">
         <v>49</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="12" t="s">
         <v>52</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1442,7 +1442,7 @@
         <v>53</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D18" s="0" t="s">
         <v>54</v>
@@ -1477,7 +1477,7 @@
         <v>59</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D22" s="0" t="s">
         <v>60</v>
@@ -1505,7 +1505,7 @@
         <v>63</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1521,8 +1521,7 @@
         <v>66</v>
       </c>
       <c r="C28" s="7" t="n">
-        <f aca="false">10^-3</f>
-        <v>0.001</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1530,7 +1529,7 @@
         <v>67</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1583,7 +1582,7 @@
         <v>74</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1591,7 +1590,7 @@
         <v>75</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1599,7 +1598,7 @@
         <v>76</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1607,7 +1606,7 @@
         <v>77</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1619,16 +1618,19 @@
       </c>
       <c r="B42" s="15"/>
       <c r="C42" s="0"/>
+      <c r="D42" s="0" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1636,7 +1638,10 @@
         <v>80</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1644,7 +1649,7 @@
         <v>81</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1652,7 +1657,7 @@
         <v>82</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1670,7 +1675,7 @@
         <v>83</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1678,7 +1683,7 @@
         <v>84</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1686,7 +1691,7 @@
         <v>85</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1694,7 +1699,7 @@
         <v>86</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1711,7 +1716,7 @@
         <v>87</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1719,7 +1724,7 @@
         <v>88</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1727,7 +1732,7 @@
         <v>89</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1735,13 +1740,13 @@
         <v>90</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -1756,17 +1761,17 @@
   </sheetPr>
   <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.4897959183673"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="7" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="16" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="7" width="6.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="16" width="10.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="8.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1858,7 +1863,7 @@
         <v>104</v>
       </c>
       <c r="B7" s="7" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>105</v>
@@ -2712,7 +2717,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -2727,13 +2732,13 @@
   </sheetPr>
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2772,16 +2777,16 @@
         <v>0</v>
       </c>
       <c r="C3" s="7" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="D3" s="7" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -2794,20 +2799,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:H4"/>
+  <dimension ref="A2:I4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G15" activeCellId="0" sqref="G15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.1071428571429"/>
-    <col collapsed="false" hidden="false" max="17" min="3" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="25.3775510204082"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="23.0816326530612"/>
-    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="8.50510204081633"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="3" style="0" width="8.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="25.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="23.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="20" style="0" width="8.52"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2830,6 +2835,7 @@
         <v>196</v>
       </c>
       <c r="H2" s="7"/>
+      <c r="I2" s="16"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="16" t="s">
@@ -2876,7 +2882,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -2891,17 +2897,17 @@
   </sheetPr>
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.765306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.63775510204082"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="8" min="4" style="0" width="9.85204081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.50510204081633"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="4" style="0" width="9.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2975,7 +2981,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>216</v>
@@ -3044,25 +3050,25 @@
         <v>229</v>
       </c>
       <c r="B17" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="22" t="s">
-        <v>48</v>
-      </c>
       <c r="D17" s="22" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F17" s="22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G17" s="22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H17" s="22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3070,25 +3076,25 @@
         <v>208</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C18" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="22" t="s">
-        <v>48</v>
-      </c>
       <c r="E18" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="G18" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="22" t="s">
+      <c r="H18" s="22" t="s">
         <v>46</v>
-      </c>
-      <c r="G18" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="H18" s="22" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3174,25 +3180,25 @@
         <v>235</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C22" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="G22" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="22" t="s">
+      <c r="H22" s="22" t="s">
         <v>46</v>
-      </c>
-      <c r="E22" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="F22" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="G22" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="H22" s="22" t="s">
-        <v>48</v>
       </c>
       <c r="I22" s="0" t="s">
         <v>236</v>
@@ -3284,16 +3290,16 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C26" s="22" t="s">
         <v>241</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E26" s="22" t="s">
         <v>241</v>
@@ -3305,7 +3311,7 @@
         <v>241</v>
       </c>
       <c r="H26" s="22" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3339,13 +3345,13 @@
         <v>219</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C28" s="22" t="s">
         <v>241</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E28" s="22" t="s">
         <v>241</v>
@@ -3365,13 +3371,13 @@
         <v>220</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C29" s="21" t="s">
         <v>241</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E29" s="21" t="s">
         <v>241</v>
@@ -3383,13 +3389,13 @@
         <v>241</v>
       </c>
       <c r="H29" s="22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>

--- a/inputs/input_template_excel.xlsx
+++ b/inputs/input_template_excel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="242">
   <si>
     <t xml:space="preserve">Tool for optimizing and simulating off- and on-grid electrification solutions</t>
   </si>
@@ -1046,17 +1046,17 @@
   </sheetPr>
   <dimension ref="B2:G21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="1.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="46.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="1.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="8.52"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="1.08163265306122"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="46.4387755102041"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="1.08163265306122"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1258,7 +1258,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -1271,18 +1271,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G58"/>
+  <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C29" activeCellId="0" sqref="C29"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C59" activeCellId="0" sqref="C59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="7" width="13.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.52"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.10714285714286"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.734693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="7" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1515,6 +1515,16 @@
       <c r="C27" s="7" t="s">
         <v>65</v>
       </c>
+      <c r="G27" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H27" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="I27" s="0" t="n">
+        <f aca="false">G27*H27</f>
+        <v>150</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
@@ -1523,6 +1533,16 @@
       <c r="C28" s="7" t="n">
         <v>0.03</v>
       </c>
+      <c r="G28" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H28" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="I28" s="0" t="n">
+        <f aca="false">G28*H28</f>
+        <v>150</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="0" t="s">
@@ -1531,9 +1551,23 @@
       <c r="C29" s="12" t="s">
         <v>46</v>
       </c>
+      <c r="G29" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H29" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="I29" s="0" t="n">
+        <f aca="false">G29*H29</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="0"/>
+      <c r="I30" s="0" t="n">
+        <f aca="false">SUM(I27:I29)</f>
+        <v>480</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="11" t="s">
@@ -1724,7 +1758,7 @@
         <v>88</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1732,7 +1766,7 @@
         <v>89</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1740,13 +1774,13 @@
         <v>90</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -1761,17 +1795,17 @@
   </sheetPr>
   <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="7" width="6.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="16" width="10.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="8.52"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.0816326530612"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="7" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="16" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2717,7 +2751,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -2730,15 +2764,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E23" activeCellId="0" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.52"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2755,38 +2789,10 @@
         <v>190</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="B2" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" s="7" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="D2" s="7" t="n">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="B3" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" s="7" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D3" s="7" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -2801,18 +2807,18 @@
   </sheetPr>
   <dimension ref="A2:I4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="3" style="0" width="8.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="25.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="23.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="20" style="0" width="8.52"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.8367346938776"/>
+    <col collapsed="false" hidden="false" max="17" min="3" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="25.1071428571429"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="22.8112244897959"/>
+    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2882,7 +2888,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -2897,17 +2903,17 @@
   </sheetPr>
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="4" style="0" width="9.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.52"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.4948979591837"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="8" min="4" style="0" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3395,7 +3401,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>

--- a/inputs/input_template_excel.xlsx
+++ b/inputs/input_template_excel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="252">
   <si>
     <t xml:space="preserve">Tool for optimizing and simulating off- and on-grid electrification solutions</t>
   </si>
@@ -112,19 +112,17 @@
     <t xml:space="preserve">This sheet checks whether the input data set is complete.</t>
   </si>
   <si>
-    <t xml:space="preserve">yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data set is most likely complete. However, some settings might 
-Require multiple definitions (eg. sensitivity analysis with base case). 
-Make sure that values are assigned to parameter mentions!</t>
+    <t xml:space="preserve">OK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data set is most likely complete. However, some settings might require multiple definitions (eg. sensitivity analysis with base case). Make sure that values are assigned to parameter mentions!</t>
   </si>
   <si>
     <t xml:space="preserve">If number of mentions &gt;= 1
 Check after simulation, whether parameters were applied properly</t>
   </si>
   <si>
-    <t xml:space="preserve">no</t>
+    <t xml:space="preserve">missing!</t>
   </si>
   <si>
     <t xml:space="preserve">Missing data!</t>
@@ -550,13 +548,13 @@
     <t xml:space="preserve">setting_value</t>
   </si>
   <si>
+    <t xml:space="preserve">False</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not working currently</t>
+  </si>
+  <si>
     <t xml:space="preserve">True</t>
-  </si>
-  <si>
-    <t xml:space="preserve">False</t>
-  </si>
-  <si>
-    <t xml:space="preserve">not working currently</t>
   </si>
   <si>
     <t xml:space="preserve">not implemented</t>
@@ -855,7 +853,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -864,26 +862,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF72BF44"/>
-        <bgColor rgb="FF999999"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFED1C24"/>
-        <bgColor rgb="FFF04E4D"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFDB94D"/>
-        <bgColor rgb="FFFFCC00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC00"/>
-        <bgColor rgb="FFFDB94D"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -894,8 +874,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF72BF44"/>
+        <bgColor rgb="FF999999"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF04E4D"/>
-        <bgColor rgb="FFED1C24"/>
+        <bgColor rgb="FFFF8080"/>
       </patternFill>
     </fill>
     <fill>
@@ -939,7 +925,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="23">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -963,82 +949,77 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1054,11 +1035,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1066,15 +1047,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1123,16 +1104,13 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Untitled1" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Untitled2" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Untitled3" xfId="22" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -1141,11 +1119,6 @@
         <charset val="1"/>
         <family val="2"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFDB94D"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1153,11 +1126,6 @@
         <charset val="1"/>
         <family val="2"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF72BF44"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1165,18 +1133,13 @@
         <charset val="1"/>
         <family val="2"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFED1C24"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFED1C24"/>
+      <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -1213,7 +1176,7 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF9999"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFDB94D"/>
+      <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF72BF44"/>
@@ -1242,17 +1205,17 @@
   </sheetPr>
   <dimension ref="B2:G21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="1.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="46.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="1.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="8.37"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="1.08163265306122"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="44.1428571428571"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="1.08163265306122"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1454,7 +1417,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -1469,16 +1432,16 @@
   </sheetPr>
   <dimension ref="B1:I129"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A102" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K6" activeCellId="0" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="0" width="6.94"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="11.52"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="1.62244897959184"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.0459183673469"/>
+    <col collapsed="false" hidden="false" max="7" min="3" style="0" width="6.47959183673469"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1516,7 +1479,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="57.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B5" s="8"/>
       <c r="C5" s="9" t="s">
         <v>28</v>
@@ -1524,13 +1487,13 @@
       <c r="D5" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="35.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="1"/>
       <c r="C6" s="11" t="n">
         <v>2</v>
@@ -1538,10 +1501,10 @@
       <c r="D6" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
       <c r="I6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1549,13 +1512,13 @@
       <c r="C7" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
       <c r="I7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1569,3831 +1532,3834 @@
       <c r="I8" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="14" t="s">
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="I10" s="13" t="s">
+      <c r="I10" s="14" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="72" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="13"/>
-      <c r="C11" s="15" t="s">
+      <c r="B11" s="14"/>
+      <c r="C11" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="17" t="n">
+      <c r="C12" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B12,settings!B:B, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="D12" s="17" t="n">
+      <c r="D12" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B12, input_constant!A:A, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="E12" s="17" t="n">
+      <c r="E12" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B12, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F12" s="17" t="n">
+      <c r="F12" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B12,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G12" s="17" t="n">
+      <c r="G12" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B12, case_definitions!A$17:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H12" s="18" t="n">
+      <c r="H12" s="19" t="n">
         <f aca="false">SUM(C12:G12)</f>
         <v>1</v>
       </c>
-      <c r="I12" s="19" t="str">
-        <f aca="false">IF(H12&gt;=1, "yes", "no")</f>
-        <v>yes</v>
+      <c r="I12" s="20" t="str">
+        <f aca="false">IF(H12&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="17" t="n">
+      <c r="C13" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B13,settings!B:B, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="D13" s="17" t="n">
+      <c r="D13" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B13, input_constant!A:A, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="17" t="n">
+      <c r="E13" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B13, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F13" s="17" t="n">
+      <c r="F13" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B13,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G13" s="17" t="n">
+      <c r="G13" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B13, case_definitions!A$17:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H13" s="18" t="n">
+      <c r="H13" s="19" t="n">
         <f aca="false">SUM(C13:G13)</f>
         <v>1</v>
       </c>
-      <c r="I13" s="19" t="str">
-        <f aca="false">IF(H13&gt;=1, "yes", "no")</f>
-        <v>yes</v>
+      <c r="I13" s="20" t="str">
+        <f aca="false">IF(H13&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="17" t="n">
+      <c r="C14" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B14,settings!B:B, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="D14" s="17" t="n">
+      <c r="D14" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B14, input_constant!A:A, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="E14" s="17" t="n">
+      <c r="E14" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B14, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F14" s="17" t="n">
+      <c r="F14" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B14,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G14" s="17" t="n">
+      <c r="G14" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B14, case_definitions!A$17:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H14" s="18" t="n">
+      <c r="H14" s="19" t="n">
         <f aca="false">SUM(C14:G14)</f>
         <v>1</v>
       </c>
-      <c r="I14" s="19" t="str">
-        <f aca="false">IF(H14&gt;=1, "yes", "no")</f>
-        <v>yes</v>
+      <c r="I14" s="20" t="str">
+        <f aca="false">IF(H14&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="17" t="n">
+      <c r="C15" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B15,settings!B:B, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="D15" s="17" t="n">
+      <c r="D15" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B15, input_constant!A:A, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="E15" s="17" t="n">
+      <c r="E15" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B15, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F15" s="17" t="n">
+      <c r="F15" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B15,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G15" s="17" t="n">
+      <c r="G15" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B15, case_definitions!A$17:A$29,1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="H15" s="18" t="n">
+      <c r="H15" s="19" t="n">
         <f aca="false">SUM(C15:G15)</f>
         <v>2</v>
       </c>
-      <c r="I15" s="19" t="str">
-        <f aca="false">IF(H15&gt;=1, "yes", "no")</f>
-        <v>yes</v>
+      <c r="I15" s="20" t="str">
+        <f aca="false">IF(H15&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="17" t="n">
+      <c r="C16" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B16,settings!B:B, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="D16" s="17" t="n">
+      <c r="D16" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B16, input_constant!A:A, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="E16" s="17" t="n">
+      <c r="E16" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B16, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F16" s="17" t="n">
+      <c r="F16" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B16,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G16" s="17" t="n">
+      <c r="G16" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B16, case_definitions!A$17:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H16" s="18" t="n">
+      <c r="H16" s="19" t="n">
         <f aca="false">SUM(C16:G16)</f>
         <v>1</v>
       </c>
-      <c r="I16" s="19" t="str">
-        <f aca="false">IF(H16&gt;=1, "yes", "no")</f>
-        <v>yes</v>
+      <c r="I16" s="20" t="str">
+        <f aca="false">IF(H16&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="17" t="n">
+      <c r="C17" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B17,settings!B:B, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="D17" s="17" t="n">
+      <c r="D17" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B17, input_constant!A:A, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="E17" s="17" t="n">
+      <c r="E17" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B17, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F17" s="17" t="n">
+      <c r="F17" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B17,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="17" t="n">
+      <c r="G17" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B17, case_definitions!A$17:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H17" s="18" t="n">
+      <c r="H17" s="19" t="n">
         <f aca="false">SUM(C17:G17)</f>
         <v>1</v>
       </c>
-      <c r="I17" s="19" t="str">
-        <f aca="false">IF(H17&gt;=1, "yes", "no")</f>
-        <v>yes</v>
+      <c r="I17" s="20" t="str">
+        <f aca="false">IF(H17&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="17" t="n">
+      <c r="C18" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B18,settings!B:B, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="D18" s="17" t="n">
+      <c r="D18" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B18, input_constant!A:A, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="E18" s="17" t="n">
+      <c r="E18" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B18, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F18" s="17" t="n">
+      <c r="F18" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B18,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G18" s="17" t="n">
+      <c r="G18" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B18, case_definitions!A$17:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H18" s="18" t="n">
+      <c r="H18" s="19" t="n">
         <f aca="false">SUM(C18:G18)</f>
         <v>1</v>
       </c>
-      <c r="I18" s="19" t="str">
-        <f aca="false">IF(H18&gt;=1, "yes", "no")</f>
-        <v>yes</v>
+      <c r="I18" s="20" t="str">
+        <f aca="false">IF(H18&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="17" t="n">
+      <c r="C19" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B19,settings!B:B, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="D19" s="17" t="n">
+      <c r="D19" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B19, input_constant!A:A, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="E19" s="17" t="n">
+      <c r="E19" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B19, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F19" s="17" t="n">
+      <c r="F19" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B19,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G19" s="17" t="n">
+      <c r="G19" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B19, case_definitions!A$17:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H19" s="18" t="n">
+      <c r="H19" s="19" t="n">
         <f aca="false">SUM(C19:G19)</f>
         <v>1</v>
       </c>
-      <c r="I19" s="19" t="str">
-        <f aca="false">IF(H19&gt;=1, "yes", "no")</f>
-        <v>yes</v>
+      <c r="I19" s="20" t="str">
+        <f aca="false">IF(H19&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="17" t="n">
+      <c r="C20" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B20,settings!B:B, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="D20" s="17" t="n">
+      <c r="D20" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B20, input_constant!A:A, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="E20" s="17" t="n">
+      <c r="E20" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B20, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F20" s="17" t="n">
+      <c r="F20" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B20,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G20" s="17" t="n">
+      <c r="G20" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B20, case_definitions!A$17:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H20" s="18" t="n">
+      <c r="H20" s="19" t="n">
         <f aca="false">SUM(C20:G20)</f>
         <v>1</v>
       </c>
-      <c r="I20" s="19" t="str">
-        <f aca="false">IF(H20&gt;=1, "yes", "no")</f>
-        <v>yes</v>
+      <c r="I20" s="20" t="str">
+        <f aca="false">IF(H20&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="17" t="n">
+      <c r="C21" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B21,settings!B:B, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="D21" s="17" t="n">
+      <c r="D21" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B21, input_constant!A:A, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="E21" s="17" t="n">
+      <c r="E21" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B21, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F21" s="17" t="n">
+      <c r="F21" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B21,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G21" s="17" t="n">
+      <c r="G21" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B21, case_definitions!A$17:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H21" s="18" t="n">
+      <c r="H21" s="19" t="n">
         <f aca="false">SUM(C21:G21)</f>
         <v>1</v>
       </c>
-      <c r="I21" s="19" t="str">
-        <f aca="false">IF(H21&gt;=1, "yes", "no")</f>
-        <v>yes</v>
+      <c r="I21" s="20" t="str">
+        <f aca="false">IF(H21&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="17" t="n">
+      <c r="C22" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B22,settings!B:B, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="D22" s="17" t="n">
+      <c r="D22" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B22, input_constant!A:A, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="E22" s="17" t="n">
+      <c r="E22" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B22, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F22" s="17" t="n">
+      <c r="F22" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B22,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G22" s="17" t="n">
+      <c r="G22" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B22, case_definitions!A$17:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H22" s="18" t="n">
+      <c r="H22" s="19" t="n">
         <f aca="false">SUM(C22:G22)</f>
         <v>1</v>
       </c>
-      <c r="I22" s="19" t="str">
-        <f aca="false">IF(H22&gt;=1, "yes", "no")</f>
-        <v>yes</v>
+      <c r="I22" s="20" t="str">
+        <f aca="false">IF(H22&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="17" t="n">
+      <c r="C23" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B23,settings!B:B, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="D23" s="17" t="n">
+      <c r="D23" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B23, input_constant!A:A, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="E23" s="17" t="n">
+      <c r="E23" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B23, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F23" s="17" t="n">
+      <c r="F23" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B23,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G23" s="17" t="n">
+      <c r="G23" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B23, case_definitions!A$17:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H23" s="18" t="n">
+      <c r="H23" s="19" t="n">
         <f aca="false">SUM(C23:G23)</f>
         <v>1</v>
       </c>
-      <c r="I23" s="19" t="str">
-        <f aca="false">IF(H23&gt;=1, "yes", "no")</f>
-        <v>yes</v>
+      <c r="I23" s="20" t="str">
+        <f aca="false">IF(H23&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="17" t="n">
+      <c r="C24" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B24,settings!B:B, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="D24" s="17" t="n">
+      <c r="D24" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B24, input_constant!A:A, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="E24" s="17" t="n">
+      <c r="E24" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B24, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F24" s="17" t="n">
+      <c r="F24" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B24,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G24" s="17" t="n">
+      <c r="G24" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B24, case_definitions!A$17:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H24" s="18" t="n">
+      <c r="H24" s="19" t="n">
         <f aca="false">SUM(C24:G24)</f>
         <v>1</v>
       </c>
-      <c r="I24" s="19" t="str">
-        <f aca="false">IF(H24&gt;=1, "yes", "no")</f>
-        <v>yes</v>
+      <c r="I24" s="20" t="str">
+        <f aca="false">IF(H24&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="17" t="n">
+      <c r="C25" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B25,settings!B:B, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="D25" s="17" t="n">
+      <c r="D25" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B25, input_constant!A:A, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="E25" s="17" t="n">
+      <c r="E25" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B25, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F25" s="17" t="n">
+      <c r="F25" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B25,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G25" s="17" t="n">
+      <c r="G25" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B25, case_definitions!A$17:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H25" s="18" t="n">
+      <c r="H25" s="19" t="n">
         <f aca="false">SUM(C25:G25)</f>
         <v>1</v>
       </c>
-      <c r="I25" s="19" t="str">
-        <f aca="false">IF(H25&gt;=1, "yes", "no")</f>
-        <v>yes</v>
+      <c r="I25" s="20" t="str">
+        <f aca="false">IF(H25&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="17" t="n">
+      <c r="C26" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B26,settings!B:B, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="D26" s="17" t="n">
+      <c r="D26" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B26, input_constant!A:A, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="E26" s="17" t="n">
+      <c r="E26" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B26, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F26" s="17" t="n">
+      <c r="F26" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B26,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G26" s="17" t="n">
+      <c r="G26" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B26, case_definitions!A$17:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H26" s="18" t="n">
+      <c r="H26" s="19" t="n">
         <f aca="false">SUM(C26:G26)</f>
         <v>1</v>
       </c>
-      <c r="I26" s="19" t="str">
-        <f aca="false">IF(H26&gt;=1, "yes", "no")</f>
-        <v>yes</v>
+      <c r="I26" s="20" t="str">
+        <f aca="false">IF(H26&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="17" t="n">
+      <c r="C27" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B27,settings!B:B, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="D27" s="17" t="n">
+      <c r="D27" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B27, input_constant!A:A, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="E27" s="17" t="n">
+      <c r="E27" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B27, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F27" s="17" t="n">
+      <c r="F27" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B27,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G27" s="17" t="n">
+      <c r="G27" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B27, case_definitions!A$17:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H27" s="18" t="n">
+      <c r="H27" s="19" t="n">
         <f aca="false">SUM(C27:G27)</f>
         <v>1</v>
       </c>
-      <c r="I27" s="19" t="str">
-        <f aca="false">IF(H27&gt;=1, "yes", "no")</f>
-        <v>yes</v>
+      <c r="I27" s="20" t="str">
+        <f aca="false">IF(H27&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="17" t="n">
+      <c r="C28" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B28,settings!B:B, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="D28" s="17" t="n">
+      <c r="D28" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B28, input_constant!A:A, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="E28" s="17" t="n">
+      <c r="E28" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B28, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F28" s="17" t="n">
+      <c r="F28" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B28,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G28" s="17" t="n">
+      <c r="G28" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B28, case_definitions!A$17:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H28" s="18" t="n">
+      <c r="H28" s="19" t="n">
         <f aca="false">SUM(C28:G28)</f>
         <v>1</v>
       </c>
-      <c r="I28" s="19" t="str">
-        <f aca="false">IF(H28&gt;=1, "yes", "no")</f>
-        <v>yes</v>
+      <c r="I28" s="20" t="str">
+        <f aca="false">IF(H28&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="17" t="n">
+      <c r="C29" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B29,settings!B:B, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="D29" s="17" t="n">
+      <c r="D29" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B29, input_constant!A:A, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="E29" s="17" t="n">
+      <c r="E29" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B29, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F29" s="17" t="n">
+      <c r="F29" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B29,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G29" s="17" t="n">
+      <c r="G29" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B29, case_definitions!A$17:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H29" s="18" t="n">
+      <c r="H29" s="19" t="n">
         <f aca="false">SUM(C29:G29)</f>
         <v>1</v>
       </c>
-      <c r="I29" s="19" t="str">
-        <f aca="false">IF(H29&gt;=1, "yes", "no")</f>
-        <v>yes</v>
+      <c r="I29" s="20" t="str">
+        <f aca="false">IF(H29&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="C30" s="17" t="n">
+      <c r="C30" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B30,settings!B:B, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="D30" s="17" t="n">
+      <c r="D30" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B30, input_constant!A:A, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="E30" s="17" t="n">
+      <c r="E30" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B30, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F30" s="17" t="n">
+      <c r="F30" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B30,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G30" s="17" t="n">
+      <c r="G30" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B30, case_definitions!A$17:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H30" s="18" t="n">
+      <c r="H30" s="19" t="n">
         <f aca="false">SUM(C30:G30)</f>
         <v>1</v>
       </c>
-      <c r="I30" s="19" t="str">
-        <f aca="false">IF(H30&gt;=1, "yes", "no")</f>
-        <v>yes</v>
+      <c r="I30" s="20" t="str">
+        <f aca="false">IF(H30&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="C31" s="17" t="n">
+      <c r="C31" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B31,settings!B:B, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="D31" s="17" t="n">
+      <c r="D31" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B31, input_constant!A:A, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="E31" s="17" t="n">
+      <c r="E31" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B31, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F31" s="17" t="n">
+      <c r="F31" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B31,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G31" s="17" t="n">
+      <c r="G31" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B31, case_definitions!A$17:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H31" s="18" t="n">
+      <c r="H31" s="19" t="n">
         <f aca="false">SUM(C31:G31)</f>
         <v>1</v>
       </c>
-      <c r="I31" s="19" t="str">
-        <f aca="false">IF(H31&gt;=1, "yes", "no")</f>
-        <v>yes</v>
+      <c r="I31" s="20" t="str">
+        <f aca="false">IF(H31&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C32" s="17" t="n">
+      <c r="C32" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B32,settings!B:B, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="D32" s="17" t="n">
+      <c r="D32" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B32, input_constant!A:A, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="E32" s="17" t="n">
+      <c r="E32" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B32, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F32" s="17" t="n">
+      <c r="F32" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B32,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G32" s="17" t="n">
+      <c r="G32" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B32, case_definitions!A$17:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H32" s="18" t="n">
+      <c r="H32" s="19" t="n">
         <f aca="false">SUM(C32:G32)</f>
         <v>1</v>
       </c>
-      <c r="I32" s="19" t="str">
-        <f aca="false">IF(H32&gt;=1, "yes", "no")</f>
-        <v>yes</v>
+      <c r="I32" s="20" t="str">
+        <f aca="false">IF(H32&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="C33" s="17" t="n">
+      <c r="C33" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B33,settings!B:B, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="D33" s="17" t="n">
+      <c r="D33" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B33, input_constant!A:A, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="E33" s="17" t="n">
+      <c r="E33" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B33, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F33" s="17" t="n">
+      <c r="F33" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B33,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G33" s="17" t="n">
+      <c r="G33" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B33, case_definitions!A$17:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H33" s="18" t="n">
+      <c r="H33" s="19" t="n">
         <f aca="false">SUM(C33:G33)</f>
         <v>1</v>
       </c>
-      <c r="I33" s="19" t="str">
-        <f aca="false">IF(H33&gt;=1, "yes", "no")</f>
-        <v>yes</v>
+      <c r="I33" s="20" t="str">
+        <f aca="false">IF(H33&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="C34" s="17" t="n">
+      <c r="C34" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B34,settings!B:B, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="D34" s="17" t="n">
+      <c r="D34" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B34, input_constant!A:A, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="E34" s="17" t="n">
+      <c r="E34" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B34, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F34" s="17" t="n">
+      <c r="F34" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B34,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G34" s="17" t="n">
+      <c r="G34" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B34, case_definitions!A$17:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H34" s="18" t="n">
+      <c r="H34" s="19" t="n">
         <f aca="false">SUM(C34:G34)</f>
         <v>1</v>
       </c>
-      <c r="I34" s="19" t="str">
-        <f aca="false">IF(H34&gt;=1, "yes", "no")</f>
-        <v>yes</v>
+      <c r="I34" s="20" t="str">
+        <f aca="false">IF(H34&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="C35" s="17" t="n">
+      <c r="C35" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B35,settings!B:B, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="D35" s="17" t="n">
+      <c r="D35" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B35, input_constant!A:A, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="E35" s="17" t="n">
+      <c r="E35" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B35, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F35" s="17" t="n">
+      <c r="F35" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B35,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G35" s="17" t="n">
+      <c r="G35" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B35, case_definitions!A$17:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H35" s="18" t="n">
+      <c r="H35" s="19" t="n">
         <f aca="false">SUM(C35:G35)</f>
         <v>1</v>
       </c>
-      <c r="I35" s="19" t="str">
-        <f aca="false">IF(H35&gt;=1, "yes", "no")</f>
-        <v>yes</v>
+      <c r="I35" s="20" t="str">
+        <f aca="false">IF(H35&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="C36" s="17" t="n">
+      <c r="C36" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B36,settings!B:B, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="D36" s="17" t="n">
+      <c r="D36" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B36, input_constant!A:A, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="E36" s="17" t="n">
+      <c r="E36" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B36, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F36" s="17" t="n">
+      <c r="F36" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B36,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G36" s="17" t="n">
+      <c r="G36" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B36, case_definitions!A$17:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H36" s="18" t="n">
+      <c r="H36" s="19" t="n">
         <f aca="false">SUM(C36:G36)</f>
         <v>1</v>
       </c>
-      <c r="I36" s="19" t="str">
-        <f aca="false">IF(H36&gt;=1, "yes", "no")</f>
-        <v>yes</v>
+      <c r="I36" s="20" t="str">
+        <f aca="false">IF(H36&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="16" t="s">
+      <c r="B37" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C37" s="17" t="n">
+      <c r="C37" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B37,settings!B:B, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="D37" s="17" t="n">
+      <c r="D37" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B37, input_constant!A:A, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="E37" s="17" t="n">
+      <c r="E37" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B37, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F37" s="17" t="n">
+      <c r="F37" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B37,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G37" s="17" t="n">
+      <c r="G37" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B37, case_definitions!A$17:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H37" s="18" t="n">
+      <c r="H37" s="19" t="n">
         <f aca="false">SUM(C37:G37)</f>
         <v>1</v>
       </c>
-      <c r="I37" s="19" t="str">
-        <f aca="false">IF(H37&gt;=1, "yes", "no")</f>
-        <v>yes</v>
+      <c r="I37" s="20" t="str">
+        <f aca="false">IF(H37&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="16" t="s">
+      <c r="B38" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="C38" s="17" t="n">
+      <c r="C38" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B38,settings!B:B, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="D38" s="17" t="n">
+      <c r="D38" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B38, input_constant!A:A, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="E38" s="17" t="n">
+      <c r="E38" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B38, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F38" s="17" t="n">
+      <c r="F38" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B38,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G38" s="17" t="n">
+      <c r="G38" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B38, case_definitions!A$17:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H38" s="18" t="n">
+      <c r="H38" s="19" t="n">
         <f aca="false">SUM(C38:G38)</f>
         <v>1</v>
       </c>
-      <c r="I38" s="19" t="str">
-        <f aca="false">IF(H38&gt;=1, "yes", "no")</f>
-        <v>yes</v>
+      <c r="I38" s="20" t="str">
+        <f aca="false">IF(H38&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="16" t="s">
+      <c r="B39" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="C39" s="17" t="n">
+      <c r="C39" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B39,settings!B:B, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="D39" s="17" t="n">
+      <c r="D39" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B39, input_constant!A:A, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="E39" s="17" t="n">
+      <c r="E39" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B39, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F39" s="17" t="n">
+      <c r="F39" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B39,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G39" s="17" t="n">
+      <c r="G39" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B39, case_definitions!A$17:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H39" s="18" t="n">
+      <c r="H39" s="19" t="n">
         <f aca="false">SUM(C39:G39)</f>
         <v>1</v>
       </c>
-      <c r="I39" s="19" t="str">
-        <f aca="false">IF(H39&gt;=1, "yes", "no")</f>
-        <v>yes</v>
+      <c r="I39" s="20" t="str">
+        <f aca="false">IF(H39&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="16" t="s">
+      <c r="B40" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="C40" s="17" t="n">
+      <c r="C40" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B40,settings!B:B, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="D40" s="17" t="n">
+      <c r="D40" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B40, input_constant!A:A, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="E40" s="17" t="n">
+      <c r="E40" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B40, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F40" s="17" t="n">
+      <c r="F40" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B40,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G40" s="17" t="n">
+      <c r="G40" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B40, case_definitions!A$17:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H40" s="18" t="n">
+      <c r="H40" s="19" t="n">
         <f aca="false">SUM(C40:G40)</f>
         <v>1</v>
       </c>
-      <c r="I40" s="19" t="str">
-        <f aca="false">IF(H40&gt;=1, "yes", "no")</f>
-        <v>yes</v>
+      <c r="I40" s="20" t="str">
+        <f aca="false">IF(H40&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="16" t="s">
+      <c r="B41" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="C41" s="17" t="n">
+      <c r="C41" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B41,settings!B:B, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="D41" s="17" t="n">
+      <c r="D41" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B41, input_constant!A:A, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="E41" s="17" t="n">
+      <c r="E41" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B41, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F41" s="17" t="n">
+      <c r="F41" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B41,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G41" s="17" t="n">
+      <c r="G41" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B41, case_definitions!A$17:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H41" s="18" t="n">
+      <c r="H41" s="19" t="n">
         <f aca="false">SUM(C41:G41)</f>
         <v>1</v>
       </c>
-      <c r="I41" s="19" t="str">
-        <f aca="false">IF(H41&gt;=1, "yes", "no")</f>
-        <v>yes</v>
+      <c r="I41" s="20" t="str">
+        <f aca="false">IF(H41&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="16" t="s">
+      <c r="B42" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="C42" s="17" t="n">
+      <c r="C42" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B42,settings!B:B, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="D42" s="17" t="n">
+      <c r="D42" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B42, input_constant!A:A, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="E42" s="17" t="n">
+      <c r="E42" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B42, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F42" s="17" t="n">
+      <c r="F42" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B42,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G42" s="17" t="n">
+      <c r="G42" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B42, case_definitions!A$17:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H42" s="18" t="n">
+      <c r="H42" s="19" t="n">
         <f aca="false">SUM(C42:G42)</f>
         <v>1</v>
       </c>
-      <c r="I42" s="19" t="str">
-        <f aca="false">IF(H42&gt;=1, "yes", "no")</f>
-        <v>yes</v>
+      <c r="I42" s="20" t="str">
+        <f aca="false">IF(H42&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="16" t="s">
+      <c r="B43" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="C43" s="17" t="n">
+      <c r="C43" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B43,settings!B:B, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="D43" s="17" t="n">
+      <c r="D43" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B43, input_constant!A:A, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="E43" s="17" t="n">
+      <c r="E43" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B43, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F43" s="17" t="n">
+      <c r="F43" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B43,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G43" s="17" t="n">
+      <c r="G43" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B43, case_definitions!A$17:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H43" s="18" t="n">
+      <c r="H43" s="19" t="n">
         <f aca="false">SUM(C43:G43)</f>
         <v>1</v>
       </c>
-      <c r="I43" s="19" t="str">
-        <f aca="false">IF(H43&gt;=1, "yes", "no")</f>
-        <v>yes</v>
+      <c r="I43" s="20" t="str">
+        <f aca="false">IF(H43&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="16" t="s">
+      <c r="B44" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="C44" s="17" t="n">
+      <c r="C44" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B44,settings!B:B, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="D44" s="17" t="n">
+      <c r="D44" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B44, input_constant!A:A, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="E44" s="17" t="n">
+      <c r="E44" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B44, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F44" s="17" t="n">
+      <c r="F44" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B44,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G44" s="17" t="n">
+      <c r="G44" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B44, case_definitions!A$17:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H44" s="18" t="n">
+      <c r="H44" s="19" t="n">
         <f aca="false">SUM(C44:G44)</f>
         <v>1</v>
       </c>
-      <c r="I44" s="19" t="str">
-        <f aca="false">IF(H44&gt;=1, "yes", "no")</f>
-        <v>yes</v>
+      <c r="I44" s="20" t="str">
+        <f aca="false">IF(H44&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="16" t="s">
+      <c r="B45" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="C45" s="17" t="n">
+      <c r="C45" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B45,settings!B:B, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="D45" s="17" t="n">
+      <c r="D45" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B45, input_constant!A:A, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="E45" s="17" t="n">
+      <c r="E45" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B45, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F45" s="17" t="n">
+      <c r="F45" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B45,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G45" s="17" t="n">
+      <c r="G45" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B45, case_definitions!A$17:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H45" s="18" t="n">
+      <c r="H45" s="19" t="n">
         <f aca="false">SUM(C45:G45)</f>
         <v>1</v>
       </c>
-      <c r="I45" s="19" t="str">
-        <f aca="false">IF(H45&gt;=1, "yes", "no")</f>
-        <v>yes</v>
+      <c r="I45" s="20" t="str">
+        <f aca="false">IF(H45&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="16" t="s">
+      <c r="B46" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="C46" s="17" t="n">
+      <c r="C46" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B46,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="D46" s="17" t="n">
+      <c r="D46" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B46, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="E46" s="17" t="n">
+      <c r="E46" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B46, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F46" s="17" t="n">
+      <c r="F46" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B46,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G46" s="17" t="n">
+      <c r="G46" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B46, case_definitions!A$17:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H46" s="18" t="n">
+      <c r="H46" s="19" t="n">
         <f aca="false">SUM(C46:G46)</f>
         <v>1</v>
       </c>
-      <c r="I46" s="19" t="str">
-        <f aca="false">IF(H46&gt;=1, "yes", "no")</f>
-        <v>yes</v>
+      <c r="I46" s="20" t="str">
+        <f aca="false">IF(H46&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="16" t="s">
+      <c r="B47" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="C47" s="17" t="n">
+      <c r="C47" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B47,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="D47" s="17" t="n">
+      <c r="D47" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B47, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="E47" s="17" t="n">
+      <c r="E47" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B47, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F47" s="17" t="n">
+      <c r="F47" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B47,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G47" s="17" t="n">
+      <c r="G47" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B47, case_definitions!A$17:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H47" s="18" t="n">
+      <c r="H47" s="19" t="n">
         <f aca="false">SUM(C47:G47)</f>
         <v>1</v>
       </c>
-      <c r="I47" s="19" t="str">
-        <f aca="false">IF(H47&gt;=1, "yes", "no")</f>
-        <v>yes</v>
+      <c r="I47" s="20" t="str">
+        <f aca="false">IF(H47&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="16" t="s">
+      <c r="B48" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="C48" s="17" t="n">
+      <c r="C48" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B48,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="D48" s="17" t="n">
+      <c r="D48" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B48, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="E48" s="17" t="n">
+      <c r="E48" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B48, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F48" s="17" t="n">
+      <c r="F48" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B48,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G48" s="17" t="n">
+      <c r="G48" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B48, case_definitions!A$17:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H48" s="18" t="n">
+      <c r="H48" s="19" t="n">
         <f aca="false">SUM(C48:G48)</f>
         <v>1</v>
       </c>
-      <c r="I48" s="19" t="str">
-        <f aca="false">IF(H48&gt;=1, "yes", "no")</f>
-        <v>yes</v>
+      <c r="I48" s="20" t="str">
+        <f aca="false">IF(H48&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="16" t="s">
+      <c r="B49" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="C49" s="17" t="n">
+      <c r="C49" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B49,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="D49" s="17" t="n">
+      <c r="D49" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B49, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="E49" s="17" t="n">
+      <c r="E49" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B49, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F49" s="17" t="n">
+      <c r="F49" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B49,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G49" s="17" t="n">
+      <c r="G49" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B49, case_definitions!A$17:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H49" s="18" t="n">
+      <c r="H49" s="19" t="n">
         <f aca="false">SUM(C49:G49)</f>
         <v>1</v>
       </c>
-      <c r="I49" s="19" t="str">
-        <f aca="false">IF(H49&gt;=1, "yes", "no")</f>
-        <v>yes</v>
+      <c r="I49" s="20" t="str">
+        <f aca="false">IF(H49&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="16" t="s">
+      <c r="B50" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="C50" s="17" t="n">
+      <c r="C50" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B50,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="D50" s="17" t="n">
+      <c r="D50" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B50, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="E50" s="17" t="n">
+      <c r="E50" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B50, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F50" s="17" t="n">
+      <c r="F50" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B50,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G50" s="17" t="n">
+      <c r="G50" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B50, case_definitions!A$17:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H50" s="18" t="n">
+      <c r="H50" s="19" t="n">
         <f aca="false">SUM(C50:G50)</f>
         <v>1</v>
       </c>
-      <c r="I50" s="19" t="str">
-        <f aca="false">IF(H50&gt;=1, "yes", "no")</f>
-        <v>yes</v>
+      <c r="I50" s="20" t="str">
+        <f aca="false">IF(H50&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="16" t="s">
+      <c r="B51" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="C51" s="17" t="n">
+      <c r="C51" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B51,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="D51" s="17" t="n">
+      <c r="D51" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B51, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="E51" s="17" t="n">
+      <c r="E51" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B51, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F51" s="17" t="n">
+      <c r="F51" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B51,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G51" s="17" t="n">
+      <c r="G51" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B51, case_definitions!A$17:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H51" s="18" t="n">
+      <c r="H51" s="19" t="n">
         <f aca="false">SUM(C51:G51)</f>
         <v>1</v>
       </c>
-      <c r="I51" s="19" t="str">
-        <f aca="false">IF(H51&gt;=1, "yes", "no")</f>
-        <v>yes</v>
+      <c r="I51" s="20" t="str">
+        <f aca="false">IF(H51&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="16" t="s">
+      <c r="B52" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="C52" s="17" t="n">
+      <c r="C52" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B52,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="D52" s="17" t="n">
+      <c r="D52" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B52, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="E52" s="17" t="n">
+      <c r="E52" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B52, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F52" s="17" t="n">
+      <c r="F52" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B52,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G52" s="17" t="n">
+      <c r="G52" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B52, case_definitions!A$17:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H52" s="18" t="n">
+      <c r="H52" s="19" t="n">
         <f aca="false">SUM(C52:G52)</f>
         <v>1</v>
       </c>
-      <c r="I52" s="19" t="str">
-        <f aca="false">IF(H52&gt;=1, "yes", "no")</f>
-        <v>yes</v>
+      <c r="I52" s="20" t="str">
+        <f aca="false">IF(H52&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="16" t="s">
+      <c r="B53" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="C53" s="17" t="n">
+      <c r="C53" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B53,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="D53" s="17" t="n">
+      <c r="D53" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B53, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="E53" s="17" t="n">
+      <c r="E53" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B53, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F53" s="17" t="n">
+      <c r="F53" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B53,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G53" s="17" t="n">
+      <c r="G53" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B53, case_definitions!A$17:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H53" s="18" t="n">
+      <c r="H53" s="19" t="n">
         <f aca="false">SUM(C53:G53)</f>
         <v>1</v>
       </c>
-      <c r="I53" s="19" t="str">
-        <f aca="false">IF(H53&gt;=1, "yes", "no")</f>
-        <v>yes</v>
+      <c r="I53" s="20" t="str">
+        <f aca="false">IF(H53&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="16" t="s">
+      <c r="B54" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="C54" s="17" t="n">
+      <c r="C54" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B54,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="D54" s="17" t="n">
+      <c r="D54" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B54, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="E54" s="17" t="n">
+      <c r="E54" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B54, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F54" s="17" t="n">
+      <c r="F54" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B54,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G54" s="17" t="n">
+      <c r="G54" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B54, case_definitions!A$17:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H54" s="18" t="n">
+      <c r="H54" s="19" t="n">
         <f aca="false">SUM(C54:G54)</f>
         <v>1</v>
       </c>
-      <c r="I54" s="19" t="str">
-        <f aca="false">IF(H54&gt;=1, "yes", "no")</f>
-        <v>yes</v>
+      <c r="I54" s="20" t="str">
+        <f aca="false">IF(H54&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="16" t="s">
+      <c r="B55" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="C55" s="17" t="n">
+      <c r="C55" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B55,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="D55" s="17" t="n">
+      <c r="D55" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B55, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="E55" s="17" t="n">
+      <c r="E55" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B55, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F55" s="17" t="n">
+      <c r="F55" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B55,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G55" s="17" t="n">
+      <c r="G55" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B55, case_definitions!A$17:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H55" s="18" t="n">
+      <c r="H55" s="19" t="n">
         <f aca="false">SUM(C55:G55)</f>
         <v>1</v>
       </c>
-      <c r="I55" s="19" t="str">
-        <f aca="false">IF(H55&gt;=1, "yes", "no")</f>
-        <v>yes</v>
+      <c r="I55" s="20" t="str">
+        <f aca="false">IF(H55&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="16" t="s">
+      <c r="B56" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="C56" s="17" t="n">
+      <c r="C56" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B56,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="D56" s="17" t="n">
+      <c r="D56" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B56, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="E56" s="17" t="n">
+      <c r="E56" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B56, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F56" s="17" t="n">
+      <c r="F56" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B56,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G56" s="17" t="n">
+      <c r="G56" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B56, case_definitions!A$17:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H56" s="18" t="n">
+      <c r="H56" s="19" t="n">
         <f aca="false">SUM(C56:G56)</f>
         <v>1</v>
       </c>
-      <c r="I56" s="19" t="str">
-        <f aca="false">IF(H56&gt;=1, "yes", "no")</f>
-        <v>yes</v>
+      <c r="I56" s="20" t="str">
+        <f aca="false">IF(H56&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="16" t="s">
+      <c r="B57" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="C57" s="17" t="n">
+      <c r="C57" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B57,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="D57" s="17" t="n">
+      <c r="D57" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B57, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="E57" s="17" t="n">
+      <c r="E57" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B57, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F57" s="17" t="n">
+      <c r="F57" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B57,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G57" s="17" t="n">
+      <c r="G57" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B57, case_definitions!A$17:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H57" s="18" t="n">
+      <c r="H57" s="19" t="n">
         <f aca="false">SUM(C57:G57)</f>
         <v>1</v>
       </c>
-      <c r="I57" s="19" t="str">
-        <f aca="false">IF(H57&gt;=1, "yes", "no")</f>
-        <v>yes</v>
+      <c r="I57" s="20" t="str">
+        <f aca="false">IF(H57&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="16" t="s">
+      <c r="B58" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="C58" s="17" t="n">
+      <c r="C58" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B58,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="D58" s="17" t="n">
+      <c r="D58" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B58, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="E58" s="17" t="n">
+      <c r="E58" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B58, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F58" s="17" t="n">
+      <c r="F58" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B58,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G58" s="17" t="n">
+      <c r="G58" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B58, case_definitions!A$17:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H58" s="18" t="n">
+      <c r="H58" s="19" t="n">
         <f aca="false">SUM(C58:G58)</f>
         <v>1</v>
       </c>
-      <c r="I58" s="19" t="str">
-        <f aca="false">IF(H58&gt;=1, "yes", "no")</f>
-        <v>yes</v>
+      <c r="I58" s="20" t="str">
+        <f aca="false">IF(H58&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="16" t="s">
+      <c r="B59" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="C59" s="17" t="n">
+      <c r="C59" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B59,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="D59" s="17" t="n">
+      <c r="D59" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B59, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="E59" s="17" t="n">
+      <c r="E59" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B59, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F59" s="17" t="n">
+      <c r="F59" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B59,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G59" s="17" t="n">
+      <c r="G59" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B59, case_definitions!A$17:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H59" s="18" t="n">
+      <c r="H59" s="19" t="n">
         <f aca="false">SUM(C59:G59)</f>
         <v>1</v>
       </c>
-      <c r="I59" s="19" t="str">
-        <f aca="false">IF(H59&gt;=1, "yes", "no")</f>
-        <v>yes</v>
+      <c r="I59" s="20" t="str">
+        <f aca="false">IF(H59&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="16" t="s">
+      <c r="B60" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="C60" s="17" t="n">
+      <c r="C60" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B60,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="D60" s="17" t="n">
+      <c r="D60" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B60, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="E60" s="17" t="n">
+      <c r="E60" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B60, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F60" s="17" t="n">
+      <c r="F60" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B60,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G60" s="17" t="n">
+      <c r="G60" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B60, case_definitions!A$17:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H60" s="18" t="n">
+      <c r="H60" s="19" t="n">
         <f aca="false">SUM(C60:G60)</f>
         <v>1</v>
       </c>
-      <c r="I60" s="19" t="str">
-        <f aca="false">IF(H60&gt;=1, "yes", "no")</f>
-        <v>yes</v>
+      <c r="I60" s="20" t="str">
+        <f aca="false">IF(H60&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="16" t="s">
+      <c r="B61" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="C61" s="17" t="n">
+      <c r="C61" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B61,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="D61" s="17" t="n">
+      <c r="D61" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B61, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="E61" s="17" t="n">
+      <c r="E61" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B61, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F61" s="17" t="n">
+      <c r="F61" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B61,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G61" s="17" t="n">
+      <c r="G61" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B61, case_definitions!A$17:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H61" s="18" t="n">
+      <c r="H61" s="19" t="n">
         <f aca="false">SUM(C61:G61)</f>
         <v>1</v>
       </c>
-      <c r="I61" s="19" t="str">
-        <f aca="false">IF(H61&gt;=1, "yes", "no")</f>
-        <v>yes</v>
+      <c r="I61" s="20" t="str">
+        <f aca="false">IF(H61&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="16" t="s">
+      <c r="B62" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="C62" s="17" t="n">
+      <c r="C62" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B62,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="D62" s="17" t="n">
+      <c r="D62" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B62, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="E62" s="17" t="n">
+      <c r="E62" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B62, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F62" s="17" t="n">
+      <c r="F62" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B62,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G62" s="17" t="n">
+      <c r="G62" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B62, case_definitions!A$17:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H62" s="18" t="n">
+      <c r="H62" s="19" t="n">
         <f aca="false">SUM(C62:G62)</f>
         <v>1</v>
       </c>
-      <c r="I62" s="19" t="str">
-        <f aca="false">IF(H62&gt;=1, "yes", "no")</f>
-        <v>yes</v>
+      <c r="I62" s="20" t="str">
+        <f aca="false">IF(H62&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="16" t="s">
+      <c r="B63" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="C63" s="17" t="n">
+      <c r="C63" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B63,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="D63" s="17" t="n">
+      <c r="D63" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B63, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="E63" s="17" t="n">
+      <c r="E63" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B63, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F63" s="17" t="n">
+      <c r="F63" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B63,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G63" s="17" t="n">
+      <c r="G63" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B63, case_definitions!A$17:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H63" s="18" t="n">
+      <c r="H63" s="19" t="n">
         <f aca="false">SUM(C63:G63)</f>
         <v>1</v>
       </c>
-      <c r="I63" s="19" t="str">
-        <f aca="false">IF(H63&gt;=1, "yes", "no")</f>
-        <v>yes</v>
+      <c r="I63" s="20" t="str">
+        <f aca="false">IF(H63&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="16" t="s">
+      <c r="B64" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="C64" s="17" t="n">
+      <c r="C64" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B64,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="D64" s="17" t="n">
+      <c r="D64" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B64, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="E64" s="17" t="n">
+      <c r="E64" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B64, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F64" s="17" t="n">
+      <c r="F64" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B64,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G64" s="17" t="n">
+      <c r="G64" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B64, case_definitions!A$17:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H64" s="18" t="n">
+      <c r="H64" s="19" t="n">
         <f aca="false">SUM(C64:G64)</f>
         <v>1</v>
       </c>
-      <c r="I64" s="19" t="str">
-        <f aca="false">IF(H64&gt;=1, "yes", "no")</f>
-        <v>yes</v>
+      <c r="I64" s="20" t="str">
+        <f aca="false">IF(H64&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="16" t="s">
+      <c r="B65" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="C65" s="17" t="n">
+      <c r="C65" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B65,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="D65" s="17" t="n">
+      <c r="D65" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B65, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="E65" s="17" t="n">
+      <c r="E65" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B65, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F65" s="17" t="n">
+      <c r="F65" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B65,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G65" s="17" t="n">
+      <c r="G65" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B65, case_definitions!A$17:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H65" s="18" t="n">
+      <c r="H65" s="19" t="n">
         <f aca="false">SUM(C65:G65)</f>
         <v>1</v>
       </c>
-      <c r="I65" s="19" t="str">
-        <f aca="false">IF(H65&gt;=1, "yes", "no")</f>
-        <v>yes</v>
+      <c r="I65" s="20" t="str">
+        <f aca="false">IF(H65&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="16" t="s">
+      <c r="B66" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="C66" s="17" t="n">
+      <c r="C66" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B66,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="D66" s="17" t="n">
+      <c r="D66" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B66, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="E66" s="17" t="n">
+      <c r="E66" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B66, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F66" s="17" t="n">
+      <c r="F66" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B66,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G66" s="17" t="n">
+      <c r="G66" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B66, case_definitions!A$17:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H66" s="18" t="n">
+      <c r="H66" s="19" t="n">
         <f aca="false">SUM(C66:G66)</f>
         <v>1</v>
       </c>
-      <c r="I66" s="19" t="str">
-        <f aca="false">IF(H66&gt;=1, "yes", "no")</f>
-        <v>yes</v>
+      <c r="I66" s="20" t="str">
+        <f aca="false">IF(H66&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B67" s="16" t="s">
+      <c r="B67" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="C67" s="17" t="n">
+      <c r="C67" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B67,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="D67" s="17" t="n">
+      <c r="D67" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B67, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="E67" s="17" t="n">
+      <c r="E67" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B67, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F67" s="17" t="n">
+      <c r="F67" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B67,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G67" s="17" t="n">
+      <c r="G67" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B67, case_definitions!A$17:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H67" s="18" t="n">
+      <c r="H67" s="19" t="n">
         <f aca="false">SUM(C67:G67)</f>
         <v>1</v>
       </c>
-      <c r="I67" s="19" t="str">
-        <f aca="false">IF(H67&gt;=1, "yes", "no")</f>
-        <v>yes</v>
+      <c r="I67" s="20" t="str">
+        <f aca="false">IF(H67&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B68" s="16" t="s">
+      <c r="B68" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="C68" s="17" t="n">
+      <c r="C68" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B68,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="D68" s="17" t="n">
+      <c r="D68" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B68, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="E68" s="17" t="n">
+      <c r="E68" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B68, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F68" s="17" t="n">
+      <c r="F68" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B68,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G68" s="17" t="n">
+      <c r="G68" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B68, case_definitions!A$17:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H68" s="18" t="n">
+      <c r="H68" s="19" t="n">
         <f aca="false">SUM(C68:G68)</f>
         <v>1</v>
       </c>
-      <c r="I68" s="19" t="str">
-        <f aca="false">IF(H68&gt;=1, "yes", "no")</f>
-        <v>yes</v>
+      <c r="I68" s="20" t="str">
+        <f aca="false">IF(H68&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B69" s="16" t="s">
+      <c r="B69" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="C69" s="17" t="n">
+      <c r="C69" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B69,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="D69" s="17" t="n">
+      <c r="D69" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B69, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="E69" s="17" t="n">
+      <c r="E69" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B69, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F69" s="17" t="n">
+      <c r="F69" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B69,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G69" s="17" t="n">
+      <c r="G69" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B69, case_definitions!A$17:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H69" s="18" t="n">
+      <c r="H69" s="19" t="n">
         <f aca="false">SUM(C69:G69)</f>
         <v>1</v>
       </c>
-      <c r="I69" s="19" t="str">
-        <f aca="false">IF(H69&gt;=1, "yes", "no")</f>
-        <v>yes</v>
+      <c r="I69" s="20" t="str">
+        <f aca="false">IF(H69&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B70" s="16" t="s">
+      <c r="B70" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="C70" s="17" t="n">
+      <c r="C70" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B70,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="D70" s="17" t="n">
+      <c r="D70" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B70, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="E70" s="17" t="n">
+      <c r="E70" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B70, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F70" s="17" t="n">
+      <c r="F70" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B70,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G70" s="17" t="n">
+      <c r="G70" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B70, case_definitions!A$17:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H70" s="18" t="n">
+      <c r="H70" s="19" t="n">
         <f aca="false">SUM(C70:G70)</f>
         <v>1</v>
       </c>
-      <c r="I70" s="19" t="str">
-        <f aca="false">IF(H70&gt;=1, "yes", "no")</f>
-        <v>yes</v>
+      <c r="I70" s="20" t="str">
+        <f aca="false">IF(H70&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B71" s="16" t="s">
+      <c r="B71" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="C71" s="17" t="n">
+      <c r="C71" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B71,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="D71" s="17" t="n">
+      <c r="D71" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B71, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="E71" s="17" t="n">
+      <c r="E71" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B71, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F71" s="17" t="n">
+      <c r="F71" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B71,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G71" s="17" t="n">
+      <c r="G71" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B71, case_definitions!A$17:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H71" s="18" t="n">
+      <c r="H71" s="19" t="n">
         <f aca="false">SUM(C71:G71)</f>
         <v>1</v>
       </c>
-      <c r="I71" s="19" t="str">
-        <f aca="false">IF(H71&gt;=1, "yes", "no")</f>
-        <v>yes</v>
+      <c r="I71" s="20" t="str">
+        <f aca="false">IF(H71&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B72" s="16" t="s">
+      <c r="B72" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="C72" s="17" t="n">
+      <c r="C72" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B72,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="D72" s="17" t="n">
+      <c r="D72" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B72, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="E72" s="17" t="n">
+      <c r="E72" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B72, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F72" s="17" t="n">
+      <c r="F72" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B72,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G72" s="17" t="n">
+      <c r="G72" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B72, case_definitions!A$17:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H72" s="18" t="n">
+      <c r="H72" s="19" t="n">
         <f aca="false">SUM(C72:G72)</f>
         <v>1</v>
       </c>
-      <c r="I72" s="19" t="str">
-        <f aca="false">IF(H72&gt;=1, "yes", "no")</f>
-        <v>yes</v>
+      <c r="I72" s="20" t="str">
+        <f aca="false">IF(H72&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B73" s="16" t="s">
+      <c r="B73" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="C73" s="17" t="n">
+      <c r="C73" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B73,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="D73" s="17" t="n">
+      <c r="D73" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B73, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="E73" s="17" t="n">
+      <c r="E73" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B73, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F73" s="17" t="n">
+      <c r="F73" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B73,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G73" s="17" t="n">
+      <c r="G73" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B73, case_definitions!A$17:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H73" s="18" t="n">
+      <c r="H73" s="19" t="n">
         <f aca="false">SUM(C73:G73)</f>
         <v>1</v>
       </c>
-      <c r="I73" s="19" t="str">
-        <f aca="false">IF(H73&gt;=1, "yes", "no")</f>
-        <v>yes</v>
+      <c r="I73" s="20" t="str">
+        <f aca="false">IF(H73&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B74" s="16" t="s">
+      <c r="B74" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="C74" s="17" t="n">
+      <c r="C74" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B74,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="D74" s="17" t="n">
+      <c r="D74" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B74, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="E74" s="17" t="n">
+      <c r="E74" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B74, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F74" s="17" t="n">
+      <c r="F74" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B74,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G74" s="17" t="n">
+      <c r="G74" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B74, case_definitions!A$17:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H74" s="18" t="n">
+      <c r="H74" s="19" t="n">
         <f aca="false">SUM(C74:G74)</f>
         <v>1</v>
       </c>
-      <c r="I74" s="19" t="str">
-        <f aca="false">IF(H74&gt;=1, "yes", "no")</f>
-        <v>yes</v>
+      <c r="I74" s="20" t="str">
+        <f aca="false">IF(H74&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B75" s="16" t="s">
+      <c r="B75" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="C75" s="17" t="n">
+      <c r="C75" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B75,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="D75" s="17" t="n">
+      <c r="D75" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B75, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="E75" s="17" t="n">
+      <c r="E75" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B75, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F75" s="17" t="n">
+      <c r="F75" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B75,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G75" s="17" t="n">
+      <c r="G75" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B75, case_definitions!A$17:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H75" s="18" t="n">
+      <c r="H75" s="19" t="n">
         <f aca="false">SUM(C75:G75)</f>
         <v>1</v>
       </c>
-      <c r="I75" s="19" t="str">
-        <f aca="false">IF(H75&gt;=1, "yes", "no")</f>
-        <v>yes</v>
+      <c r="I75" s="20" t="str">
+        <f aca="false">IF(H75&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B76" s="16" t="s">
+      <c r="B76" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="C76" s="17" t="n">
+      <c r="C76" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B76,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="D76" s="17" t="n">
+      <c r="D76" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B76, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="E76" s="17" t="n">
+      <c r="E76" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B76, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F76" s="17" t="n">
+      <c r="F76" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B76,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G76" s="17" t="n">
+      <c r="G76" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B76, case_definitions!A$17:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H76" s="18" t="n">
+      <c r="H76" s="19" t="n">
         <f aca="false">SUM(C76:G76)</f>
         <v>1</v>
       </c>
-      <c r="I76" s="19" t="str">
-        <f aca="false">IF(H76&gt;=1, "yes", "no")</f>
-        <v>yes</v>
+      <c r="I76" s="20" t="str">
+        <f aca="false">IF(H76&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B77" s="16" t="s">
+      <c r="B77" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="C77" s="17" t="n">
+      <c r="C77" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B77,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="D77" s="17" t="n">
+      <c r="D77" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B77, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="E77" s="17" t="n">
+      <c r="E77" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B77, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F77" s="17" t="n">
+      <c r="F77" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B77,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G77" s="17" t="n">
+      <c r="G77" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B77, case_definitions!A$17:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H77" s="18" t="n">
+      <c r="H77" s="19" t="n">
         <f aca="false">SUM(C77:G77)</f>
         <v>1</v>
       </c>
-      <c r="I77" s="19" t="str">
-        <f aca="false">IF(H77&gt;=1, "yes", "no")</f>
-        <v>yes</v>
+      <c r="I77" s="20" t="str">
+        <f aca="false">IF(H77&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B78" s="16" t="s">
+      <c r="B78" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="C78" s="17" t="n">
+      <c r="C78" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B78,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="D78" s="17" t="n">
+      <c r="D78" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B78, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="E78" s="17" t="n">
+      <c r="E78" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B78, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F78" s="17" t="n">
+      <c r="F78" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B78,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G78" s="17" t="n">
+      <c r="G78" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B78, case_definitions!A$17:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H78" s="18" t="n">
+      <c r="H78" s="19" t="n">
         <f aca="false">SUM(C78:G78)</f>
         <v>1</v>
       </c>
-      <c r="I78" s="19" t="str">
-        <f aca="false">IF(H78&gt;=1, "yes", "no")</f>
-        <v>yes</v>
+      <c r="I78" s="20" t="str">
+        <f aca="false">IF(H78&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B79" s="16" t="s">
+      <c r="B79" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="C79" s="17" t="n">
+      <c r="C79" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B79,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="D79" s="17" t="n">
+      <c r="D79" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B79, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="E79" s="17" t="n">
+      <c r="E79" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B79, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F79" s="17" t="n">
+      <c r="F79" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B79,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G79" s="17" t="n">
+      <c r="G79" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B79, case_definitions!A$17:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H79" s="18" t="n">
+      <c r="H79" s="19" t="n">
         <f aca="false">SUM(C79:G79)</f>
         <v>1</v>
       </c>
-      <c r="I79" s="19" t="str">
-        <f aca="false">IF(H79&gt;=1, "yes", "no")</f>
-        <v>yes</v>
+      <c r="I79" s="20" t="str">
+        <f aca="false">IF(H79&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B80" s="16" t="s">
+      <c r="B80" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="C80" s="17" t="n">
+      <c r="C80" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B80,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="D80" s="17" t="n">
+      <c r="D80" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B80, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="E80" s="17" t="n">
+      <c r="E80" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B80, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F80" s="17" t="n">
+      <c r="F80" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B80,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G80" s="17" t="n">
+      <c r="G80" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B80, case_definitions!A$17:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H80" s="18" t="n">
+      <c r="H80" s="19" t="n">
         <f aca="false">SUM(C80:G80)</f>
         <v>1</v>
       </c>
-      <c r="I80" s="19" t="str">
-        <f aca="false">IF(H80&gt;=1, "yes", "no")</f>
-        <v>yes</v>
+      <c r="I80" s="20" t="str">
+        <f aca="false">IF(H80&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B81" s="16" t="s">
+      <c r="B81" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="C81" s="17" t="n">
+      <c r="C81" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B81,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="D81" s="17" t="n">
+      <c r="D81" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B81, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="E81" s="17" t="n">
+      <c r="E81" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B81, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F81" s="17" t="n">
+      <c r="F81" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B81,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G81" s="17" t="n">
+      <c r="G81" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B81, case_definitions!A$17:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H81" s="18" t="n">
+      <c r="H81" s="19" t="n">
         <f aca="false">SUM(C81:G81)</f>
         <v>1</v>
       </c>
-      <c r="I81" s="19" t="str">
-        <f aca="false">IF(H81&gt;=1, "yes", "no")</f>
-        <v>yes</v>
+      <c r="I81" s="20" t="str">
+        <f aca="false">IF(H81&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B82" s="16" t="s">
+      <c r="B82" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="C82" s="17" t="n">
+      <c r="C82" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B82,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="D82" s="17" t="n">
+      <c r="D82" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B82, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="E82" s="17" t="n">
+      <c r="E82" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B82, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F82" s="17" t="n">
+      <c r="F82" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B82,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G82" s="17" t="n">
+      <c r="G82" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B82, case_definitions!A$17:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H82" s="18" t="n">
+      <c r="H82" s="19" t="n">
         <f aca="false">SUM(C82:G82)</f>
         <v>1</v>
       </c>
-      <c r="I82" s="19" t="str">
-        <f aca="false">IF(H82&gt;=1, "yes", "no")</f>
-        <v>yes</v>
+      <c r="I82" s="20" t="str">
+        <f aca="false">IF(H82&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B83" s="16" t="s">
+      <c r="B83" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="C83" s="17" t="n">
+      <c r="C83" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B83,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="D83" s="17" t="n">
+      <c r="D83" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B83, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="E83" s="17" t="n">
+      <c r="E83" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B83, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F83" s="17" t="n">
+      <c r="F83" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B83,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G83" s="17" t="n">
+      <c r="G83" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B83, case_definitions!A$17:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H83" s="18" t="n">
+      <c r="H83" s="19" t="n">
         <f aca="false">SUM(C83:G83)</f>
         <v>1</v>
       </c>
-      <c r="I83" s="19" t="str">
-        <f aca="false">IF(H83&gt;=1, "yes", "no")</f>
-        <v>yes</v>
+      <c r="I83" s="20" t="str">
+        <f aca="false">IF(H83&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B84" s="16" t="s">
+      <c r="B84" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="C84" s="17" t="n">
+      <c r="C84" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B84,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="D84" s="17" t="n">
+      <c r="D84" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B84, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="E84" s="17" t="n">
+      <c r="E84" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B84, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F84" s="17" t="n">
+      <c r="F84" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B84,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G84" s="17" t="n">
+      <c r="G84" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B84, case_definitions!A$17:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H84" s="18" t="n">
+      <c r="H84" s="19" t="n">
         <f aca="false">SUM(C84:G84)</f>
         <v>1</v>
       </c>
-      <c r="I84" s="19" t="str">
-        <f aca="false">IF(H84&gt;=1, "yes", "no")</f>
-        <v>yes</v>
+      <c r="I84" s="20" t="str">
+        <f aca="false">IF(H84&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B85" s="16" t="s">
+      <c r="B85" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="C85" s="17" t="n">
+      <c r="C85" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B85,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="D85" s="17" t="n">
+      <c r="D85" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B85, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="E85" s="17" t="n">
+      <c r="E85" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B85, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F85" s="17" t="n">
+      <c r="F85" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B85,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G85" s="17" t="n">
+      <c r="G85" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B85, case_definitions!A$17:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H85" s="18" t="n">
+      <c r="H85" s="19" t="n">
         <f aca="false">SUM(C85:G85)</f>
         <v>1</v>
       </c>
-      <c r="I85" s="19" t="str">
-        <f aca="false">IF(H85&gt;=1, "yes", "no")</f>
-        <v>yes</v>
+      <c r="I85" s="20" t="str">
+        <f aca="false">IF(H85&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B86" s="16" t="s">
+      <c r="B86" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="C86" s="17" t="n">
+      <c r="C86" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B86,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="D86" s="17" t="n">
+      <c r="D86" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B86, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="E86" s="17" t="n">
+      <c r="E86" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B86, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F86" s="17" t="n">
+      <c r="F86" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B86,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G86" s="17" t="n">
+      <c r="G86" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B86, case_definitions!A$17:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H86" s="18" t="n">
+      <c r="H86" s="19" t="n">
         <f aca="false">SUM(C86:G86)</f>
         <v>1</v>
       </c>
-      <c r="I86" s="19" t="str">
-        <f aca="false">IF(H86&gt;=1, "yes", "no")</f>
-        <v>yes</v>
+      <c r="I86" s="20" t="str">
+        <f aca="false">IF(H86&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B87" s="16" t="s">
+      <c r="B87" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="C87" s="17" t="n">
+      <c r="C87" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B87,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="D87" s="17" t="n">
+      <c r="D87" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B87, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="E87" s="17" t="n">
+      <c r="E87" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B87, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F87" s="17" t="n">
+      <c r="F87" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B87,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G87" s="17" t="n">
+      <c r="G87" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B87, case_definitions!A$17:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H87" s="18" t="n">
+      <c r="H87" s="19" t="n">
         <f aca="false">SUM(C87:G87)</f>
         <v>1</v>
       </c>
-      <c r="I87" s="19" t="str">
-        <f aca="false">IF(H87&gt;=1, "yes", "no")</f>
-        <v>yes</v>
+      <c r="I87" s="20" t="str">
+        <f aca="false">IF(H87&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B88" s="16" t="s">
+      <c r="B88" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="C88" s="17" t="n">
+      <c r="C88" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B88,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="D88" s="17" t="n">
+      <c r="D88" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B88, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="E88" s="17" t="n">
+      <c r="E88" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B88, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F88" s="17" t="n">
+      <c r="F88" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B88,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G88" s="17" t="n">
+      <c r="G88" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B88, case_definitions!A$17:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H88" s="18" t="n">
+      <c r="H88" s="19" t="n">
         <f aca="false">SUM(C88:G88)</f>
         <v>1</v>
       </c>
-      <c r="I88" s="19" t="str">
-        <f aca="false">IF(H88&gt;=1, "yes", "no")</f>
-        <v>yes</v>
+      <c r="I88" s="20" t="str">
+        <f aca="false">IF(H88&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B89" s="16" t="s">
+      <c r="B89" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="C89" s="17" t="n">
+      <c r="C89" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B89,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="D89" s="17" t="n">
+      <c r="D89" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B89, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="E89" s="17" t="n">
+      <c r="E89" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B89, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F89" s="17" t="n">
+      <c r="F89" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B89,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G89" s="17" t="n">
+      <c r="G89" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B89, case_definitions!A$17:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H89" s="18" t="n">
+      <c r="H89" s="19" t="n">
         <f aca="false">SUM(C89:G89)</f>
         <v>1</v>
       </c>
-      <c r="I89" s="19" t="str">
-        <f aca="false">IF(H89&gt;=1, "yes", "no")</f>
-        <v>yes</v>
+      <c r="I89" s="20" t="str">
+        <f aca="false">IF(H89&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B90" s="16" t="s">
+      <c r="B90" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="C90" s="17" t="n">
+      <c r="C90" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B90,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="D90" s="17" t="n">
+      <c r="D90" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B90, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="E90" s="17" t="n">
+      <c r="E90" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B90, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F90" s="17" t="n">
+      <c r="F90" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B90,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G90" s="17" t="n">
+      <c r="G90" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B90, case_definitions!A$17:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H90" s="18" t="n">
+      <c r="H90" s="19" t="n">
         <f aca="false">SUM(C90:G90)</f>
         <v>1</v>
       </c>
-      <c r="I90" s="19" t="str">
-        <f aca="false">IF(H90&gt;=1, "yes", "no")</f>
-        <v>yes</v>
+      <c r="I90" s="20" t="str">
+        <f aca="false">IF(H90&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B91" s="16" t="s">
+      <c r="B91" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="C91" s="17" t="n">
+      <c r="C91" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B91,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="D91" s="17" t="n">
+      <c r="D91" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B91, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="E91" s="17" t="n">
+      <c r="E91" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B91, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F91" s="17" t="n">
+      <c r="F91" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B91,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G91" s="17" t="n">
+      <c r="G91" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B91, case_definitions!A$17:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H91" s="18" t="n">
+      <c r="H91" s="19" t="n">
         <f aca="false">SUM(C91:G91)</f>
         <v>1</v>
       </c>
-      <c r="I91" s="19" t="str">
-        <f aca="false">IF(H91&gt;=1, "yes", "no")</f>
-        <v>yes</v>
+      <c r="I91" s="20" t="str">
+        <f aca="false">IF(H91&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B92" s="16" t="s">
+      <c r="B92" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="C92" s="17" t="n">
+      <c r="C92" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B92,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="D92" s="17" t="n">
+      <c r="D92" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B92, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="E92" s="17" t="n">
+      <c r="E92" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B92, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F92" s="17" t="n">
+      <c r="F92" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B92,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G92" s="17" t="n">
+      <c r="G92" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B92, case_definitions!A$17:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H92" s="18" t="n">
+      <c r="H92" s="19" t="n">
         <f aca="false">SUM(C92:G92)</f>
         <v>1</v>
       </c>
-      <c r="I92" s="19" t="str">
-        <f aca="false">IF(H92&gt;=1, "yes", "no")</f>
-        <v>yes</v>
+      <c r="I92" s="20" t="str">
+        <f aca="false">IF(H92&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B93" s="16" t="s">
+      <c r="B93" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="C93" s="17" t="n">
+      <c r="C93" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B93,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="D93" s="17" t="n">
+      <c r="D93" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B93, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="E93" s="17" t="n">
+      <c r="E93" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B93, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F93" s="17" t="n">
+      <c r="F93" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B93,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G93" s="17" t="n">
+      <c r="G93" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B93, case_definitions!A$17:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H93" s="18" t="n">
+      <c r="H93" s="19" t="n">
         <f aca="false">SUM(C93:G93)</f>
         <v>1</v>
       </c>
-      <c r="I93" s="19" t="str">
-        <f aca="false">IF(H93&gt;=1, "yes", "no")</f>
-        <v>yes</v>
+      <c r="I93" s="20" t="str">
+        <f aca="false">IF(H93&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B94" s="16" t="s">
+      <c r="B94" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="C94" s="17" t="n">
+      <c r="C94" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B94,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="D94" s="17" t="n">
+      <c r="D94" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B94, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="E94" s="17" t="n">
+      <c r="E94" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B94, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F94" s="17" t="n">
+      <c r="F94" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B94,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G94" s="17" t="n">
+      <c r="G94" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B94, case_definitions!A$17:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H94" s="18" t="n">
+      <c r="H94" s="19" t="n">
         <f aca="false">SUM(C94:G94)</f>
         <v>1</v>
       </c>
-      <c r="I94" s="19" t="str">
-        <f aca="false">IF(H94&gt;=1, "yes", "no")</f>
-        <v>yes</v>
+      <c r="I94" s="20" t="str">
+        <f aca="false">IF(H94&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B95" s="16" t="s">
+      <c r="B95" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="C95" s="17" t="n">
+      <c r="C95" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B95,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="D95" s="17" t="n">
+      <c r="D95" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B95, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="E95" s="17" t="n">
+      <c r="E95" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B95, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F95" s="17" t="n">
+      <c r="F95" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B95,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G95" s="17" t="n">
+      <c r="G95" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B95, case_definitions!A$17:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H95" s="18" t="n">
+      <c r="H95" s="19" t="n">
         <f aca="false">SUM(C95:G95)</f>
         <v>1</v>
       </c>
-      <c r="I95" s="19" t="str">
-        <f aca="false">IF(H95&gt;=1, "yes", "no")</f>
-        <v>yes</v>
+      <c r="I95" s="20" t="str">
+        <f aca="false">IF(H95&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B96" s="16" t="s">
+      <c r="B96" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="C96" s="17" t="n">
+      <c r="C96" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B96,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="D96" s="17" t="n">
+      <c r="D96" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B96, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="E96" s="17" t="n">
+      <c r="E96" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B96, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F96" s="17" t="n">
+      <c r="F96" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B96,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G96" s="17" t="n">
+      <c r="G96" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B96, case_definitions!A$17:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H96" s="18" t="n">
+      <c r="H96" s="19" t="n">
         <f aca="false">SUM(C96:G96)</f>
         <v>1</v>
       </c>
-      <c r="I96" s="19" t="str">
-        <f aca="false">IF(H96&gt;=1, "yes", "no")</f>
-        <v>yes</v>
+      <c r="I96" s="20" t="str">
+        <f aca="false">IF(H96&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B97" s="16" t="s">
+      <c r="B97" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="C97" s="17" t="n">
+      <c r="C97" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B97,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="D97" s="17" t="n">
+      <c r="D97" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B97, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="E97" s="17" t="n">
+      <c r="E97" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B97, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F97" s="17" t="n">
+      <c r="F97" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B97,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G97" s="17" t="n">
+      <c r="G97" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B97, case_definitions!A$17:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H97" s="18" t="n">
+      <c r="H97" s="19" t="n">
         <f aca="false">SUM(C97:G97)</f>
         <v>1</v>
       </c>
-      <c r="I97" s="19" t="str">
-        <f aca="false">IF(H97&gt;=1, "yes", "no")</f>
-        <v>yes</v>
+      <c r="I97" s="20" t="str">
+        <f aca="false">IF(H97&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B98" s="16" t="s">
+      <c r="B98" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="C98" s="17" t="n">
+      <c r="C98" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B98,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="D98" s="17" t="n">
+      <c r="D98" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B98, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="E98" s="17" t="n">
+      <c r="E98" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B98, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F98" s="17" t="n">
+      <c r="F98" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B98,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G98" s="17" t="n">
+      <c r="G98" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B98, case_definitions!A$17:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H98" s="18" t="n">
+      <c r="H98" s="19" t="n">
         <f aca="false">SUM(C98:G98)</f>
         <v>1</v>
       </c>
-      <c r="I98" s="19" t="str">
-        <f aca="false">IF(H98&gt;=1, "yes", "no")</f>
-        <v>yes</v>
+      <c r="I98" s="20" t="str">
+        <f aca="false">IF(H98&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B99" s="16" t="s">
+      <c r="B99" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="C99" s="17" t="n">
+      <c r="C99" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B99,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="D99" s="17" t="n">
+      <c r="D99" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B99, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="E99" s="17" t="n">
+      <c r="E99" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B99, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F99" s="17" t="n">
+      <c r="F99" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B99,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G99" s="17" t="n">
+      <c r="G99" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B99, case_definitions!A$17:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H99" s="18" t="n">
+      <c r="H99" s="19" t="n">
         <f aca="false">SUM(C99:G99)</f>
         <v>1</v>
       </c>
-      <c r="I99" s="19" t="str">
-        <f aca="false">IF(H99&gt;=1, "yes", "no")</f>
-        <v>yes</v>
+      <c r="I99" s="20" t="str">
+        <f aca="false">IF(H99&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B100" s="16" t="s">
+      <c r="B100" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="C100" s="17" t="n">
+      <c r="C100" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B100,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="D100" s="17" t="n">
+      <c r="D100" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B100, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="E100" s="17" t="n">
+      <c r="E100" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B100, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F100" s="17" t="n">
+      <c r="F100" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B100,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G100" s="17" t="n">
+      <c r="G100" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B100, case_definitions!A$17:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H100" s="18" t="n">
+      <c r="H100" s="19" t="n">
         <f aca="false">SUM(C100:G100)</f>
         <v>1</v>
       </c>
-      <c r="I100" s="19" t="str">
-        <f aca="false">IF(H100&gt;=1, "yes", "no")</f>
-        <v>yes</v>
+      <c r="I100" s="20" t="str">
+        <f aca="false">IF(H100&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B101" s="16" t="s">
+      <c r="B101" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="C101" s="17" t="n">
+      <c r="C101" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B101,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="D101" s="17" t="n">
+      <c r="D101" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B101, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="E101" s="17" t="n">
+      <c r="E101" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B101, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F101" s="17" t="n">
+      <c r="F101" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B101,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G101" s="17" t="n">
+      <c r="G101" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B101, case_definitions!A$17:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H101" s="18" t="n">
+      <c r="H101" s="19" t="n">
         <f aca="false">SUM(C101:G101)</f>
         <v>1</v>
       </c>
-      <c r="I101" s="19" t="str">
-        <f aca="false">IF(H101&gt;=1, "yes", "no")</f>
-        <v>yes</v>
+      <c r="I101" s="20" t="str">
+        <f aca="false">IF(H101&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B102" s="16" t="s">
+      <c r="B102" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="C102" s="17" t="n">
+      <c r="C102" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B102,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="D102" s="17" t="n">
+      <c r="D102" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B102, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="E102" s="17" t="n">
+      <c r="E102" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B102, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F102" s="17" t="n">
+      <c r="F102" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B102,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G102" s="17" t="n">
+      <c r="G102" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B102, case_definitions!A$17:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H102" s="18" t="n">
+      <c r="H102" s="19" t="n">
         <f aca="false">SUM(C102:G102)</f>
         <v>1</v>
       </c>
-      <c r="I102" s="19" t="str">
-        <f aca="false">IF(H102&gt;=1, "yes", "no")</f>
-        <v>yes</v>
+      <c r="I102" s="20" t="str">
+        <f aca="false">IF(H102&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B103" s="16" t="s">
+      <c r="B103" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="C103" s="17" t="n">
+      <c r="C103" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B103,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="D103" s="17" t="n">
+      <c r="D103" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B103, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="E103" s="17" t="n">
+      <c r="E103" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B103, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F103" s="17" t="n">
+      <c r="F103" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B103,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G103" s="17" t="n">
+      <c r="G103" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B103, case_definitions!A$17:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H103" s="18" t="n">
+      <c r="H103" s="19" t="n">
         <f aca="false">SUM(C103:G103)</f>
         <v>1</v>
       </c>
-      <c r="I103" s="19" t="str">
-        <f aca="false">IF(H103&gt;=1, "yes", "no")</f>
-        <v>yes</v>
+      <c r="I103" s="20" t="str">
+        <f aca="false">IF(H103&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B104" s="16" t="s">
+      <c r="B104" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="C104" s="17" t="n">
+      <c r="C104" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B104,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="D104" s="17" t="n">
+      <c r="D104" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B104, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="E104" s="17" t="n">
+      <c r="E104" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B104, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F104" s="17" t="n">
+      <c r="F104" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B104,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G104" s="17" t="n">
+      <c r="G104" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B104, case_definitions!A$17:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H104" s="18" t="n">
+      <c r="H104" s="19" t="n">
         <f aca="false">SUM(C104:G104)</f>
         <v>1</v>
       </c>
-      <c r="I104" s="19" t="str">
-        <f aca="false">IF(H104&gt;=1, "yes", "no")</f>
-        <v>yes</v>
+      <c r="I104" s="20" t="str">
+        <f aca="false">IF(H104&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B105" s="16" t="s">
+      <c r="B105" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="C105" s="17" t="n">
+      <c r="C105" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B105,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="D105" s="17" t="n">
+      <c r="D105" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B105, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="E105" s="17" t="n">
+      <c r="E105" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B105, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F105" s="17" t="n">
+      <c r="F105" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B105,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G105" s="17" t="n">
+      <c r="G105" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B105, case_definitions!A$17:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H105" s="18" t="n">
+      <c r="H105" s="19" t="n">
         <f aca="false">SUM(C105:G105)</f>
         <v>1</v>
       </c>
-      <c r="I105" s="19" t="str">
-        <f aca="false">IF(H105&gt;=1, "yes", "no")</f>
-        <v>yes</v>
+      <c r="I105" s="20" t="str">
+        <f aca="false">IF(H105&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B106" s="16" t="s">
+      <c r="B106" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="C106" s="17" t="n">
+      <c r="C106" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B106,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="D106" s="17" t="n">
+      <c r="D106" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B106, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="E106" s="17" t="n">
+      <c r="E106" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B106, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F106" s="17" t="n">
+      <c r="F106" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B106,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G106" s="17" t="n">
+      <c r="G106" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B106, case_definitions!A$17:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H106" s="18" t="n">
+      <c r="H106" s="19" t="n">
         <f aca="false">SUM(C106:G106)</f>
         <v>1</v>
       </c>
-      <c r="I106" s="19" t="str">
-        <f aca="false">IF(H106&gt;=1, "yes", "no")</f>
-        <v>yes</v>
+      <c r="I106" s="20" t="str">
+        <f aca="false">IF(H106&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B107" s="16" t="s">
+      <c r="B107" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="C107" s="17" t="n">
+      <c r="C107" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B107,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="D107" s="17" t="n">
+      <c r="D107" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B107, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="E107" s="17" t="n">
+      <c r="E107" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B107, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F107" s="17" t="n">
+      <c r="F107" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B107,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G107" s="17" t="n">
+      <c r="G107" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B107, case_definitions!A$17:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H107" s="18" t="n">
+      <c r="H107" s="19" t="n">
         <f aca="false">SUM(C107:G107)</f>
         <v>1</v>
       </c>
-      <c r="I107" s="19" t="str">
-        <f aca="false">IF(H107&gt;=1, "yes", "no")</f>
-        <v>yes</v>
+      <c r="I107" s="20" t="str">
+        <f aca="false">IF(H107&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B108" s="16" t="s">
+      <c r="B108" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="C108" s="17" t="n">
+      <c r="C108" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B108,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="D108" s="17" t="n">
+      <c r="D108" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B108, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="E108" s="17" t="n">
+      <c r="E108" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B108, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F108" s="17" t="n">
+      <c r="F108" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B108,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G108" s="17" t="n">
+      <c r="G108" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B108, case_definitions!A$17:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H108" s="18" t="n">
+      <c r="H108" s="19" t="n">
         <f aca="false">SUM(C108:G108)</f>
         <v>1</v>
       </c>
-      <c r="I108" s="19" t="str">
-        <f aca="false">IF(H108&gt;=1, "yes", "no")</f>
-        <v>yes</v>
+      <c r="I108" s="20" t="str">
+        <f aca="false">IF(H108&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B109" s="16" t="s">
+      <c r="B109" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="C109" s="17" t="n">
+      <c r="C109" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B109,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="D109" s="17" t="n">
+      <c r="D109" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B109, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="E109" s="17" t="n">
+      <c r="E109" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B109, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F109" s="17" t="n">
+      <c r="F109" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B109,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G109" s="17" t="n">
+      <c r="G109" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B109, case_definitions!A$17:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H109" s="18" t="n">
+      <c r="H109" s="19" t="n">
         <f aca="false">SUM(C109:G109)</f>
         <v>1</v>
       </c>
-      <c r="I109" s="19" t="str">
-        <f aca="false">IF(H109&gt;=1, "yes", "no")</f>
-        <v>yes</v>
+      <c r="I109" s="20" t="str">
+        <f aca="false">IF(H109&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B110" s="16" t="s">
+      <c r="B110" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="C110" s="17" t="n">
+      <c r="C110" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B110,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="D110" s="17" t="n">
+      <c r="D110" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B110, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="E110" s="17" t="n">
+      <c r="E110" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B110, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F110" s="17" t="n">
+      <c r="F110" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B110,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G110" s="17" t="n">
+      <c r="G110" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B110, case_definitions!A$17:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H110" s="18" t="n">
+      <c r="H110" s="19" t="n">
         <f aca="false">SUM(C110:G110)</f>
         <v>1</v>
       </c>
-      <c r="I110" s="19" t="str">
-        <f aca="false">IF(H110&gt;=1, "yes", "no")</f>
-        <v>yes</v>
+      <c r="I110" s="20" t="str">
+        <f aca="false">IF(H110&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B111" s="16" t="s">
+      <c r="B111" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="C111" s="17" t="n">
+      <c r="C111" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B111,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="D111" s="17" t="n">
+      <c r="D111" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B111, input_constant!A:A, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="E111" s="17" t="n">
+      <c r="E111" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B111, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F111" s="17" t="n">
+      <c r="F111" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B111,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="G111" s="17" t="n">
+      <c r="G111" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B111, case_definitions!A$17:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H111" s="18" t="n">
+      <c r="H111" s="19" t="n">
         <f aca="false">SUM(C111:G111)</f>
         <v>1</v>
       </c>
-      <c r="I111" s="19" t="str">
-        <f aca="false">IF(H111&gt;=1, "yes", "no")</f>
-        <v>yes</v>
+      <c r="I111" s="20" t="str">
+        <f aca="false">IF(H111&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B112" s="16" t="s">
+      <c r="B112" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="C112" s="17" t="n">
+      <c r="C112" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B112,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="D112" s="17" t="n">
+      <c r="D112" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B112, input_constant!A:A, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="E112" s="17" t="n">
+      <c r="E112" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B112, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F112" s="17" t="n">
+      <c r="F112" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B112,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="G112" s="17" t="n">
+      <c r="G112" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B112, case_definitions!A$17:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H112" s="18" t="n">
+      <c r="H112" s="19" t="n">
         <f aca="false">SUM(C112:G112)</f>
         <v>1</v>
       </c>
-      <c r="I112" s="19" t="str">
-        <f aca="false">IF(H112&gt;=1, "yes", "no")</f>
-        <v>yes</v>
+      <c r="I112" s="20" t="str">
+        <f aca="false">IF(H112&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B113" s="16" t="s">
+      <c r="B113" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="C113" s="17" t="n">
+      <c r="C113" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B113,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="D113" s="17" t="n">
+      <c r="D113" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B113, input_constant!A:A, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="E113" s="17" t="n">
+      <c r="E113" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B113, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F113" s="17" t="n">
+      <c r="F113" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B113,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="G113" s="17" t="n">
+      <c r="G113" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B113, case_definitions!A$17:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H113" s="18" t="n">
+      <c r="H113" s="19" t="n">
         <f aca="false">SUM(C113:G113)</f>
         <v>1</v>
       </c>
-      <c r="I113" s="19" t="str">
-        <f aca="false">IF(H113&gt;=1, "yes", "no")</f>
-        <v>yes</v>
+      <c r="I113" s="20" t="str">
+        <f aca="false">IF(H113&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B114" s="16" t="s">
+      <c r="B114" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="C114" s="17" t="n">
+      <c r="C114" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B114,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="D114" s="17" t="n">
+      <c r="D114" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B114, input_constant!A:A, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="E114" s="17" t="n">
+      <c r="E114" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B114, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F114" s="17" t="n">
+      <c r="F114" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B114,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="G114" s="17" t="n">
+      <c r="G114" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B114, case_definitions!A$17:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H114" s="18" t="n">
+      <c r="H114" s="19" t="n">
         <f aca="false">SUM(C114:G114)</f>
         <v>1</v>
       </c>
-      <c r="I114" s="19" t="str">
-        <f aca="false">IF(H114&gt;=1, "yes", "no")</f>
-        <v>yes</v>
+      <c r="I114" s="20" t="str">
+        <f aca="false">IF(H114&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B115" s="16" t="s">
+      <c r="B115" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="C115" s="17" t="n">
+      <c r="C115" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B115,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="D115" s="17" t="n">
+      <c r="D115" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B115, input_constant!A:A, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="E115" s="17" t="n">
+      <c r="E115" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B115, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F115" s="17" t="n">
+      <c r="F115" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B115,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="G115" s="17" t="n">
+      <c r="G115" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B115, case_definitions!A$17:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H115" s="18" t="n">
+      <c r="H115" s="19" t="n">
         <f aca="false">SUM(C115:G115)</f>
         <v>1</v>
       </c>
-      <c r="I115" s="19" t="str">
-        <f aca="false">IF(H115&gt;=1, "yes", "no")</f>
-        <v>yes</v>
+      <c r="I115" s="20" t="str">
+        <f aca="false">IF(H115&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B116" s="16" t="s">
+      <c r="B116" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="C116" s="17" t="n">
+      <c r="C116" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B116,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="D116" s="17" t="n">
+      <c r="D116" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B116, input_constant!A:A, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="E116" s="17" t="n">
+      <c r="E116" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B116, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F116" s="17" t="n">
+      <c r="F116" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B116,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="G116" s="17" t="n">
+      <c r="G116" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B116, case_definitions!A$17:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H116" s="18" t="n">
+      <c r="H116" s="19" t="n">
         <f aca="false">SUM(C116:G116)</f>
         <v>1</v>
       </c>
-      <c r="I116" s="19" t="str">
-        <f aca="false">IF(H116&gt;=1, "yes", "no")</f>
-        <v>yes</v>
+      <c r="I116" s="20" t="str">
+        <f aca="false">IF(H116&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B117" s="20" t="s">
+      <c r="B117" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="C117" s="21"/>
-      <c r="D117" s="21"/>
-      <c r="E117" s="21"/>
-      <c r="F117" s="21"/>
-      <c r="G117" s="18" t="n">
+      <c r="C117" s="22"/>
+      <c r="D117" s="22"/>
+      <c r="E117" s="22"/>
+      <c r="F117" s="22"/>
+      <c r="G117" s="19" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B117, case_definitions!A$17:A$29,1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="H117" s="18" t="n">
+      <c r="H117" s="19" t="n">
         <f aca="false">SUM(C117:G117)</f>
         <v>1</v>
       </c>
-      <c r="I117" s="19" t="str">
-        <f aca="false">IF(H117&gt;=1, "yes", "no")</f>
-        <v>yes</v>
+      <c r="I117" s="20" t="str">
+        <f aca="false">IF(H117&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B118" s="20" t="s">
+      <c r="B118" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="C118" s="21"/>
-      <c r="D118" s="21"/>
-      <c r="E118" s="21"/>
-      <c r="F118" s="21"/>
-      <c r="G118" s="17" t="n">
+      <c r="C118" s="22"/>
+      <c r="D118" s="22"/>
+      <c r="E118" s="22"/>
+      <c r="F118" s="22"/>
+      <c r="G118" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B118, case_definitions!A$17:A$29,1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="H118" s="18" t="n">
+      <c r="H118" s="19" t="n">
         <f aca="false">SUM(C118:G118)</f>
         <v>1</v>
       </c>
-      <c r="I118" s="19" t="str">
-        <f aca="false">IF(H118&gt;=1, "yes", "no")</f>
-        <v>yes</v>
+      <c r="I118" s="20" t="str">
+        <f aca="false">IF(H118&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B119" s="20" t="s">
+      <c r="B119" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="C119" s="21"/>
-      <c r="D119" s="21"/>
-      <c r="E119" s="21"/>
-      <c r="F119" s="21"/>
-      <c r="G119" s="17" t="n">
+      <c r="C119" s="22"/>
+      <c r="D119" s="22"/>
+      <c r="E119" s="22"/>
+      <c r="F119" s="22"/>
+      <c r="G119" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B119, case_definitions!A$17:A$29,1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="H119" s="18" t="n">
+      <c r="H119" s="19" t="n">
         <f aca="false">SUM(C119:G119)</f>
         <v>1</v>
       </c>
-      <c r="I119" s="19" t="str">
-        <f aca="false">IF(H119&gt;=1, "yes", "no")</f>
-        <v>yes</v>
+      <c r="I119" s="20" t="str">
+        <f aca="false">IF(H119&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B120" s="20" t="s">
+      <c r="B120" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="C120" s="21"/>
-      <c r="D120" s="21"/>
-      <c r="E120" s="21"/>
-      <c r="F120" s="21"/>
-      <c r="G120" s="17" t="n">
+      <c r="C120" s="22"/>
+      <c r="D120" s="22"/>
+      <c r="E120" s="22"/>
+      <c r="F120" s="22"/>
+      <c r="G120" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B120, case_definitions!A$17:A$29,1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="H120" s="18" t="n">
+      <c r="H120" s="19" t="n">
         <f aca="false">SUM(C120:G120)</f>
         <v>1</v>
       </c>
-      <c r="I120" s="19" t="str">
-        <f aca="false">IF(H120&gt;=1, "yes", "no")</f>
-        <v>yes</v>
+      <c r="I120" s="20" t="str">
+        <f aca="false">IF(H120&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B121" s="20" t="s">
+      <c r="B121" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="C121" s="21"/>
-      <c r="D121" s="21"/>
-      <c r="E121" s="21"/>
-      <c r="F121" s="21"/>
-      <c r="G121" s="17" t="n">
+      <c r="C121" s="22"/>
+      <c r="D121" s="22"/>
+      <c r="E121" s="22"/>
+      <c r="F121" s="22"/>
+      <c r="G121" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B121, case_definitions!A$17:A$29,1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="H121" s="18" t="n">
+      <c r="H121" s="19" t="n">
         <f aca="false">SUM(C121:G121)</f>
         <v>1</v>
       </c>
-      <c r="I121" s="19" t="str">
-        <f aca="false">IF(H121&gt;=1, "yes", "no")</f>
-        <v>yes</v>
+      <c r="I121" s="20" t="str">
+        <f aca="false">IF(H121&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B122" s="20" t="s">
+      <c r="B122" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="C122" s="21"/>
-      <c r="D122" s="21"/>
-      <c r="E122" s="21"/>
-      <c r="F122" s="21"/>
-      <c r="G122" s="17" t="n">
+      <c r="C122" s="22"/>
+      <c r="D122" s="22"/>
+      <c r="E122" s="22"/>
+      <c r="F122" s="22"/>
+      <c r="G122" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B122, case_definitions!A$17:A$29,1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="H122" s="18" t="n">
+      <c r="H122" s="19" t="n">
         <f aca="false">SUM(C122:G122)</f>
         <v>1</v>
       </c>
-      <c r="I122" s="19" t="str">
-        <f aca="false">IF(H122&gt;=1, "yes", "no")</f>
-        <v>yes</v>
+      <c r="I122" s="20" t="str">
+        <f aca="false">IF(H122&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B123" s="20" t="s">
+      <c r="B123" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="C123" s="21"/>
-      <c r="D123" s="21"/>
-      <c r="E123" s="21"/>
-      <c r="F123" s="21"/>
-      <c r="G123" s="17" t="n">
+      <c r="C123" s="22"/>
+      <c r="D123" s="22"/>
+      <c r="E123" s="22"/>
+      <c r="F123" s="22"/>
+      <c r="G123" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B123, case_definitions!A$17:A$29,1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="H123" s="18" t="n">
+      <c r="H123" s="19" t="n">
         <f aca="false">SUM(C123:G123)</f>
         <v>1</v>
       </c>
-      <c r="I123" s="19" t="str">
-        <f aca="false">IF(H123&gt;=1, "yes", "no")</f>
-        <v>yes</v>
+      <c r="I123" s="20" t="str">
+        <f aca="false">IF(H123&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B124" s="20" t="s">
+      <c r="B124" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="C124" s="21"/>
-      <c r="D124" s="21"/>
-      <c r="E124" s="21"/>
-      <c r="F124" s="21"/>
-      <c r="G124" s="17" t="n">
+      <c r="C124" s="22"/>
+      <c r="D124" s="22"/>
+      <c r="E124" s="22"/>
+      <c r="F124" s="22"/>
+      <c r="G124" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B124, case_definitions!A$17:A$29,1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="H124" s="18" t="n">
+      <c r="H124" s="19" t="n">
         <f aca="false">SUM(C124:G124)</f>
         <v>1</v>
       </c>
-      <c r="I124" s="19" t="str">
-        <f aca="false">IF(H124&gt;=1, "yes", "no")</f>
-        <v>yes</v>
+      <c r="I124" s="20" t="str">
+        <f aca="false">IF(H124&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B125" s="20" t="s">
+      <c r="B125" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="C125" s="21"/>
-      <c r="D125" s="21"/>
-      <c r="E125" s="21"/>
-      <c r="F125" s="21"/>
-      <c r="G125" s="17" t="n">
+      <c r="C125" s="22"/>
+      <c r="D125" s="22"/>
+      <c r="E125" s="22"/>
+      <c r="F125" s="22"/>
+      <c r="G125" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B125, case_definitions!A$17:A$29,1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="H125" s="18" t="n">
+      <c r="H125" s="19" t="n">
         <f aca="false">SUM(C125:G125)</f>
         <v>1</v>
       </c>
-      <c r="I125" s="19" t="str">
-        <f aca="false">IF(H125&gt;=1, "yes", "no")</f>
-        <v>yes</v>
+      <c r="I125" s="20" t="str">
+        <f aca="false">IF(H125&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B126" s="20" t="s">
+      <c r="B126" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C126" s="17" t="n">
+      <c r="C126" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B126,settings!B:B, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="D126" s="17" t="n">
+      <c r="D126" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B126, input_constant!A:A, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="E126" s="17" t="n">
+      <c r="E126" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B126, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F126" s="17" t="n">
+      <c r="F126" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B126,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G126" s="17" t="n">
+      <c r="G126" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B126, case_definitions!A$17:A$29,1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="H126" s="18" t="n">
+      <c r="H126" s="19" t="n">
         <f aca="false">SUM(C126:G126)</f>
         <v>2</v>
       </c>
-      <c r="I126" s="19" t="str">
-        <f aca="false">IF(H126&gt;=1, "yes", "no")</f>
-        <v>yes</v>
+      <c r="I126" s="20" t="str">
+        <f aca="false">IF(H126&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B127" s="20" t="s">
+      <c r="B127" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="C127" s="17" t="n">
+      <c r="C127" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B127,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="D127" s="17" t="n">
+      <c r="D127" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B127, input_constant!A:A, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="E127" s="17" t="n">
+      <c r="E127" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B127, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F127" s="17" t="n">
+      <c r="F127" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B127,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G127" s="17" t="n">
+      <c r="G127" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B127, case_definitions!A$17:A$29,1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="H127" s="18" t="n">
+      <c r="H127" s="19" t="n">
         <f aca="false">SUM(C127:G127)</f>
         <v>1</v>
       </c>
-      <c r="I127" s="19" t="str">
-        <f aca="false">IF(H127&gt;=1, "yes", "no")</f>
-        <v>yes</v>
+      <c r="I127" s="20" t="str">
+        <f aca="false">IF(H127&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B128" s="20" t="s">
+      <c r="B128" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="C128" s="17" t="n">
+      <c r="C128" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B128,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="D128" s="17" t="n">
+      <c r="D128" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B128, input_constant!A:A, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="E128" s="17" t="n">
+      <c r="E128" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B128, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F128" s="17" t="n">
+      <c r="F128" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B128,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G128" s="17" t="n">
+      <c r="G128" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B128, case_definitions!A$17:A$29,1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="H128" s="18" t="n">
+      <c r="H128" s="19" t="n">
         <f aca="false">SUM(C128:G128)</f>
         <v>1</v>
       </c>
-      <c r="I128" s="19" t="str">
-        <f aca="false">IF(H128&gt;=1, "yes", "no")</f>
-        <v>yes</v>
+      <c r="I128" s="20" t="str">
+        <f aca="false">IF(H128&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B129" s="20" t="s">
+      <c r="B129" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="C129" s="17" t="n">
+      <c r="C129" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B129,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="D129" s="17" t="n">
+      <c r="D129" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B129, input_constant!A:A, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="E129" s="17" t="n">
+      <c r="E129" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B129, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F129" s="17" t="n">
+      <c r="F129" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B129,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G129" s="17" t="n">
+      <c r="G129" s="18" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B129, case_definitions!A$17:A$29,1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="H129" s="18" t="n">
+      <c r="H129" s="19" t="n">
         <f aca="false">SUM(C129:G129)</f>
         <v>1</v>
       </c>
-      <c r="I129" s="19" t="str">
-        <f aca="false">IF(H129&gt;=1, "yes", "no")</f>
-        <v>yes</v>
+      <c r="I129" s="20" t="str">
+        <f aca="false">IF(H129&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="D7:H7"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="C10:G10"/>
     <mergeCell ref="H10:H11"/>
@@ -5406,15 +5372,15 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="I12:I129">
     <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>"yes"</formula>
+      <formula>"OK"</formula>
     </cfRule>
     <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>"no"</formula>
+      <formula>"missing!"</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -5429,16 +5395,16 @@
   </sheetPr>
   <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B28" activeCellId="0" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="22" width="13.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.37"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.10714285714286"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.5204081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="23" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5451,90 +5417,90 @@
       <c r="C2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="25" t="s">
         <v>156</v>
       </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
     </row>
     <row r="4" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
     </row>
     <row r="5" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="26"/>
-      <c r="B5" s="23" t="s">
+      <c r="A5" s="27"/>
+      <c r="B5" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
     </row>
     <row r="6" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="26"/>
-      <c r="B6" s="23" t="s">
+      <c r="A6" s="27"/>
+      <c r="B6" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="25" t="s">
         <v>162</v>
       </c>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
     </row>
     <row r="7" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="26"/>
-      <c r="B7" s="23" t="s">
+      <c r="A7" s="27"/>
+      <c r="B7" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
     </row>
     <row r="8" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="26"/>
-      <c r="B8" s="23" t="s">
+      <c r="A8" s="27"/>
+      <c r="B8" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
     </row>
     <row r="9" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="26"/>
-      <c r="B9" s="23" t="s">
+      <c r="A9" s="27"/>
+      <c r="B9" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
     </row>
     <row r="10" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="26"/>
-      <c r="B10" s="23" t="s">
+      <c r="A10" s="27"/>
+      <c r="B10" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="25" t="s">
         <v>170</v>
       </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
@@ -5545,7 +5511,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="27" t="s">
         <v>155</v>
       </c>
       <c r="C12" s="0"/>
@@ -5554,7 +5520,7 @@
       <c r="B13" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="28" t="s">
         <v>173</v>
       </c>
     </row>
@@ -5562,43 +5528,43 @@
       <c r="B14" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="27" t="s">
-        <v>174</v>
+      <c r="C14" s="28" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="D15" s="0" t="s">
         <v>174</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="27" t="s">
-        <v>174</v>
+      <c r="C16" s="28" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="27" t="s">
-        <v>173</v>
+      <c r="C17" s="28" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="27" t="s">
-        <v>173</v>
+      <c r="C18" s="28" t="s">
+        <v>175</v>
       </c>
       <c r="D18" s="0" t="s">
         <v>176</v>
@@ -5608,7 +5574,7 @@
       <c r="B19" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="22" t="n">
+      <c r="C19" s="23" t="n">
         <v>365</v>
       </c>
     </row>
@@ -5616,7 +5582,7 @@
       <c r="B20" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="28" t="n">
+      <c r="C20" s="29" t="n">
         <v>43101</v>
       </c>
     </row>
@@ -5624,7 +5590,7 @@
       <c r="B21" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="23" t="s">
         <v>177</v>
       </c>
     </row>
@@ -5632,8 +5598,8 @@
       <c r="B22" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="27" t="s">
-        <v>174</v>
+      <c r="C22" s="28" t="s">
+        <v>173</v>
       </c>
       <c r="D22" s="0" t="s">
         <v>178</v>
@@ -5643,7 +5609,7 @@
       <c r="C23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="26" t="s">
+      <c r="A24" s="27" t="s">
         <v>159</v>
       </c>
       <c r="C24" s="0"/>
@@ -5652,7 +5618,7 @@
       <c r="B25" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C25" s="23" t="s">
         <v>179</v>
       </c>
     </row>
@@ -5660,15 +5626,15 @@
       <c r="B26" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="C26" s="27" t="s">
-        <v>174</v>
+      <c r="C26" s="28" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="23" t="s">
         <v>180</v>
       </c>
     </row>
@@ -5676,103 +5642,103 @@
       <c r="B28" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="22" t="n">
-        <v>0.03</v>
+      <c r="C28" s="23" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="27" t="s">
-        <v>174</v>
+      <c r="C29" s="28" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="26" t="s">
+      <c r="A31" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="C31" s="29"/>
+      <c r="C31" s="30"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="26"/>
+      <c r="A32" s="27"/>
       <c r="B32" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="C32" s="29"/>
+      <c r="C32" s="30"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="26"/>
+      <c r="A33" s="27"/>
       <c r="B33" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="C33" s="22" t="s">
+      <c r="C33" s="23" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="26"/>
+      <c r="A34" s="27"/>
       <c r="B34" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="C34" s="22" t="s">
+      <c r="C34" s="23" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C35" s="29"/>
+      <c r="C35" s="30"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="26" t="s">
+      <c r="A36" s="27" t="s">
         <v>183</v>
       </c>
       <c r="C36" s="0"/>
-      <c r="D36" s="30"/>
-      <c r="G36" s="30"/>
+      <c r="D36" s="31"/>
+      <c r="G36" s="31"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="C37" s="27" t="s">
-        <v>174</v>
+      <c r="C37" s="28" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="C38" s="27" t="s">
-        <v>173</v>
+      <c r="C38" s="28" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="C39" s="27" t="s">
-        <v>174</v>
+      <c r="C39" s="28" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="C40" s="27" t="s">
-        <v>174</v>
+      <c r="C40" s="28" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C41" s="29"/>
+      <c r="C41" s="30"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="26" t="s">
+      <c r="A42" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="B42" s="30"/>
+      <c r="B42" s="31"/>
       <c r="C42" s="0"/>
       <c r="D42" s="0" t="s">
         <v>184</v>
@@ -5782,8 +5748,8 @@
       <c r="B43" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="C43" s="27" t="s">
-        <v>174</v>
+      <c r="C43" s="28" t="s">
+        <v>173</v>
       </c>
       <c r="D43" s="0" t="s">
         <v>176</v>
@@ -5793,8 +5759,8 @@
       <c r="B44" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="C44" s="27" t="s">
-        <v>174</v>
+      <c r="C44" s="28" t="s">
+        <v>173</v>
       </c>
       <c r="D44" s="0" t="s">
         <v>176</v>
@@ -5804,65 +5770,65 @@
       <c r="B45" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="C45" s="27" t="s">
-        <v>173</v>
+      <c r="C45" s="28" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="C46" s="27" t="s">
-        <v>173</v>
+      <c r="C46" s="28" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C47" s="29"/>
+      <c r="C47" s="30"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="26" t="s">
+      <c r="A48" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="B48" s="26"/>
-      <c r="C48" s="29"/>
+      <c r="B48" s="27"/>
+      <c r="C48" s="30"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="C49" s="27" t="s">
-        <v>174</v>
+      <c r="C49" s="28" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="C50" s="27" t="s">
-        <v>174</v>
+      <c r="C50" s="28" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="C51" s="27" t="s">
-        <v>174</v>
+      <c r="C51" s="28" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="C52" s="27" t="s">
-        <v>174</v>
+      <c r="C52" s="28" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C53" s="29"/>
+      <c r="C53" s="30"/>
     </row>
     <row r="54" customFormat="false" ht="13.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="26" t="s">
+      <c r="A54" s="27" t="s">
         <v>169</v>
       </c>
       <c r="C54" s="0"/>
@@ -5871,38 +5837,38 @@
       <c r="B55" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="C55" s="27" t="s">
-        <v>173</v>
+      <c r="C55" s="28" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B56" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="C56" s="27" t="s">
-        <v>174</v>
+      <c r="C56" s="28" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="C57" s="27" t="s">
-        <v>174</v>
+      <c r="C57" s="28" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="C58" s="27" t="s">
-        <v>174</v>
+      <c r="C58" s="28" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -5917,27 +5883,27 @@
   </sheetPr>
   <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A66" activeCellId="0" sqref="A66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="22" width="6.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="4" style="0" width="8.37"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.0051020408163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.4234693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="23" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="1023" min="4" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="10.6632653061225"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="32" t="s">
         <v>187</v>
       </c>
     </row>
@@ -5945,10 +5911,10 @@
       <c r="A2" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" s="31" t="s">
+      <c r="B2" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="32" t="s">
         <v>188</v>
       </c>
     </row>
@@ -5956,10 +5922,10 @@
       <c r="A3" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" s="31" t="s">
+      <c r="B3" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="32" t="s">
         <v>189</v>
       </c>
     </row>
@@ -5967,10 +5933,10 @@
       <c r="A4" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" s="31" t="s">
+      <c r="B4" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="32" t="s">
         <v>190</v>
       </c>
     </row>
@@ -5978,10 +5944,10 @@
       <c r="A5" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="B5" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" s="31" t="s">
+      <c r="B5" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="32" t="s">
         <v>189</v>
       </c>
     </row>
@@ -5989,10 +5955,10 @@
       <c r="A6" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="22" t="n">
+      <c r="B6" s="23" t="n">
         <v>8.8</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="32" t="s">
         <v>191</v>
       </c>
     </row>
@@ -6000,10 +5966,10 @@
       <c r="A7" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="B7" s="22" t="n">
+      <c r="B7" s="23" t="n">
         <v>0.1</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="32" t="s">
         <v>192</v>
       </c>
     </row>
@@ -6011,10 +5977,10 @@
       <c r="A8" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="B8" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" s="31" t="s">
+      <c r="B8" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="32" t="s">
         <v>193</v>
       </c>
     </row>
@@ -6022,10 +5988,10 @@
       <c r="A9" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="B9" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" s="31" t="s">
+      <c r="B9" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="32" t="s">
         <v>194</v>
       </c>
     </row>
@@ -6033,10 +5999,10 @@
       <c r="A10" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="B10" s="22" t="n">
+      <c r="B10" s="23" t="n">
         <v>20</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="32" t="s">
         <v>195</v>
       </c>
     </row>
@@ -6044,10 +6010,10 @@
       <c r="A11" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="B11" s="22" t="n">
+      <c r="B11" s="23" t="n">
         <v>0.5</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="32" t="s">
         <v>196</v>
       </c>
     </row>
@@ -6055,10 +6021,10 @@
       <c r="A12" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="B12" s="22" t="n">
+      <c r="B12" s="23" t="n">
         <v>650</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="32" t="s">
         <v>197</v>
       </c>
       <c r="D12" s="0" t="s">
@@ -6069,10 +6035,10 @@
       <c r="A13" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="B13" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" s="31" t="s">
+      <c r="B13" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" s="32" t="s">
         <v>199</v>
       </c>
       <c r="D13" s="0" t="s">
@@ -6083,10 +6049,10 @@
       <c r="A14" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="B14" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" s="31" t="s">
+      <c r="B14" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="32" t="s">
         <v>192</v>
       </c>
     </row>
@@ -6094,10 +6060,10 @@
       <c r="A15" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="B15" s="22" t="n">
+      <c r="B15" s="23" t="n">
         <v>0.33</v>
       </c>
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="32" t="s">
         <v>189</v>
       </c>
       <c r="D15" s="0" t="s">
@@ -6108,10 +6074,10 @@
       <c r="A16" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="B16" s="22" t="n">
+      <c r="B16" s="23" t="n">
         <v>20</v>
       </c>
-      <c r="C16" s="31" t="s">
+      <c r="C16" s="32" t="s">
         <v>195</v>
       </c>
     </row>
@@ -6119,10 +6085,10 @@
       <c r="A17" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="B17" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" s="31" t="s">
+      <c r="B17" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" s="32" t="s">
         <v>189</v>
       </c>
     </row>
@@ -6130,10 +6096,10 @@
       <c r="A18" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="B18" s="22" t="n">
+      <c r="B18" s="23" t="n">
         <v>0.3</v>
       </c>
-      <c r="C18" s="31" t="s">
+      <c r="C18" s="32" t="s">
         <v>189</v>
       </c>
     </row>
@@ -6141,10 +6107,10 @@
       <c r="A19" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="B19" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="C19" s="31" t="s">
+      <c r="B19" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" s="32" t="s">
         <v>202</v>
       </c>
     </row>
@@ -6152,10 +6118,10 @@
       <c r="A20" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="B20" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="C20" s="31" t="s">
+      <c r="B20" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" s="32" t="s">
         <v>192</v>
       </c>
     </row>
@@ -6163,10 +6129,10 @@
       <c r="A21" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="B21" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="C21" s="31" t="s">
+      <c r="B21" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" s="32" t="s">
         <v>203</v>
       </c>
     </row>
@@ -6174,10 +6140,10 @@
       <c r="A22" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="B22" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="C22" s="31" t="s">
+      <c r="B22" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" s="32" t="s">
         <v>204</v>
       </c>
     </row>
@@ -6185,10 +6151,10 @@
       <c r="A23" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="B23" s="22" t="n">
+      <c r="B23" s="23" t="n">
         <v>20</v>
       </c>
-      <c r="C23" s="31" t="s">
+      <c r="C23" s="32" t="s">
         <v>204</v>
       </c>
     </row>
@@ -6196,10 +6162,10 @@
       <c r="A24" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="B24" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="C24" s="31" t="s">
+      <c r="B24" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" s="32" t="s">
         <v>192</v>
       </c>
     </row>
@@ -6207,10 +6173,10 @@
       <c r="A25" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="B25" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="C25" s="31" t="s">
+      <c r="B25" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" s="32" t="s">
         <v>189</v>
       </c>
     </row>
@@ -6218,10 +6184,10 @@
       <c r="A26" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="B26" s="22" t="n">
+      <c r="B26" s="23" t="n">
         <v>0.05</v>
       </c>
-      <c r="C26" s="31" t="s">
+      <c r="C26" s="32" t="s">
         <v>189</v>
       </c>
     </row>
@@ -6229,10 +6195,10 @@
       <c r="A27" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="B27" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="C27" s="31" t="s">
+      <c r="B27" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" s="32" t="s">
         <v>189</v>
       </c>
     </row>
@@ -6240,10 +6206,10 @@
       <c r="A28" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="B28" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="C28" s="31" t="s">
+      <c r="B28" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" s="32" t="s">
         <v>196</v>
       </c>
     </row>
@@ -6251,10 +6217,10 @@
       <c r="A29" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="B29" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="C29" s="31" t="s">
+      <c r="B29" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" s="32" t="s">
         <v>197</v>
       </c>
     </row>
@@ -6262,10 +6228,10 @@
       <c r="A30" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="B30" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="C30" s="31" t="s">
+      <c r="B30" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" s="32" t="s">
         <v>199</v>
       </c>
     </row>
@@ -6273,10 +6239,10 @@
       <c r="A31" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="B31" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="C31" s="31" t="s">
+      <c r="B31" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" s="32" t="s">
         <v>192</v>
       </c>
     </row>
@@ -6284,10 +6250,10 @@
       <c r="A32" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B32" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="C32" s="31" t="s">
+      <c r="B32" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" s="32" t="s">
         <v>189</v>
       </c>
     </row>
@@ -6295,10 +6261,10 @@
       <c r="A33" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="B33" s="22" t="n">
+      <c r="B33" s="23" t="n">
         <v>20</v>
       </c>
-      <c r="C33" s="31" t="s">
+      <c r="C33" s="32" t="s">
         <v>195</v>
       </c>
     </row>
@@ -6306,10 +6272,10 @@
       <c r="A34" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B34" s="22" t="n">
+      <c r="B34" s="23" t="n">
         <v>0.89</v>
       </c>
-      <c r="C34" s="31" t="s">
+      <c r="C34" s="32" t="s">
         <v>205</v>
       </c>
       <c r="D34" s="0" t="s">
@@ -6323,10 +6289,10 @@
       <c r="A35" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="B35" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="C35" s="31" t="s">
+      <c r="B35" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" s="32" t="s">
         <v>193</v>
       </c>
     </row>
@@ -6334,10 +6300,10 @@
       <c r="A36" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="B36" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="C36" s="31" t="s">
+      <c r="B36" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" s="32" t="s">
         <v>194</v>
       </c>
     </row>
@@ -6345,10 +6311,10 @@
       <c r="A37" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="B37" s="22" t="n">
+      <c r="B37" s="23" t="n">
         <v>20</v>
       </c>
-      <c r="C37" s="31" t="s">
+      <c r="C37" s="32" t="s">
         <v>195</v>
       </c>
     </row>
@@ -6356,10 +6322,10 @@
       <c r="A38" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="B38" s="22" t="n">
+      <c r="B38" s="23" t="n">
         <v>0.5</v>
       </c>
-      <c r="C38" s="31" t="s">
+      <c r="C38" s="32" t="s">
         <v>208</v>
       </c>
     </row>
@@ -6367,10 +6333,10 @@
       <c r="A39" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="B39" s="22" t="n">
+      <c r="B39" s="23" t="n">
         <v>1000</v>
       </c>
-      <c r="C39" s="31" t="s">
+      <c r="C39" s="32" t="s">
         <v>209</v>
       </c>
     </row>
@@ -6378,10 +6344,10 @@
       <c r="A40" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="B40" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="C40" s="31" t="s">
+      <c r="B40" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" s="32" t="s">
         <v>210</v>
       </c>
     </row>
@@ -6389,10 +6355,10 @@
       <c r="A41" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="B41" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="C41" s="31" t="s">
+      <c r="B41" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" s="32" t="s">
         <v>192</v>
       </c>
     </row>
@@ -6400,10 +6366,10 @@
       <c r="A42" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="B42" s="22" t="n">
+      <c r="B42" s="23" t="n">
         <v>20</v>
       </c>
-      <c r="C42" s="31" t="s">
+      <c r="C42" s="32" t="s">
         <v>195</v>
       </c>
     </row>
@@ -6411,10 +6377,10 @@
       <c r="A43" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="B43" s="22" t="n">
+      <c r="B43" s="23" t="n">
         <v>0.4</v>
       </c>
-      <c r="C43" s="31" t="s">
+      <c r="C43" s="32" t="s">
         <v>189</v>
       </c>
     </row>
@@ -6422,10 +6388,10 @@
       <c r="A44" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="B44" s="22" t="n">
+      <c r="B44" s="23" t="n">
         <v>602</v>
       </c>
-      <c r="C44" s="31" t="s">
+      <c r="C44" s="32" t="s">
         <v>211</v>
       </c>
     </row>
@@ -6433,10 +6399,10 @@
       <c r="A45" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="B45" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="C45" s="31" t="s">
+      <c r="B45" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" s="32" t="s">
         <v>189</v>
       </c>
     </row>
@@ -6444,10 +6410,10 @@
       <c r="A46" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="B46" s="22" t="n">
+      <c r="B46" s="23" t="n">
         <v>0.2</v>
       </c>
-      <c r="C46" s="31" t="s">
+      <c r="C46" s="32" t="s">
         <v>189</v>
       </c>
       <c r="D46" s="0" t="s">
@@ -6458,10 +6424,10 @@
       <c r="A47" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="B47" s="22" t="n">
+      <c r="B47" s="23" t="n">
         <v>602</v>
       </c>
-      <c r="C47" s="31" t="s">
+      <c r="C47" s="32" t="s">
         <v>192</v>
       </c>
     </row>
@@ -6469,10 +6435,10 @@
       <c r="A48" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="B48" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="C48" s="31" t="s">
+      <c r="B48" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C48" s="32" t="s">
         <v>213</v>
       </c>
     </row>
@@ -6480,10 +6446,10 @@
       <c r="A49" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="B49" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="C49" s="31" t="s">
+      <c r="B49" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C49" s="32" t="s">
         <v>195</v>
       </c>
     </row>
@@ -6491,10 +6457,10 @@
       <c r="A50" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="B50" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="C50" s="31" t="s">
+      <c r="B50" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C50" s="32" t="s">
         <v>189</v>
       </c>
     </row>
@@ -6502,10 +6468,10 @@
       <c r="A51" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="B51" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="C51" s="31" t="s">
+      <c r="B51" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="C51" s="32" t="s">
         <v>189</v>
       </c>
     </row>
@@ -6513,10 +6479,10 @@
       <c r="A52" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="B52" s="22" t="n">
+      <c r="B52" s="23" t="n">
         <v>0.9</v>
       </c>
-      <c r="C52" s="31" t="s">
+      <c r="C52" s="32" t="s">
         <v>189</v>
       </c>
     </row>
@@ -6524,10 +6490,10 @@
       <c r="A53" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="B53" s="22" t="s">
+      <c r="B53" s="23" t="s">
         <v>214</v>
       </c>
-      <c r="C53" s="31" t="s">
+      <c r="C53" s="32" t="s">
         <v>215</v>
       </c>
     </row>
@@ -6535,10 +6501,10 @@
       <c r="A54" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="B54" s="22" t="n">
+      <c r="B54" s="23" t="n">
         <v>15</v>
       </c>
-      <c r="C54" s="31" t="s">
+      <c r="C54" s="32" t="s">
         <v>195</v>
       </c>
     </row>
@@ -6546,10 +6512,10 @@
       <c r="A55" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="B55" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="C55" s="31" t="s">
+      <c r="B55" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C55" s="32" t="s">
         <v>189</v>
       </c>
     </row>
@@ -6557,10 +6523,10 @@
       <c r="A56" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="B56" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="C56" s="31" t="s">
+      <c r="B56" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C56" s="32" t="s">
         <v>189</v>
       </c>
     </row>
@@ -6568,10 +6534,10 @@
       <c r="A57" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="B57" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="C57" s="31" t="s">
+      <c r="B57" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C57" s="32" t="s">
         <v>189</v>
       </c>
     </row>
@@ -6579,10 +6545,10 @@
       <c r="A58" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="B58" s="22" t="n">
+      <c r="B58" s="23" t="n">
         <v>0.09</v>
       </c>
-      <c r="C58" s="31" t="s">
+      <c r="C58" s="32" t="s">
         <v>189</v>
       </c>
     </row>
@@ -6590,10 +6556,10 @@
       <c r="A59" s="0" t="s">
         <v>128</v>
       </c>
-      <c r="B59" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="C59" s="31" t="s">
+      <c r="B59" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C59" s="32" t="s">
         <v>189</v>
       </c>
     </row>
@@ -6601,10 +6567,10 @@
       <c r="A60" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="B60" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="C60" s="31" t="s">
+      <c r="B60" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C60" s="32" t="s">
         <v>189</v>
       </c>
     </row>
@@ -6612,10 +6578,10 @@
       <c r="A61" s="0" t="s">
         <v>130</v>
       </c>
-      <c r="B61" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="C61" s="31" t="s">
+      <c r="B61" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C61" s="32" t="s">
         <v>189</v>
       </c>
     </row>
@@ -6623,10 +6589,10 @@
       <c r="A62" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="B62" s="22" t="n">
+      <c r="B62" s="23" t="n">
         <v>0.5</v>
       </c>
-      <c r="C62" s="31" t="s">
+      <c r="C62" s="32" t="s">
         <v>196</v>
       </c>
     </row>
@@ -6634,10 +6600,10 @@
       <c r="A63" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B63" s="22" t="n">
+      <c r="B63" s="23" t="n">
         <v>1100</v>
       </c>
-      <c r="C63" s="31" t="s">
+      <c r="C63" s="32" t="s">
         <v>197</v>
       </c>
     </row>
@@ -6645,10 +6611,10 @@
       <c r="A64" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="B64" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="C64" s="31" t="s">
+      <c r="B64" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C64" s="32" t="s">
         <v>199</v>
       </c>
     </row>
@@ -6656,10 +6622,10 @@
       <c r="A65" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="B65" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="C65" s="31" t="s">
+      <c r="B65" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C65" s="32" t="s">
         <v>192</v>
       </c>
     </row>
@@ -6667,17 +6633,17 @@
       <c r="A66" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="B66" s="22" t="n">
+      <c r="B66" s="23" t="n">
         <v>20</v>
       </c>
-      <c r="C66" s="31" t="s">
+      <c r="C66" s="32" t="s">
         <v>195</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -6690,35 +6656,49 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.37"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="23" t="s">
         <v>216</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="32" t="s">
         <v>217</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>218</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>0.25</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -6733,18 +6713,18 @@
   </sheetPr>
   <dimension ref="A2:I4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="3" style="0" width="8.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="25.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="22.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="20" style="0" width="8.37"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.4897959183673"/>
+    <col collapsed="false" hidden="false" max="17" min="3" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="23.8928571428571"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="21.734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6766,11 +6746,11 @@
       <c r="F2" s="0" t="s">
         <v>141</v>
       </c>
-      <c r="H2" s="22"/>
-      <c r="I2" s="31"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="32"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="32" t="s">
         <v>219</v>
       </c>
       <c r="B3" s="0" t="s">
@@ -6788,10 +6768,10 @@
       <c r="F3" s="0" t="s">
         <v>223</v>
       </c>
-      <c r="G3" s="22"/>
+      <c r="G3" s="23"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="32" t="s">
         <v>224</v>
       </c>
       <c r="B4" s="0" t="s">
@@ -6809,12 +6789,12 @@
       <c r="F4" s="0" t="s">
         <v>223</v>
       </c>
-      <c r="G4" s="22"/>
+      <c r="G4" s="23"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -6829,17 +6809,17 @@
   </sheetPr>
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="4" style="0" width="9.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.37"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="8" min="4" style="0" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6848,7 +6828,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="34" t="s">
         <v>226</v>
       </c>
       <c r="B2" s="0" t="s">
@@ -6952,213 +6932,213 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="35" t="s">
         <v>228</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="36" t="s">
         <v>240</v>
       </c>
-      <c r="C16" s="35" t="s">
+      <c r="C16" s="36" t="s">
         <v>241</v>
       </c>
-      <c r="D16" s="35" t="s">
+      <c r="D16" s="36" t="s">
         <v>242</v>
       </c>
-      <c r="E16" s="35" t="s">
+      <c r="E16" s="36" t="s">
         <v>243</v>
       </c>
-      <c r="F16" s="35" t="s">
+      <c r="F16" s="36" t="s">
         <v>244</v>
       </c>
-      <c r="G16" s="35" t="s">
+      <c r="G16" s="36" t="s">
         <v>245</v>
       </c>
-      <c r="H16" s="35" t="s">
+      <c r="H16" s="36" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="C17" s="37" t="s">
         <v>173</v>
       </c>
-      <c r="C17" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="D17" s="36" t="s">
+      <c r="D17" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="E17" s="37" t="s">
         <v>173</v>
       </c>
-      <c r="E17" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="F17" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="G17" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="H17" s="36" t="s">
-        <v>174</v>
+      <c r="F17" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="G17" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="H17" s="37" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="B18" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="C18" s="36" t="s">
+      <c r="B18" s="37" t="s">
         <v>173</v>
       </c>
-      <c r="D18" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="E18" s="36" t="s">
+      <c r="C18" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="D18" s="37" t="s">
         <v>173</v>
       </c>
-      <c r="F18" s="36" t="s">
+      <c r="E18" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="F18" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="G18" s="37" t="s">
         <v>173</v>
       </c>
-      <c r="G18" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="H18" s="36" t="s">
-        <v>174</v>
+      <c r="H18" s="37" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="37" t="s">
         <v>247</v>
       </c>
-      <c r="C19" s="36" t="s">
+      <c r="C19" s="37" t="s">
         <v>240</v>
       </c>
-      <c r="D19" s="36" t="s">
+      <c r="D19" s="37" t="s">
         <v>247</v>
       </c>
-      <c r="E19" s="36" t="s">
+      <c r="E19" s="37" t="s">
         <v>240</v>
       </c>
-      <c r="F19" s="36" t="s">
+      <c r="F19" s="37" t="s">
         <v>240</v>
       </c>
-      <c r="G19" s="36" t="s">
+      <c r="G19" s="37" t="s">
         <v>247</v>
       </c>
-      <c r="H19" s="36" t="s">
+      <c r="H19" s="37" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="37" t="s">
         <v>247</v>
       </c>
-      <c r="C20" s="36" t="s">
+      <c r="C20" s="37" t="s">
         <v>240</v>
       </c>
-      <c r="D20" s="36" t="s">
+      <c r="D20" s="37" t="s">
         <v>247</v>
       </c>
-      <c r="E20" s="36" t="s">
+      <c r="E20" s="37" t="s">
         <v>240</v>
       </c>
-      <c r="F20" s="36" t="s">
+      <c r="F20" s="37" t="s">
         <v>240</v>
       </c>
-      <c r="G20" s="36" t="s">
+      <c r="G20" s="37" t="s">
         <v>247</v>
       </c>
-      <c r="H20" s="36" t="s">
+      <c r="H20" s="37" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="B21" s="36" t="s">
+      <c r="B21" s="37" t="s">
         <v>247</v>
       </c>
-      <c r="C21" s="36" t="s">
+      <c r="C21" s="37" t="s">
         <v>240</v>
       </c>
-      <c r="D21" s="36" t="s">
+      <c r="D21" s="37" t="s">
         <v>248</v>
       </c>
-      <c r="E21" s="36" t="s">
+      <c r="E21" s="37" t="s">
         <v>240</v>
       </c>
-      <c r="F21" s="36" t="s">
+      <c r="F21" s="37" t="s">
         <v>240</v>
       </c>
-      <c r="G21" s="36" t="s">
+      <c r="G21" s="37" t="s">
         <v>247</v>
       </c>
-      <c r="H21" s="36" t="s">
+      <c r="H21" s="37" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="B22" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="C22" s="36" t="s">
+      <c r="B22" s="37" t="s">
         <v>173</v>
       </c>
-      <c r="D22" s="36" t="s">
+      <c r="C22" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="D22" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="E22" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="F22" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="G22" s="37" t="s">
         <v>173</v>
       </c>
-      <c r="E22" s="36" t="s">
+      <c r="H22" s="37" t="s">
         <v>173</v>
-      </c>
-      <c r="F22" s="36" t="s">
-        <v>173</v>
-      </c>
-      <c r="G22" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="H22" s="36" t="s">
-        <v>174</v>
       </c>
       <c r="I22" s="0" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="B23" s="36" t="s">
+      <c r="B23" s="37" t="s">
         <v>214</v>
       </c>
-      <c r="C23" s="36" t="s">
+      <c r="C23" s="37" t="s">
         <v>214</v>
       </c>
-      <c r="D23" s="36" t="s">
+      <c r="D23" s="37" t="s">
         <v>214</v>
       </c>
-      <c r="E23" s="36" t="s">
+      <c r="E23" s="37" t="s">
         <v>248</v>
       </c>
-      <c r="F23" s="36" t="s">
+      <c r="F23" s="37" t="s">
         <v>248</v>
       </c>
-      <c r="G23" s="36" t="s">
+      <c r="G23" s="37" t="s">
         <v>248</v>
       </c>
-      <c r="H23" s="36" t="s">
+      <c r="H23" s="37" t="s">
         <v>248</v>
       </c>
       <c r="I23" s="0" t="s">
@@ -7166,28 +7146,28 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="B24" s="36" t="s">
+      <c r="B24" s="37" t="s">
         <v>214</v>
       </c>
-      <c r="C24" s="36" t="s">
+      <c r="C24" s="37" t="s">
         <v>214</v>
       </c>
-      <c r="D24" s="36" t="s">
+      <c r="D24" s="37" t="s">
         <v>214</v>
       </c>
-      <c r="E24" s="36" t="s">
+      <c r="E24" s="37" t="s">
         <v>214</v>
       </c>
-      <c r="F24" s="36" t="s">
+      <c r="F24" s="37" t="s">
         <v>248</v>
       </c>
-      <c r="G24" s="36" t="s">
+      <c r="G24" s="37" t="s">
         <v>248</v>
       </c>
-      <c r="H24" s="36" t="s">
+      <c r="H24" s="37" t="s">
         <v>214</v>
       </c>
       <c r="I24" s="0" t="s">
@@ -7195,139 +7175,139 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="B25" s="36" t="s">
+      <c r="B25" s="37" t="s">
         <v>247</v>
       </c>
-      <c r="C25" s="36" t="s">
+      <c r="C25" s="37" t="s">
         <v>240</v>
       </c>
-      <c r="D25" s="36" t="s">
+      <c r="D25" s="37" t="s">
         <v>247</v>
       </c>
-      <c r="E25" s="36" t="s">
+      <c r="E25" s="37" t="s">
         <v>240</v>
       </c>
-      <c r="F25" s="36" t="s">
+      <c r="F25" s="37" t="s">
         <v>240</v>
       </c>
-      <c r="G25" s="36" t="s">
+      <c r="G25" s="37" t="s">
         <v>247</v>
       </c>
-      <c r="H25" s="36" t="s">
+      <c r="H25" s="37" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="36" t="s">
+      <c r="B26" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="C26" s="37" t="s">
+        <v>251</v>
+      </c>
+      <c r="D26" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="E26" s="37" t="s">
+        <v>251</v>
+      </c>
+      <c r="F26" s="37" t="s">
+        <v>251</v>
+      </c>
+      <c r="G26" s="37" t="s">
+        <v>251</v>
+      </c>
+      <c r="H26" s="37" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="B27" s="37" t="s">
+        <v>251</v>
+      </c>
+      <c r="C27" s="37" t="s">
+        <v>251</v>
+      </c>
+      <c r="D27" s="37" t="s">
+        <v>251</v>
+      </c>
+      <c r="E27" s="37" t="s">
+        <v>251</v>
+      </c>
+      <c r="F27" s="37" t="s">
+        <v>251</v>
+      </c>
+      <c r="G27" s="37" t="s">
+        <v>251</v>
+      </c>
+      <c r="H27" s="20" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="B28" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="C28" s="37" t="s">
+        <v>251</v>
+      </c>
+      <c r="D28" s="37" t="s">
         <v>173</v>
       </c>
-      <c r="C26" s="36" t="s">
+      <c r="E28" s="37" t="s">
         <v>251</v>
       </c>
-      <c r="D26" s="36" t="s">
+      <c r="F28" s="37" t="s">
+        <v>251</v>
+      </c>
+      <c r="G28" s="37" t="s">
+        <v>251</v>
+      </c>
+      <c r="H28" s="37" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="B29" s="37" t="s">
         <v>173</v>
       </c>
-      <c r="E26" s="36" t="s">
+      <c r="C29" s="20" t="s">
         <v>251</v>
       </c>
-      <c r="F26" s="36" t="s">
+      <c r="D29" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="E29" s="20" t="s">
         <v>251</v>
       </c>
-      <c r="G26" s="36" t="s">
+      <c r="F29" s="20" t="s">
         <v>251</v>
       </c>
-      <c r="H26" s="36" t="s">
+      <c r="G29" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="H29" s="37" t="s">
         <v>173</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="B27" s="36" t="s">
-        <v>251</v>
-      </c>
-      <c r="C27" s="36" t="s">
-        <v>251</v>
-      </c>
-      <c r="D27" s="36" t="s">
-        <v>251</v>
-      </c>
-      <c r="E27" s="36" t="s">
-        <v>251</v>
-      </c>
-      <c r="F27" s="36" t="s">
-        <v>251</v>
-      </c>
-      <c r="G27" s="36" t="s">
-        <v>251</v>
-      </c>
-      <c r="H27" s="19" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="B28" s="36" t="s">
-        <v>173</v>
-      </c>
-      <c r="C28" s="36" t="s">
-        <v>251</v>
-      </c>
-      <c r="D28" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="E28" s="36" t="s">
-        <v>251</v>
-      </c>
-      <c r="F28" s="36" t="s">
-        <v>251</v>
-      </c>
-      <c r="G28" s="36" t="s">
-        <v>251</v>
-      </c>
-      <c r="H28" s="36" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="B29" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>251</v>
-      </c>
-      <c r="D29" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="E29" s="19" t="s">
-        <v>251</v>
-      </c>
-      <c r="F29" s="19" t="s">
-        <v>251</v>
-      </c>
-      <c r="G29" s="19" t="s">
-        <v>251</v>
-      </c>
-      <c r="H29" s="36" t="s">
-        <v>174</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>

--- a/inputs/input_template_excel.xlsx
+++ b/inputs/input_template_excel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" state="visible" r:id="rId2"/>
@@ -548,15 +548,15 @@
     <t xml:space="preserve">setting_value</t>
   </si>
   <si>
+    <t xml:space="preserve">True</t>
+  </si>
+  <si>
     <t xml:space="preserve">False</t>
   </si>
   <si>
     <t xml:space="preserve">not working currently</t>
   </si>
   <si>
-    <t xml:space="preserve">True</t>
-  </si>
-  <si>
     <t xml:space="preserve">not implemented</t>
   </si>
   <si>
@@ -686,25 +686,25 @@
     <t xml:space="preserve">Step</t>
   </si>
   <si>
+    <t xml:space="preserve">Atulayan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">./inputs/Example2_Atulayan.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SolarPV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wind</t>
+  </si>
+  <si>
     <t xml:space="preserve">Masbate</t>
   </si>
   <si>
     <t xml:space="preserve">./inputs/Example1_Masbate.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SolarPV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atulayan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">./inputs/Example2_Atulayan.csv</t>
   </si>
   <si>
     <t xml:space="preserve">Attribute</t>
@@ -1205,17 +1205,17 @@
   </sheetPr>
   <dimension ref="B2:G21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="A4:F4 C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="1.08163265306122"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="44.1428571428571"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="1.08163265306122"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.36734693877551"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="1.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="44.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="1.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="8.37"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1417,7 +1417,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -1432,16 +1432,16 @@
   </sheetPr>
   <dimension ref="B1:I129"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K6" activeCellId="0" sqref="K6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K6" activeCellId="1" sqref="A4:F4 K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="1.62244897959184"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.0459183673469"/>
-    <col collapsed="false" hidden="false" max="7" min="3" style="0" width="6.47959183673469"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.36734693877551"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="1.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="0" width="6.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.37"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -5380,7 +5380,7 @@
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -5395,16 +5395,16 @@
   </sheetPr>
   <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B28" activeCellId="0" sqref="B28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C14" activeCellId="1" sqref="A4:F4 C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.10714285714286"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.5204081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="23" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.36734693877551"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="23" width="12.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.37"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5529,7 +5529,7 @@
         <v>38</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5537,10 +5537,10 @@
         <v>39</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5548,7 +5548,7 @@
         <v>40</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5556,7 +5556,7 @@
         <v>41</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5564,7 +5564,7 @@
         <v>42</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D18" s="0" t="s">
         <v>176</v>
@@ -5599,7 +5599,7 @@
         <v>46</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D22" s="0" t="s">
         <v>178</v>
@@ -5627,7 +5627,7 @@
         <v>48</v>
       </c>
       <c r="C26" s="28" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5651,7 +5651,7 @@
         <v>51</v>
       </c>
       <c r="C29" s="28" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5704,7 +5704,7 @@
         <v>55</v>
       </c>
       <c r="C37" s="28" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5712,7 +5712,7 @@
         <v>56</v>
       </c>
       <c r="C38" s="28" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5720,7 +5720,7 @@
         <v>57</v>
       </c>
       <c r="C39" s="28" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5728,7 +5728,7 @@
         <v>58</v>
       </c>
       <c r="C40" s="28" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5749,7 +5749,7 @@
         <v>59</v>
       </c>
       <c r="C43" s="28" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D43" s="0" t="s">
         <v>176</v>
@@ -5760,7 +5760,7 @@
         <v>60</v>
       </c>
       <c r="C44" s="28" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D44" s="0" t="s">
         <v>176</v>
@@ -5771,7 +5771,7 @@
         <v>61</v>
       </c>
       <c r="C45" s="28" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5779,7 +5779,7 @@
         <v>62</v>
       </c>
       <c r="C46" s="28" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5797,7 +5797,7 @@
         <v>63</v>
       </c>
       <c r="C49" s="28" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5805,7 +5805,7 @@
         <v>64</v>
       </c>
       <c r="C50" s="28" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5813,7 +5813,7 @@
         <v>65</v>
       </c>
       <c r="C51" s="28" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5821,7 +5821,7 @@
         <v>66</v>
       </c>
       <c r="C52" s="28" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5838,7 +5838,7 @@
         <v>67</v>
       </c>
       <c r="C55" s="28" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5846,7 +5846,7 @@
         <v>68</v>
       </c>
       <c r="C56" s="28" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5854,7 +5854,7 @@
         <v>69</v>
       </c>
       <c r="C57" s="28" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5862,13 +5862,13 @@
         <v>70</v>
       </c>
       <c r="C58" s="28" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -5883,17 +5883,17 @@
   </sheetPr>
   <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A66" activeCellId="0" sqref="A66"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A66" activeCellId="1" sqref="A4:F4 A66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.0051020408163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.4234693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="23" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="1023" min="4" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="10.6632653061225"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="23" width="6.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="4" style="0" width="8.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="10.65"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6643,7 +6643,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -6658,13 +6658,13 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D3" activeCellId="1" sqref="A4:F4 D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.37"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6692,13 +6692,13 @@
         <v>0.1</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>0.25</v>
+        <v>0.025</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -6713,18 +6713,18 @@
   </sheetPr>
   <dimension ref="A2:I4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="A4:F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.4897959183673"/>
-    <col collapsed="false" hidden="false" max="17" min="3" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="23.8928571428571"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="21.734693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="8.36734693877551"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="3" style="0" width="8.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="23.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="21.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="20" style="0" width="8.37"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6789,12 +6789,11 @@
       <c r="F4" s="0" t="s">
         <v>223</v>
       </c>
-      <c r="G4" s="23"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -6809,17 +6808,17 @@
   </sheetPr>
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D17" activeCellId="1" sqref="A4:F4 D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="8" min="4" style="0" width="9.17857142857143"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.36734693877551"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="4" style="0" width="9.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.37"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6962,25 +6961,25 @@
         <v>142</v>
       </c>
       <c r="B17" s="37" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C17" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="D17" s="37" t="s">
         <v>173</v>
       </c>
-      <c r="D17" s="37" t="s">
-        <v>175</v>
-      </c>
       <c r="E17" s="37" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F17" s="37" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G17" s="37" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H17" s="37" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6988,25 +6987,25 @@
         <v>143</v>
       </c>
       <c r="B18" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="C18" s="37" t="s">
         <v>173</v>
       </c>
-      <c r="C18" s="37" t="s">
-        <v>175</v>
-      </c>
       <c r="D18" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="E18" s="37" t="s">
         <v>173</v>
       </c>
-      <c r="E18" s="37" t="s">
-        <v>175</v>
-      </c>
       <c r="F18" s="37" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G18" s="37" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H18" s="37" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7092,25 +7091,25 @@
         <v>147</v>
       </c>
       <c r="B22" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="C22" s="37" t="s">
         <v>173</v>
       </c>
-      <c r="C22" s="37" t="s">
-        <v>175</v>
-      </c>
       <c r="D22" s="37" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E22" s="37" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F22" s="37" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G22" s="37" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H22" s="37" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I22" s="0" t="s">
         <v>249</v>
@@ -7205,13 +7204,13 @@
         <v>40</v>
       </c>
       <c r="B26" s="37" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C26" s="37" t="s">
         <v>251</v>
       </c>
       <c r="D26" s="37" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E26" s="37" t="s">
         <v>251</v>
@@ -7223,7 +7222,7 @@
         <v>251</v>
       </c>
       <c r="H26" s="37" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7257,13 +7256,13 @@
         <v>152</v>
       </c>
       <c r="B28" s="37" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C28" s="37" t="s">
         <v>251</v>
       </c>
       <c r="D28" s="37" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E28" s="37" t="s">
         <v>251</v>
@@ -7283,13 +7282,13 @@
         <v>153</v>
       </c>
       <c r="B29" s="37" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C29" s="20" t="s">
         <v>251</v>
       </c>
       <c r="D29" s="37" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E29" s="20" t="s">
         <v>251</v>
@@ -7301,13 +7300,13 @@
         <v>251</v>
       </c>
       <c r="H29" s="37" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>

--- a/inputs/input_template_excel.xlsx
+++ b/inputs/input_template_excel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="252">
   <si>
     <t xml:space="preserve">Tool for optimizing and simulating off- and on-grid electrification solutions</t>
   </si>
@@ -694,7 +694,13 @@
     <t xml:space="preserve">base_oem</t>
   </si>
   <si>
-    <t xml:space="preserve">offgrid_fixed</t>
+    <t xml:space="preserve">fixed_mominload</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fixed_peak_nominload</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fixed_peak_minload</t>
   </si>
   <si>
     <t xml:space="preserve">base_oem_min_loading</t>
@@ -733,13 +739,7 @@
     <t xml:space="preserve">genset_with_minimal_loading</t>
   </si>
   <si>
-    <t xml:space="preserve">do not use for optimization of generator capacities</t>
-  </si>
-  <si>
     <t xml:space="preserve">capacity_pcc_consumption_kW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">optimization currently not supported</t>
   </si>
   <si>
     <t xml:space="preserve">capacity_pcc_feedin_kW</t>
@@ -1209,17 +1209,17 @@
   </sheetPr>
   <dimension ref="B2:F21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E22" activeCellId="0" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="1.08163265306122"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.5459183673469"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="41.5765306122449"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="1.08163265306122"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.23469387755102"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="1.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="41.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="1.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="8.23"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1414,7 +1414,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -1429,16 +1429,16 @@
   </sheetPr>
   <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.10714285714286"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.7551020408163"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="10" width="14.1734693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.23469387755102"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="10" width="14.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.23"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1908,7 +1908,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -1923,17 +1923,17 @@
   </sheetPr>
   <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B34" activeCellId="0" sqref="B34"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.5204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.75"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="10" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="1023" min="4" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="9.98979591836735"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="10" width="6.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="4" style="0" width="8.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="9.99"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2170,7 +2170,7 @@
         <v>127</v>
       </c>
       <c r="B21" s="10" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C21" s="19" t="s">
         <v>103</v>
@@ -2214,7 +2214,7 @@
         <v>133</v>
       </c>
       <c r="B25" s="10" t="n">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="C25" s="19" t="s">
         <v>103</v>
@@ -2440,7 +2440,7 @@
         <v>159</v>
       </c>
       <c r="B45" s="10" t="n">
-        <v>602</v>
+        <v>10</v>
       </c>
       <c r="C45" s="19" t="s">
         <v>160</v>
@@ -2694,7 +2694,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -2707,15 +2707,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.23"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2732,10 +2732,38 @@
         <v>189</v>
       </c>
     </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -2750,18 +2778,18 @@
   </sheetPr>
   <dimension ref="A2:I4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.0051020408163"/>
-    <col collapsed="false" hidden="false" max="17" min="3" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="22.2755102040816"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="20.25"/>
-    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="8.23469387755102"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="3" style="0" width="8.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="22.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="20.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="20" style="0" width="8.23"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2830,7 +2858,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -2843,17 +2871,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B30" activeCellId="0" sqref="B30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C36" activeCellId="0" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.23469387755102"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="8.23"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2990,31 +3019,43 @@
       <c r="H16" s="23" t="s">
         <v>227</v>
       </c>
+      <c r="I16" s="23" t="s">
+        <v>228</v>
+      </c>
+      <c r="J16" s="23" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="24" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B17" s="25" t="s">
         <v>43</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D17" s="25" t="s">
         <v>45</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G17" s="25" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>43</v>
+        <v>45</v>
+      </c>
+      <c r="I17" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="J17" s="25" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3028,111 +3069,135 @@
         <v>43</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E18" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F18" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="G18" s="25" t="s">
+      <c r="H18" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="I18" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="H18" s="25" t="s">
+      <c r="J18" s="25" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="24" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C19" s="25" t="s">
         <v>221</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="E19" s="25" t="s">
         <v>221</v>
       </c>
       <c r="F19" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="G19" s="25" t="s">
         <v>221</v>
       </c>
-      <c r="G19" s="25" t="s">
-        <v>230</v>
-      </c>
       <c r="H19" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="I19" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="J19" s="25" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="24" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C20" s="25" t="s">
         <v>221</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="E20" s="25" t="s">
         <v>221</v>
       </c>
       <c r="F20" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="G20" s="25" t="s">
         <v>221</v>
       </c>
-      <c r="G20" s="25" t="s">
-        <v>230</v>
-      </c>
       <c r="H20" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="I20" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="J20" s="25" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="B21" s="25" t="s">
         <v>232</v>
-      </c>
-      <c r="B21" s="25" t="s">
-        <v>230</v>
       </c>
       <c r="C21" s="25" t="s">
         <v>221</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E21" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="F21" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="G21" s="25" t="s">
         <v>221</v>
       </c>
-      <c r="F21" s="25" t="s">
+      <c r="H21" s="25" t="s">
         <v>221</v>
       </c>
-      <c r="G21" s="25" t="s">
-        <v>230</v>
-      </c>
-      <c r="H21" s="25" t="s">
+      <c r="I21" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="J21" s="25" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="24" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B22" s="25" t="s">
         <v>45</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E22" s="25" t="s">
         <v>43</v>
@@ -3141,18 +3206,21 @@
         <v>43</v>
       </c>
       <c r="G22" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="H22" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="I22" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="H22" s="25" t="s">
+      <c r="J22" s="25" t="s">
         <v>45</v>
-      </c>
-      <c r="I22" s="0" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="24" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B23" s="25" t="s">
         <v>172</v>
@@ -3164,19 +3232,22 @@
         <v>172</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>233</v>
+        <v>172</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>233</v>
+        <v>172</v>
       </c>
       <c r="G23" s="25" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="H23" s="25" t="s">
-        <v>233</v>
-      </c>
-      <c r="I23" s="0" t="s">
-        <v>237</v>
+        <v>235</v>
+      </c>
+      <c r="I23" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="J23" s="25" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3196,16 +3267,19 @@
         <v>172</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>233</v>
+        <v>172</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>233</v>
+        <v>172</v>
       </c>
       <c r="H24" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="I24" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="J24" s="25" t="s">
         <v>172</v>
-      </c>
-      <c r="I24" s="0" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3213,24 +3287,30 @@
         <v>239</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C25" s="25" t="s">
         <v>221</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="E25" s="25" t="s">
         <v>221</v>
       </c>
       <c r="F25" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="G25" s="25" t="s">
         <v>221</v>
       </c>
-      <c r="G25" s="25" t="s">
-        <v>230</v>
-      </c>
       <c r="H25" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="I25" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="J25" s="25" t="s">
         <v>172</v>
       </c>
     </row>
@@ -3245,18 +3325,24 @@
         <v>240</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>43</v>
+        <v>240</v>
       </c>
       <c r="E26" s="25" t="s">
         <v>240</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>240</v>
+        <v>43</v>
       </c>
       <c r="G26" s="25" t="s">
         <v>240</v>
       </c>
       <c r="H26" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="I26" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="J26" s="25" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3282,7 +3368,13 @@
       <c r="G27" s="25" t="s">
         <v>240</v>
       </c>
-      <c r="H27" s="24" t="n">
+      <c r="H27" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="I27" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="J27" s="24" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -3297,18 +3389,24 @@
         <v>240</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>45</v>
+        <v>240</v>
       </c>
       <c r="E28" s="25" t="s">
         <v>240</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>240</v>
+        <v>45</v>
       </c>
       <c r="G28" s="25" t="s">
         <v>240</v>
       </c>
       <c r="H28" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="I28" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="J28" s="25" t="s">
         <v>240</v>
       </c>
     </row>
@@ -3322,26 +3420,32 @@
       <c r="C29" s="24" t="s">
         <v>240</v>
       </c>
-      <c r="D29" s="25" t="s">
-        <v>45</v>
+      <c r="D29" s="24" t="s">
+        <v>240</v>
       </c>
       <c r="E29" s="24" t="s">
         <v>240</v>
       </c>
-      <c r="F29" s="24" t="s">
-        <v>240</v>
+      <c r="F29" s="25" t="s">
+        <v>45</v>
       </c>
       <c r="G29" s="24" t="s">
         <v>240</v>
       </c>
-      <c r="H29" s="25" t="s">
+      <c r="H29" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="I29" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="J29" s="25" t="s">
         <v>45</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -3356,17 +3460,17 @@
   </sheetPr>
   <dimension ref="B1:I130"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B38" activeCellId="0" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="1.08163265306122"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.0255102040816"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="9" min="5" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.23469387755102"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="1.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="8.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="5" style="0" width="6.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="8.23"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -6994,7 +7098,7 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B118" s="37" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C118" s="24" t="str">
         <f aca="false">IF(D118&gt;=1, "OK", "missing!")</f>
@@ -7036,7 +7140,7 @@
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B120" s="37" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C120" s="24" t="str">
         <f aca="false">IF(D120&gt;=1, "OK", "missing!")</f>
@@ -7057,7 +7161,7 @@
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B121" s="37" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C121" s="24" t="str">
         <f aca="false">IF(D121&gt;=1, "OK", "missing!")</f>
@@ -7078,7 +7182,7 @@
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B122" s="37" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C122" s="24" t="str">
         <f aca="false">IF(D122&gt;=1, "OK", "missing!")</f>
@@ -7099,7 +7203,7 @@
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B123" s="37" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C123" s="24" t="str">
         <f aca="false">IF(D123&gt;=1, "OK", "missing!")</f>
@@ -7120,7 +7224,7 @@
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B124" s="37" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C124" s="24" t="str">
         <f aca="false">IF(D124&gt;=1, "OK", "missing!")</f>
@@ -7338,7 +7442,7 @@
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/inputs/input_template_excel.xlsx
+++ b/inputs/input_template_excel.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="247">
   <si>
     <t xml:space="preserve">Tool for optimizing and simulating off- and on-grid electrification solutions</t>
   </si>
@@ -157,27 +157,27 @@
     <t xml:space="preserve">restore_oemof_if_existant</t>
   </si>
   <si>
+    <t xml:space="preserve">False</t>
+  </si>
+  <si>
+    <t xml:space="preserve">restore_blackouts_if_existant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">base_case_with_min_loading</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not working currently</t>
+  </si>
+  <si>
+    <t xml:space="preserve">allow_shortage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">include_stability_constraint</t>
+  </si>
+  <si>
     <t xml:space="preserve">True</t>
   </si>
   <si>
-    <t xml:space="preserve">restore_blackouts_if_existant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">False</t>
-  </si>
-  <si>
-    <t xml:space="preserve">base_case_with_min_loading</t>
-  </si>
-  <si>
-    <t xml:space="preserve">not working currently</t>
-  </si>
-  <si>
-    <t xml:space="preserve">allow_shortage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">include_stability_constraint</t>
-  </si>
-  <si>
     <t xml:space="preserve">setting_pcc_utility_owned</t>
   </si>
   <si>
@@ -217,426 +217,429 @@
     <t xml:space="preserve">cmdline_option</t>
   </si>
   <si>
+    <t xml:space="preserve">mipgap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ratioGap, mipgap, AllowedGap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cmdline_option_value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">debug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">input_folder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">! this is standardized currently!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">output_folder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">./simulation_results</t>
+  </si>
+  <si>
+    <t xml:space="preserve">output_file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">results</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Output – files</t>
+  </si>
+  <si>
+    <t xml:space="preserve">save_lp_file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">save_oemofresults</t>
+  </si>
+  <si>
+    <t xml:space="preserve">save_to_csv_flows_storage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">save_to_csv_flows_electricity_mg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">display_graphs_solar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">display_graphs_demand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">save_to_png_flows_storage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">save_to_png_flows_electricity_mg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">display_meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">display_main</t>
+  </si>
+  <si>
+    <t xml:space="preserve">display_invest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">display_experiment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">results_demand_characteristics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">results_blackout_characteristics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">results_annuities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">results_costs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blackout_duration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hrs/mth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blackout_duration_std_deviation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">factor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blackout_frequency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/mth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blackout_frequency_std_deviation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">combustion_value_fuel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kWh/l</t>
+  </si>
+  <si>
+    <t xml:space="preserve">costs_var_unsupplied_load</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/kWh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">demand_scaling_factor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">distribution_grid_cost_investment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">currency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">distribution_grid_cost_opex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">distribution_grid_lifetime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">genset_batch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">genset_cost_investment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/kW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">using capex of eu islands input parameters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">genset_cost_opex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/kW/a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">per kW/a, not operating hours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">genset_cost_var</t>
+  </si>
+  <si>
+    <t xml:space="preserve">genset_efficiency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not info from sheet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">genset_lifetime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">genset_max_loading</t>
+  </si>
+  <si>
+    <t xml:space="preserve">genset_min_loading</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maingrid_distance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">km</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maingrid_electricity_price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maingrid_extension_cost_investment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/km</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maingrid_extension_cost_opex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/km/a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maingrid_extension_lifetime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maingrid_feedin_tariff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maingrid_renewable_share</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max_share_unsupplied_load</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min_renewable_share</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pcoupling_batch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pcoupling_cost_investment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pcoupling_cost_opex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pcoupling_cost_var</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pcoupling_efficiency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pcoupling_lifetime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">price_fuel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/l</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We show prices for Philippines from 15-Oct-2018 to 21-Jan-2019. The average value for Philippines during that period was 0.89 Euro with a minimum of 0.77 Euro on 07-Jan-2019 and a maximum of 1.02 Euro on 15-Oct-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.globalpetrolprices.com/Philippines/gasoline_prices/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">project_cost_fix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">project_cost_opex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">project_life</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pv_batch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kWp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pv_cost_investment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/kWp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pv_cost_opex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/kWp/a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pv_cost_var</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pv_lifetime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stability_limit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">storage_batch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kWh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">storage_capacity_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">storage_capacity_min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max DOD 80%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">storage_cost_investment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">storage_cost_opex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/kWh/a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">storage_cost_var</t>
+  </si>
+  <si>
+    <t xml:space="preserve">storage_Crate_charge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">storage_Crate_discharge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">storage_inflow_efficiency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">storage_initial_soc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">None</t>
+  </si>
+  <si>
+    <t xml:space="preserve">None of factor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">storage_lifetime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">storage_loss_timestep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">storage_outflow_efficiency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wacc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">white_noise_demand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">white_noise_pv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">white_noise_wind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wind_batch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wind_cost_investment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wind_cost_opex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wind_cost_var</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wind_lifetime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step</t>
+  </si>
+  <si>
+    <t xml:space="preserve">project_site_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">timeseries_file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">title_time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">title_demand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">title_pv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">title_wind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atulayan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">./inputs/Example2_Atulayan.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SolarPV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Masbate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">./inputs/Example1_Masbate.csv</t>
+  </si>
+  <si>
     <t xml:space="preserve">ratioGap</t>
   </si>
   <si>
-    <t xml:space="preserve">ratioGap, mipgap, AllowedGap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cmdline_option_value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">debug</t>
-  </si>
-  <si>
-    <t xml:space="preserve">input_folder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">! this is standardized currently!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">output_folder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">./simulation_results</t>
-  </si>
-  <si>
-    <t xml:space="preserve">output_file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">results</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Output – files</t>
-  </si>
-  <si>
-    <t xml:space="preserve">save_lp_file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">save_oemofresults</t>
-  </si>
-  <si>
-    <t xml:space="preserve">save_to_csv_flows_storage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">save_to_csv_flows_electricity_mg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">display_graphs_solar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">display_graphs_demand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">save_to_png_flows_storage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">save_to_png_flows_electricity_mg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">display_meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">display_main</t>
-  </si>
-  <si>
-    <t xml:space="preserve">display_invest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">display_experiment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">results_demand_characteristics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">results_blackout_characteristics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">results_annuities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">results_costs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parameter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">blackout_duration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hrs/mth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">blackout_duration_std_deviation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">factor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">blackout_frequency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/mth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">blackout_frequency_std_deviation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">combustion_value_fuel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kWh/l</t>
-  </si>
-  <si>
-    <t xml:space="preserve">costs_var_unsupplied_load</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/kWh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">demand_scaling_factor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">distribution_grid_cost_investment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">currency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">distribution_grid_cost_opex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">distribution_grid_lifetime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">genset_batch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">genset_cost_investment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/kW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">using capex of eu islands input parameters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">genset_cost_opex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/kW/a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">per kW/a, not operating hours</t>
-  </si>
-  <si>
-    <t xml:space="preserve">genset_cost_var</t>
-  </si>
-  <si>
-    <t xml:space="preserve">genset_efficiency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">not info from sheet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">genset_lifetime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">genset_max_loading</t>
-  </si>
-  <si>
-    <t xml:space="preserve">genset_min_loading</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maingrid_distance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">km</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maingrid_electricity_price</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maingrid_extension_cost_investment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/km</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maingrid_extension_cost_opex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/km/a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maingrid_extension_lifetime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maingrid_feedin_tariff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maingrid_renewable_share</t>
-  </si>
-  <si>
-    <t xml:space="preserve">max_share_unsupplied_load</t>
-  </si>
-  <si>
-    <t xml:space="preserve">min_renewable_share</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pcoupling_batch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pcoupling_cost_investment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pcoupling_cost_opex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pcoupling_cost_var</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pcoupling_efficiency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pcoupling_lifetime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">price_fuel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/l</t>
-  </si>
-  <si>
-    <t xml:space="preserve">We show prices for Philippines from 15-Oct-2018 to 21-Jan-2019. The average value for Philippines during that period was 0.89 Euro with a minimum of 0.77 Euro on 07-Jan-2019 and a maximum of 1.02 Euro on 15-Oct-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.globalpetrolprices.com/Philippines/gasoline_prices/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">project_cost_fix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">project_cost_opex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">project_life</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pv_batch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kWp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pv_cost_investment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/kWp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pv_cost_opex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/kWp/a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pv_cost_var</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pv_lifetime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stability_limit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">storage_batch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kWh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">storage_capacity_max</t>
-  </si>
-  <si>
-    <t xml:space="preserve">storage_capacity_min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Max DOD 80%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">storage_cost_investment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">storage_cost_opex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/kWh/a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">storage_cost_var</t>
-  </si>
-  <si>
-    <t xml:space="preserve">storage_Crate_charge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">storage_Crate_discharge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">storage_inflow_efficiency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">storage_initial_soc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">None</t>
-  </si>
-  <si>
-    <t xml:space="preserve">None of factor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">storage_lifetime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">storage_loss_timestep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">storage_outflow_efficiency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wacc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">white_noise_demand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">white_noise_pv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">white_noise_wind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wind_batch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wind_cost_investment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wind_cost_opex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wind_cost_var</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wind_lifetime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Max</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Step</t>
-  </si>
-  <si>
-    <t xml:space="preserve">project_site_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">timeseries_file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">title_time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">title_demand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">title_pv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">title_wind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atulayan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">./inputs/Example2_Atulayan.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SolarPV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Masbate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">./inputs/Example1_Masbate.csv</t>
-  </si>
-  <si>
     <t xml:space="preserve">Attribute</t>
   </si>
   <si>
@@ -691,40 +694,22 @@
     <t xml:space="preserve">min_renewable share</t>
   </si>
   <si>
-    <t xml:space="preserve">base_oem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fixed_mominload</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fixed_peak_nominload</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fixed_peak_minload</t>
-  </si>
-  <si>
-    <t xml:space="preserve">base_oem_min_loading</t>
-  </si>
-  <si>
-    <t xml:space="preserve">interconnected_buy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">interconnected_buysell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oem_grid_tied_mg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sole_maingrid</t>
+    <t xml:space="preserve">oem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oem_nostab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oem_min_loading</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oem_min_loading_nostab</t>
   </si>
   <si>
     <t xml:space="preserve">perform_simulation</t>
   </si>
   <si>
     <t xml:space="preserve">capacity_pv_kWp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oem</t>
   </si>
   <si>
     <t xml:space="preserve">capacity_storage_kWh</t>
@@ -1219,7 +1204,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="41.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="1.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="8.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="8.21"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1430,15 +1415,15 @@
   <dimension ref="A1:G58"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+      <selection pane="topLeft" activeCell="B28" activeCellId="0" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="10" width="14.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="10" width="14.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.21"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1563,34 +1548,34 @@
         <v>44</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="0" t="s">
         <v>46</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="15" t="s">
         <v>49</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1598,7 +1583,7 @@
         <v>50</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D18" s="0" t="s">
         <v>51</v>
@@ -1636,7 +1621,7 @@
         <v>57</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D22" s="0" t="s">
         <v>58</v>
@@ -1664,7 +1649,7 @@
         <v>61</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1683,7 +1668,7 @@
         <v>65</v>
       </c>
       <c r="C28" s="10" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1691,7 +1676,7 @@
         <v>66</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1747,7 +1732,7 @@
         <v>74</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1755,7 +1740,7 @@
         <v>75</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1763,7 +1748,7 @@
         <v>76</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1771,7 +1756,7 @@
         <v>77</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1789,7 +1774,7 @@
         <v>78</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D43" s="0" t="s">
         <v>51</v>
@@ -1800,7 +1785,7 @@
         <v>79</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D44" s="0" t="s">
         <v>51</v>
@@ -1811,7 +1796,7 @@
         <v>80</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1819,7 +1804,7 @@
         <v>81</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1837,7 +1822,7 @@
         <v>82</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1845,7 +1830,7 @@
         <v>83</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1853,7 +1838,7 @@
         <v>84</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1861,7 +1846,7 @@
         <v>85</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1878,7 +1863,7 @@
         <v>86</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1886,7 +1871,7 @@
         <v>87</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1894,7 +1879,7 @@
         <v>88</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1902,7 +1887,7 @@
         <v>89</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1924,7 +1909,7 @@
   <dimension ref="A1:E67"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="topLeft" activeCell="A27" activeCellId="0" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1932,7 +1917,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="10" width="6.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="4" style="0" width="8.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="4" style="0" width="8.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="9.99"/>
   </cols>
   <sheetData>
@@ -2710,12 +2695,12 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
+      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.21"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2734,27 +2719,27 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>135</v>
+        <v>65</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>0.75</v>
+        <v>0.05</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>102</v>
+        <v>135</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>0.25</v>
+        <v>0.05</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>0.05</v>
@@ -2776,20 +2761,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:I4"/>
+  <dimension ref="A2:I6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="I6" activeCellId="0" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="3" style="0" width="8.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="3" style="0" width="8.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="22.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="20.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="20" style="0" width="8.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="20" style="0" width="8.21"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2811,6 +2796,9 @@
       <c r="F2" s="0" t="s">
         <v>195</v>
       </c>
+      <c r="G2" s="0" t="s">
+        <v>62</v>
+      </c>
       <c r="H2" s="10"/>
       <c r="I2" s="19"/>
     </row>
@@ -2833,7 +2821,9 @@
       <c r="F3" s="0" t="s">
         <v>200</v>
       </c>
-      <c r="G3" s="10"/>
+      <c r="G3" s="19" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="19" t="s">
@@ -2853,6 +2843,55 @@
       </c>
       <c r="F4" s="0" t="s">
         <v>200</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -2871,18 +2910,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C36" activeCellId="0" sqref="C36"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="8.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1016" min="4" style="0" width="8.21"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1017" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2892,178 +2932,148 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="21" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>211</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="138" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="22" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>224</v>
-      </c>
-      <c r="F16" s="23" t="s">
         <v>225</v>
-      </c>
-      <c r="G16" s="23" t="s">
-        <v>226</v>
-      </c>
-      <c r="H16" s="23" t="s">
-        <v>227</v>
-      </c>
-      <c r="I16" s="23" t="s">
-        <v>228</v>
-      </c>
-      <c r="J16" s="23" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="24" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="F17" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="G17" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="H17" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="I17" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="J17" s="25" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="24" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C18" s="25" t="s">
         <v>43</v>
@@ -3074,153 +3084,78 @@
       <c r="E18" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="F18" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="G18" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="H18" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="I18" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="J18" s="25" t="s">
-        <v>45</v>
-      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="24" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>221</v>
-      </c>
-      <c r="F19" s="25" t="s">
-        <v>232</v>
-      </c>
-      <c r="G19" s="25" t="s">
-        <v>221</v>
-      </c>
-      <c r="H19" s="25" t="s">
-        <v>221</v>
-      </c>
-      <c r="I19" s="25" t="s">
-        <v>232</v>
-      </c>
-      <c r="J19" s="25" t="s">
-        <v>172</v>
+        <v>222</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="24" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E20" s="25" t="s">
-        <v>221</v>
-      </c>
-      <c r="F20" s="25" t="s">
-        <v>232</v>
-      </c>
-      <c r="G20" s="25" t="s">
-        <v>221</v>
-      </c>
-      <c r="H20" s="25" t="s">
-        <v>221</v>
-      </c>
-      <c r="I20" s="25" t="s">
-        <v>232</v>
-      </c>
-      <c r="J20" s="25" t="s">
-        <v>172</v>
+        <v>222</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="24" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>235</v>
-      </c>
-      <c r="F21" s="25" t="s">
-        <v>235</v>
-      </c>
-      <c r="G21" s="25" t="s">
-        <v>221</v>
-      </c>
-      <c r="H21" s="25" t="s">
-        <v>221</v>
-      </c>
-      <c r="I21" s="25" t="s">
-        <v>232</v>
-      </c>
-      <c r="J21" s="25" t="s">
-        <v>172</v>
+        <v>230</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="24" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="F22" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="G22" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="H22" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="I22" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="J22" s="25" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="24" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B23" s="25" t="s">
         <v>172</v>
@@ -3234,25 +3169,10 @@
       <c r="E23" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="F23" s="25" t="s">
-        <v>172</v>
-      </c>
-      <c r="G23" s="25" t="s">
-        <v>235</v>
-      </c>
-      <c r="H23" s="25" t="s">
-        <v>235</v>
-      </c>
-      <c r="I23" s="25" t="s">
-        <v>235</v>
-      </c>
-      <c r="J23" s="25" t="s">
-        <v>235</v>
-      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="24" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B24" s="25" t="s">
         <v>172</v>
@@ -3266,180 +3186,90 @@
       <c r="E24" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="F24" s="25" t="s">
-        <v>172</v>
-      </c>
-      <c r="G24" s="25" t="s">
-        <v>172</v>
-      </c>
-      <c r="H24" s="25" t="s">
-        <v>235</v>
-      </c>
-      <c r="I24" s="25" t="s">
-        <v>235</v>
-      </c>
-      <c r="J24" s="25" t="s">
-        <v>172</v>
-      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="24" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E25" s="25" t="s">
-        <v>221</v>
-      </c>
-      <c r="F25" s="25" t="s">
-        <v>232</v>
-      </c>
-      <c r="G25" s="25" t="s">
-        <v>221</v>
-      </c>
-      <c r="H25" s="25" t="s">
-        <v>221</v>
-      </c>
-      <c r="I25" s="25" t="s">
-        <v>232</v>
-      </c>
-      <c r="J25" s="25" t="s">
-        <v>172</v>
+        <v>222</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>240</v>
+        <v>49</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>240</v>
+        <v>49</v>
       </c>
       <c r="E26" s="25" t="s">
-        <v>240</v>
-      </c>
-      <c r="F26" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="G26" s="25" t="s">
-        <v>240</v>
-      </c>
-      <c r="H26" s="25" t="s">
-        <v>240</v>
-      </c>
-      <c r="I26" s="25" t="s">
-        <v>240</v>
-      </c>
-      <c r="J26" s="25" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="24" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E27" s="25" t="s">
-        <v>240</v>
-      </c>
-      <c r="F27" s="25" t="s">
-        <v>240</v>
-      </c>
-      <c r="G27" s="25" t="s">
-        <v>240</v>
-      </c>
-      <c r="H27" s="25" t="s">
-        <v>240</v>
-      </c>
-      <c r="I27" s="25" t="s">
-        <v>240</v>
-      </c>
-      <c r="J27" s="24" t="n">
-        <v>0.5</v>
+        <v>235</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="24" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B28" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="25" t="s">
-        <v>240</v>
-      </c>
       <c r="D28" s="25" t="s">
-        <v>240</v>
+        <v>49</v>
       </c>
       <c r="E28" s="25" t="s">
-        <v>240</v>
-      </c>
-      <c r="F28" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="G28" s="25" t="s">
-        <v>240</v>
-      </c>
-      <c r="H28" s="25" t="s">
-        <v>240</v>
-      </c>
-      <c r="I28" s="25" t="s">
-        <v>240</v>
-      </c>
-      <c r="J28" s="25" t="s">
-        <v>240</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="24" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29" s="24" t="s">
-        <v>240</v>
-      </c>
-      <c r="D29" s="24" t="s">
-        <v>240</v>
-      </c>
-      <c r="E29" s="24" t="s">
-        <v>240</v>
-      </c>
-      <c r="F29" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="G29" s="24" t="s">
-        <v>240</v>
-      </c>
-      <c r="H29" s="24" t="s">
-        <v>240</v>
-      </c>
-      <c r="I29" s="24" t="s">
-        <v>240</v>
-      </c>
-      <c r="J29" s="25" t="s">
-        <v>45</v>
+        <v>43</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" s="25" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -3468,15 +3298,15 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="1.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="8.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="8.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="5" style="0" width="6.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="8.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="8.21"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="26" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -3488,7 +3318,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -3511,10 +3341,10 @@
     <row r="5" customFormat="false" ht="68.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B5" s="27"/>
       <c r="C5" s="28" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -3528,7 +3358,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -3539,10 +3369,10 @@
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="1"/>
       <c r="C7" s="30" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -3562,16 +3392,16 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B10" s="31" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="E10" s="31" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="F10" s="31"/>
       <c r="G10" s="31"/>
@@ -3666,7 +3496,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C14" s="24" t="str">
         <f aca="false">IF(D14&gt;=1, "OK", "missing!")</f>
@@ -3699,7 +3529,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C15" s="24" t="str">
         <f aca="false">IF(D15&gt;=1, "OK", "missing!")</f>
@@ -3732,7 +3562,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C16" s="24" t="str">
         <f aca="false">IF(D16&gt;=1, "OK", "missing!")</f>
@@ -4004,7 +3834,7 @@
       </c>
       <c r="D24" s="35" t="n">
         <f aca="false">SUM(E24:I24)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E24" s="36" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B24,settings!B:B, 1, 0)), 0)</f>
@@ -4020,7 +3850,7 @@
       </c>
       <c r="H24" s="36" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B24,project_sites!$2:$2, 1, 0)), 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" s="36" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B24, case_definitions!A$17:A$29,1, 0)), 0)</f>
@@ -7098,7 +6928,7 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B118" s="37" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C118" s="24" t="str">
         <f aca="false">IF(D118&gt;=1, "OK", "missing!")</f>
@@ -7119,7 +6949,7 @@
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B119" s="37" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C119" s="24" t="str">
         <f aca="false">IF(D119&gt;=1, "OK", "missing!")</f>
@@ -7140,7 +6970,7 @@
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B120" s="37" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C120" s="24" t="str">
         <f aca="false">IF(D120&gt;=1, "OK", "missing!")</f>
@@ -7161,7 +6991,7 @@
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B121" s="37" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C121" s="24" t="str">
         <f aca="false">IF(D121&gt;=1, "OK", "missing!")</f>
@@ -7182,7 +7012,7 @@
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B122" s="37" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C122" s="24" t="str">
         <f aca="false">IF(D122&gt;=1, "OK", "missing!")</f>
@@ -7203,7 +7033,7 @@
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B123" s="37" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C123" s="24" t="str">
         <f aca="false">IF(D123&gt;=1, "OK", "missing!")</f>
@@ -7224,7 +7054,7 @@
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B124" s="37" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C124" s="24" t="str">
         <f aca="false">IF(D124&gt;=1, "OK", "missing!")</f>
@@ -7245,7 +7075,7 @@
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B125" s="37" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C125" s="24" t="str">
         <f aca="false">IF(D125&gt;=1, "OK", "missing!")</f>
@@ -7266,7 +7096,7 @@
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B126" s="37" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C126" s="24" t="str">
         <f aca="false">IF(D126&gt;=1, "OK", "missing!")</f>
@@ -7287,7 +7117,7 @@
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B127" s="37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C127" s="24" t="str">
         <f aca="false">IF(D127&gt;=1, "OK", "missing!")</f>
@@ -7320,7 +7150,7 @@
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B128" s="37" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C128" s="24" t="str">
         <f aca="false">IF(D128&gt;=1, "OK", "missing!")</f>
@@ -7353,7 +7183,7 @@
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B129" s="37" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C129" s="24" t="str">
         <f aca="false">IF(D129&gt;=1, "OK", "missing!")</f>
@@ -7386,7 +7216,7 @@
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B130" s="37" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C130" s="24" t="str">
         <f aca="false">IF(D130&gt;=1, "OK", "missing!")</f>

--- a/inputs/input_template_excel.xlsx
+++ b/inputs/input_template_excel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="254">
   <si>
     <t xml:space="preserve">Tool for optimizing and simulating off- and on-grid electrification solutions</t>
   </si>
@@ -157,27 +157,21 @@
     <t xml:space="preserve">restore_oemof_if_existant</t>
   </si>
   <si>
+    <t xml:space="preserve">False</t>
+  </si>
+  <si>
+    <t xml:space="preserve">restore_blackouts_if_existant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">allow_shortage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">include_stability_constraint</t>
+  </si>
+  <si>
     <t xml:space="preserve">True</t>
   </si>
   <si>
-    <t xml:space="preserve">restore_blackouts_if_existant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">False</t>
-  </si>
-  <si>
-    <t xml:space="preserve">base_case_with_min_loading</t>
-  </si>
-  <si>
-    <t xml:space="preserve">not working currently</t>
-  </si>
-  <si>
-    <t xml:space="preserve">allow_shortage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">include_stability_constraint</t>
-  </si>
-  <si>
     <t xml:space="preserve">setting_pcc_utility_owned</t>
   </si>
   <si>
@@ -734,6 +728,15 @@
   </si>
   <si>
     <t xml:space="preserve">do not use for optimization of generator capacities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number_of_equal_generators</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
   </si>
   <si>
     <t xml:space="preserve">capacity_pcc_consumption_kW</t>
@@ -783,6 +786,9 @@
   </si>
   <si>
     <t xml:space="preserve">Slide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">base_case_with_min_loading</t>
   </si>
 </sst>
 </file>
@@ -1210,16 +1216,16 @@
   <dimension ref="B2:F21"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E22" activeCellId="0" sqref="E22"/>
+      <selection pane="topLeft" activeCell="E28" activeCellId="0" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="3" min="1" style="0" width="1.08163265306122"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.5459183673469"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="41.5765306122449"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.734693877551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="39.9591836734694"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="1.08163265306122"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1427,18 +1433,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G58"/>
+  <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A30" activeCellId="0" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.10714285714286"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.7551020408163"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="10" width="14.1734693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.6734693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="10" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1563,153 +1569,151 @@
         <v>44</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="0" t="s">
         <v>49</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>51</v>
+      <c r="C18" s="10" t="n">
+        <v>365</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="10" t="n">
-        <v>365</v>
+        <v>51</v>
+      </c>
+      <c r="C19" s="16" t="n">
+        <v>43101</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="16" t="n">
-        <v>43101</v>
+      <c r="D20" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" s="10" t="s">
         <v>55</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>43</v>
       </c>
       <c r="D21" s="0" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="0" t="s">
+      <c r="C22" s="0"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="0"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" s="0" t="s">
+      <c r="C24" s="10" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="0"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="10" t="s">
-        <v>60</v>
+      <c r="C25" s="15" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="15" t="s">
-        <v>45</v>
+      <c r="D26" s="0" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="C27" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D27" s="0" t="s">
-        <v>64</v>
+      <c r="C27" s="10" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C29" s="0"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="17"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="14"/>
+      <c r="B31" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="C28" s="10" t="n">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="0" t="s">
+      <c r="C31" s="17"/>
+      <c r="D31" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C29" s="15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="0"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="17"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="14"/>
       <c r="B32" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="C32" s="17"/>
-      <c r="D32" s="14" t="s">
+      <c r="C32" s="10" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1723,36 +1727,35 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="14"/>
-      <c r="B34" s="0" t="s">
+      <c r="C34" s="17"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C35" s="0"/>
+      <c r="D35" s="18"/>
+      <c r="G35" s="18"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="0" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C35" s="17"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="C36" s="0"/>
-      <c r="D36" s="18"/>
-      <c r="G36" s="18"/>
+      <c r="C36" s="15" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="0" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="0" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C38" s="15" t="s">
         <v>43</v>
@@ -1760,149 +1763,141 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C40" s="17"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41" s="18"/>
+      <c r="C41" s="0"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="C39" s="15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="C40" s="15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C41" s="17"/>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B42" s="18"/>
-      <c r="C42" s="0"/>
+      <c r="C42" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="0" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D44" s="0" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C46" s="17"/>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B47" s="14"/>
+      <c r="C47" s="17"/>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="C45" s="15" t="s">
+      <c r="C48" s="15" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="C46" s="15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C47" s="17"/>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B48" s="14"/>
-      <c r="C48" s="17"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="0" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C52" s="17"/>
+    </row>
+    <row r="53" customFormat="false" ht="13.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C53" s="0"/>
+    </row>
+    <row r="54" customFormat="false" ht="13.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B54" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="C51" s="15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="C52" s="15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C53" s="17"/>
-    </row>
-    <row r="54" customFormat="false" ht="13.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C54" s="0"/>
+      <c r="C54" s="15" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="13.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B55" s="0" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C55" s="15" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="13.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="0" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="0" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="C58" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1929,766 +1924,766 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.5204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.75"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.7091836734694"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.3469387755102"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="10" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="1023" min="4" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="1023" min="4" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="9.58673469387755"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>90</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B2" s="10" t="n">
         <v>0</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B3" s="10" t="n">
         <v>0</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B4" s="10" t="n">
         <v>0</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B5" s="10" t="n">
         <v>0</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B6" s="10" t="n">
         <v>8.8</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B7" s="10" t="n">
         <v>0.1</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B8" s="10" t="n">
         <v>1</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B9" s="10" t="n">
         <v>0</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B10" s="10" t="n">
         <v>0</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B11" s="10" t="n">
         <v>20</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B12" s="10" t="n">
         <v>0.5</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B13" s="10" t="n">
         <v>650</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="D14" s="0" t="s">
         <v>116</v>
-      </c>
-      <c r="B14" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B15" s="10" t="n">
         <v>0</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B16" s="10" t="n">
         <v>0.33</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B17" s="10" t="n">
         <v>20</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B18" s="10" t="n">
         <v>1</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B19" s="10" t="n">
         <v>0.3</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B20" s="10" t="n">
         <v>0</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B21" s="10" t="n">
         <v>0</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B22" s="10" t="n">
         <v>0</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B23" s="10" t="n">
         <v>0</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B24" s="10" t="n">
         <v>20</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B25" s="10" t="n">
         <v>0</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B26" s="10" t="n">
         <v>0</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B27" s="10" t="n">
         <v>0.05</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B28" s="10" t="n">
         <v>0</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B29" s="10" t="n">
         <v>1</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B30" s="10" t="n">
         <v>0</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B31" s="10" t="n">
         <v>0</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B32" s="10" t="n">
         <v>0</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B33" s="10" t="n">
         <v>0.95</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B34" s="10" t="n">
         <v>20</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B35" s="10" t="n">
         <v>0.89</v>
       </c>
       <c r="C35" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E35" s="0" t="s">
         <v>144</v>
-      </c>
-      <c r="D35" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="E35" s="0" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B36" s="10" t="n">
         <v>0</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B37" s="10" t="n">
         <v>0</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B38" s="10" t="n">
         <v>20</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B39" s="10" t="n">
         <v>0.5</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B40" s="10" t="n">
         <v>1000</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B41" s="10" t="n">
         <v>0</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B42" s="10" t="n">
         <v>0</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B43" s="10" t="n">
         <v>20</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B44" s="10" t="n">
         <v>0.4</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B45" s="10" t="n">
         <v>602</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B46" s="10" t="n">
         <v>1</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B47" s="10" t="n">
         <v>0.2</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B48" s="10" t="n">
         <v>602</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B49" s="10" t="n">
         <v>0</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B50" s="10" t="n">
         <v>0</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B51" s="10" t="n">
         <v>1</v>
       </c>
       <c r="C51" s="19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B52" s="20" t="n">
         <v>1</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B53" s="10" t="n">
         <v>0.9</v>
       </c>
       <c r="C53" s="19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="C54" s="19" t="s">
         <v>171</v>
-      </c>
-      <c r="B54" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="C54" s="19" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B55" s="10" t="n">
         <v>15</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B56" s="10" t="n">
         <v>0</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B57" s="10" t="n">
         <v>1</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B58" s="10" t="n">
         <v>0</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B59" s="10" t="n">
         <v>0.09</v>
       </c>
       <c r="C59" s="19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B60" s="10" t="n">
         <v>0</v>
       </c>
       <c r="C60" s="19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B61" s="10" t="n">
         <v>0</v>
       </c>
       <c r="C61" s="19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B62" s="10" t="n">
         <v>0</v>
       </c>
       <c r="C62" s="19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B63" s="10" t="n">
         <v>0.5</v>
       </c>
       <c r="C63" s="19" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B64" s="10" t="n">
         <v>1100</v>
       </c>
       <c r="C64" s="19" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B65" s="10" t="n">
         <v>0</v>
       </c>
       <c r="C65" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B66" s="10" t="n">
         <v>0</v>
       </c>
       <c r="C66" s="19" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B67" s="10" t="n">
         <v>20</v>
       </c>
       <c r="C67" s="19" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -2715,21 +2710,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>187</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -2756,75 +2751,75 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.0051020408163"/>
-    <col collapsed="false" hidden="false" max="17" min="3" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="22.2755102040816"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="20.25"/>
-    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.1938775510204"/>
+    <col collapsed="false" hidden="false" max="17" min="3" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="21.4642857142857"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="19.4387755102041"/>
+    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="D2" s="0" t="s">
         <v>191</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="E2" s="0" t="s">
         <v>192</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>193</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>194</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>195</v>
       </c>
       <c r="H2" s="10"/>
       <c r="I2" s="19"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="E3" s="0" t="s">
         <v>197</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="D3" s="0" t="s">
+      <c r="F3" s="0" t="s">
         <v>198</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>199</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>200</v>
       </c>
       <c r="G3" s="10"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="19" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="F4" s="0" t="s">
         <v>198</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>199</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -2843,17 +2838,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B30" activeCellId="0" sqref="B30"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A15" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2863,146 +2859,146 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="21" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="22" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B16" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="D16" s="23" t="s">
         <v>221</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="E16" s="23" t="s">
         <v>222</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="F16" s="23" t="s">
         <v>223</v>
       </c>
-      <c r="E16" s="23" t="s">
+      <c r="G16" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="F16" s="23" t="s">
+      <c r="H16" s="23" t="s">
         <v>225</v>
-      </c>
-      <c r="G16" s="23" t="s">
-        <v>226</v>
-      </c>
-      <c r="H16" s="23" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="24" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C17" s="25" t="s">
         <v>43</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E17" s="25" t="s">
         <v>43</v>
@@ -3019,193 +3015,190 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="24" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C18" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="25" t="s">
-        <v>45</v>
-      </c>
       <c r="E18" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="F18" s="25" t="s">
+      <c r="H18" s="25" t="s">
         <v>43</v>
-      </c>
-      <c r="G18" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="H18" s="25" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="24" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G19" s="25" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H19" s="25" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="24" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E20" s="25" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H20" s="25" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="24" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G21" s="25" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H21" s="25" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="24" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C22" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="G22" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="25" t="s">
+      <c r="H22" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="E22" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="F22" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="G22" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="H22" s="25" t="s">
-        <v>45</v>
-      </c>
       <c r="I22" s="0" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="D23" s="25" t="s">
         <v>236</v>
       </c>
-      <c r="B23" s="25" t="s">
-        <v>172</v>
-      </c>
-      <c r="C23" s="25" t="s">
-        <v>172</v>
-      </c>
-      <c r="D23" s="25" t="s">
-        <v>172</v>
-      </c>
       <c r="E23" s="25" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G23" s="25" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="H23" s="25" t="s">
-        <v>233</v>
-      </c>
-      <c r="I23" s="0" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="E24" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="F24" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="G24" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="H24" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="I24" s="0" t="s">
         <v>238</v>
-      </c>
-      <c r="B24" s="25" t="s">
-        <v>172</v>
-      </c>
-      <c r="C24" s="25" t="s">
-        <v>172</v>
-      </c>
-      <c r="D24" s="25" t="s">
-        <v>172</v>
-      </c>
-      <c r="E24" s="25" t="s">
-        <v>172</v>
-      </c>
-      <c r="F24" s="25" t="s">
-        <v>233</v>
-      </c>
-      <c r="G24" s="25" t="s">
-        <v>233</v>
-      </c>
-      <c r="H24" s="25" t="s">
-        <v>172</v>
-      </c>
-      <c r="I24" s="0" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3213,129 +3206,158 @@
         <v>239</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>230</v>
+        <v>170</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>221</v>
+        <v>170</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>230</v>
+        <v>170</v>
       </c>
       <c r="E25" s="25" t="s">
-        <v>221</v>
+        <v>170</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="G25" s="25" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H25" s="25" t="s">
-        <v>172</v>
+        <v>170</v>
+      </c>
+      <c r="I25" s="0" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="24" t="s">
-        <v>48</v>
+        <v>240</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>43</v>
+        <v>228</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>43</v>
+        <v>228</v>
       </c>
       <c r="E26" s="25" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="G26" s="25" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="H26" s="25" t="s">
-        <v>43</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="24" t="s">
-        <v>216</v>
+        <v>45</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>240</v>
+        <v>47</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>240</v>
+        <v>47</v>
       </c>
       <c r="E27" s="25" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G27" s="25" t="s">
-        <v>240</v>
-      </c>
-      <c r="H27" s="24" t="n">
-        <v>0.5</v>
+        <v>241</v>
+      </c>
+      <c r="H27" s="25" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="24" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>43</v>
+        <v>241</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>45</v>
+        <v>241</v>
       </c>
       <c r="E28" s="25" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G28" s="25" t="s">
-        <v>240</v>
-      </c>
-      <c r="H28" s="25" t="s">
-        <v>240</v>
+        <v>241</v>
+      </c>
+      <c r="H28" s="24" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="24" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29" s="24" t="s">
-        <v>240</v>
+        <v>47</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>241</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="E29" s="24" t="s">
-        <v>240</v>
-      </c>
-      <c r="F29" s="24" t="s">
-        <v>240</v>
-      </c>
-      <c r="G29" s="24" t="s">
-        <v>240</v>
+        <v>43</v>
+      </c>
+      <c r="E29" s="25" t="s">
+        <v>241</v>
+      </c>
+      <c r="F29" s="25" t="s">
+        <v>241</v>
+      </c>
+      <c r="G29" s="25" t="s">
+        <v>241</v>
       </c>
       <c r="H29" s="25" t="s">
-        <v>45</v>
+        <v>241</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="D30" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="F30" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="G30" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="H30" s="25" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -3363,16 +3385,16 @@
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="1.08163265306122"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.0255102040816"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.36734693877551"/>
     <col collapsed="false" hidden="false" max="9" min="5" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="26" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -3384,7 +3406,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -3407,10 +3429,10 @@
     <row r="5" customFormat="false" ht="68.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B5" s="27"/>
       <c r="C5" s="28" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -3424,7 +3446,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -3435,10 +3457,10 @@
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="1"/>
       <c r="C7" s="30" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -3458,16 +3480,16 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B10" s="31" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E10" s="31" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F10" s="31"/>
       <c r="G10" s="31"/>
@@ -3523,7 +3545,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B12, case_definitions!A$17:A$29,1, 0)), 0)</f>
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B12, case_definitions!A$17:A$30,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3556,25 +3578,25 @@
         <v>0</v>
       </c>
       <c r="I13" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B13, case_definitions!A$17:A$29,1, 0)), 0)</f>
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B13, case_definitions!A$17:A$30,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="34" t="s">
-        <v>46</v>
+        <v>253</v>
       </c>
       <c r="C14" s="24" t="str">
         <f aca="false">IF(D14&gt;=1, "OK", "missing!")</f>
-        <v>OK</v>
+        <v>missing!</v>
       </c>
       <c r="D14" s="35" t="n">
         <f aca="false">SUM(E14:I14)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="36" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B14,settings!B:B, 1, 0)), 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="36" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B14, input_constant!A:A, 1, 0)), 0)</f>
@@ -3589,13 +3611,13 @@
         <v>0</v>
       </c>
       <c r="I14" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B14, case_definitions!A$17:A$29,1, 0)), 0)</f>
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B14, case_definitions!A$17:A$30,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="34" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C15" s="24" t="str">
         <f aca="false">IF(D15&gt;=1, "OK", "missing!")</f>
@@ -3622,13 +3644,13 @@
         <v>0</v>
       </c>
       <c r="I15" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B15, case_definitions!A$17:A$29,1, 0)), 0)</f>
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B15, case_definitions!A$17:A$30,1, 0)), 0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="34" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C16" s="24" t="str">
         <f aca="false">IF(D16&gt;=1, "OK", "missing!")</f>
@@ -3655,13 +3677,13 @@
         <v>0</v>
       </c>
       <c r="I16" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B16, case_definitions!A$17:A$29,1, 0)), 0)</f>
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B16, case_definitions!A$17:A$30,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="34" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C17" s="24" t="str">
         <f aca="false">IF(D17&gt;=1, "OK", "missing!")</f>
@@ -3688,13 +3710,13 @@
         <v>0</v>
       </c>
       <c r="I17" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B17, case_definitions!A$17:A$29,1, 0)), 0)</f>
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B17, case_definitions!A$17:A$30,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="34" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C18" s="24" t="str">
         <f aca="false">IF(D18&gt;=1, "OK", "missing!")</f>
@@ -3721,13 +3743,13 @@
         <v>0</v>
       </c>
       <c r="I18" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B18, case_definitions!A$17:A$29,1, 0)), 0)</f>
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B18, case_definitions!A$17:A$30,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="34" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C19" s="24" t="str">
         <f aca="false">IF(D19&gt;=1, "OK", "missing!")</f>
@@ -3754,13 +3776,13 @@
         <v>0</v>
       </c>
       <c r="I19" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B19, case_definitions!A$17:A$29,1, 0)), 0)</f>
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B19, case_definitions!A$17:A$30,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="34" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C20" s="24" t="str">
         <f aca="false">IF(D20&gt;=1, "OK", "missing!")</f>
@@ -3787,13 +3809,13 @@
         <v>0</v>
       </c>
       <c r="I20" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B20, case_definitions!A$17:A$29,1, 0)), 0)</f>
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B20, case_definitions!A$17:A$30,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="34" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C21" s="24" t="str">
         <f aca="false">IF(D21&gt;=1, "OK", "missing!")</f>
@@ -3820,13 +3842,13 @@
         <v>0</v>
       </c>
       <c r="I21" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B21, case_definitions!A$17:A$29,1, 0)), 0)</f>
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B21, case_definitions!A$17:A$30,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="34" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C22" s="24" t="str">
         <f aca="false">IF(D22&gt;=1, "OK", "missing!")</f>
@@ -3853,13 +3875,13 @@
         <v>0</v>
       </c>
       <c r="I22" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B22, case_definitions!A$17:A$29,1, 0)), 0)</f>
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B22, case_definitions!A$17:A$30,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="34" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C23" s="24" t="str">
         <f aca="false">IF(D23&gt;=1, "OK", "missing!")</f>
@@ -3886,13 +3908,13 @@
         <v>0</v>
       </c>
       <c r="I23" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B23, case_definitions!A$17:A$29,1, 0)), 0)</f>
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B23, case_definitions!A$17:A$30,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="34" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C24" s="24" t="str">
         <f aca="false">IF(D24&gt;=1, "OK", "missing!")</f>
@@ -3919,13 +3941,13 @@
         <v>0</v>
       </c>
       <c r="I24" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B24, case_definitions!A$17:A$29,1, 0)), 0)</f>
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B24, case_definitions!A$17:A$30,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="34" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C25" s="24" t="str">
         <f aca="false">IF(D25&gt;=1, "OK", "missing!")</f>
@@ -3952,13 +3974,13 @@
         <v>0</v>
       </c>
       <c r="I25" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B25, case_definitions!A$17:A$29,1, 0)), 0)</f>
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B25, case_definitions!A$17:A$30,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="34" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C26" s="24" t="str">
         <f aca="false">IF(D26&gt;=1, "OK", "missing!")</f>
@@ -3985,13 +4007,13 @@
         <v>0</v>
       </c>
       <c r="I26" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B26, case_definitions!A$17:A$29,1, 0)), 0)</f>
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B26, case_definitions!A$17:A$30,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="34" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C27" s="24" t="str">
         <f aca="false">IF(D27&gt;=1, "OK", "missing!")</f>
@@ -4018,13 +4040,13 @@
         <v>0</v>
       </c>
       <c r="I27" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B27, case_definitions!A$17:A$29,1, 0)), 0)</f>
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B27, case_definitions!A$17:A$30,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="34" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C28" s="24" t="str">
         <f aca="false">IF(D28&gt;=1, "OK", "missing!")</f>
@@ -4051,13 +4073,13 @@
         <v>0</v>
       </c>
       <c r="I28" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B28, case_definitions!A$17:A$29,1, 0)), 0)</f>
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B28, case_definitions!A$17:A$30,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B29" s="34" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C29" s="24" t="str">
         <f aca="false">IF(D29&gt;=1, "OK", "missing!")</f>
@@ -4084,13 +4106,13 @@
         <v>0</v>
       </c>
       <c r="I29" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B29, case_definitions!A$17:A$29,1, 0)), 0)</f>
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B29, case_definitions!A$17:A$30,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="34" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C30" s="24" t="str">
         <f aca="false">IF(D30&gt;=1, "OK", "missing!")</f>
@@ -4117,13 +4139,13 @@
         <v>0</v>
       </c>
       <c r="I30" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B30, case_definitions!A$17:A$29,1, 0)), 0)</f>
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B30, case_definitions!A$17:A$30,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="34" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C31" s="24" t="str">
         <f aca="false">IF(D31&gt;=1, "OK", "missing!")</f>
@@ -4150,13 +4172,13 @@
         <v>0</v>
       </c>
       <c r="I31" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B31, case_definitions!A$17:A$29,1, 0)), 0)</f>
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B31, case_definitions!A$17:A$30,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="34" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C32" s="24" t="str">
         <f aca="false">IF(D32&gt;=1, "OK", "missing!")</f>
@@ -4183,13 +4205,13 @@
         <v>0</v>
       </c>
       <c r="I32" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B32, case_definitions!A$17:A$29,1, 0)), 0)</f>
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B32, case_definitions!A$17:A$30,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="34" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C33" s="24" t="str">
         <f aca="false">IF(D33&gt;=1, "OK", "missing!")</f>
@@ -4216,13 +4238,13 @@
         <v>0</v>
       </c>
       <c r="I33" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B33, case_definitions!A$17:A$29,1, 0)), 0)</f>
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B33, case_definitions!A$17:A$30,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="34" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C34" s="24" t="str">
         <f aca="false">IF(D34&gt;=1, "OK", "missing!")</f>
@@ -4249,13 +4271,13 @@
         <v>0</v>
       </c>
       <c r="I34" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B34, case_definitions!A$17:A$29,1, 0)), 0)</f>
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B34, case_definitions!A$17:A$30,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="34" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C35" s="24" t="str">
         <f aca="false">IF(D35&gt;=1, "OK", "missing!")</f>
@@ -4282,13 +4304,13 @@
         <v>0</v>
       </c>
       <c r="I35" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B35, case_definitions!A$17:A$29,1, 0)), 0)</f>
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B35, case_definitions!A$17:A$30,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="34" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C36" s="24" t="str">
         <f aca="false">IF(D36&gt;=1, "OK", "missing!")</f>
@@ -4315,13 +4337,13 @@
         <v>0</v>
       </c>
       <c r="I36" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B36, case_definitions!A$17:A$29,1, 0)), 0)</f>
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B36, case_definitions!A$17:A$30,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="34" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C37" s="24" t="str">
         <f aca="false">IF(D37&gt;=1, "OK", "missing!")</f>
@@ -4348,13 +4370,13 @@
         <v>0</v>
       </c>
       <c r="I37" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B37, case_definitions!A$17:A$29,1, 0)), 0)</f>
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B37, case_definitions!A$17:A$30,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="34" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C38" s="24" t="str">
         <f aca="false">IF(D38&gt;=1, "OK", "missing!")</f>
@@ -4381,13 +4403,13 @@
         <v>0</v>
       </c>
       <c r="I38" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B38, case_definitions!A$17:A$29,1, 0)), 0)</f>
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B38, case_definitions!A$17:A$30,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="34" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C39" s="24" t="str">
         <f aca="false">IF(D39&gt;=1, "OK", "missing!")</f>
@@ -4414,13 +4436,13 @@
         <v>0</v>
       </c>
       <c r="I39" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B39, case_definitions!A$17:A$29,1, 0)), 0)</f>
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B39, case_definitions!A$17:A$30,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="34" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C40" s="24" t="str">
         <f aca="false">IF(D40&gt;=1, "OK", "missing!")</f>
@@ -4447,13 +4469,13 @@
         <v>0</v>
       </c>
       <c r="I40" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B40, case_definitions!A$17:A$29,1, 0)), 0)</f>
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B40, case_definitions!A$17:A$30,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="34" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C41" s="24" t="str">
         <f aca="false">IF(D41&gt;=1, "OK", "missing!")</f>
@@ -4480,13 +4502,13 @@
         <v>0</v>
       </c>
       <c r="I41" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B41, case_definitions!A$17:A$29,1, 0)), 0)</f>
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B41, case_definitions!A$17:A$30,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="34" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C42" s="24" t="str">
         <f aca="false">IF(D42&gt;=1, "OK", "missing!")</f>
@@ -4513,13 +4535,13 @@
         <v>0</v>
       </c>
       <c r="I42" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B42, case_definitions!A$17:A$29,1, 0)), 0)</f>
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B42, case_definitions!A$17:A$30,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="34" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C43" s="24" t="str">
         <f aca="false">IF(D43&gt;=1, "OK", "missing!")</f>
@@ -4546,13 +4568,13 @@
         <v>0</v>
       </c>
       <c r="I43" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B43, case_definitions!A$17:A$29,1, 0)), 0)</f>
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B43, case_definitions!A$17:A$30,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="34" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C44" s="24" t="str">
         <f aca="false">IF(D44&gt;=1, "OK", "missing!")</f>
@@ -4579,13 +4601,13 @@
         <v>0</v>
       </c>
       <c r="I44" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B44, case_definitions!A$17:A$29,1, 0)), 0)</f>
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B44, case_definitions!A$17:A$30,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="34" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C45" s="24" t="str">
         <f aca="false">IF(D45&gt;=1, "OK", "missing!")</f>
@@ -4612,13 +4634,13 @@
         <v>0</v>
       </c>
       <c r="I45" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B45, case_definitions!A$17:A$29,1, 0)), 0)</f>
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B45, case_definitions!A$17:A$30,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="34" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C46" s="24" t="str">
         <f aca="false">IF(D46&gt;=1, "OK", "missing!")</f>
@@ -4645,13 +4667,13 @@
         <v>0</v>
       </c>
       <c r="I46" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B46, case_definitions!A$17:A$29,1, 0)), 0)</f>
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B46, case_definitions!A$17:A$30,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="34" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C47" s="24" t="str">
         <f aca="false">IF(D47&gt;=1, "OK", "missing!")</f>
@@ -4678,13 +4700,13 @@
         <v>0</v>
       </c>
       <c r="I47" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B47, case_definitions!A$17:A$29,1, 0)), 0)</f>
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B47, case_definitions!A$17:A$30,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="34" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C48" s="24" t="str">
         <f aca="false">IF(D48&gt;=1, "OK", "missing!")</f>
@@ -4711,13 +4733,13 @@
         <v>0</v>
       </c>
       <c r="I48" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B48, case_definitions!A$17:A$29,1, 0)), 0)</f>
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B48, case_definitions!A$17:A$30,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="34" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C49" s="24" t="str">
         <f aca="false">IF(D49&gt;=1, "OK", "missing!")</f>
@@ -4744,13 +4766,13 @@
         <v>0</v>
       </c>
       <c r="I49" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B49, case_definitions!A$17:A$29,1, 0)), 0)</f>
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B49, case_definitions!A$17:A$30,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="34" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C50" s="24" t="str">
         <f aca="false">IF(D50&gt;=1, "OK", "missing!")</f>
@@ -4777,13 +4799,13 @@
         <v>0</v>
       </c>
       <c r="I50" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B50, case_definitions!A$17:A$29,1, 0)), 0)</f>
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B50, case_definitions!A$17:A$30,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="34" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C51" s="24" t="str">
         <f aca="false">IF(D51&gt;=1, "OK", "missing!")</f>
@@ -4810,13 +4832,13 @@
         <v>0</v>
       </c>
       <c r="I51" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B51, case_definitions!A$17:A$29,1, 0)), 0)</f>
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B51, case_definitions!A$17:A$30,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="34" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C52" s="24" t="str">
         <f aca="false">IF(D52&gt;=1, "OK", "missing!")</f>
@@ -4843,13 +4865,13 @@
         <v>0</v>
       </c>
       <c r="I52" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B52, case_definitions!A$17:A$29,1, 0)), 0)</f>
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B52, case_definitions!A$17:A$30,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="34" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C53" s="24" t="str">
         <f aca="false">IF(D53&gt;=1, "OK", "missing!")</f>
@@ -4876,13 +4898,13 @@
         <v>0</v>
       </c>
       <c r="I53" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B53, case_definitions!A$17:A$29,1, 0)), 0)</f>
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B53, case_definitions!A$17:A$30,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="34" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C54" s="24" t="str">
         <f aca="false">IF(D54&gt;=1, "OK", "missing!")</f>
@@ -4909,13 +4931,13 @@
         <v>0</v>
       </c>
       <c r="I54" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B54, case_definitions!A$17:A$29,1, 0)), 0)</f>
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B54, case_definitions!A$17:A$30,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="34" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C55" s="24" t="str">
         <f aca="false">IF(D55&gt;=1, "OK", "missing!")</f>
@@ -4942,13 +4964,13 @@
         <v>0</v>
       </c>
       <c r="I55" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B55, case_definitions!A$17:A$29,1, 0)), 0)</f>
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B55, case_definitions!A$17:A$30,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="34" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C56" s="24" t="str">
         <f aca="false">IF(D56&gt;=1, "OK", "missing!")</f>
@@ -4975,13 +4997,13 @@
         <v>0</v>
       </c>
       <c r="I56" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B56, case_definitions!A$17:A$29,1, 0)), 0)</f>
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B56, case_definitions!A$17:A$30,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="34" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C57" s="24" t="str">
         <f aca="false">IF(D57&gt;=1, "OK", "missing!")</f>
@@ -5008,13 +5030,13 @@
         <v>0</v>
       </c>
       <c r="I57" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B57, case_definitions!A$17:A$29,1, 0)), 0)</f>
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B57, case_definitions!A$17:A$30,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="34" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C58" s="24" t="str">
         <f aca="false">IF(D58&gt;=1, "OK", "missing!")</f>
@@ -5041,13 +5063,13 @@
         <v>0</v>
       </c>
       <c r="I58" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B58, case_definitions!A$17:A$29,1, 0)), 0)</f>
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B58, case_definitions!A$17:A$30,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="34" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C59" s="24" t="str">
         <f aca="false">IF(D59&gt;=1, "OK", "missing!")</f>
@@ -5074,13 +5096,13 @@
         <v>0</v>
       </c>
       <c r="I59" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B59, case_definitions!A$17:A$29,1, 0)), 0)</f>
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B59, case_definitions!A$17:A$30,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="34" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C60" s="24" t="str">
         <f aca="false">IF(D60&gt;=1, "OK", "missing!")</f>
@@ -5107,13 +5129,13 @@
         <v>0</v>
       </c>
       <c r="I60" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B60, case_definitions!A$17:A$29,1, 0)), 0)</f>
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B60, case_definitions!A$17:A$30,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="34" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C61" s="24" t="str">
         <f aca="false">IF(D61&gt;=1, "OK", "missing!")</f>
@@ -5140,13 +5162,13 @@
         <v>0</v>
       </c>
       <c r="I61" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B61, case_definitions!A$17:A$29,1, 0)), 0)</f>
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B61, case_definitions!A$17:A$30,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="34" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C62" s="24" t="str">
         <f aca="false">IF(D62&gt;=1, "OK", "missing!")</f>
@@ -5173,13 +5195,13 @@
         <v>0</v>
       </c>
       <c r="I62" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B62, case_definitions!A$17:A$29,1, 0)), 0)</f>
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B62, case_definitions!A$17:A$30,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="34" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C63" s="24" t="str">
         <f aca="false">IF(D63&gt;=1, "OK", "missing!")</f>
@@ -5206,13 +5228,13 @@
         <v>0</v>
       </c>
       <c r="I63" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B63, case_definitions!A$17:A$29,1, 0)), 0)</f>
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B63, case_definitions!A$17:A$30,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="34" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C64" s="24" t="str">
         <f aca="false">IF(D64&gt;=1, "OK", "missing!")</f>
@@ -5239,13 +5261,13 @@
         <v>0</v>
       </c>
       <c r="I64" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B64, case_definitions!A$17:A$29,1, 0)), 0)</f>
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B64, case_definitions!A$17:A$30,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="34" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C65" s="24" t="str">
         <f aca="false">IF(D65&gt;=1, "OK", "missing!")</f>
@@ -5272,13 +5294,13 @@
         <v>0</v>
       </c>
       <c r="I65" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B65, case_definitions!A$17:A$29,1, 0)), 0)</f>
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B65, case_definitions!A$17:A$30,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="34" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C66" s="24" t="str">
         <f aca="false">IF(D66&gt;=1, "OK", "missing!")</f>
@@ -5305,13 +5327,13 @@
         <v>0</v>
       </c>
       <c r="I66" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B66, case_definitions!A$17:A$29,1, 0)), 0)</f>
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B66, case_definitions!A$17:A$30,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="34" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C67" s="24" t="str">
         <f aca="false">IF(D67&gt;=1, "OK", "missing!")</f>
@@ -5338,13 +5360,13 @@
         <v>0</v>
       </c>
       <c r="I67" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B67, case_definitions!A$17:A$29,1, 0)), 0)</f>
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B67, case_definitions!A$17:A$30,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="34" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C68" s="24" t="str">
         <f aca="false">IF(D68&gt;=1, "OK", "missing!")</f>
@@ -5371,13 +5393,13 @@
         <v>0</v>
       </c>
       <c r="I68" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B68, case_definitions!A$17:A$29,1, 0)), 0)</f>
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B68, case_definitions!A$17:A$30,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="34" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C69" s="24" t="str">
         <f aca="false">IF(D69&gt;=1, "OK", "missing!")</f>
@@ -5404,13 +5426,13 @@
         <v>0</v>
       </c>
       <c r="I69" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B69, case_definitions!A$17:A$29,1, 0)), 0)</f>
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B69, case_definitions!A$17:A$30,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="34" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C70" s="24" t="str">
         <f aca="false">IF(D70&gt;=1, "OK", "missing!")</f>
@@ -5437,13 +5459,13 @@
         <v>0</v>
       </c>
       <c r="I70" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B70, case_definitions!A$17:A$29,1, 0)), 0)</f>
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B70, case_definitions!A$17:A$30,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="34" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C71" s="24" t="str">
         <f aca="false">IF(D71&gt;=1, "OK", "missing!")</f>
@@ -5470,13 +5492,13 @@
         <v>0</v>
       </c>
       <c r="I71" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B71, case_definitions!A$17:A$29,1, 0)), 0)</f>
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B71, case_definitions!A$17:A$30,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="34" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C72" s="24" t="str">
         <f aca="false">IF(D72&gt;=1, "OK", "missing!")</f>
@@ -5503,13 +5525,13 @@
         <v>0</v>
       </c>
       <c r="I72" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B72, case_definitions!A$17:A$29,1, 0)), 0)</f>
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B72, case_definitions!A$17:A$30,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="34" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C73" s="24" t="str">
         <f aca="false">IF(D73&gt;=1, "OK", "missing!")</f>
@@ -5536,13 +5558,13 @@
         <v>0</v>
       </c>
       <c r="I73" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B73, case_definitions!A$17:A$29,1, 0)), 0)</f>
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B73, case_definitions!A$17:A$30,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="34" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C74" s="24" t="str">
         <f aca="false">IF(D74&gt;=1, "OK", "missing!")</f>
@@ -5569,13 +5591,13 @@
         <v>0</v>
       </c>
       <c r="I74" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B74, case_definitions!A$17:A$29,1, 0)), 0)</f>
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B74, case_definitions!A$17:A$30,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="34" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C75" s="24" t="str">
         <f aca="false">IF(D75&gt;=1, "OK", "missing!")</f>
@@ -5602,13 +5624,13 @@
         <v>0</v>
       </c>
       <c r="I75" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B75, case_definitions!A$17:A$29,1, 0)), 0)</f>
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B75, case_definitions!A$17:A$30,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="34" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C76" s="24" t="str">
         <f aca="false">IF(D76&gt;=1, "OK", "missing!")</f>
@@ -5635,13 +5657,13 @@
         <v>0</v>
       </c>
       <c r="I76" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B76, case_definitions!A$17:A$29,1, 0)), 0)</f>
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B76, case_definitions!A$17:A$30,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="34" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C77" s="24" t="str">
         <f aca="false">IF(D77&gt;=1, "OK", "missing!")</f>
@@ -5668,13 +5690,13 @@
         <v>0</v>
       </c>
       <c r="I77" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B77, case_definitions!A$17:A$29,1, 0)), 0)</f>
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B77, case_definitions!A$17:A$30,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="34" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C78" s="24" t="str">
         <f aca="false">IF(D78&gt;=1, "OK", "missing!")</f>
@@ -5701,13 +5723,13 @@
         <v>0</v>
       </c>
       <c r="I78" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B78, case_definitions!A$17:A$29,1, 0)), 0)</f>
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B78, case_definitions!A$17:A$30,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="34" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C79" s="24" t="str">
         <f aca="false">IF(D79&gt;=1, "OK", "missing!")</f>
@@ -5734,13 +5756,13 @@
         <v>0</v>
       </c>
       <c r="I79" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B79, case_definitions!A$17:A$29,1, 0)), 0)</f>
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B79, case_definitions!A$17:A$30,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="34" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C80" s="24" t="str">
         <f aca="false">IF(D80&gt;=1, "OK", "missing!")</f>
@@ -5767,13 +5789,13 @@
         <v>0</v>
       </c>
       <c r="I80" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B80, case_definitions!A$17:A$29,1, 0)), 0)</f>
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B80, case_definitions!A$17:A$30,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="34" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C81" s="24" t="str">
         <f aca="false">IF(D81&gt;=1, "OK", "missing!")</f>
@@ -5800,13 +5822,13 @@
         <v>0</v>
       </c>
       <c r="I81" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B81, case_definitions!A$17:A$29,1, 0)), 0)</f>
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B81, case_definitions!A$17:A$30,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="34" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C82" s="24" t="str">
         <f aca="false">IF(D82&gt;=1, "OK", "missing!")</f>
@@ -5833,13 +5855,13 @@
         <v>0</v>
       </c>
       <c r="I82" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B82, case_definitions!A$17:A$29,1, 0)), 0)</f>
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B82, case_definitions!A$17:A$30,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="34" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C83" s="24" t="str">
         <f aca="false">IF(D83&gt;=1, "OK", "missing!")</f>
@@ -5866,13 +5888,13 @@
         <v>0</v>
       </c>
       <c r="I83" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B83, case_definitions!A$17:A$29,1, 0)), 0)</f>
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B83, case_definitions!A$17:A$30,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="34" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C84" s="24" t="str">
         <f aca="false">IF(D84&gt;=1, "OK", "missing!")</f>
@@ -5899,13 +5921,13 @@
         <v>0</v>
       </c>
       <c r="I84" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B84, case_definitions!A$17:A$29,1, 0)), 0)</f>
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B84, case_definitions!A$17:A$30,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="34" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C85" s="24" t="str">
         <f aca="false">IF(D85&gt;=1, "OK", "missing!")</f>
@@ -5932,13 +5954,13 @@
         <v>0</v>
       </c>
       <c r="I85" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B85, case_definitions!A$17:A$29,1, 0)), 0)</f>
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B85, case_definitions!A$17:A$30,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="34" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C86" s="24" t="str">
         <f aca="false">IF(D86&gt;=1, "OK", "missing!")</f>
@@ -5965,13 +5987,13 @@
         <v>0</v>
       </c>
       <c r="I86" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B86, case_definitions!A$17:A$29,1, 0)), 0)</f>
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B86, case_definitions!A$17:A$30,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="34" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C87" s="24" t="str">
         <f aca="false">IF(D87&gt;=1, "OK", "missing!")</f>
@@ -5998,13 +6020,13 @@
         <v>0</v>
       </c>
       <c r="I87" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B87, case_definitions!A$17:A$29,1, 0)), 0)</f>
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B87, case_definitions!A$17:A$30,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="34" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C88" s="24" t="str">
         <f aca="false">IF(D88&gt;=1, "OK", "missing!")</f>
@@ -6031,13 +6053,13 @@
         <v>0</v>
       </c>
       <c r="I88" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B88, case_definitions!A$17:A$29,1, 0)), 0)</f>
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B88, case_definitions!A$17:A$30,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="34" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C89" s="24" t="str">
         <f aca="false">IF(D89&gt;=1, "OK", "missing!")</f>
@@ -6064,13 +6086,13 @@
         <v>0</v>
       </c>
       <c r="I89" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B89, case_definitions!A$17:A$29,1, 0)), 0)</f>
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B89, case_definitions!A$17:A$30,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="34" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C90" s="24" t="str">
         <f aca="false">IF(D90&gt;=1, "OK", "missing!")</f>
@@ -6097,13 +6119,13 @@
         <v>0</v>
       </c>
       <c r="I90" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B90, case_definitions!A$17:A$29,1, 0)), 0)</f>
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B90, case_definitions!A$17:A$30,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B91" s="34" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C91" s="24" t="str">
         <f aca="false">IF(D91&gt;=1, "OK", "missing!")</f>
@@ -6130,13 +6152,13 @@
         <v>0</v>
       </c>
       <c r="I91" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B91, case_definitions!A$17:A$29,1, 0)), 0)</f>
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B91, case_definitions!A$17:A$30,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="34" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C92" s="24" t="str">
         <f aca="false">IF(D92&gt;=1, "OK", "missing!")</f>
@@ -6163,13 +6185,13 @@
         <v>0</v>
       </c>
       <c r="I92" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B92, case_definitions!A$17:A$29,1, 0)), 0)</f>
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B92, case_definitions!A$17:A$30,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="34" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C93" s="24" t="str">
         <f aca="false">IF(D93&gt;=1, "OK", "missing!")</f>
@@ -6196,13 +6218,13 @@
         <v>0</v>
       </c>
       <c r="I93" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B93, case_definitions!A$17:A$29,1, 0)), 0)</f>
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B93, case_definitions!A$17:A$30,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="34" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C94" s="24" t="str">
         <f aca="false">IF(D94&gt;=1, "OK", "missing!")</f>
@@ -6229,13 +6251,13 @@
         <v>0</v>
       </c>
       <c r="I94" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B94, case_definitions!A$17:A$29,1, 0)), 0)</f>
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B94, case_definitions!A$17:A$30,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="34" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C95" s="24" t="str">
         <f aca="false">IF(D95&gt;=1, "OK", "missing!")</f>
@@ -6262,13 +6284,13 @@
         <v>0</v>
       </c>
       <c r="I95" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B95, case_definitions!A$17:A$29,1, 0)), 0)</f>
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B95, case_definitions!A$17:A$30,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="34" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C96" s="24" t="str">
         <f aca="false">IF(D96&gt;=1, "OK", "missing!")</f>
@@ -6295,13 +6317,13 @@
         <v>0</v>
       </c>
       <c r="I96" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B96, case_definitions!A$17:A$29,1, 0)), 0)</f>
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B96, case_definitions!A$17:A$30,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="34" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C97" s="24" t="str">
         <f aca="false">IF(D97&gt;=1, "OK", "missing!")</f>
@@ -6328,13 +6350,13 @@
         <v>0</v>
       </c>
       <c r="I97" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B97, case_definitions!A$17:A$29,1, 0)), 0)</f>
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B97, case_definitions!A$17:A$30,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="34" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C98" s="24" t="str">
         <f aca="false">IF(D98&gt;=1, "OK", "missing!")</f>
@@ -6361,13 +6383,13 @@
         <v>0</v>
       </c>
       <c r="I98" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B98, case_definitions!A$17:A$29,1, 0)), 0)</f>
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B98, case_definitions!A$17:A$30,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="34" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C99" s="24" t="str">
         <f aca="false">IF(D99&gt;=1, "OK", "missing!")</f>
@@ -6394,13 +6416,13 @@
         <v>0</v>
       </c>
       <c r="I99" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B99, case_definitions!A$17:A$29,1, 0)), 0)</f>
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B99, case_definitions!A$17:A$30,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="34" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C100" s="24" t="str">
         <f aca="false">IF(D100&gt;=1, "OK", "missing!")</f>
@@ -6427,13 +6449,13 @@
         <v>0</v>
       </c>
       <c r="I100" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B100, case_definitions!A$17:A$29,1, 0)), 0)</f>
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B100, case_definitions!A$17:A$30,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B101" s="34" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C101" s="24" t="str">
         <f aca="false">IF(D101&gt;=1, "OK", "missing!")</f>
@@ -6460,13 +6482,13 @@
         <v>0</v>
       </c>
       <c r="I101" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B101, case_definitions!A$17:A$29,1, 0)), 0)</f>
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B101, case_definitions!A$17:A$30,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="34" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C102" s="24" t="str">
         <f aca="false">IF(D102&gt;=1, "OK", "missing!")</f>
@@ -6493,13 +6515,13 @@
         <v>0</v>
       </c>
       <c r="I102" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B102, case_definitions!A$17:A$29,1, 0)), 0)</f>
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B102, case_definitions!A$17:A$30,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="34" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C103" s="24" t="str">
         <f aca="false">IF(D103&gt;=1, "OK", "missing!")</f>
@@ -6526,13 +6548,13 @@
         <v>0</v>
       </c>
       <c r="I103" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B103, case_definitions!A$17:A$29,1, 0)), 0)</f>
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B103, case_definitions!A$17:A$30,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="34" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C104" s="24" t="str">
         <f aca="false">IF(D104&gt;=1, "OK", "missing!")</f>
@@ -6559,13 +6581,13 @@
         <v>0</v>
       </c>
       <c r="I104" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B104, case_definitions!A$17:A$29,1, 0)), 0)</f>
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B104, case_definitions!A$17:A$30,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B105" s="34" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C105" s="24" t="str">
         <f aca="false">IF(D105&gt;=1, "OK", "missing!")</f>
@@ -6592,13 +6614,13 @@
         <v>0</v>
       </c>
       <c r="I105" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B105, case_definitions!A$17:A$29,1, 0)), 0)</f>
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B105, case_definitions!A$17:A$30,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="34" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C106" s="24" t="str">
         <f aca="false">IF(D106&gt;=1, "OK", "missing!")</f>
@@ -6625,13 +6647,13 @@
         <v>0</v>
       </c>
       <c r="I106" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B106, case_definitions!A$17:A$29,1, 0)), 0)</f>
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B106, case_definitions!A$17:A$30,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B107" s="34" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C107" s="24" t="str">
         <f aca="false">IF(D107&gt;=1, "OK", "missing!")</f>
@@ -6658,13 +6680,13 @@
         <v>0</v>
       </c>
       <c r="I107" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B107, case_definitions!A$17:A$29,1, 0)), 0)</f>
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B107, case_definitions!A$17:A$30,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="34" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C108" s="24" t="str">
         <f aca="false">IF(D108&gt;=1, "OK", "missing!")</f>
@@ -6691,13 +6713,13 @@
         <v>0</v>
       </c>
       <c r="I108" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B108, case_definitions!A$17:A$29,1, 0)), 0)</f>
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B108, case_definitions!A$17:A$30,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B109" s="34" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C109" s="24" t="str">
         <f aca="false">IF(D109&gt;=1, "OK", "missing!")</f>
@@ -6724,13 +6746,13 @@
         <v>0</v>
       </c>
       <c r="I109" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B109, case_definitions!A$17:A$29,1, 0)), 0)</f>
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B109, case_definitions!A$17:A$30,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B110" s="34" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C110" s="24" t="str">
         <f aca="false">IF(D110&gt;=1, "OK", "missing!")</f>
@@ -6757,13 +6779,13 @@
         <v>0</v>
       </c>
       <c r="I110" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B110, case_definitions!A$17:A$29,1, 0)), 0)</f>
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B110, case_definitions!A$17:A$30,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B111" s="34" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C111" s="24" t="str">
         <f aca="false">IF(D111&gt;=1, "OK", "missing!")</f>
@@ -6790,13 +6812,13 @@
         <v>0</v>
       </c>
       <c r="I111" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B111, case_definitions!A$17:A$29,1, 0)), 0)</f>
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B111, case_definitions!A$17:A$30,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B112" s="34" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C112" s="24" t="str">
         <f aca="false">IF(D112&gt;=1, "OK", "missing!")</f>
@@ -6823,13 +6845,13 @@
         <v>1</v>
       </c>
       <c r="I112" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B112, case_definitions!A$17:A$29,1, 0)), 0)</f>
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B112, case_definitions!A$17:A$30,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B113" s="34" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C113" s="24" t="str">
         <f aca="false">IF(D113&gt;=1, "OK", "missing!")</f>
@@ -6856,13 +6878,13 @@
         <v>1</v>
       </c>
       <c r="I113" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B113, case_definitions!A$17:A$29,1, 0)), 0)</f>
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B113, case_definitions!A$17:A$30,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B114" s="34" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C114" s="24" t="str">
         <f aca="false">IF(D114&gt;=1, "OK", "missing!")</f>
@@ -6889,13 +6911,13 @@
         <v>1</v>
       </c>
       <c r="I114" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B114, case_definitions!A$17:A$29,1, 0)), 0)</f>
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B114, case_definitions!A$17:A$30,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B115" s="34" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C115" s="24" t="str">
         <f aca="false">IF(D115&gt;=1, "OK", "missing!")</f>
@@ -6922,13 +6944,13 @@
         <v>1</v>
       </c>
       <c r="I115" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B115, case_definitions!A$17:A$29,1, 0)), 0)</f>
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B115, case_definitions!A$17:A$30,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B116" s="34" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C116" s="24" t="str">
         <f aca="false">IF(D116&gt;=1, "OK", "missing!")</f>
@@ -6955,13 +6977,13 @@
         <v>1</v>
       </c>
       <c r="I116" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B116, case_definitions!A$17:A$29,1, 0)), 0)</f>
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B116, case_definitions!A$17:A$30,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B117" s="34" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C117" s="24" t="str">
         <f aca="false">IF(D117&gt;=1, "OK", "missing!")</f>
@@ -6988,13 +7010,13 @@
         <v>1</v>
       </c>
       <c r="I117" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B117, case_definitions!A$17:A$29,1, 0)), 0)</f>
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B117, case_definitions!A$17:A$30,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B118" s="37" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C118" s="24" t="str">
         <f aca="false">IF(D118&gt;=1, "OK", "missing!")</f>
@@ -7009,13 +7031,13 @@
       <c r="G118" s="38"/>
       <c r="H118" s="38"/>
       <c r="I118" s="35" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B118, case_definitions!A$17:A$29,1, 0)), 0)</f>
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B118, case_definitions!A$17:A$30,1, 0)), 0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B119" s="37" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C119" s="24" t="str">
         <f aca="false">IF(D119&gt;=1, "OK", "missing!")</f>
@@ -7030,13 +7052,13 @@
       <c r="G119" s="38"/>
       <c r="H119" s="38"/>
       <c r="I119" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B119, case_definitions!A$17:A$29,1, 0)), 0)</f>
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B119, case_definitions!A$17:A$30,1, 0)), 0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B120" s="37" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C120" s="24" t="str">
         <f aca="false">IF(D120&gt;=1, "OK", "missing!")</f>
@@ -7051,13 +7073,13 @@
       <c r="G120" s="38"/>
       <c r="H120" s="38"/>
       <c r="I120" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B120, case_definitions!A$17:A$29,1, 0)), 0)</f>
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B120, case_definitions!A$17:A$30,1, 0)), 0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B121" s="37" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C121" s="24" t="str">
         <f aca="false">IF(D121&gt;=1, "OK", "missing!")</f>
@@ -7072,13 +7094,13 @@
       <c r="G121" s="38"/>
       <c r="H121" s="38"/>
       <c r="I121" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B121, case_definitions!A$17:A$29,1, 0)), 0)</f>
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B121, case_definitions!A$17:A$30,1, 0)), 0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B122" s="37" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C122" s="24" t="str">
         <f aca="false">IF(D122&gt;=1, "OK", "missing!")</f>
@@ -7093,13 +7115,13 @@
       <c r="G122" s="38"/>
       <c r="H122" s="38"/>
       <c r="I122" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B122, case_definitions!A$17:A$29,1, 0)), 0)</f>
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B122, case_definitions!A$17:A$30,1, 0)), 0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B123" s="37" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C123" s="24" t="str">
         <f aca="false">IF(D123&gt;=1, "OK", "missing!")</f>
@@ -7114,13 +7136,13 @@
       <c r="G123" s="38"/>
       <c r="H123" s="38"/>
       <c r="I123" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B123, case_definitions!A$17:A$29,1, 0)), 0)</f>
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B123, case_definitions!A$17:A$30,1, 0)), 0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B124" s="37" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C124" s="24" t="str">
         <f aca="false">IF(D124&gt;=1, "OK", "missing!")</f>
@@ -7135,13 +7157,13 @@
       <c r="G124" s="38"/>
       <c r="H124" s="38"/>
       <c r="I124" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B124, case_definitions!A$17:A$29,1, 0)), 0)</f>
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B124, case_definitions!A$17:A$30,1, 0)), 0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B125" s="37" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C125" s="24" t="str">
         <f aca="false">IF(D125&gt;=1, "OK", "missing!")</f>
@@ -7156,13 +7178,13 @@
       <c r="G125" s="38"/>
       <c r="H125" s="38"/>
       <c r="I125" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B125, case_definitions!A$17:A$29,1, 0)), 0)</f>
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B125, case_definitions!A$17:A$30,1, 0)), 0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B126" s="37" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C126" s="24" t="str">
         <f aca="false">IF(D126&gt;=1, "OK", "missing!")</f>
@@ -7177,13 +7199,13 @@
       <c r="G126" s="38"/>
       <c r="H126" s="38"/>
       <c r="I126" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B126, case_definitions!A$17:A$29,1, 0)), 0)</f>
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B126, case_definitions!A$17:A$30,1, 0)), 0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B127" s="37" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C127" s="24" t="str">
         <f aca="false">IF(D127&gt;=1, "OK", "missing!")</f>
@@ -7210,13 +7232,13 @@
         <v>0</v>
       </c>
       <c r="I127" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B127, case_definitions!A$17:A$29,1, 0)), 0)</f>
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B127, case_definitions!A$17:A$30,1, 0)), 0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B128" s="37" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C128" s="24" t="str">
         <f aca="false">IF(D128&gt;=1, "OK", "missing!")</f>
@@ -7243,13 +7265,13 @@
         <v>0</v>
       </c>
       <c r="I128" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B128, case_definitions!A$17:A$29,1, 0)), 0)</f>
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B128, case_definitions!A$17:A$30,1, 0)), 0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B129" s="37" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C129" s="24" t="str">
         <f aca="false">IF(D129&gt;=1, "OK", "missing!")</f>
@@ -7276,13 +7298,13 @@
         <v>0</v>
       </c>
       <c r="I129" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B129, case_definitions!A$17:A$29,1, 0)), 0)</f>
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B129, case_definitions!A$17:A$30,1, 0)), 0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B130" s="37" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C130" s="24" t="str">
         <f aca="false">IF(D130&gt;=1, "OK", "missing!")</f>
@@ -7309,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="I130" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B130, case_definitions!A$17:A$29,1, 0)), 0)</f>
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B130, case_definitions!A$17:A$30,1, 0)), 0)</f>
         <v>1</v>
       </c>
     </row>

--- a/inputs/input_template_excel.xlsx
+++ b/inputs/input_template_excel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="980" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="259">
   <si>
     <t xml:space="preserve">Tool for optimizing and simulating off- and on-grid electrification solutions</t>
   </si>
@@ -157,21 +157,21 @@
     <t xml:space="preserve">restore_oemof_if_existant</t>
   </si>
   <si>
+    <t xml:space="preserve">True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">restore_blackouts_if_existant</t>
+  </si>
+  <si>
     <t xml:space="preserve">False</t>
   </si>
   <si>
-    <t xml:space="preserve">restore_blackouts_if_existant</t>
-  </si>
-  <si>
     <t xml:space="preserve">allow_shortage</t>
   </si>
   <si>
     <t xml:space="preserve">include_stability_constraint</t>
   </si>
   <si>
-    <t xml:space="preserve">True</t>
-  </si>
-  <si>
     <t xml:space="preserve">setting_pcc_utility_owned</t>
   </si>
   <si>
@@ -610,7 +610,7 @@
     <t xml:space="preserve">title_wind</t>
   </si>
   <si>
-    <t xml:space="preserve">Atulayan</t>
+    <t xml:space="preserve">Atulayan_0</t>
   </si>
   <si>
     <t xml:space="preserve">./inputs/Example2_Atulayan.csv</t>
@@ -625,12 +625,18 @@
     <t xml:space="preserve">Wind</t>
   </si>
   <si>
-    <t xml:space="preserve">Masbate</t>
+    <t xml:space="preserve">Masbate_0</t>
   </si>
   <si>
     <t xml:space="preserve">./inputs/Example1_Masbate.csv</t>
   </si>
   <si>
+    <t xml:space="preserve">Atulayan_0.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Masbate_0.1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Attribute</t>
   </si>
   <si>
@@ -688,10 +694,22 @@
     <t xml:space="preserve">base_oem</t>
   </si>
   <si>
+    <t xml:space="preserve">base_oem_2Gen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">base_oem_no_stability</t>
+  </si>
+  <si>
     <t xml:space="preserve">offgrid_fixed</t>
   </si>
   <si>
-    <t xml:space="preserve">base_oem_min_loading</t>
+    <t xml:space="preserve">base_oem_min_loading_2Gen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">base_oem_min_loading_2Gen_no_stability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">base_oem_min_loading_3Gen_no_stability</t>
   </si>
   <si>
     <t xml:space="preserve">interconnected_buy</t>
@@ -727,9 +745,6 @@
     <t xml:space="preserve">genset_with_minimal_loading</t>
   </si>
   <si>
-    <t xml:space="preserve">do not use for optimization of generator capacities</t>
-  </si>
-  <si>
     <t xml:space="preserve">number_of_equal_generators</t>
   </si>
   <si>
@@ -739,10 +754,10 @@
     <t xml:space="preserve">2</t>
   </si>
   <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
     <t xml:space="preserve">capacity_pcc_consumption_kW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">optimization currently not supported</t>
   </si>
   <si>
     <t xml:space="preserve">capacity_pcc_feedin_kW</t>
@@ -1222,10 +1237,10 @@
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="3" min="1" style="0" width="1.08163265306122"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.734693877551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="39.9591836734694"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.25"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="37.5255102040816"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="1.08163265306122"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1435,16 +1450,16 @@
   </sheetPr>
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A30" activeCellId="0" sqref="A30"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.10714285714286"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.6734693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="10" width="13.3622448979592"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.9183673469388"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="10" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1569,23 +1584,23 @@
         <v>44</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="15" t="s">
         <v>45</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1593,7 +1608,7 @@
         <v>48</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D17" s="0" t="s">
         <v>49</v>
@@ -1631,7 +1646,7 @@
         <v>55</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D21" s="0" t="s">
         <v>56</v>
@@ -1659,7 +1674,7 @@
         <v>59</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1678,7 +1693,7 @@
         <v>63</v>
       </c>
       <c r="C27" s="10" t="n">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1686,7 +1701,7 @@
         <v>64</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1742,7 +1757,7 @@
         <v>72</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1750,7 +1765,7 @@
         <v>73</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1758,7 +1773,7 @@
         <v>74</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1766,7 +1781,7 @@
         <v>75</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1784,7 +1799,7 @@
         <v>76</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D42" s="0" t="s">
         <v>49</v>
@@ -1795,7 +1810,7 @@
         <v>77</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D43" s="0" t="s">
         <v>49</v>
@@ -1806,7 +1821,7 @@
         <v>78</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1814,7 +1829,7 @@
         <v>79</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1832,7 +1847,7 @@
         <v>80</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1840,7 +1855,7 @@
         <v>81</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1848,7 +1863,7 @@
         <v>82</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1856,7 +1871,7 @@
         <v>83</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1873,7 +1888,7 @@
         <v>84</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1881,7 +1896,7 @@
         <v>85</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1889,7 +1904,7 @@
         <v>86</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1897,7 +1912,7 @@
         <v>87</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1918,17 +1933,17 @@
   </sheetPr>
   <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B34" activeCellId="0" sqref="B34"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.7091836734694"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.3469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.3571428571429"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.0765306122449"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="10" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="1023" min="4" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="1023" min="4" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.77551020408163"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2435,7 +2450,7 @@
         <v>157</v>
       </c>
       <c r="B45" s="10" t="n">
-        <v>602</v>
+        <v>0</v>
       </c>
       <c r="C45" s="19" t="s">
         <v>158</v>
@@ -2702,15 +2717,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2725,6 +2740,20 @@
       </c>
       <c r="D1" s="0" t="s">
         <v>187</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>0.05</v>
       </c>
     </row>
   </sheetData>
@@ -2743,20 +2772,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:I4"/>
+  <dimension ref="A2:I6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.1938775510204"/>
-    <col collapsed="false" hidden="false" max="17" min="3" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="21.4642857142857"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="19.4387755102041"/>
-    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.7091836734694"/>
+    <col collapsed="false" hidden="false" max="17" min="3" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="19.9795918367347"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2778,6 +2807,9 @@
       <c r="F2" s="0" t="s">
         <v>193</v>
       </c>
+      <c r="G2" s="0" t="s">
+        <v>100</v>
+      </c>
       <c r="H2" s="10"/>
       <c r="I2" s="19"/>
     </row>
@@ -2800,7 +2832,9 @@
       <c r="F3" s="0" t="s">
         <v>198</v>
       </c>
-      <c r="G3" s="10"/>
+      <c r="G3" s="10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="19" t="s">
@@ -2820,6 +2854,55 @@
       </c>
       <c r="F4" s="0" t="s">
         <v>198</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
@@ -2838,18 +2921,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A15" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2859,282 +2941,354 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="21" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>210</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="185.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="22" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G16" s="23" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H16" s="23" t="s">
-        <v>225</v>
+        <v>227</v>
+      </c>
+      <c r="I16" s="23" t="s">
+        <v>228</v>
+      </c>
+      <c r="J16" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="K16" s="23" t="s">
+        <v>230</v>
+      </c>
+      <c r="L16" s="23" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="24" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G17" s="25" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>43</v>
+        <v>45</v>
+      </c>
+      <c r="I17" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="J17" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="K17" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="L17" s="25" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="24" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B18" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" s="25" t="s">
+      <c r="F18" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="I18" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="F18" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="G18" s="25" t="s">
+      <c r="J18" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="H18" s="25" t="s">
-        <v>43</v>
+      <c r="K18" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="L18" s="25" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="24" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="G19" s="25" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="H19" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="I19" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="J19" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="K19" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="L19" s="25" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="24" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="E20" s="25" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="H20" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="I20" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="J20" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="K20" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="L20" s="25" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="24" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>219</v>
+        <v>237</v>
       </c>
       <c r="G21" s="25" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="H21" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="I21" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="J21" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="K21" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="L21" s="25" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="24" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="B22" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="E22" s="25" t="s">
-        <v>47</v>
-      </c>
       <c r="F22" s="25" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G22" s="25" t="s">
         <v>43</v>
@@ -3142,39 +3296,60 @@
       <c r="H22" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="I22" s="0" t="s">
-        <v>233</v>
+      <c r="I22" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="J22" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="K22" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="L22" s="25" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="24" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="G23" s="25" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="H23" s="25" t="s">
-        <v>235</v>
+        <v>242</v>
+      </c>
+      <c r="I23" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="J23" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="K23" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="L23" s="25" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="24" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="B24" s="25" t="s">
         <v>170</v>
@@ -3186,24 +3361,33 @@
         <v>170</v>
       </c>
       <c r="E24" s="25" t="s">
-        <v>231</v>
+        <v>170</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>231</v>
+        <v>170</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>231</v>
+        <v>170</v>
       </c>
       <c r="H24" s="25" t="s">
-        <v>231</v>
-      </c>
-      <c r="I24" s="0" t="s">
-        <v>238</v>
+        <v>170</v>
+      </c>
+      <c r="I24" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="J24" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="K24" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="L24" s="25" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="24" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="B25" s="25" t="s">
         <v>170</v>
@@ -3218,146 +3402,215 @@
         <v>170</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>231</v>
+        <v>170</v>
       </c>
       <c r="G25" s="25" t="s">
-        <v>231</v>
+        <v>170</v>
       </c>
       <c r="H25" s="25" t="s">
         <v>170</v>
       </c>
-      <c r="I25" s="0" t="s">
-        <v>238</v>
+      <c r="I25" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="J25" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="K25" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="L25" s="25" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="24" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="E26" s="25" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="G26" s="25" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="H26" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="I26" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="J26" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="K26" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="L26" s="25" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>241</v>
+        <v>43</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E27" s="25" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>241</v>
+        <v>43</v>
       </c>
       <c r="G27" s="25" t="s">
-        <v>241</v>
+        <v>43</v>
       </c>
       <c r="H27" s="25" t="s">
-        <v>47</v>
+        <v>43</v>
+      </c>
+      <c r="I27" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="J27" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="K27" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="L27" s="25" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="24" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="E28" s="25" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="G28" s="25" t="s">
-        <v>241</v>
-      </c>
-      <c r="H28" s="24" t="n">
+        <v>246</v>
+      </c>
+      <c r="H28" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="I28" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="J28" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="K28" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="L28" s="24" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="24" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>241</v>
+        <v>43</v>
       </c>
       <c r="D29" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="E29" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="F29" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="E29" s="25" t="s">
-        <v>241</v>
-      </c>
-      <c r="F29" s="25" t="s">
-        <v>241</v>
-      </c>
       <c r="G29" s="25" t="s">
-        <v>241</v>
+        <v>45</v>
       </c>
       <c r="H29" s="25" t="s">
-        <v>241</v>
+        <v>45</v>
+      </c>
+      <c r="I29" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="J29" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="K29" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="L29" s="25" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="24" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="C30" s="24" t="s">
-        <v>241</v>
+        <v>45</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>45</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E30" s="24" t="s">
-        <v>241</v>
-      </c>
-      <c r="F30" s="24" t="s">
-        <v>241</v>
-      </c>
-      <c r="G30" s="24" t="s">
-        <v>241</v>
+        <v>246</v>
+      </c>
+      <c r="F30" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="G30" s="25" t="s">
+        <v>45</v>
       </c>
       <c r="H30" s="25" t="s">
-        <v>43</v>
+        <v>45</v>
+      </c>
+      <c r="I30" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="J30" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="K30" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="L30" s="25" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -3385,16 +3638,16 @@
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="1.08163265306122"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.8061224489796"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.0510204081633"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.23469387755102"/>
     <col collapsed="false" hidden="false" max="9" min="5" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="26" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -3406,7 +3659,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="1" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -3429,10 +3682,10 @@
     <row r="5" customFormat="false" ht="68.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B5" s="27"/>
       <c r="C5" s="28" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -3446,7 +3699,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -3457,10 +3710,10 @@
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="1"/>
       <c r="C7" s="30" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -3480,16 +3733,16 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B10" s="31" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E10" s="31" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="F10" s="31"/>
       <c r="G10" s="31"/>
@@ -3584,7 +3837,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="34" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C14" s="24" t="str">
         <f aca="false">IF(D14&gt;=1, "OK", "missing!")</f>
@@ -3617,7 +3870,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C15" s="24" t="str">
         <f aca="false">IF(D15&gt;=1, "OK", "missing!")</f>
@@ -3650,7 +3903,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C16" s="24" t="str">
         <f aca="false">IF(D16&gt;=1, "OK", "missing!")</f>
@@ -4813,7 +5066,7 @@
       </c>
       <c r="D51" s="35" t="n">
         <f aca="false">SUM(E51:I51)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E51" s="36" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B51,settings!B:B, 1, 0)), 0)</f>
@@ -4829,7 +5082,7 @@
       </c>
       <c r="H51" s="36" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B51,project_sites!$2:$2, 1, 0)), 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" s="36" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B51, case_definitions!A$17:A$30,1, 0)), 0)</f>
@@ -7016,7 +7269,7 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B118" s="37" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C118" s="24" t="str">
         <f aca="false">IF(D118&gt;=1, "OK", "missing!")</f>
@@ -7037,7 +7290,7 @@
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B119" s="37" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C119" s="24" t="str">
         <f aca="false">IF(D119&gt;=1, "OK", "missing!")</f>
@@ -7058,7 +7311,7 @@
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B120" s="37" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="C120" s="24" t="str">
         <f aca="false">IF(D120&gt;=1, "OK", "missing!")</f>
@@ -7079,7 +7332,7 @@
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B121" s="37" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="C121" s="24" t="str">
         <f aca="false">IF(D121&gt;=1, "OK", "missing!")</f>
@@ -7100,7 +7353,7 @@
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B122" s="37" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="C122" s="24" t="str">
         <f aca="false">IF(D122&gt;=1, "OK", "missing!")</f>
@@ -7121,7 +7374,7 @@
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B123" s="37" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="C123" s="24" t="str">
         <f aca="false">IF(D123&gt;=1, "OK", "missing!")</f>
@@ -7142,7 +7395,7 @@
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B124" s="37" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="C124" s="24" t="str">
         <f aca="false">IF(D124&gt;=1, "OK", "missing!")</f>
@@ -7163,7 +7416,7 @@
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B125" s="37" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="C125" s="24" t="str">
         <f aca="false">IF(D125&gt;=1, "OK", "missing!")</f>
@@ -7184,7 +7437,7 @@
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B126" s="37" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="C126" s="24" t="str">
         <f aca="false">IF(D126&gt;=1, "OK", "missing!")</f>
@@ -7205,7 +7458,7 @@
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B127" s="37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C127" s="24" t="str">
         <f aca="false">IF(D127&gt;=1, "OK", "missing!")</f>
@@ -7238,7 +7491,7 @@
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B128" s="37" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C128" s="24" t="str">
         <f aca="false">IF(D128&gt;=1, "OK", "missing!")</f>
@@ -7271,7 +7524,7 @@
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B129" s="37" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C129" s="24" t="str">
         <f aca="false">IF(D129&gt;=1, "OK", "missing!")</f>
@@ -7304,7 +7557,7 @@
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B130" s="37" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C130" s="24" t="str">
         <f aca="false">IF(D130&gt;=1, "OK", "missing!")</f>

--- a/inputs/input_template_excel.xlsx
+++ b/inputs/input_template_excel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="980" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="258">
   <si>
     <t xml:space="preserve">Tool for optimizing and simulating off- and on-grid electrification solutions</t>
   </si>
@@ -157,21 +157,21 @@
     <t xml:space="preserve">restore_oemof_if_existant</t>
   </si>
   <si>
+    <t xml:space="preserve">False</t>
+  </si>
+  <si>
+    <t xml:space="preserve">restore_blackouts_if_existant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">allow_shortage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">include_stability_constraint</t>
+  </si>
+  <si>
     <t xml:space="preserve">True</t>
   </si>
   <si>
-    <t xml:space="preserve">restore_blackouts_if_existant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">False</t>
-  </si>
-  <si>
-    <t xml:space="preserve">allow_shortage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">include_stability_constraint</t>
-  </si>
-  <si>
     <t xml:space="preserve">setting_pcc_utility_owned</t>
   </si>
   <si>
@@ -220,9 +220,6 @@
     <t xml:space="preserve">cmdline_option_value</t>
   </si>
   <si>
-    <t xml:space="preserve">debug</t>
-  </si>
-  <si>
     <t xml:space="preserve">input_folder</t>
   </si>
   <si>
@@ -247,6 +244,12 @@
     <t xml:space="preserve">save_lp_file</t>
   </si>
   <si>
+    <t xml:space="preserve">lp_file_for_only_3_timesteps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This will perform whole simulation with only 3 timesteps! </t>
+  </si>
+  <si>
     <t xml:space="preserve">save_oemofresults</t>
   </si>
   <si>
@@ -610,10 +613,10 @@
     <t xml:space="preserve">title_wind</t>
   </si>
   <si>
-    <t xml:space="preserve">Atulayan_0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">./inputs/Example2_Atulayan.csv</t>
+    <t xml:space="preserve">Masbate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">./inputs/Example1_Masbate.csv</t>
   </si>
   <si>
     <t xml:space="preserve">Demand</t>
@@ -625,18 +628,6 @@
     <t xml:space="preserve">Wind</t>
   </si>
   <si>
-    <t xml:space="preserve">Masbate_0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">./inputs/Example1_Masbate.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atulayan_0.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Masbate_0.1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Attribute</t>
   </si>
   <si>
@@ -701,6 +692,9 @@
   </si>
   <si>
     <t xml:space="preserve">offgrid_fixed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">base_oem_min_loading_1Gen</t>
   </si>
   <si>
     <t xml:space="preserve">base_oem_min_loading_2Gen</t>
@@ -804,6 +798,9 @@
   </si>
   <si>
     <t xml:space="preserve">base_case_with_min_loading</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lp_file_for_only_3_timesteps </t>
   </si>
 </sst>
 </file>
@@ -1138,27 +1135,9 @@
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
   <dxfs count="3">
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-      </font>
-    </dxf>
+    <dxf/>
+    <dxf/>
+    <dxf/>
   </dxfs>
   <colors>
     <indexedColors>
@@ -1230,17 +1209,17 @@
   </sheetPr>
   <dimension ref="B2:F21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E28" activeCellId="0" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="1.08163265306122"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.25"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="37.5255102040816"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="1.08163265306122"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.23469387755102"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="1.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="37.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="1.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="8.21"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1435,7 +1414,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -1450,16 +1429,16 @@
   </sheetPr>
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C37" activeCellId="0" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.10714285714286"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.9183673469388"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="10" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.23469387755102"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="10" width="12.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.21"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1584,23 +1563,23 @@
         <v>44</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="15" t="s">
         <v>47</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1608,7 +1587,7 @@
         <v>48</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D17" s="0" t="s">
         <v>49</v>
@@ -1619,7 +1598,7 @@
         <v>50</v>
       </c>
       <c r="C18" s="10" t="n">
-        <v>365</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1646,7 +1625,7 @@
         <v>55</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D21" s="0" t="s">
         <v>56</v>
@@ -1674,7 +1653,7 @@
         <v>59</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1697,91 +1676,94 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="0" t="s">
+      <c r="C28" s="0"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="17"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="14"/>
+      <c r="B30" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="0"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="14" t="s">
-        <v>30</v>
-      </c>
       <c r="C30" s="17"/>
+      <c r="D30" s="14" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="14"/>
       <c r="B31" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="C31" s="17"/>
-      <c r="D31" s="14" t="s">
         <v>66</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="14"/>
       <c r="B32" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="14"/>
-      <c r="B33" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="17"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="14" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C34" s="17"/>
+      <c r="C34" s="0"/>
+      <c r="D34" s="18"/>
+      <c r="G34" s="18"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="14" t="s">
+      <c r="B35" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="C35" s="0"/>
-      <c r="D35" s="18"/>
-      <c r="G35" s="18"/>
+      <c r="C35" s="15" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="0" t="s">
         <v>72</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1796,10 +1778,10 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D42" s="0" t="s">
         <v>49</v>
@@ -1807,10 +1789,10 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D43" s="0" t="s">
         <v>49</v>
@@ -1818,18 +1800,18 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1844,34 +1826,34 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1885,40 +1867,40 @@
     </row>
     <row r="54" customFormat="false" ht="13.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B54" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B55" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -1933,778 +1915,778 @@
   </sheetPr>
   <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.3571428571429"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="10" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="1023" min="4" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.77551020408163"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="10" width="6.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="4" style="0" width="8.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="8.79"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B2" s="10" t="n">
         <v>0</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B3" s="10" t="n">
         <v>0</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B4" s="10" t="n">
         <v>0</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B5" s="10" t="n">
         <v>0</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B6" s="10" t="n">
         <v>8.8</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B7" s="10" t="n">
         <v>0.1</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B8" s="10" t="n">
         <v>1</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B9" s="10" t="n">
         <v>0</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B10" s="10" t="n">
         <v>0</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B11" s="10" t="n">
         <v>20</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B12" s="10" t="n">
         <v>0.5</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B13" s="10" t="n">
         <v>650</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B14" s="10" t="n">
         <v>0</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B15" s="10" t="n">
         <v>0</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B16" s="10" t="n">
         <v>0.33</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B17" s="10" t="n">
         <v>20</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B18" s="10" t="n">
         <v>1</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B19" s="10" t="n">
         <v>0.3</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B20" s="10" t="n">
         <v>0</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B21" s="10" t="n">
         <v>0</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B22" s="10" t="n">
         <v>0</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B23" s="10" t="n">
         <v>0</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B24" s="10" t="n">
         <v>20</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B25" s="10" t="n">
         <v>0</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B26" s="10" t="n">
         <v>0</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B27" s="10" t="n">
         <v>0.05</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B28" s="10" t="n">
         <v>0</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B29" s="10" t="n">
         <v>1</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B30" s="10" t="n">
         <v>0</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B31" s="10" t="n">
         <v>0</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B32" s="10" t="n">
         <v>0</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B33" s="10" t="n">
         <v>0.95</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B34" s="10" t="n">
         <v>20</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B35" s="10" t="n">
         <v>0.89</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B36" s="10" t="n">
         <v>0</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B37" s="10" t="n">
         <v>0</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B38" s="10" t="n">
         <v>20</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B39" s="10" t="n">
         <v>0.5</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B40" s="10" t="n">
         <v>1000</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B41" s="10" t="n">
         <v>0</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B42" s="10" t="n">
         <v>0</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B43" s="10" t="n">
         <v>20</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B44" s="10" t="n">
         <v>0.4</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B45" s="10" t="n">
         <v>0</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B46" s="10" t="n">
         <v>1</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B47" s="10" t="n">
         <v>0.2</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B48" s="10" t="n">
         <v>602</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B49" s="10" t="n">
         <v>0</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B50" s="10" t="n">
         <v>0</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B51" s="10" t="n">
         <v>1</v>
       </c>
       <c r="C51" s="19" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B52" s="20" t="n">
         <v>1</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B53" s="10" t="n">
         <v>0.9</v>
       </c>
       <c r="C53" s="19" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C54" s="19" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B55" s="10" t="n">
         <v>15</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B56" s="10" t="n">
         <v>0</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B57" s="10" t="n">
         <v>1</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B58" s="10" t="n">
         <v>0</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B59" s="10" t="n">
         <v>0.09</v>
       </c>
       <c r="C59" s="19" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B60" s="10" t="n">
         <v>0</v>
       </c>
       <c r="C60" s="19" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B61" s="10" t="n">
         <v>0</v>
       </c>
       <c r="C61" s="19" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B62" s="10" t="n">
         <v>0</v>
       </c>
       <c r="C62" s="19" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B63" s="10" t="n">
         <v>0.5</v>
       </c>
       <c r="C63" s="19" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B64" s="10" t="n">
         <v>1100</v>
       </c>
       <c r="C64" s="19" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B65" s="10" t="n">
         <v>0</v>
       </c>
       <c r="C65" s="19" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B66" s="10" t="n">
         <v>0</v>
       </c>
       <c r="C66" s="19" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B67" s="10" t="n">
         <v>20</v>
       </c>
       <c r="C67" s="19" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -2717,49 +2699,35 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.21"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>0.05</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -2772,143 +2740,69 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:I6"/>
+  <dimension ref="A2:I3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I11" activeCellId="0" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.7091836734694"/>
-    <col collapsed="false" hidden="false" max="17" min="3" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="19.9795918367347"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="8.23469387755102"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="3" style="0" width="8.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="19.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="18.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="20" style="0" width="8.21"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>100</v>
+        <v>194</v>
       </c>
       <c r="H2" s="10"/>
       <c r="I2" s="19"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="19" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>198</v>
-      </c>
-      <c r="G3" s="10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>200</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>197</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>198</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>195</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>197</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>198</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>200</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>197</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>198</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>0.1</v>
-      </c>
+      <c r="G3" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -2921,17 +2815,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.23469387755102"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="8.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="8.21"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2941,682 +2836,727 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="21" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="185.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="22" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B16" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="E16" s="23" t="s">
         <v>221</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="F16" s="23" t="s">
         <v>222</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="G16" s="23" t="s">
         <v>223</v>
       </c>
-      <c r="E16" s="23" t="s">
+      <c r="H16" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="F16" s="23" t="s">
+      <c r="I16" s="23" t="s">
         <v>225</v>
       </c>
-      <c r="G16" s="23" t="s">
+      <c r="J16" s="23" t="s">
         <v>226</v>
       </c>
-      <c r="H16" s="23" t="s">
+      <c r="K16" s="23" t="s">
         <v>227</v>
       </c>
-      <c r="I16" s="23" t="s">
+      <c r="L16" s="23" t="s">
         <v>228</v>
       </c>
-      <c r="J16" s="23" t="s">
+      <c r="M16" s="23" t="s">
         <v>229</v>
-      </c>
-      <c r="K16" s="23" t="s">
-        <v>230</v>
-      </c>
-      <c r="L16" s="23" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="24" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B17" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="25" t="s">
-        <v>45</v>
-      </c>
       <c r="D17" s="25" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G17" s="25" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I17" s="25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J17" s="25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K17" s="25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L17" s="25" t="s">
-        <v>45</v>
+        <v>43</v>
+      </c>
+      <c r="M17" s="25" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="24" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E18" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="F18" s="25" t="s">
-        <v>45</v>
-      </c>
       <c r="G18" s="25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H18" s="25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I18" s="25" t="s">
         <v>43</v>
       </c>
       <c r="J18" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="K18" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="L18" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="K18" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="L18" s="25" t="s">
-        <v>45</v>
+      <c r="M18" s="25" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="24" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G19" s="25" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H19" s="25" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="I19" s="25" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="J19" s="25" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="K19" s="25" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="L19" s="25" t="s">
-        <v>170</v>
+        <v>232</v>
+      </c>
+      <c r="M19" s="25" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="24" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E20" s="25" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H20" s="25" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="I20" s="25" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="J20" s="25" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="K20" s="25" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="L20" s="25" t="s">
-        <v>170</v>
+        <v>232</v>
+      </c>
+      <c r="M20" s="25" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="24" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G21" s="25" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H21" s="25" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="I21" s="25" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="J21" s="25" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="K21" s="25" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="L21" s="25" t="s">
-        <v>170</v>
+        <v>232</v>
+      </c>
+      <c r="M21" s="25" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="24" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E22" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="G22" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="H22" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="J22" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="K22" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="L22" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="F22" s="25" t="s">
+      <c r="M22" s="25" t="s">
         <v>43</v>
-      </c>
-      <c r="G22" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="H22" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="I22" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="J22" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="K22" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="L22" s="25" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="C23" s="25" t="s">
         <v>239</v>
       </c>
-      <c r="B23" s="25" t="s">
-        <v>240</v>
-      </c>
-      <c r="C23" s="25" t="s">
-        <v>241</v>
-      </c>
       <c r="D23" s="25" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G23" s="25" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H23" s="25" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="I23" s="25" t="s">
         <v>240</v>
       </c>
       <c r="J23" s="25" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K23" s="25" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="L23" s="25" t="s">
-        <v>240</v>
+        <v>238</v>
+      </c>
+      <c r="M23" s="25" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="24" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E24" s="25" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H24" s="25" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I24" s="25" t="s">
-        <v>237</v>
+        <v>171</v>
       </c>
       <c r="J24" s="25" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K24" s="25" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="L24" s="25" t="s">
-        <v>237</v>
+        <v>235</v>
+      </c>
+      <c r="M24" s="25" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="24" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E25" s="25" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G25" s="25" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H25" s="25" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I25" s="25" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="J25" s="25" t="s">
-        <v>237</v>
+        <v>171</v>
       </c>
       <c r="K25" s="25" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="L25" s="25" t="s">
-        <v>170</v>
+        <v>235</v>
+      </c>
+      <c r="M25" s="25" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="24" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E26" s="25" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G26" s="25" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H26" s="25" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="I26" s="25" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="J26" s="25" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="K26" s="25" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="L26" s="25" t="s">
-        <v>170</v>
+        <v>232</v>
+      </c>
+      <c r="M26" s="25" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E27" s="25" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G27" s="25" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H27" s="25" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I27" s="25" t="s">
-        <v>246</v>
+        <v>47</v>
       </c>
       <c r="J27" s="25" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K27" s="25" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="L27" s="25" t="s">
-        <v>43</v>
+        <v>244</v>
+      </c>
+      <c r="M27" s="25" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="24" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E28" s="25" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G28" s="25" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H28" s="25" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I28" s="25" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="J28" s="25" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K28" s="25" t="s">
-        <v>246</v>
-      </c>
-      <c r="L28" s="24" t="n">
+        <v>244</v>
+      </c>
+      <c r="L28" s="25" t="s">
+        <v>244</v>
+      </c>
+      <c r="M28" s="24" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="24" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B29" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="C29" s="25" t="s">
+      <c r="E29" s="25" t="s">
+        <v>244</v>
+      </c>
+      <c r="F29" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="G29" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="H29" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="D29" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="E29" s="25" t="s">
-        <v>246</v>
-      </c>
-      <c r="F29" s="25" t="s">
+      <c r="I29" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="G29" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="H29" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="I29" s="25" t="s">
-        <v>246</v>
-      </c>
       <c r="J29" s="25" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K29" s="25" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="L29" s="25" t="s">
-        <v>246</v>
+        <v>244</v>
+      </c>
+      <c r="M29" s="25" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="24" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E30" s="24" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G30" s="25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H30" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="I30" s="24" t="s">
-        <v>246</v>
+        <v>43</v>
+      </c>
+      <c r="I30" s="25" t="s">
+        <v>43</v>
       </c>
       <c r="J30" s="24" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K30" s="24" t="s">
-        <v>246</v>
-      </c>
-      <c r="L30" s="25" t="s">
-        <v>45</v>
+        <v>244</v>
+      </c>
+      <c r="L30" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="M30" s="25" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -3631,23 +3571,23 @@
   </sheetPr>
   <dimension ref="B1:I130"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B38" activeCellId="0" sqref="B38"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="1.08163265306122"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.0510204081633"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="9" min="5" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.23469387755102"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="1.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="8.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="5" style="0" width="6.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="8.21"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="26" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -3659,7 +3599,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -3682,10 +3622,10 @@
     <row r="5" customFormat="false" ht="68.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B5" s="27"/>
       <c r="C5" s="28" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -3699,7 +3639,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -3710,10 +3650,10 @@
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="1"/>
       <c r="C7" s="30" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -3733,16 +3673,16 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B10" s="31" t="s">
+        <v>252</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>253</v>
+      </c>
+      <c r="D10" s="32" t="s">
         <v>254</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="E10" s="31" t="s">
         <v>255</v>
-      </c>
-      <c r="D10" s="32" t="s">
-        <v>256</v>
-      </c>
-      <c r="E10" s="31" t="s">
-        <v>257</v>
       </c>
       <c r="F10" s="31"/>
       <c r="G10" s="31"/>
@@ -3837,7 +3777,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="34" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C14" s="24" t="str">
         <f aca="false">IF(D14&gt;=1, "OK", "missing!")</f>
@@ -3870,7 +3810,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C15" s="24" t="str">
         <f aca="false">IF(D15&gt;=1, "OK", "missing!")</f>
@@ -3903,7 +3843,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C16" s="24" t="str">
         <f aca="false">IF(D16&gt;=1, "OK", "missing!")</f>
@@ -4266,7 +4206,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="34" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C27" s="24" t="str">
         <f aca="false">IF(D27&gt;=1, "OK", "missing!")</f>
@@ -4297,9 +4237,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B28" s="34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C28" s="24" t="str">
         <f aca="false">IF(D28&gt;=1, "OK", "missing!")</f>
@@ -4330,9 +4270,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="34" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C29" s="24" t="str">
         <f aca="false">IF(D29&gt;=1, "OK", "missing!")</f>
@@ -4365,19 +4305,19 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="34" t="s">
-        <v>72</v>
+        <v>257</v>
       </c>
       <c r="C30" s="24" t="str">
         <f aca="false">IF(D30&gt;=1, "OK", "missing!")</f>
-        <v>OK</v>
+        <v>missing!</v>
       </c>
       <c r="D30" s="35" t="n">
         <f aca="false">SUM(E30:I30)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" s="36" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B30,settings!B:B, 1, 0)), 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30" s="36" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B30, input_constant!A:A, 1, 0)), 0)</f>
@@ -4398,7 +4338,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="34" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C31" s="24" t="str">
         <f aca="false">IF(D31&gt;=1, "OK", "missing!")</f>
@@ -4431,7 +4371,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="34" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C32" s="24" t="str">
         <f aca="false">IF(D32&gt;=1, "OK", "missing!")</f>
@@ -4464,7 +4404,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="34" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C33" s="24" t="str">
         <f aca="false">IF(D33&gt;=1, "OK", "missing!")</f>
@@ -4497,7 +4437,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="34" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C34" s="24" t="str">
         <f aca="false">IF(D34&gt;=1, "OK", "missing!")</f>
@@ -4530,7 +4470,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="34" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C35" s="24" t="str">
         <f aca="false">IF(D35&gt;=1, "OK", "missing!")</f>
@@ -4563,7 +4503,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="34" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C36" s="24" t="str">
         <f aca="false">IF(D36&gt;=1, "OK", "missing!")</f>
@@ -4596,7 +4536,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="34" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C37" s="24" t="str">
         <f aca="false">IF(D37&gt;=1, "OK", "missing!")</f>
@@ -4629,7 +4569,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C38" s="24" t="str">
         <f aca="false">IF(D38&gt;=1, "OK", "missing!")</f>
@@ -4662,7 +4602,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="34" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C39" s="24" t="str">
         <f aca="false">IF(D39&gt;=1, "OK", "missing!")</f>
@@ -4695,7 +4635,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="34" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C40" s="24" t="str">
         <f aca="false">IF(D40&gt;=1, "OK", "missing!")</f>
@@ -4728,7 +4668,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="34" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C41" s="24" t="str">
         <f aca="false">IF(D41&gt;=1, "OK", "missing!")</f>
@@ -4761,7 +4701,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="34" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C42" s="24" t="str">
         <f aca="false">IF(D42&gt;=1, "OK", "missing!")</f>
@@ -4794,7 +4734,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="34" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C43" s="24" t="str">
         <f aca="false">IF(D43&gt;=1, "OK", "missing!")</f>
@@ -4827,7 +4767,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="34" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C44" s="24" t="str">
         <f aca="false">IF(D44&gt;=1, "OK", "missing!")</f>
@@ -4860,7 +4800,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="34" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C45" s="24" t="str">
         <f aca="false">IF(D45&gt;=1, "OK", "missing!")</f>
@@ -4893,7 +4833,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="34" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C46" s="24" t="str">
         <f aca="false">IF(D46&gt;=1, "OK", "missing!")</f>
@@ -4926,7 +4866,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="34" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C47" s="24" t="str">
         <f aca="false">IF(D47&gt;=1, "OK", "missing!")</f>
@@ -4959,7 +4899,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="34" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C48" s="24" t="str">
         <f aca="false">IF(D48&gt;=1, "OK", "missing!")</f>
@@ -4992,7 +4932,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="34" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C49" s="24" t="str">
         <f aca="false">IF(D49&gt;=1, "OK", "missing!")</f>
@@ -5025,7 +4965,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="34" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C50" s="24" t="str">
         <f aca="false">IF(D50&gt;=1, "OK", "missing!")</f>
@@ -5058,7 +4998,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="34" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C51" s="24" t="str">
         <f aca="false">IF(D51&gt;=1, "OK", "missing!")</f>
@@ -5066,7 +5006,7 @@
       </c>
       <c r="D51" s="35" t="n">
         <f aca="false">SUM(E51:I51)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E51" s="36" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B51,settings!B:B, 1, 0)), 0)</f>
@@ -5082,7 +5022,7 @@
       </c>
       <c r="H51" s="36" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B51,project_sites!$2:$2, 1, 0)), 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" s="36" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B51, case_definitions!A$17:A$30,1, 0)), 0)</f>
@@ -5091,7 +5031,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="34" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C52" s="24" t="str">
         <f aca="false">IF(D52&gt;=1, "OK", "missing!")</f>
@@ -5124,7 +5064,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="34" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C53" s="24" t="str">
         <f aca="false">IF(D53&gt;=1, "OK", "missing!")</f>
@@ -5157,7 +5097,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="34" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C54" s="24" t="str">
         <f aca="false">IF(D54&gt;=1, "OK", "missing!")</f>
@@ -5190,7 +5130,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="34" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C55" s="24" t="str">
         <f aca="false">IF(D55&gt;=1, "OK", "missing!")</f>
@@ -5223,7 +5163,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="34" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C56" s="24" t="str">
         <f aca="false">IF(D56&gt;=1, "OK", "missing!")</f>
@@ -5256,7 +5196,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="34" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C57" s="24" t="str">
         <f aca="false">IF(D57&gt;=1, "OK", "missing!")</f>
@@ -5289,7 +5229,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="34" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C58" s="24" t="str">
         <f aca="false">IF(D58&gt;=1, "OK", "missing!")</f>
@@ -5322,7 +5262,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="34" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C59" s="24" t="str">
         <f aca="false">IF(D59&gt;=1, "OK", "missing!")</f>
@@ -5355,7 +5295,7 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="34" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C60" s="24" t="str">
         <f aca="false">IF(D60&gt;=1, "OK", "missing!")</f>
@@ -5388,7 +5328,7 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="34" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C61" s="24" t="str">
         <f aca="false">IF(D61&gt;=1, "OK", "missing!")</f>
@@ -5421,7 +5361,7 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="34" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C62" s="24" t="str">
         <f aca="false">IF(D62&gt;=1, "OK", "missing!")</f>
@@ -5454,7 +5394,7 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="34" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C63" s="24" t="str">
         <f aca="false">IF(D63&gt;=1, "OK", "missing!")</f>
@@ -5487,7 +5427,7 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="34" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C64" s="24" t="str">
         <f aca="false">IF(D64&gt;=1, "OK", "missing!")</f>
@@ -5520,7 +5460,7 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="34" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C65" s="24" t="str">
         <f aca="false">IF(D65&gt;=1, "OK", "missing!")</f>
@@ -5553,7 +5493,7 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="34" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C66" s="24" t="str">
         <f aca="false">IF(D66&gt;=1, "OK", "missing!")</f>
@@ -5586,7 +5526,7 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="34" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C67" s="24" t="str">
         <f aca="false">IF(D67&gt;=1, "OK", "missing!")</f>
@@ -5619,7 +5559,7 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="34" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C68" s="24" t="str">
         <f aca="false">IF(D68&gt;=1, "OK", "missing!")</f>
@@ -5652,7 +5592,7 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="34" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C69" s="24" t="str">
         <f aca="false">IF(D69&gt;=1, "OK", "missing!")</f>
@@ -5685,7 +5625,7 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="34" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C70" s="24" t="str">
         <f aca="false">IF(D70&gt;=1, "OK", "missing!")</f>
@@ -5718,7 +5658,7 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="34" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C71" s="24" t="str">
         <f aca="false">IF(D71&gt;=1, "OK", "missing!")</f>
@@ -5751,7 +5691,7 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="34" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C72" s="24" t="str">
         <f aca="false">IF(D72&gt;=1, "OK", "missing!")</f>
@@ -5784,7 +5724,7 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="34" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C73" s="24" t="str">
         <f aca="false">IF(D73&gt;=1, "OK", "missing!")</f>
@@ -5817,7 +5757,7 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="34" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C74" s="24" t="str">
         <f aca="false">IF(D74&gt;=1, "OK", "missing!")</f>
@@ -5850,7 +5790,7 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="34" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C75" s="24" t="str">
         <f aca="false">IF(D75&gt;=1, "OK", "missing!")</f>
@@ -5883,7 +5823,7 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="34" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C76" s="24" t="str">
         <f aca="false">IF(D76&gt;=1, "OK", "missing!")</f>
@@ -5916,7 +5856,7 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="34" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C77" s="24" t="str">
         <f aca="false">IF(D77&gt;=1, "OK", "missing!")</f>
@@ -5949,7 +5889,7 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="34" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C78" s="24" t="str">
         <f aca="false">IF(D78&gt;=1, "OK", "missing!")</f>
@@ -5982,7 +5922,7 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="34" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C79" s="24" t="str">
         <f aca="false">IF(D79&gt;=1, "OK", "missing!")</f>
@@ -6015,7 +5955,7 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="34" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C80" s="24" t="str">
         <f aca="false">IF(D80&gt;=1, "OK", "missing!")</f>
@@ -6048,7 +5988,7 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="34" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C81" s="24" t="str">
         <f aca="false">IF(D81&gt;=1, "OK", "missing!")</f>
@@ -6081,7 +6021,7 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="34" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C82" s="24" t="str">
         <f aca="false">IF(D82&gt;=1, "OK", "missing!")</f>
@@ -6114,7 +6054,7 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="34" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C83" s="24" t="str">
         <f aca="false">IF(D83&gt;=1, "OK", "missing!")</f>
@@ -6147,7 +6087,7 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="34" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C84" s="24" t="str">
         <f aca="false">IF(D84&gt;=1, "OK", "missing!")</f>
@@ -6180,7 +6120,7 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="34" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C85" s="24" t="str">
         <f aca="false">IF(D85&gt;=1, "OK", "missing!")</f>
@@ -6213,7 +6153,7 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="34" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C86" s="24" t="str">
         <f aca="false">IF(D86&gt;=1, "OK", "missing!")</f>
@@ -6246,7 +6186,7 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="34" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C87" s="24" t="str">
         <f aca="false">IF(D87&gt;=1, "OK", "missing!")</f>
@@ -6279,7 +6219,7 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="34" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C88" s="24" t="str">
         <f aca="false">IF(D88&gt;=1, "OK", "missing!")</f>
@@ -6312,7 +6252,7 @@
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="34" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C89" s="24" t="str">
         <f aca="false">IF(D89&gt;=1, "OK", "missing!")</f>
@@ -6345,7 +6285,7 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="34" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C90" s="24" t="str">
         <f aca="false">IF(D90&gt;=1, "OK", "missing!")</f>
@@ -6378,7 +6318,7 @@
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B91" s="34" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C91" s="24" t="str">
         <f aca="false">IF(D91&gt;=1, "OK", "missing!")</f>
@@ -6411,7 +6351,7 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="34" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C92" s="24" t="str">
         <f aca="false">IF(D92&gt;=1, "OK", "missing!")</f>
@@ -6444,7 +6384,7 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="34" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C93" s="24" t="str">
         <f aca="false">IF(D93&gt;=1, "OK", "missing!")</f>
@@ -6477,7 +6417,7 @@
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="34" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C94" s="24" t="str">
         <f aca="false">IF(D94&gt;=1, "OK", "missing!")</f>
@@ -6510,7 +6450,7 @@
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="34" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C95" s="24" t="str">
         <f aca="false">IF(D95&gt;=1, "OK", "missing!")</f>
@@ -6543,7 +6483,7 @@
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="34" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C96" s="24" t="str">
         <f aca="false">IF(D96&gt;=1, "OK", "missing!")</f>
@@ -6576,7 +6516,7 @@
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="34" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C97" s="24" t="str">
         <f aca="false">IF(D97&gt;=1, "OK", "missing!")</f>
@@ -6609,7 +6549,7 @@
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="34" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C98" s="24" t="str">
         <f aca="false">IF(D98&gt;=1, "OK", "missing!")</f>
@@ -6642,7 +6582,7 @@
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="34" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C99" s="24" t="str">
         <f aca="false">IF(D99&gt;=1, "OK", "missing!")</f>
@@ -6675,7 +6615,7 @@
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="34" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C100" s="24" t="str">
         <f aca="false">IF(D100&gt;=1, "OK", "missing!")</f>
@@ -6708,7 +6648,7 @@
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B101" s="34" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C101" s="24" t="str">
         <f aca="false">IF(D101&gt;=1, "OK", "missing!")</f>
@@ -6741,7 +6681,7 @@
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="34" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C102" s="24" t="str">
         <f aca="false">IF(D102&gt;=1, "OK", "missing!")</f>
@@ -6774,7 +6714,7 @@
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="34" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C103" s="24" t="str">
         <f aca="false">IF(D103&gt;=1, "OK", "missing!")</f>
@@ -6807,7 +6747,7 @@
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="34" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C104" s="24" t="str">
         <f aca="false">IF(D104&gt;=1, "OK", "missing!")</f>
@@ -6840,7 +6780,7 @@
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B105" s="34" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C105" s="24" t="str">
         <f aca="false">IF(D105&gt;=1, "OK", "missing!")</f>
@@ -6873,7 +6813,7 @@
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="34" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C106" s="24" t="str">
         <f aca="false">IF(D106&gt;=1, "OK", "missing!")</f>
@@ -6906,7 +6846,7 @@
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B107" s="34" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C107" s="24" t="str">
         <f aca="false">IF(D107&gt;=1, "OK", "missing!")</f>
@@ -6939,7 +6879,7 @@
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="34" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C108" s="24" t="str">
         <f aca="false">IF(D108&gt;=1, "OK", "missing!")</f>
@@ -6972,7 +6912,7 @@
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B109" s="34" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C109" s="24" t="str">
         <f aca="false">IF(D109&gt;=1, "OK", "missing!")</f>
@@ -7005,7 +6945,7 @@
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B110" s="34" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C110" s="24" t="str">
         <f aca="false">IF(D110&gt;=1, "OK", "missing!")</f>
@@ -7038,7 +6978,7 @@
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B111" s="34" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C111" s="24" t="str">
         <f aca="false">IF(D111&gt;=1, "OK", "missing!")</f>
@@ -7071,7 +7011,7 @@
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B112" s="34" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C112" s="24" t="str">
         <f aca="false">IF(D112&gt;=1, "OK", "missing!")</f>
@@ -7104,7 +7044,7 @@
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B113" s="34" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C113" s="24" t="str">
         <f aca="false">IF(D113&gt;=1, "OK", "missing!")</f>
@@ -7137,7 +7077,7 @@
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B114" s="34" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C114" s="24" t="str">
         <f aca="false">IF(D114&gt;=1, "OK", "missing!")</f>
@@ -7170,7 +7110,7 @@
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B115" s="34" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C115" s="24" t="str">
         <f aca="false">IF(D115&gt;=1, "OK", "missing!")</f>
@@ -7203,7 +7143,7 @@
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B116" s="34" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C116" s="24" t="str">
         <f aca="false">IF(D116&gt;=1, "OK", "missing!")</f>
@@ -7236,7 +7176,7 @@
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B117" s="34" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C117" s="24" t="str">
         <f aca="false">IF(D117&gt;=1, "OK", "missing!")</f>
@@ -7269,7 +7209,7 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B118" s="37" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C118" s="24" t="str">
         <f aca="false">IF(D118&gt;=1, "OK", "missing!")</f>
@@ -7290,7 +7230,7 @@
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B119" s="37" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C119" s="24" t="str">
         <f aca="false">IF(D119&gt;=1, "OK", "missing!")</f>
@@ -7311,7 +7251,7 @@
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B120" s="37" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C120" s="24" t="str">
         <f aca="false">IF(D120&gt;=1, "OK", "missing!")</f>
@@ -7332,7 +7272,7 @@
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B121" s="37" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C121" s="24" t="str">
         <f aca="false">IF(D121&gt;=1, "OK", "missing!")</f>
@@ -7353,7 +7293,7 @@
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B122" s="37" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C122" s="24" t="str">
         <f aca="false">IF(D122&gt;=1, "OK", "missing!")</f>
@@ -7374,7 +7314,7 @@
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B123" s="37" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C123" s="24" t="str">
         <f aca="false">IF(D123&gt;=1, "OK", "missing!")</f>
@@ -7395,7 +7335,7 @@
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B124" s="37" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C124" s="24" t="str">
         <f aca="false">IF(D124&gt;=1, "OK", "missing!")</f>
@@ -7416,7 +7356,7 @@
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B125" s="37" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C125" s="24" t="str">
         <f aca="false">IF(D125&gt;=1, "OK", "missing!")</f>
@@ -7437,7 +7377,7 @@
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B126" s="37" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C126" s="24" t="str">
         <f aca="false">IF(D126&gt;=1, "OK", "missing!")</f>
@@ -7458,7 +7398,7 @@
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B127" s="37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C127" s="24" t="str">
         <f aca="false">IF(D127&gt;=1, "OK", "missing!")</f>
@@ -7491,7 +7431,7 @@
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B128" s="37" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C128" s="24" t="str">
         <f aca="false">IF(D128&gt;=1, "OK", "missing!")</f>
@@ -7524,7 +7464,7 @@
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B129" s="37" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C129" s="24" t="str">
         <f aca="false">IF(D129&gt;=1, "OK", "missing!")</f>
@@ -7557,7 +7497,7 @@
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B130" s="37" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C130" s="24" t="str">
         <f aca="false">IF(D130&gt;=1, "OK", "missing!")</f>
@@ -7598,7 +7538,7 @@
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="E10:I10"/>
   </mergeCells>
-  <conditionalFormatting sqref="C12:C130">
+  <conditionalFormatting sqref="C31:C130 C12:C29">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"OK"</formula>
     </cfRule>
@@ -7606,14 +7546,27 @@
       <formula>"missing!"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D12:D130">
+  <conditionalFormatting sqref="D31:D130 D12:D29">
     <cfRule type="cellIs" priority="4" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="cellIs" priority="5" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>"missing!"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D30">
+    <cfRule type="cellIs" priority="7" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/inputs/input_template_excel.xlsx
+++ b/inputs/input_template_excel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="261">
   <si>
     <t xml:space="preserve">Tool for optimizing and simulating off- and on-grid electrification solutions</t>
   </si>
@@ -622,10 +622,19 @@
     <t xml:space="preserve">Demand</t>
   </si>
   <si>
+    <t xml:space="preserve">PVGen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atulayan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">./inputs/Example2_Atulayan.csv</t>
+  </si>
+  <si>
     <t xml:space="preserve">SolarPV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wind</t>
   </si>
   <si>
     <t xml:space="preserve">Attribute</t>
@@ -1429,8 +1438,8 @@
   </sheetPr>
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C37" activeCellId="0" sqref="C37"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1598,7 +1607,7 @@
         <v>50</v>
       </c>
       <c r="C18" s="10" t="n">
-        <v>1</v>
+        <v>365</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1672,7 +1681,7 @@
         <v>63</v>
       </c>
       <c r="C27" s="10" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1915,8 +1924,8 @@
   </sheetPr>
   <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B51" activeCellId="0" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2699,10 +2708,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2722,6 +2731,20 @@
       </c>
       <c r="D1" s="0" t="s">
         <v>188</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
@@ -2740,10 +2763,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:I3"/>
+  <dimension ref="A2:I4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I11" activeCellId="0" sqref="I11"/>
+      <selection pane="topLeft" activeCell="I31" activeCellId="0" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2798,6 +2821,26 @@
         <v>199</v>
       </c>
       <c r="G3" s="10"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>199</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2818,7 +2861,7 @@
   <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
+      <selection pane="topLeft" activeCell="H17" activeCellId="0" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2836,66 +2879,66 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="21" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>210</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2903,85 +2946,85 @@
         <v>45</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="B12" s="0" t="s">
         <v>215</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="B14" s="0" t="s">
         <v>217</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="185.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="22" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="G16" s="23" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="H16" s="23" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="I16" s="23" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="J16" s="23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="K16" s="23" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="L16" s="23" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="M16" s="23" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="24" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B17" s="25" t="s">
         <v>47</v>
@@ -2990,19 +3033,19 @@
         <v>43</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E17" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G17" s="25" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I17" s="25" t="s">
         <v>43</v>
@@ -3022,7 +3065,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="24" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B18" s="25" t="s">
         <v>43</v>
@@ -3063,40 +3106,40 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="24" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="G19" s="25" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="H19" s="25" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="I19" s="25" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="J19" s="25" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="K19" s="25" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="L19" s="25" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="M19" s="25" t="s">
         <v>171</v>
@@ -3104,40 +3147,40 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="24" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="E20" s="25" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="H20" s="25" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="I20" s="25" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="J20" s="25" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="K20" s="25" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="L20" s="25" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="M20" s="25" t="s">
         <v>171</v>
@@ -3145,40 +3188,40 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="24" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="F21" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="G21" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="H21" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="I21" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="J21" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="K21" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="L21" s="25" t="s">
         <v>235</v>
-      </c>
-      <c r="G21" s="25" t="s">
-        <v>235</v>
-      </c>
-      <c r="H21" s="25" t="s">
-        <v>235</v>
-      </c>
-      <c r="I21" s="25" t="s">
-        <v>235</v>
-      </c>
-      <c r="J21" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="K21" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="L21" s="25" t="s">
-        <v>232</v>
       </c>
       <c r="M21" s="25" t="s">
         <v>171</v>
@@ -3186,7 +3229,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="24" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B22" s="25" t="s">
         <v>43</v>
@@ -3227,48 +3270,48 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="24" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="G23" s="25" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="H23" s="25" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="I23" s="25" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="J23" s="25" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="K23" s="25" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="L23" s="25" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="M23" s="25" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="24" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B24" s="25" t="s">
         <v>171</v>
@@ -3295,21 +3338,21 @@
         <v>171</v>
       </c>
       <c r="J24" s="25" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="K24" s="25" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="L24" s="25" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="M24" s="25" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="24" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B25" s="25" t="s">
         <v>171</v>
@@ -3339,10 +3382,10 @@
         <v>171</v>
       </c>
       <c r="K25" s="25" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="L25" s="25" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="M25" s="25" t="s">
         <v>171</v>
@@ -3350,40 +3393,40 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="24" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="E26" s="25" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="G26" s="25" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="H26" s="25" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="I26" s="25" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="J26" s="25" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="K26" s="25" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="L26" s="25" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="M26" s="25" t="s">
         <v>171</v>
@@ -3403,7 +3446,7 @@
         <v>47</v>
       </c>
       <c r="E27" s="25" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="F27" s="25" t="s">
         <v>47</v>
@@ -3418,13 +3461,13 @@
         <v>47</v>
       </c>
       <c r="J27" s="25" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="K27" s="25" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="L27" s="25" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="M27" s="25" t="s">
         <v>47</v>
@@ -3432,40 +3475,40 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="24" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="E28" s="25" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="G28" s="25" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="H28" s="25" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="I28" s="25" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="J28" s="25" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="K28" s="25" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="L28" s="25" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="M28" s="24" t="n">
         <v>0.5</v>
@@ -3473,7 +3516,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="24" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B29" s="25" t="s">
         <v>47</v>
@@ -3485,7 +3528,7 @@
         <v>43</v>
       </c>
       <c r="E29" s="25" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="F29" s="25" t="s">
         <v>47</v>
@@ -3500,21 +3543,21 @@
         <v>43</v>
       </c>
       <c r="J29" s="25" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="K29" s="25" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="L29" s="25" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="M29" s="25" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="24" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B30" s="25" t="s">
         <v>43</v>
@@ -3526,7 +3569,7 @@
         <v>43</v>
       </c>
       <c r="E30" s="24" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="F30" s="25" t="s">
         <v>43</v>
@@ -3541,13 +3584,13 @@
         <v>43</v>
       </c>
       <c r="J30" s="24" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="K30" s="24" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="L30" s="24" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="M30" s="25" t="s">
         <v>43</v>
@@ -3587,7 +3630,7 @@
     <row r="1" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="26" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -3599,7 +3642,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="1" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -3622,10 +3665,10 @@
     <row r="5" customFormat="false" ht="68.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B5" s="27"/>
       <c r="C5" s="28" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -3639,7 +3682,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -3650,10 +3693,10 @@
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="1"/>
       <c r="C7" s="30" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -3673,16 +3716,16 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B10" s="31" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="E10" s="31" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F10" s="31"/>
       <c r="G10" s="31"/>
@@ -3777,7 +3820,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="34" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C14" s="24" t="str">
         <f aca="false">IF(D14&gt;=1, "OK", "missing!")</f>
@@ -4305,7 +4348,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="34" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C30" s="24" t="str">
         <f aca="false">IF(D30&gt;=1, "OK", "missing!")</f>
@@ -7209,7 +7252,7 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B118" s="37" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C118" s="24" t="str">
         <f aca="false">IF(D118&gt;=1, "OK", "missing!")</f>
@@ -7230,7 +7273,7 @@
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B119" s="37" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C119" s="24" t="str">
         <f aca="false">IF(D119&gt;=1, "OK", "missing!")</f>
@@ -7251,7 +7294,7 @@
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B120" s="37" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C120" s="24" t="str">
         <f aca="false">IF(D120&gt;=1, "OK", "missing!")</f>
@@ -7272,7 +7315,7 @@
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B121" s="37" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C121" s="24" t="str">
         <f aca="false">IF(D121&gt;=1, "OK", "missing!")</f>
@@ -7293,7 +7336,7 @@
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B122" s="37" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C122" s="24" t="str">
         <f aca="false">IF(D122&gt;=1, "OK", "missing!")</f>
@@ -7314,7 +7357,7 @@
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B123" s="37" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C123" s="24" t="str">
         <f aca="false">IF(D123&gt;=1, "OK", "missing!")</f>
@@ -7335,7 +7378,7 @@
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B124" s="37" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C124" s="24" t="str">
         <f aca="false">IF(D124&gt;=1, "OK", "missing!")</f>
@@ -7356,7 +7399,7 @@
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B125" s="37" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C125" s="24" t="str">
         <f aca="false">IF(D125&gt;=1, "OK", "missing!")</f>
@@ -7377,7 +7420,7 @@
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B126" s="37" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C126" s="24" t="str">
         <f aca="false">IF(D126&gt;=1, "OK", "missing!")</f>
@@ -7431,7 +7474,7 @@
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B128" s="37" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C128" s="24" t="str">
         <f aca="false">IF(D128&gt;=1, "OK", "missing!")</f>
@@ -7464,7 +7507,7 @@
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B129" s="37" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C129" s="24" t="str">
         <f aca="false">IF(D129&gt;=1, "OK", "missing!")</f>
@@ -7497,7 +7540,7 @@
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B130" s="37" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C130" s="24" t="str">
         <f aca="false">IF(D130&gt;=1, "OK", "missing!")</f>

--- a/inputs/input_template_excel.xlsx
+++ b/inputs/input_template_excel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" state="visible" r:id="rId2"/>
@@ -1218,17 +1218,17 @@
   </sheetPr>
   <dimension ref="B2:F21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E28" activeCellId="0" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="1.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="37.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="1.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="8.21"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="1.08163265306122"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.9795918367347"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="37.1224489795918"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="1.08163265306122"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="7.96428571428571"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1423,7 +1423,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -1438,16 +1438,16 @@
   </sheetPr>
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="10" width="12.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.21"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.10714285714286"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.515306122449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="10" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="7.96428571428571"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1909,7 +1909,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -1924,17 +1924,17 @@
   </sheetPr>
   <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B51" activeCellId="0" sqref="B51"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A27" activeCellId="0" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="10" width="6.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="4" style="0" width="8.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="8.79"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.2244897959184"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="10" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="1023" min="4" style="0" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.63775510204082"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2695,7 +2695,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -2710,13 +2710,13 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.21"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="7.96428571428571"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2735,22 +2735,22 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -2765,18 +2765,18 @@
   </sheetPr>
   <dimension ref="A2:I4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I31" activeCellId="0" sqref="I31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="3" style="0" width="8.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="19.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="18.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="20" style="0" width="8.21"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.4387755102041"/>
+    <col collapsed="false" hidden="false" max="17" min="3" style="0" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="19.7091836734694"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="7.96428571428571"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2845,7 +2845,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -2860,16 +2860,16 @@
   </sheetPr>
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H17" activeCellId="0" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="8.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="8.21"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="7.96428571428571"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3599,7 +3599,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -3614,17 +3614,17 @@
   </sheetPr>
   <dimension ref="B1:I130"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="1.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="8.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="5" style="0" width="6.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="8.21"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="1.08163265306122"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.6479591836735"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="9" min="5" style="0" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="7.96428571428571"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -7581,7 +7581,7 @@
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="E10:I10"/>
   </mergeCells>
-  <conditionalFormatting sqref="C31:C130 C12:C29">
+  <conditionalFormatting sqref="C31:C130,C12:C29">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"OK"</formula>
     </cfRule>
@@ -7589,7 +7589,7 @@
       <formula>"missing!"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31:D130 D12:D29">
+  <conditionalFormatting sqref="D31:D130,D12:D29">
     <cfRule type="cellIs" priority="4" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>1</formula>
     </cfRule>
@@ -7609,7 +7609,7 @@
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/inputs/input_template_excel.xlsx
+++ b/inputs/input_template_excel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" state="visible" r:id="rId2"/>
@@ -157,21 +157,21 @@
     <t xml:space="preserve">restore_oemof_if_existant</t>
   </si>
   <si>
+    <t xml:space="preserve">True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">restore_blackouts_if_existant</t>
+  </si>
+  <si>
     <t xml:space="preserve">False</t>
   </si>
   <si>
-    <t xml:space="preserve">restore_blackouts_if_existant</t>
-  </si>
-  <si>
     <t xml:space="preserve">allow_shortage</t>
   </si>
   <si>
     <t xml:space="preserve">include_stability_constraint</t>
   </si>
   <si>
-    <t xml:space="preserve">True</t>
-  </si>
-  <si>
     <t xml:space="preserve">setting_pcc_utility_owned</t>
   </si>
   <si>
@@ -307,7 +307,7 @@
     <t xml:space="preserve">blackout_duration</t>
   </si>
   <si>
-    <t xml:space="preserve">hrs/mth</t>
+    <t xml:space="preserve">hrs</t>
   </si>
   <si>
     <t xml:space="preserve">blackout_duration_std_deviation</t>
@@ -1225,10 +1225,10 @@
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="3" min="1" style="0" width="1.08163265306122"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.9795918367347"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="37.1224489795918"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.4387755102041"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="36.3112244897959"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="1.08163265306122"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="7.69387755102041"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1439,15 +1439,15 @@
   <dimension ref="A1:G57"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.10714285714286"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.515306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="10" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.9744897959184"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="10" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="7.69387755102041"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1572,23 +1572,23 @@
         <v>44</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="15" t="s">
         <v>45</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1596,7 +1596,7 @@
         <v>48</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D17" s="0" t="s">
         <v>49</v>
@@ -1634,7 +1634,7 @@
         <v>55</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D21" s="0" t="s">
         <v>56</v>
@@ -1662,7 +1662,7 @@
         <v>59</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1737,7 +1737,7 @@
         <v>71</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1745,7 +1745,7 @@
         <v>72</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D36" s="0" t="s">
         <v>73</v>
@@ -1756,7 +1756,7 @@
         <v>74</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1764,7 +1764,7 @@
         <v>75</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1772,7 +1772,7 @@
         <v>76</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1790,7 +1790,7 @@
         <v>77</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D42" s="0" t="s">
         <v>49</v>
@@ -1801,7 +1801,7 @@
         <v>78</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D43" s="0" t="s">
         <v>49</v>
@@ -1812,7 +1812,7 @@
         <v>79</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1820,7 +1820,7 @@
         <v>80</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1838,7 +1838,7 @@
         <v>81</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1846,7 +1846,7 @@
         <v>82</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1854,7 +1854,7 @@
         <v>83</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1862,7 +1862,7 @@
         <v>84</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1879,7 +1879,7 @@
         <v>85</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1887,7 +1887,7 @@
         <v>86</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1895,7 +1895,7 @@
         <v>87</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1903,7 +1903,7 @@
         <v>88</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1924,17 +1924,17 @@
   </sheetPr>
   <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A27" activeCellId="0" sqref="A27"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A33" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B52" activeCellId="0" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.2244897959184"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.8214285714286"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.0765306122449"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="10" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="1023" min="4" style="0" width="7.96428571428571"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.63775510204082"/>
+    <col collapsed="false" hidden="false" max="1023" min="4" style="0" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1953,7 +1953,7 @@
         <v>92</v>
       </c>
       <c r="B2" s="10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>93</v>
@@ -1975,7 +1975,7 @@
         <v>96</v>
       </c>
       <c r="B4" s="10" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C4" s="19" t="s">
         <v>97</v>
@@ -2441,7 +2441,7 @@
         <v>158</v>
       </c>
       <c r="B45" s="10" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C45" s="19" t="s">
         <v>159</v>
@@ -2710,13 +2710,13 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="7.69387755102041"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2741,7 +2741,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>0.25</v>
+        <v>0.05</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>0.05</v>
@@ -2763,22 +2763,26 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:I4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I31" activeCellId="0" sqref="I31"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.4387755102041"/>
-    <col collapsed="false" hidden="false" max="17" min="3" style="0" width="7.96428571428571"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="19.7091836734694"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="17" min="3" style="0" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="19.1683673469388"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="7.69387755102041"/>
   </cols>
   <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1" s="10"/>
+      <c r="I1" s="19"/>
+    </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>189</v>
@@ -2860,16 +2864,16 @@
   </sheetPr>
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H17" activeCellId="0" sqref="H17"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L24" activeCellId="0" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="7.96428571428571"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="7.69387755102041"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2943,7 +2947,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>215</v>
@@ -3027,28 +3031,28 @@
         <v>233</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E17" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G17" s="25" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I17" s="25" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J17" s="25" t="s">
         <v>43</v>
@@ -3068,40 +3072,40 @@
         <v>207</v>
       </c>
       <c r="B18" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="F18" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="I18" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="J18" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="K18" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="F18" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="G18" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="H18" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="I18" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="J18" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="K18" s="25" t="s">
-        <v>47</v>
-      </c>
       <c r="L18" s="25" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M18" s="25" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3232,40 +3236,40 @@
         <v>239</v>
       </c>
       <c r="B22" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="G22" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="25" t="s">
+      <c r="H22" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="E22" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="F22" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="G22" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="H22" s="25" t="s">
-        <v>47</v>
-      </c>
       <c r="I22" s="25" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="J22" s="25" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K22" s="25" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="L22" s="25" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M22" s="25" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3297,10 +3301,10 @@
         <v>243</v>
       </c>
       <c r="J23" s="25" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K23" s="25" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L23" s="25" t="s">
         <v>241</v>
@@ -3434,43 +3438,43 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E27" s="25" t="s">
-        <v>247</v>
+        <v>43</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G27" s="25" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H27" s="25" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I27" s="25" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="J27" s="25" t="s">
-        <v>247</v>
+        <v>43</v>
       </c>
       <c r="K27" s="25" t="s">
-        <v>247</v>
+        <v>43</v>
       </c>
       <c r="L27" s="25" t="s">
-        <v>247</v>
+        <v>43</v>
       </c>
       <c r="M27" s="25" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3519,28 +3523,28 @@
         <v>218</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D29" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="E29" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="E29" s="25" t="s">
-        <v>247</v>
-      </c>
       <c r="F29" s="25" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G29" s="25" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H29" s="25" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I29" s="25" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J29" s="25" t="s">
         <v>247</v>
@@ -3560,28 +3564,28 @@
         <v>219</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="E30" s="24" t="s">
-        <v>247</v>
+        <v>45</v>
+      </c>
+      <c r="E30" s="25" t="s">
+        <v>45</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G30" s="25" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H30" s="25" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I30" s="25" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J30" s="24" t="s">
         <v>247</v>
@@ -3593,7 +3597,7 @@
         <v>247</v>
       </c>
       <c r="M30" s="25" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -3621,10 +3625,10 @@
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="1.08163265306122"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.6479591836735"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.1071428571429"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="7.69387755102041"/>
     <col collapsed="false" hidden="false" max="9" min="5" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="7.69387755102041"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -3853,7 +3857,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C15" s="24" t="str">
         <f aca="false">IF(D15&gt;=1, "OK", "missing!")</f>
@@ -3886,7 +3890,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C16" s="24" t="str">
         <f aca="false">IF(D16&gt;=1, "OK", "missing!")</f>
@@ -7441,7 +7445,7 @@
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B127" s="37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C127" s="24" t="str">
         <f aca="false">IF(D127&gt;=1, "OK", "missing!")</f>
@@ -7581,7 +7585,7 @@
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="E10:I10"/>
   </mergeCells>
-  <conditionalFormatting sqref="C31:C130,C12:C29">
+  <conditionalFormatting sqref="C30">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"OK"</formula>
     </cfRule>
@@ -7589,21 +7593,8 @@
       <formula>"missing!"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31:D130,D12:D29">
+  <conditionalFormatting sqref="D30">
     <cfRule type="cellIs" priority="4" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
-    <cfRule type="cellIs" priority="5" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="6" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>"missing!"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D30">
-    <cfRule type="cellIs" priority="7" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/inputs/input_template_excel.xlsx
+++ b/inputs/input_template_excel.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="261">
   <si>
     <t xml:space="preserve">Tool for optimizing and simulating off- and on-grid electrification solutions</t>
   </si>
@@ -172,94 +172,91 @@
     <t xml:space="preserve">include_stability_constraint</t>
   </si>
   <si>
-    <t xml:space="preserve">setting_pcc_utility_owned</t>
+    <t xml:space="preserve">evaluated_days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">time_start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">time_frequency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">currently only hourly timestep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sensitivity_all_combinations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If TRUE: All possible combinations of sensitivity parameters are analysed. Results in a huge number of experiments, but enables indentifyin interdependencies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">solver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cbc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">solver_verbose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cmdline_option</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ratioGap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ratioGap, mipgap, AllowedGap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cmdline_option_value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">input_folder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">! this is standardized currently!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">output_folder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">./simulation_results</t>
+  </si>
+  <si>
+    <t xml:space="preserve">output_file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">results</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Output – files</t>
+  </si>
+  <si>
+    <t xml:space="preserve">save_lp_file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lp_file_for_only_3_timesteps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This will perform whole simulation with only 3 timesteps! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">save_oemofresults</t>
+  </si>
+  <si>
+    <t xml:space="preserve">save_to_csv_flows_storage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">save_to_csv_flows_electricity_mg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">display_graphs_solar</t>
   </si>
   <si>
     <t xml:space="preserve">not implemented</t>
-  </si>
-  <si>
-    <t xml:space="preserve">evaluated_days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">time_start</t>
-  </si>
-  <si>
-    <t xml:space="preserve">time_frequency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">currently only hourly timestep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sensitivity_all_combinations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If TRUE: All possible combinations of sensitivity parameters are analysed. Results in a huge number of experiments, but enables indentifyin interdependencies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">solver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cbc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">solver_verbose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cmdline_option</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ratioGap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ratioGap, mipgap, AllowedGap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cmdline_option_value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">input_folder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">! this is standardized currently!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">output_folder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">./simulation_results</t>
-  </si>
-  <si>
-    <t xml:space="preserve">output_file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">results</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Output – files</t>
-  </si>
-  <si>
-    <t xml:space="preserve">save_lp_file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lp_file_for_only_3_timesteps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This will perform whole simulation with only 3 timesteps! </t>
-  </si>
-  <si>
-    <t xml:space="preserve">save_oemofresults</t>
-  </si>
-  <si>
-    <t xml:space="preserve">save_to_csv_flows_storage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">save_to_csv_flows_electricity_mg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">display_graphs_solar</t>
   </si>
   <si>
     <t xml:space="preserve">display_graphs_demand</t>
@@ -807,6 +804,9 @@
   </si>
   <si>
     <t xml:space="preserve">base_case_with_min_loading</t>
+  </si>
+  <si>
+    <t xml:space="preserve">setting_pcc_utility_owned</t>
   </si>
   <si>
     <t xml:space="preserve">lp_file_for_only_3_timesteps </t>
@@ -1225,10 +1225,10 @@
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="3" min="1" style="0" width="1.08163265306122"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.4387755102041"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="36.3112244897959"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="35.234693877551"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="1.08163265306122"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="7.4234693877551"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1436,7 +1436,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G57"/>
+  <dimension ref="A1:G56"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
@@ -1445,9 +1445,9 @@
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.10714285714286"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.9744897959184"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="10" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.4336734693878"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="10" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="7.4234693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1595,111 +1595,109 @@
       <c r="B17" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>49</v>
+      <c r="C17" s="10" t="n">
+        <v>365</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" s="10" t="n">
-        <v>365</v>
+        <v>49</v>
+      </c>
+      <c r="C18" s="16" t="n">
+        <v>43101</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="16" t="n">
-        <v>43101</v>
+      <c r="D19" s="0" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" s="10" t="s">
         <v>53</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="D20" s="0" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="0" t="s">
+      <c r="C21" s="0"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="0"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="0" t="s">
+      <c r="C23" s="10" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="0"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="10" t="s">
-        <v>58</v>
+      <c r="C24" s="15" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="15" t="s">
-        <v>45</v>
+      <c r="D25" s="0" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="C26" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="C26" s="10" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C27" s="0"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="17"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="14"/>
+      <c r="B29" s="0" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="0" t="s">
+      <c r="C29" s="17"/>
+      <c r="D29" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="10" t="n">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="0"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29" s="17"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="14"/>
       <c r="B30" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="C30" s="17"/>
-      <c r="D30" s="14" t="s">
+      <c r="C30" s="10" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1713,31 +1711,33 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="14"/>
-      <c r="B32" s="0" t="s">
+      <c r="C32" s="17"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C33" s="0"/>
+      <c r="D33" s="18"/>
+      <c r="G33" s="18"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="0" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="17"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="C34" s="0"/>
-      <c r="D34" s="18"/>
-      <c r="G34" s="18"/>
+      <c r="C34" s="15" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="0" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C35" s="15" t="s">
         <v>45</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1745,45 +1745,45 @@
         <v>72</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D36" s="0" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="0" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="0" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C38" s="15" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="0" t="s">
+      <c r="C39" s="17"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40" s="18"/>
+      <c r="C40" s="0"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D41" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="C39" s="15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C40" s="17"/>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B41" s="18"/>
-      <c r="C41" s="0"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="0" t="s">
@@ -1793,7 +1793,7 @@
         <v>45</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1801,10 +1801,7 @@
         <v>78</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D43" s="0" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1816,22 +1813,22 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="0" t="s">
+      <c r="C45" s="17"/>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B46" s="14"/>
+      <c r="C46" s="17"/>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="C45" s="15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C46" s="17"/>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B47" s="14"/>
-      <c r="C47" s="17"/>
+      <c r="C47" s="15" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="0" t="s">
@@ -1858,31 +1855,31 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="0" t="s">
+      <c r="C51" s="17"/>
+    </row>
+    <row r="52" customFormat="false" ht="13.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C52" s="0"/>
+    </row>
+    <row r="53" customFormat="false" ht="13.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B53" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="C51" s="15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C52" s="17"/>
-    </row>
-    <row r="53" customFormat="false" ht="13.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C53" s="0"/>
+      <c r="C53" s="15" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="13.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B54" s="0" t="s">
         <v>85</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="13.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="0" t="s">
         <v>86</v>
       </c>
@@ -1895,14 +1892,6 @@
         <v>87</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="C57" s="15" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1930,766 +1919,766 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.280612244898"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.0765306122449"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="10" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="1023" min="4" style="0" width="7.69387755102041"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1023" min="4" style="0" width="7.4234693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C1" s="19" t="s">
         <v>90</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B2" s="10" t="n">
         <v>2</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="19" t="s">
         <v>94</v>
-      </c>
-      <c r="B3" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B4" s="10" t="n">
         <v>6</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B5" s="10" t="n">
         <v>0</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B6" s="10" t="n">
         <v>8.8</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B7" s="10" t="n">
         <v>0.1</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B8" s="10" t="n">
         <v>1</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="19" t="s">
         <v>104</v>
-      </c>
-      <c r="B9" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="19" t="s">
         <v>106</v>
-      </c>
-      <c r="B10" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B11" s="10" t="n">
         <v>20</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B12" s="10" t="n">
         <v>0.5</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B13" s="10" t="n">
         <v>650</v>
       </c>
       <c r="C13" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="D13" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="B14" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" s="19" t="s">
+      <c r="D14" s="0" t="s">
         <v>116</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B15" s="10" t="n">
         <v>0</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B16" s="10" t="n">
         <v>0.33</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B17" s="10" t="n">
         <v>20</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B18" s="10" t="n">
         <v>1</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B19" s="10" t="n">
         <v>0.3</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="B20" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" s="19" t="s">
         <v>124</v>
-      </c>
-      <c r="B20" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B21" s="10" t="n">
         <v>0</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="B22" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" s="19" t="s">
         <v>127</v>
-      </c>
-      <c r="B22" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="B23" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" s="19" t="s">
         <v>129</v>
-      </c>
-      <c r="B23" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B24" s="10" t="n">
         <v>20</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B25" s="10" t="n">
         <v>0</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B26" s="10" t="n">
         <v>0</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B27" s="10" t="n">
         <v>0.05</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B28" s="10" t="n">
         <v>0</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B29" s="10" t="n">
         <v>1</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B30" s="10" t="n">
         <v>0</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B31" s="10" t="n">
         <v>0</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B32" s="10" t="n">
         <v>0</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B33" s="10" t="n">
         <v>0.95</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B34" s="10" t="n">
         <v>20</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B35" s="10" t="n">
         <v>0.89</v>
       </c>
       <c r="C35" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="D35" s="0" t="s">
         <v>143</v>
       </c>
-      <c r="D35" s="0" t="s">
+      <c r="E35" s="0" t="s">
         <v>144</v>
-      </c>
-      <c r="E35" s="0" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B36" s="10" t="n">
         <v>0</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B37" s="10" t="n">
         <v>0</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B38" s="10" t="n">
         <v>20</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B39" s="10" t="n">
         <v>0.5</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B40" s="10" t="n">
         <v>1000</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="B41" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" s="19" t="s">
         <v>153</v>
-      </c>
-      <c r="B41" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C41" s="19" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B42" s="10" t="n">
         <v>0</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B43" s="10" t="n">
         <v>20</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B44" s="10" t="n">
         <v>0.4</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B45" s="10" t="n">
         <v>10</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B46" s="10" t="n">
         <v>1</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B47" s="10" t="n">
         <v>0.2</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B48" s="10" t="n">
         <v>602</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="B49" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C49" s="19" t="s">
         <v>164</v>
-      </c>
-      <c r="B49" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C49" s="19" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B50" s="10" t="n">
         <v>0</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B51" s="10" t="n">
         <v>1</v>
       </c>
       <c r="C51" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B52" s="20" t="n">
         <v>1</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B53" s="10" t="n">
         <v>0.9</v>
       </c>
       <c r="C53" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="B54" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="C54" s="19" t="s">
         <v>171</v>
-      </c>
-      <c r="C54" s="19" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B55" s="10" t="n">
         <v>15</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B56" s="10" t="n">
         <v>0</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B57" s="10" t="n">
         <v>1</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B58" s="10" t="n">
         <v>0</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B59" s="10" t="n">
         <v>0.09</v>
       </c>
       <c r="C59" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B60" s="10" t="n">
         <v>0</v>
       </c>
       <c r="C60" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B61" s="10" t="n">
         <v>0</v>
       </c>
       <c r="C61" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B62" s="10" t="n">
         <v>0</v>
       </c>
       <c r="C62" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B63" s="10" t="n">
         <v>0.5</v>
       </c>
       <c r="C63" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B64" s="10" t="n">
         <v>1100</v>
       </c>
       <c r="C64" s="19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B65" s="10" t="n">
         <v>0</v>
       </c>
       <c r="C65" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B66" s="10" t="n">
         <v>0</v>
       </c>
       <c r="C66" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B67" s="10" t="n">
         <v>20</v>
       </c>
       <c r="C67" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -2716,26 +2705,26 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="7.4234693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="D1" s="0" t="s">
         <v>187</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -2771,12 +2760,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="17" min="3" style="0" width="7.69387755102041"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="19.1683673469388"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.3571428571429"/>
+    <col collapsed="false" hidden="false" max="17" min="3" style="0" width="7.4234693877551"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="18.6275510204082"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="7.4234693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2785,65 +2774,65 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="C2" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="D2" s="0" t="s">
         <v>191</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="E2" s="0" t="s">
         <v>192</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>193</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>194</v>
       </c>
       <c r="H2" s="10"/>
       <c r="I2" s="19"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>195</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="C3" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="D3" s="0" t="s">
+      <c r="E3" s="0" t="s">
         <v>197</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="F3" s="0" t="s">
         <v>198</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>199</v>
       </c>
       <c r="G3" s="10"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>200</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="C4" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>201</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>197</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>202</v>
-      </c>
       <c r="F4" s="0" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -2865,15 +2854,15 @@
   <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L24" activeCellId="0" sqref="L24"/>
+      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="7.69387755102041"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.5255102040816"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="7.4234693877551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="7.4234693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2883,66 +2872,66 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>203</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>205</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>207</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>209</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2950,85 +2939,85 @@
         <v>46</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="B11" s="0" t="s">
         <v>216</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="185.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="22" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B16" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="C16" s="23" t="s">
         <v>221</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="D16" s="23" t="s">
         <v>222</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="E16" s="23" t="s">
         <v>223</v>
       </c>
-      <c r="E16" s="23" t="s">
+      <c r="F16" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="F16" s="23" t="s">
+      <c r="G16" s="23" t="s">
         <v>225</v>
       </c>
-      <c r="G16" s="23" t="s">
+      <c r="H16" s="23" t="s">
         <v>226</v>
       </c>
-      <c r="H16" s="23" t="s">
+      <c r="I16" s="23" t="s">
         <v>227</v>
       </c>
-      <c r="I16" s="23" t="s">
+      <c r="J16" s="23" t="s">
         <v>228</v>
       </c>
-      <c r="J16" s="23" t="s">
+      <c r="K16" s="23" t="s">
         <v>229</v>
       </c>
-      <c r="K16" s="23" t="s">
+      <c r="L16" s="23" t="s">
         <v>230</v>
       </c>
-      <c r="L16" s="23" t="s">
+      <c r="M16" s="23" t="s">
         <v>231</v>
-      </c>
-      <c r="M16" s="23" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="24" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B17" s="25" t="s">
         <v>43</v>
@@ -3069,7 +3058,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="24" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B18" s="25" t="s">
         <v>45</v>
@@ -3110,130 +3099,130 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="B19" s="25" t="s">
         <v>234</v>
       </c>
-      <c r="B19" s="25" t="s">
-        <v>235</v>
-      </c>
       <c r="C19" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G19" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H19" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I19" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J19" s="25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K19" s="25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L19" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="M19" s="25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="24" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E20" s="25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H20" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I20" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J20" s="25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K20" s="25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L20" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="M20" s="25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="24" t="s">
+        <v>236</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>220</v>
+      </c>
+      <c r="F21" s="25" t="s">
         <v>237</v>
       </c>
-      <c r="B21" s="25" t="s">
-        <v>235</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>235</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>235</v>
-      </c>
-      <c r="E21" s="25" t="s">
-        <v>221</v>
-      </c>
-      <c r="F21" s="25" t="s">
-        <v>238</v>
-      </c>
       <c r="G21" s="25" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H21" s="25" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I21" s="25" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J21" s="25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K21" s="25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L21" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="M21" s="25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="24" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B22" s="25" t="s">
         <v>45</v>
@@ -3260,10 +3249,10 @@
         <v>43</v>
       </c>
       <c r="J22" s="25" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K22" s="25" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L22" s="25" t="s">
         <v>45</v>
@@ -3274,166 +3263,166 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="B23" s="25" t="s">
         <v>240</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="C23" s="25" t="s">
         <v>241</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="D23" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="F23" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="G23" s="25" t="s">
+        <v>241</v>
+      </c>
+      <c r="H23" s="25" t="s">
+        <v>241</v>
+      </c>
+      <c r="I23" s="25" t="s">
         <v>242</v>
       </c>
-      <c r="D23" s="25" t="s">
+      <c r="J23" s="25" t="s">
         <v>241</v>
       </c>
-      <c r="E23" s="25" t="s">
+      <c r="K23" s="25" t="s">
         <v>241</v>
       </c>
-      <c r="F23" s="25" t="s">
-        <v>241</v>
-      </c>
-      <c r="G23" s="25" t="s">
-        <v>242</v>
-      </c>
-      <c r="H23" s="25" t="s">
-        <v>242</v>
-      </c>
-      <c r="I23" s="25" t="s">
-        <v>243</v>
-      </c>
-      <c r="J23" s="25" t="s">
-        <v>242</v>
-      </c>
-      <c r="K23" s="25" t="s">
-        <v>242</v>
-      </c>
       <c r="L23" s="25" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M23" s="25" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="24" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E24" s="25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H24" s="25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I24" s="25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J24" s="25" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K24" s="25" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L24" s="25" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M24" s="25" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="24" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E25" s="25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G25" s="25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H25" s="25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I25" s="25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J25" s="25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K25" s="25" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L25" s="25" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M25" s="25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="24" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E26" s="25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G26" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H26" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I26" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J26" s="25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K26" s="25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L26" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="M26" s="25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3479,40 +3468,40 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="24" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E28" s="25" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G28" s="25" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H28" s="25" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I28" s="25" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J28" s="25" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K28" s="25" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L28" s="25" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M28" s="24" t="n">
         <v>0.5</v>
@@ -3520,7 +3509,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="24" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B29" s="25" t="s">
         <v>43</v>
@@ -3547,21 +3536,21 @@
         <v>45</v>
       </c>
       <c r="J29" s="25" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K29" s="25" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L29" s="25" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M29" s="25" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="24" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B30" s="25" t="s">
         <v>45</v>
@@ -3588,13 +3577,13 @@
         <v>45</v>
       </c>
       <c r="J30" s="24" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K30" s="24" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L30" s="24" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M30" s="25" t="s">
         <v>45</v>
@@ -3625,16 +3614,16 @@
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="1.08163265306122"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.1071428571429"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.5663265306122"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="7.4234693877551"/>
     <col collapsed="false" hidden="false" max="9" min="5" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="7.4234693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="26" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -3646,7 +3635,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -3669,10 +3658,10 @@
     <row r="5" customFormat="false" ht="68.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B5" s="27"/>
       <c r="C5" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>250</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>251</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -3686,7 +3675,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -3697,10 +3686,10 @@
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="1"/>
       <c r="C7" s="30" t="s">
+        <v>252</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>253</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>254</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -3720,16 +3709,16 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B10" s="31" t="s">
+        <v>254</v>
+      </c>
+      <c r="C10" s="31" t="s">
         <v>255</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="D10" s="32" t="s">
         <v>256</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="E10" s="31" t="s">
         <v>257</v>
-      </c>
-      <c r="E10" s="31" t="s">
-        <v>258</v>
       </c>
       <c r="F10" s="31"/>
       <c r="G10" s="31"/>
@@ -3824,7 +3813,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="34" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C14" s="24" t="str">
         <f aca="false">IF(D14&gt;=1, "OK", "missing!")</f>
@@ -3923,19 +3912,19 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="34" t="s">
-        <v>48</v>
+        <v>259</v>
       </c>
       <c r="C17" s="24" t="str">
         <f aca="false">IF(D17&gt;=1, "OK", "missing!")</f>
-        <v>OK</v>
+        <v>missing!</v>
       </c>
       <c r="D17" s="35" t="n">
         <f aca="false">SUM(E17:I17)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" s="36" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B17,settings!B:B, 1, 0)), 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" s="36" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B17, input_constant!A:A, 1, 0)), 0)</f>
@@ -3956,7 +3945,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="34" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C18" s="24" t="str">
         <f aca="false">IF(D18&gt;=1, "OK", "missing!")</f>
@@ -3989,7 +3978,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="34" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C19" s="24" t="str">
         <f aca="false">IF(D19&gt;=1, "OK", "missing!")</f>
@@ -4022,7 +4011,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="34" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C20" s="24" t="str">
         <f aca="false">IF(D20&gt;=1, "OK", "missing!")</f>
@@ -4055,7 +4044,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="34" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C21" s="24" t="str">
         <f aca="false">IF(D21&gt;=1, "OK", "missing!")</f>
@@ -4088,7 +4077,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="34" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C22" s="24" t="str">
         <f aca="false">IF(D22&gt;=1, "OK", "missing!")</f>
@@ -4121,7 +4110,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="34" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C23" s="24" t="str">
         <f aca="false">IF(D23&gt;=1, "OK", "missing!")</f>
@@ -4154,7 +4143,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="34" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C24" s="24" t="str">
         <f aca="false">IF(D24&gt;=1, "OK", "missing!")</f>
@@ -4187,7 +4176,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="34" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C25" s="24" t="str">
         <f aca="false">IF(D25&gt;=1, "OK", "missing!")</f>
@@ -4220,7 +4209,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="34" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C26" s="24" t="str">
         <f aca="false">IF(D26&gt;=1, "OK", "missing!")</f>
@@ -4253,7 +4242,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="34" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C27" s="24" t="str">
         <f aca="false">IF(D27&gt;=1, "OK", "missing!")</f>
@@ -4286,7 +4275,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B28" s="34" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C28" s="24" t="str">
         <f aca="false">IF(D28&gt;=1, "OK", "missing!")</f>
@@ -4319,7 +4308,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="34" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C29" s="24" t="str">
         <f aca="false">IF(D29&gt;=1, "OK", "missing!")</f>
@@ -4385,7 +4374,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="34" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C31" s="24" t="str">
         <f aca="false">IF(D31&gt;=1, "OK", "missing!")</f>
@@ -4418,7 +4407,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="34" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C32" s="24" t="str">
         <f aca="false">IF(D32&gt;=1, "OK", "missing!")</f>
@@ -4451,7 +4440,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="34" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C33" s="24" t="str">
         <f aca="false">IF(D33&gt;=1, "OK", "missing!")</f>
@@ -4484,7 +4473,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="34" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C34" s="24" t="str">
         <f aca="false">IF(D34&gt;=1, "OK", "missing!")</f>
@@ -4517,7 +4506,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C35" s="24" t="str">
         <f aca="false">IF(D35&gt;=1, "OK", "missing!")</f>
@@ -4550,7 +4539,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="34" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C36" s="24" t="str">
         <f aca="false">IF(D36&gt;=1, "OK", "missing!")</f>
@@ -4583,7 +4572,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="34" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C37" s="24" t="str">
         <f aca="false">IF(D37&gt;=1, "OK", "missing!")</f>
@@ -4616,7 +4605,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C38" s="24" t="str">
         <f aca="false">IF(D38&gt;=1, "OK", "missing!")</f>
@@ -4649,7 +4638,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="34" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C39" s="24" t="str">
         <f aca="false">IF(D39&gt;=1, "OK", "missing!")</f>
@@ -4682,7 +4671,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C40" s="24" t="str">
         <f aca="false">IF(D40&gt;=1, "OK", "missing!")</f>
@@ -4715,7 +4704,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="34" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C41" s="24" t="str">
         <f aca="false">IF(D41&gt;=1, "OK", "missing!")</f>
@@ -4748,7 +4737,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C42" s="24" t="str">
         <f aca="false">IF(D42&gt;=1, "OK", "missing!")</f>
@@ -4781,7 +4770,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C43" s="24" t="str">
         <f aca="false">IF(D43&gt;=1, "OK", "missing!")</f>
@@ -4814,7 +4803,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C44" s="24" t="str">
         <f aca="false">IF(D44&gt;=1, "OK", "missing!")</f>
@@ -4847,7 +4836,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="34" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C45" s="24" t="str">
         <f aca="false">IF(D45&gt;=1, "OK", "missing!")</f>
@@ -4880,7 +4869,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="34" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C46" s="24" t="str">
         <f aca="false">IF(D46&gt;=1, "OK", "missing!")</f>
@@ -4913,7 +4902,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C47" s="24" t="str">
         <f aca="false">IF(D47&gt;=1, "OK", "missing!")</f>
@@ -4946,7 +4935,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C48" s="24" t="str">
         <f aca="false">IF(D48&gt;=1, "OK", "missing!")</f>
@@ -4979,7 +4968,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C49" s="24" t="str">
         <f aca="false">IF(D49&gt;=1, "OK", "missing!")</f>
@@ -5012,7 +5001,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="34" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C50" s="24" t="str">
         <f aca="false">IF(D50&gt;=1, "OK", "missing!")</f>
@@ -5045,7 +5034,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C51" s="24" t="str">
         <f aca="false">IF(D51&gt;=1, "OK", "missing!")</f>
@@ -5078,7 +5067,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="34" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C52" s="24" t="str">
         <f aca="false">IF(D52&gt;=1, "OK", "missing!")</f>
@@ -5111,7 +5100,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="34" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C53" s="24" t="str">
         <f aca="false">IF(D53&gt;=1, "OK", "missing!")</f>
@@ -5144,7 +5133,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="34" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C54" s="24" t="str">
         <f aca="false">IF(D54&gt;=1, "OK", "missing!")</f>
@@ -5177,7 +5166,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="34" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C55" s="24" t="str">
         <f aca="false">IF(D55&gt;=1, "OK", "missing!")</f>
@@ -5210,7 +5199,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="34" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C56" s="24" t="str">
         <f aca="false">IF(D56&gt;=1, "OK", "missing!")</f>
@@ -5243,7 +5232,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="34" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C57" s="24" t="str">
         <f aca="false">IF(D57&gt;=1, "OK", "missing!")</f>
@@ -5276,7 +5265,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="34" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C58" s="24" t="str">
         <f aca="false">IF(D58&gt;=1, "OK", "missing!")</f>
@@ -5309,7 +5298,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C59" s="24" t="str">
         <f aca="false">IF(D59&gt;=1, "OK", "missing!")</f>
@@ -5342,7 +5331,7 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="34" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C60" s="24" t="str">
         <f aca="false">IF(D60&gt;=1, "OK", "missing!")</f>
@@ -5375,7 +5364,7 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="34" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C61" s="24" t="str">
         <f aca="false">IF(D61&gt;=1, "OK", "missing!")</f>
@@ -5408,7 +5397,7 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C62" s="24" t="str">
         <f aca="false">IF(D62&gt;=1, "OK", "missing!")</f>
@@ -5441,7 +5430,7 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="34" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C63" s="24" t="str">
         <f aca="false">IF(D63&gt;=1, "OK", "missing!")</f>
@@ -5474,7 +5463,7 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="34" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C64" s="24" t="str">
         <f aca="false">IF(D64&gt;=1, "OK", "missing!")</f>
@@ -5507,7 +5496,7 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="34" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C65" s="24" t="str">
         <f aca="false">IF(D65&gt;=1, "OK", "missing!")</f>
@@ -5540,7 +5529,7 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="34" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C66" s="24" t="str">
         <f aca="false">IF(D66&gt;=1, "OK", "missing!")</f>
@@ -5573,7 +5562,7 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="34" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C67" s="24" t="str">
         <f aca="false">IF(D67&gt;=1, "OK", "missing!")</f>
@@ -5606,7 +5595,7 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C68" s="24" t="str">
         <f aca="false">IF(D68&gt;=1, "OK", "missing!")</f>
@@ -5639,7 +5628,7 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="34" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C69" s="24" t="str">
         <f aca="false">IF(D69&gt;=1, "OK", "missing!")</f>
@@ -5672,7 +5661,7 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="34" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C70" s="24" t="str">
         <f aca="false">IF(D70&gt;=1, "OK", "missing!")</f>
@@ -5705,7 +5694,7 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C71" s="24" t="str">
         <f aca="false">IF(D71&gt;=1, "OK", "missing!")</f>
@@ -5738,7 +5727,7 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="34" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C72" s="24" t="str">
         <f aca="false">IF(D72&gt;=1, "OK", "missing!")</f>
@@ -5771,7 +5760,7 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C73" s="24" t="str">
         <f aca="false">IF(D73&gt;=1, "OK", "missing!")</f>
@@ -5804,7 +5793,7 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="34" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C74" s="24" t="str">
         <f aca="false">IF(D74&gt;=1, "OK", "missing!")</f>
@@ -5837,7 +5826,7 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="34" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C75" s="24" t="str">
         <f aca="false">IF(D75&gt;=1, "OK", "missing!")</f>
@@ -5870,7 +5859,7 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="34" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C76" s="24" t="str">
         <f aca="false">IF(D76&gt;=1, "OK", "missing!")</f>
@@ -5903,7 +5892,7 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="34" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C77" s="24" t="str">
         <f aca="false">IF(D77&gt;=1, "OK", "missing!")</f>
@@ -5936,7 +5925,7 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="34" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C78" s="24" t="str">
         <f aca="false">IF(D78&gt;=1, "OK", "missing!")</f>
@@ -5969,7 +5958,7 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C79" s="24" t="str">
         <f aca="false">IF(D79&gt;=1, "OK", "missing!")</f>
@@ -6002,7 +5991,7 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="34" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C80" s="24" t="str">
         <f aca="false">IF(D80&gt;=1, "OK", "missing!")</f>
@@ -6035,7 +6024,7 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="34" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C81" s="24" t="str">
         <f aca="false">IF(D81&gt;=1, "OK", "missing!")</f>
@@ -6068,7 +6057,7 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="34" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C82" s="24" t="str">
         <f aca="false">IF(D82&gt;=1, "OK", "missing!")</f>
@@ -6101,7 +6090,7 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="34" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C83" s="24" t="str">
         <f aca="false">IF(D83&gt;=1, "OK", "missing!")</f>
@@ -6134,7 +6123,7 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="34" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C84" s="24" t="str">
         <f aca="false">IF(D84&gt;=1, "OK", "missing!")</f>
@@ -6167,7 +6156,7 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="34" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C85" s="24" t="str">
         <f aca="false">IF(D85&gt;=1, "OK", "missing!")</f>
@@ -6200,7 +6189,7 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="34" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C86" s="24" t="str">
         <f aca="false">IF(D86&gt;=1, "OK", "missing!")</f>
@@ -6233,7 +6222,7 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="34" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C87" s="24" t="str">
         <f aca="false">IF(D87&gt;=1, "OK", "missing!")</f>
@@ -6266,7 +6255,7 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="34" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C88" s="24" t="str">
         <f aca="false">IF(D88&gt;=1, "OK", "missing!")</f>
@@ -6299,7 +6288,7 @@
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="34" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C89" s="24" t="str">
         <f aca="false">IF(D89&gt;=1, "OK", "missing!")</f>
@@ -6332,7 +6321,7 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="34" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C90" s="24" t="str">
         <f aca="false">IF(D90&gt;=1, "OK", "missing!")</f>
@@ -6365,7 +6354,7 @@
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B91" s="34" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C91" s="24" t="str">
         <f aca="false">IF(D91&gt;=1, "OK", "missing!")</f>
@@ -6398,7 +6387,7 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="34" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C92" s="24" t="str">
         <f aca="false">IF(D92&gt;=1, "OK", "missing!")</f>
@@ -6431,7 +6420,7 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="34" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C93" s="24" t="str">
         <f aca="false">IF(D93&gt;=1, "OK", "missing!")</f>
@@ -6464,7 +6453,7 @@
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="34" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C94" s="24" t="str">
         <f aca="false">IF(D94&gt;=1, "OK", "missing!")</f>
@@ -6497,7 +6486,7 @@
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="34" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C95" s="24" t="str">
         <f aca="false">IF(D95&gt;=1, "OK", "missing!")</f>
@@ -6530,7 +6519,7 @@
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="34" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C96" s="24" t="str">
         <f aca="false">IF(D96&gt;=1, "OK", "missing!")</f>
@@ -6563,7 +6552,7 @@
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="34" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C97" s="24" t="str">
         <f aca="false">IF(D97&gt;=1, "OK", "missing!")</f>
@@ -6596,7 +6585,7 @@
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="34" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C98" s="24" t="str">
         <f aca="false">IF(D98&gt;=1, "OK", "missing!")</f>
@@ -6629,7 +6618,7 @@
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C99" s="24" t="str">
         <f aca="false">IF(D99&gt;=1, "OK", "missing!")</f>
@@ -6662,7 +6651,7 @@
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="34" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C100" s="24" t="str">
         <f aca="false">IF(D100&gt;=1, "OK", "missing!")</f>
@@ -6695,7 +6684,7 @@
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B101" s="34" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C101" s="24" t="str">
         <f aca="false">IF(D101&gt;=1, "OK", "missing!")</f>
@@ -6728,7 +6717,7 @@
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="34" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C102" s="24" t="str">
         <f aca="false">IF(D102&gt;=1, "OK", "missing!")</f>
@@ -6761,7 +6750,7 @@
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="34" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C103" s="24" t="str">
         <f aca="false">IF(D103&gt;=1, "OK", "missing!")</f>
@@ -6794,7 +6783,7 @@
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="34" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C104" s="24" t="str">
         <f aca="false">IF(D104&gt;=1, "OK", "missing!")</f>
@@ -6827,7 +6816,7 @@
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B105" s="34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C105" s="24" t="str">
         <f aca="false">IF(D105&gt;=1, "OK", "missing!")</f>
@@ -6860,7 +6849,7 @@
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="34" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C106" s="24" t="str">
         <f aca="false">IF(D106&gt;=1, "OK", "missing!")</f>
@@ -6893,7 +6882,7 @@
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B107" s="34" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C107" s="24" t="str">
         <f aca="false">IF(D107&gt;=1, "OK", "missing!")</f>
@@ -6926,7 +6915,7 @@
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="34" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C108" s="24" t="str">
         <f aca="false">IF(D108&gt;=1, "OK", "missing!")</f>
@@ -6959,7 +6948,7 @@
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B109" s="34" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C109" s="24" t="str">
         <f aca="false">IF(D109&gt;=1, "OK", "missing!")</f>
@@ -6992,7 +6981,7 @@
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B110" s="34" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C110" s="24" t="str">
         <f aca="false">IF(D110&gt;=1, "OK", "missing!")</f>
@@ -7025,7 +7014,7 @@
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B111" s="34" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C111" s="24" t="str">
         <f aca="false">IF(D111&gt;=1, "OK", "missing!")</f>
@@ -7058,7 +7047,7 @@
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B112" s="34" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C112" s="24" t="str">
         <f aca="false">IF(D112&gt;=1, "OK", "missing!")</f>
@@ -7091,7 +7080,7 @@
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B113" s="34" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C113" s="24" t="str">
         <f aca="false">IF(D113&gt;=1, "OK", "missing!")</f>
@@ -7124,7 +7113,7 @@
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B114" s="34" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C114" s="24" t="str">
         <f aca="false">IF(D114&gt;=1, "OK", "missing!")</f>
@@ -7157,7 +7146,7 @@
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B115" s="34" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C115" s="24" t="str">
         <f aca="false">IF(D115&gt;=1, "OK", "missing!")</f>
@@ -7190,7 +7179,7 @@
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B116" s="34" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C116" s="24" t="str">
         <f aca="false">IF(D116&gt;=1, "OK", "missing!")</f>
@@ -7223,7 +7212,7 @@
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B117" s="34" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C117" s="24" t="str">
         <f aca="false">IF(D117&gt;=1, "OK", "missing!")</f>
@@ -7256,7 +7245,7 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B118" s="37" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C118" s="24" t="str">
         <f aca="false">IF(D118&gt;=1, "OK", "missing!")</f>
@@ -7277,7 +7266,7 @@
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B119" s="37" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C119" s="24" t="str">
         <f aca="false">IF(D119&gt;=1, "OK", "missing!")</f>
@@ -7298,7 +7287,7 @@
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B120" s="37" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C120" s="24" t="str">
         <f aca="false">IF(D120&gt;=1, "OK", "missing!")</f>
@@ -7319,7 +7308,7 @@
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B121" s="37" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C121" s="24" t="str">
         <f aca="false">IF(D121&gt;=1, "OK", "missing!")</f>
@@ -7340,7 +7329,7 @@
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B122" s="37" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C122" s="24" t="str">
         <f aca="false">IF(D122&gt;=1, "OK", "missing!")</f>
@@ -7361,7 +7350,7 @@
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B123" s="37" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C123" s="24" t="str">
         <f aca="false">IF(D123&gt;=1, "OK", "missing!")</f>
@@ -7382,7 +7371,7 @@
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B124" s="37" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C124" s="24" t="str">
         <f aca="false">IF(D124&gt;=1, "OK", "missing!")</f>
@@ -7403,7 +7392,7 @@
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B125" s="37" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C125" s="24" t="str">
         <f aca="false">IF(D125&gt;=1, "OK", "missing!")</f>
@@ -7424,7 +7413,7 @@
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B126" s="37" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C126" s="24" t="str">
         <f aca="false">IF(D126&gt;=1, "OK", "missing!")</f>
@@ -7478,7 +7467,7 @@
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B128" s="37" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C128" s="24" t="str">
         <f aca="false">IF(D128&gt;=1, "OK", "missing!")</f>
@@ -7511,7 +7500,7 @@
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B129" s="37" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C129" s="24" t="str">
         <f aca="false">IF(D129&gt;=1, "OK", "missing!")</f>
@@ -7544,7 +7533,7 @@
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B130" s="37" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C130" s="24" t="str">
         <f aca="false">IF(D130&gt;=1, "OK", "missing!")</f>

--- a/inputs/input_template_excel.xlsx
+++ b/inputs/input_template_excel.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="262">
   <si>
     <t xml:space="preserve">Tool for optimizing and simulating off- and on-grid electrification solutions</t>
   </si>
@@ -722,6 +722,9 @@
   </si>
   <si>
     <t xml:space="preserve">sole_maingrid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shs_maingrid</t>
   </si>
   <si>
     <t xml:space="preserve">perform_simulation</t>
@@ -1225,10 +1228,9 @@
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="3" min="1" style="0" width="1.08163265306122"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="35.234693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="34.0204081632653"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="1.08163265306122"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="7.4234693877551"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1438,16 +1440,15 @@
   </sheetPr>
   <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.10714285714286"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.4336734693878"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="10" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="7.4234693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.3520408163265"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="10" width="11.0714285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1913,17 +1914,16 @@
   </sheetPr>
   <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A33" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B52" activeCellId="0" sqref="B52"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.469387755102"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.0765306122449"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="10" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="1023" min="4" style="0" width="7.4234693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.10204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2160,7 +2160,7 @@
         <v>125</v>
       </c>
       <c r="B21" s="10" t="n">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="C21" s="19" t="s">
         <v>101</v>
@@ -2704,9 +2704,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="7.4234693877551"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -2760,12 +2757,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.3571428571429"/>
-    <col collapsed="false" hidden="false" max="17" min="3" style="0" width="7.4234693877551"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="18.6275510204082"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="7.4234693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="15.9285714285714"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2851,18 +2846,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
+      <selection pane="topLeft" activeCell="I29" activeCellId="0" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.5255102040816"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="7.4234693877551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="7.4234693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.3112244897959"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.10204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3014,10 +3007,13 @@
       <c r="M16" s="23" t="s">
         <v>231</v>
       </c>
+      <c r="N16" s="23" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="24" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B17" s="25" t="s">
         <v>43</v>
@@ -3053,6 +3049,9 @@
         <v>43</v>
       </c>
       <c r="M17" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="N17" s="25" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3096,34 +3095,37 @@
       <c r="M18" s="25" t="s">
         <v>45</v>
       </c>
+      <c r="N18" s="25" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="24" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E19" s="25" t="s">
         <v>220</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G19" s="25" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H19" s="25" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I19" s="25" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J19" s="25" t="s">
         <v>220</v>
@@ -3132,39 +3134,42 @@
         <v>220</v>
       </c>
       <c r="L19" s="25" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M19" s="25" t="s">
         <v>170</v>
       </c>
+      <c r="N19" s="25" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="24" t="s">
+        <v>236</v>
+      </c>
+      <c r="B20" s="25" t="s">
         <v>235</v>
       </c>
-      <c r="B20" s="25" t="s">
-        <v>234</v>
-      </c>
       <c r="C20" s="25" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E20" s="25" t="s">
         <v>220</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H20" s="25" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I20" s="25" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J20" s="25" t="s">
         <v>220</v>
@@ -3173,39 +3178,42 @@
         <v>220</v>
       </c>
       <c r="L20" s="25" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M20" s="25" t="s">
         <v>170</v>
       </c>
+      <c r="N20" s="25" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="24" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E21" s="25" t="s">
         <v>220</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G21" s="25" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H21" s="25" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I21" s="25" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J21" s="25" t="s">
         <v>220</v>
@@ -3214,15 +3222,18 @@
         <v>220</v>
       </c>
       <c r="L21" s="25" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M21" s="25" t="s">
         <v>170</v>
       </c>
+      <c r="N21" s="25" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="24" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B22" s="25" t="s">
         <v>45</v>
@@ -3260,51 +3271,57 @@
       <c r="M22" s="25" t="s">
         <v>45</v>
       </c>
+      <c r="N22" s="25" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="24" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C23" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="D23" s="25" t="s">
         <v>241</v>
       </c>
-      <c r="D23" s="25" t="s">
-        <v>240</v>
-      </c>
       <c r="E23" s="25" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G23" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="H23" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="I23" s="25" t="s">
+        <v>243</v>
+      </c>
+      <c r="J23" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="K23" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="L23" s="25" t="s">
         <v>241</v>
       </c>
-      <c r="H23" s="25" t="s">
+      <c r="M23" s="25" t="s">
         <v>241</v>
       </c>
-      <c r="I23" s="25" t="s">
-        <v>242</v>
-      </c>
-      <c r="J23" s="25" t="s">
+      <c r="N23" s="25" t="s">
         <v>241</v>
-      </c>
-      <c r="K23" s="25" t="s">
-        <v>241</v>
-      </c>
-      <c r="L23" s="25" t="s">
-        <v>240</v>
-      </c>
-      <c r="M23" s="25" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="24" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B24" s="25" t="s">
         <v>170</v>
@@ -3331,21 +3348,24 @@
         <v>170</v>
       </c>
       <c r="J24" s="25" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="K24" s="25" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L24" s="25" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M24" s="25" t="s">
-        <v>237</v>
+        <v>238</v>
+      </c>
+      <c r="N24" s="25" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="24" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B25" s="25" t="s">
         <v>170</v>
@@ -3375,42 +3395,45 @@
         <v>170</v>
       </c>
       <c r="K25" s="25" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L25" s="25" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M25" s="25" t="s">
         <v>170</v>
       </c>
+      <c r="N25" s="25" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="24" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E26" s="25" t="s">
         <v>220</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G26" s="25" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H26" s="25" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I26" s="25" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J26" s="25" t="s">
         <v>220</v>
@@ -3419,9 +3442,12 @@
         <v>220</v>
       </c>
       <c r="L26" s="25" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M26" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="N26" s="25" t="s">
         <v>170</v>
       </c>
     </row>
@@ -3465,46 +3491,52 @@
       <c r="M27" s="25" t="s">
         <v>43</v>
       </c>
+      <c r="N27" s="25" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="24" t="s">
         <v>215</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E28" s="25" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G28" s="25" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H28" s="25" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="I28" s="25" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="J28" s="25" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="K28" s="25" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L28" s="25" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M28" s="24" t="n">
-        <v>0.5</v>
+        <v>0.05</v>
+      </c>
+      <c r="N28" s="24" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3536,16 +3568,19 @@
         <v>45</v>
       </c>
       <c r="J29" s="25" t="s">
-        <v>246</v>
+        <v>43</v>
       </c>
       <c r="K29" s="25" t="s">
-        <v>246</v>
+        <v>43</v>
       </c>
       <c r="L29" s="25" t="s">
-        <v>246</v>
+        <v>43</v>
       </c>
       <c r="M29" s="25" t="s">
-        <v>246</v>
+        <v>247</v>
+      </c>
+      <c r="N29" s="25" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3577,15 +3612,18 @@
         <v>45</v>
       </c>
       <c r="J30" s="24" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="K30" s="24" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L30" s="24" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M30" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="N30" s="25" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3614,16 +3652,14 @@
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="1.08163265306122"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.5663265306122"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="7.4234693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.4897959183673"/>
     <col collapsed="false" hidden="false" max="9" min="5" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="7.4234693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="26" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -3635,7 +3671,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -3658,10 +3694,10 @@
     <row r="5" customFormat="false" ht="68.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B5" s="27"/>
       <c r="C5" s="28" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -3675,7 +3711,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -3686,10 +3722,10 @@
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="1"/>
       <c r="C7" s="30" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -3709,16 +3745,16 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B10" s="31" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E10" s="31" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F10" s="31"/>
       <c r="G10" s="31"/>
@@ -3813,7 +3849,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="34" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C14" s="24" t="str">
         <f aca="false">IF(D14&gt;=1, "OK", "missing!")</f>
@@ -3912,7 +3948,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="34" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C17" s="24" t="str">
         <f aca="false">IF(D17&gt;=1, "OK", "missing!")</f>
@@ -4341,7 +4377,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="34" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C30" s="24" t="str">
         <f aca="false">IF(D30&gt;=1, "OK", "missing!")</f>
@@ -7245,7 +7281,7 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B118" s="37" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C118" s="24" t="str">
         <f aca="false">IF(D118&gt;=1, "OK", "missing!")</f>
@@ -7287,7 +7323,7 @@
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B120" s="37" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C120" s="24" t="str">
         <f aca="false">IF(D120&gt;=1, "OK", "missing!")</f>
@@ -7308,7 +7344,7 @@
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B121" s="37" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C121" s="24" t="str">
         <f aca="false">IF(D121&gt;=1, "OK", "missing!")</f>
@@ -7329,7 +7365,7 @@
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B122" s="37" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C122" s="24" t="str">
         <f aca="false">IF(D122&gt;=1, "OK", "missing!")</f>
@@ -7350,7 +7386,7 @@
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B123" s="37" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C123" s="24" t="str">
         <f aca="false">IF(D123&gt;=1, "OK", "missing!")</f>
@@ -7371,7 +7407,7 @@
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B124" s="37" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C124" s="24" t="str">
         <f aca="false">IF(D124&gt;=1, "OK", "missing!")</f>
@@ -7392,7 +7428,7 @@
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B125" s="37" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C125" s="24" t="str">
         <f aca="false">IF(D125&gt;=1, "OK", "missing!")</f>
@@ -7413,7 +7449,7 @@
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B126" s="37" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C126" s="24" t="str">
         <f aca="false">IF(D126&gt;=1, "OK", "missing!")</f>

--- a/inputs/input_template_excel.xlsx
+++ b/inputs/input_template_excel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="268">
   <si>
     <t xml:space="preserve">Tool for optimizing and simulating off- and on-grid electrification solutions</t>
   </si>
@@ -157,93 +157,93 @@
     <t xml:space="preserve">restore_oemof_if_existant</t>
   </si>
   <si>
+    <t xml:space="preserve">False</t>
+  </si>
+  <si>
+    <t xml:space="preserve">restore_blackouts_if_existant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">allow_shortage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">evaluated_days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">time_start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">time_frequency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">currently only hourly timestep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sensitivity_all_combinations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If TRUE: All possible combinations of sensitivity parameters are analysed. Results in a huge number of experiments, but enables indentifyin interdependencies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">solver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cbc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">solver_verbose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cmdline_option</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ratioGap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ratioGap, mipgap, AllowedGap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cmdline_option_value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">input_folder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">! this is standardized currently!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">output_folder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">./simulation_results</t>
+  </si>
+  <si>
+    <t xml:space="preserve">output_file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">results</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Output – files</t>
+  </si>
+  <si>
+    <t xml:space="preserve">save_lp_file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lp_file_for_only_3_timesteps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This will perform whole simulation with only 3 timesteps! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">save_oemofresults</t>
+  </si>
+  <si>
     <t xml:space="preserve">True</t>
   </si>
   <si>
-    <t xml:space="preserve">restore_blackouts_if_existant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">False</t>
-  </si>
-  <si>
-    <t xml:space="preserve">allow_shortage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">evaluated_days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">time_start</t>
-  </si>
-  <si>
-    <t xml:space="preserve">time_frequency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">currently only hourly timestep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sensitivity_all_combinations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If TRUE: All possible combinations of sensitivity parameters are analysed. Results in a huge number of experiments, but enables indentifyin interdependencies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">solver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cbc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">solver_verbose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cmdline_option</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ratioGap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ratioGap, mipgap, AllowedGap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cmdline_option_value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">input_folder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">! this is standardized currently!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">output_folder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">./simulation_results</t>
-  </si>
-  <si>
-    <t xml:space="preserve">output_file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">results</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Output – files</t>
-  </si>
-  <si>
-    <t xml:space="preserve">save_lp_file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lp_file_for_only_3_timesteps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This will perform whole simulation with only 3 timesteps! </t>
-  </si>
-  <si>
-    <t xml:space="preserve">save_oemofresults</t>
-  </si>
-  <si>
     <t xml:space="preserve">save_to_csv_flows_storage</t>
   </si>
   <si>
@@ -727,19 +727,13 @@
     <t xml:space="preserve">renewable_constraint</t>
   </si>
   <si>
-    <t xml:space="preserve">oem_backup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oem_usage_wind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oem_usage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oem_min_loading_backup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oem_min_loading_usage</t>
+    <t xml:space="preserve">diesel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">solarhybrid_backup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">solarhybrid_usage</t>
   </si>
   <si>
     <t xml:space="preserve">perform_simulation</t>
@@ -766,9 +760,6 @@
     <t xml:space="preserve">number_of_equal_generators</t>
   </si>
   <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
     <t xml:space="preserve">2</t>
   </si>
   <si>
@@ -784,10 +775,10 @@
     <t xml:space="preserve">default</t>
   </si>
   <si>
+    <t xml:space="preserve">share_usage</t>
+  </si>
+  <si>
     <t xml:space="preserve">share_backup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">share_usage</t>
   </si>
   <si>
     <t xml:space="preserve">Data Sufficiency Check</t>
@@ -1632,20 +1623,20 @@
         <v>44</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C16" s="10" t="n">
         <v>365</v>
@@ -1653,7 +1644,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C17" s="16" t="n">
         <v>43101</v>
@@ -1661,24 +1652,24 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="D18" s="0" t="s">
         <v>50</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="0" t="s">
         <v>52</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1692,34 +1683,34 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="10" t="s">
         <v>54</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="D24" s="0" t="s">
         <v>58</v>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C25" s="10" t="n">
         <v>0.03</v>
@@ -1737,29 +1728,29 @@
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="14"/>
       <c r="B28" s="0" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C28" s="17"/>
       <c r="D28" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="14"/>
       <c r="B29" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="10" t="s">
         <v>63</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="14"/>
       <c r="B30" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" s="10" t="s">
         <v>65</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1767,7 +1758,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C32" s="0"/>
       <c r="D32" s="18"/>
@@ -1775,29 +1766,29 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="0" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" s="0" t="s">
         <v>69</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D34" s="0" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" s="15" t="s">
         <v>71</v>
-      </c>
-      <c r="C35" s="15" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1805,7 +1796,7 @@
         <v>72</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1813,7 +1804,7 @@
         <v>73</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1831,7 +1822,7 @@
         <v>74</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D40" s="0" t="s">
         <v>75</v>
@@ -1842,7 +1833,7 @@
         <v>76</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D41" s="0" t="s">
         <v>75</v>
@@ -1853,7 +1844,7 @@
         <v>77</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1861,7 +1852,7 @@
         <v>78</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1879,7 +1870,7 @@
         <v>79</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1887,7 +1878,7 @@
         <v>80</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1895,7 +1886,7 @@
         <v>81</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1903,7 +1894,7 @@
         <v>82</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1920,7 +1911,7 @@
         <v>83</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1928,7 +1919,7 @@
         <v>84</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1936,7 +1927,7 @@
         <v>85</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1944,7 +1935,7 @@
         <v>86</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1965,8 +1956,8 @@
   </sheetPr>
   <dimension ref="A1:D67"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B63" activeCellId="0" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1994,7 +1985,7 @@
         <v>90</v>
       </c>
       <c r="B2" s="10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>91</v>
@@ -2016,7 +2007,7 @@
         <v>94</v>
       </c>
       <c r="B4" s="10" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C4" s="19" t="s">
         <v>95</v>
@@ -2443,7 +2434,7 @@
         <v>151</v>
       </c>
       <c r="B42" s="10" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="C42" s="19" t="s">
         <v>93</v>
@@ -2512,7 +2503,7 @@
         <v>159</v>
       </c>
       <c r="B48" s="10" t="n">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C48" s="19" t="s">
         <v>115</v>
@@ -2746,7 +2737,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+      <selection pane="topLeft" activeCell="D34" activeCellId="0" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3057,10 +3048,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3143,7 +3134,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>227</v>
@@ -3173,7 +3164,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="23" t="s">
         <v>217</v>
       </c>
@@ -3186,16 +3177,10 @@
       <c r="D15" s="24" t="s">
         <v>235</v>
       </c>
-      <c r="E15" s="24" t="s">
-        <v>236</v>
-      </c>
-      <c r="F15" s="24" t="s">
-        <v>237</v>
-      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="23" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B16" s="25" t="s">
         <v>43</v>
@@ -3205,12 +3190,6 @@
       </c>
       <c r="D16" s="25" t="s">
         <v>43</v>
-      </c>
-      <c r="E16" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="F16" s="25" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3218,124 +3197,88 @@
         <v>219</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="F17" s="25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>240</v>
+        <v>43</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>240</v>
-      </c>
-      <c r="E18" s="25" t="s">
-        <v>240</v>
-      </c>
-      <c r="F18" s="25" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="23" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>240</v>
+        <v>43</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>240</v>
-      </c>
-      <c r="E19" s="25" t="s">
-        <v>240</v>
-      </c>
-      <c r="F19" s="25" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="23" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>240</v>
-      </c>
-      <c r="E20" s="25" t="s">
-        <v>243</v>
-      </c>
-      <c r="F20" s="25" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="23" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="E21" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="F21" s="25" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="23" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>246</v>
-      </c>
-      <c r="E22" s="25" t="s">
-        <v>247</v>
-      </c>
-      <c r="F22" s="25" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="23" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B23" s="25" t="s">
         <v>167</v>
@@ -3346,16 +3289,10 @@
       <c r="D23" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="E23" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="F23" s="25" t="s">
-        <v>167</v>
-      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="23" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B24" s="25" t="s">
         <v>167</v>
@@ -3366,51 +3303,33 @@
       <c r="D24" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="E24" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="F24" s="25" t="s">
-        <v>167</v>
-      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="23" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B25" s="25" t="s">
         <v>167</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>45</v>
+        <v>167</v>
       </c>
       <c r="D25" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="E25" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="F25" s="25" t="s">
-        <v>167</v>
-      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B26" s="25" t="s">
         <v>43</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="E26" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="F26" s="25" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3418,39 +3337,27 @@
         <v>228</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>251</v>
-      </c>
-      <c r="E27" s="25" t="s">
-        <v>251</v>
-      </c>
-      <c r="F27" s="25" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="23" t="s">
         <v>230</v>
       </c>
-      <c r="B28" s="26" t="s">
-        <v>252</v>
+      <c r="B28" s="25" t="s">
+        <v>249</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>253</v>
-      </c>
-      <c r="E28" s="26" t="s">
-        <v>252</v>
-      </c>
-      <c r="F28" s="26" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3458,19 +3365,13 @@
         <v>232</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="E29" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="F29" s="25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -3507,7 +3408,7 @@
     <row r="1" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="27" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -3519,7 +3420,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -3542,10 +3443,10 @@
     <row r="5" customFormat="false" ht="68.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B5" s="28"/>
       <c r="C5" s="29" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -3559,7 +3460,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -3570,10 +3471,10 @@
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="1"/>
       <c r="C7" s="31" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -3593,16 +3494,16 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B10" s="32" t="s">
+        <v>258</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>259</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>260</v>
+      </c>
+      <c r="E10" s="32" t="s">
         <v>261</v>
-      </c>
-      <c r="C10" s="32" t="s">
-        <v>262</v>
-      </c>
-      <c r="D10" s="33" t="s">
-        <v>263</v>
-      </c>
-      <c r="E10" s="32" t="s">
-        <v>264</v>
       </c>
       <c r="F10" s="32"/>
       <c r="G10" s="32"/>
@@ -3697,7 +3598,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="35" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C14" s="26" t="str">
         <f aca="false">IF(D14&gt;=1, "OK", "missing!")</f>
@@ -3730,7 +3631,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C15" s="26" t="str">
         <f aca="false">IF(D15&gt;=1, "OK", "missing!")</f>
@@ -3763,7 +3664,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="35" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C16" s="26" t="str">
         <f aca="false">IF(D16&gt;=1, "OK", "missing!")</f>
@@ -3796,7 +3697,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="35" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C17" s="26" t="str">
         <f aca="false">IF(D17&gt;=1, "OK", "missing!")</f>
@@ -3829,7 +3730,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C18" s="26" t="str">
         <f aca="false">IF(D18&gt;=1, "OK", "missing!")</f>
@@ -3862,7 +3763,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C19" s="26" t="str">
         <f aca="false">IF(D19&gt;=1, "OK", "missing!")</f>
@@ -3895,7 +3796,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C20" s="26" t="str">
         <f aca="false">IF(D20&gt;=1, "OK", "missing!")</f>
@@ -3928,7 +3829,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C21" s="26" t="str">
         <f aca="false">IF(D21&gt;=1, "OK", "missing!")</f>
@@ -3961,7 +3862,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C22" s="26" t="str">
         <f aca="false">IF(D22&gt;=1, "OK", "missing!")</f>
@@ -3994,7 +3895,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C23" s="26" t="str">
         <f aca="false">IF(D23&gt;=1, "OK", "missing!")</f>
@@ -4027,7 +3928,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C24" s="26" t="str">
         <f aca="false">IF(D24&gt;=1, "OK", "missing!")</f>
@@ -4060,7 +3961,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C25" s="26" t="str">
         <f aca="false">IF(D25&gt;=1, "OK", "missing!")</f>
@@ -4093,7 +3994,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C26" s="26" t="str">
         <f aca="false">IF(D26&gt;=1, "OK", "missing!")</f>
@@ -4126,7 +4027,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="35" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C27" s="26" t="str">
         <f aca="false">IF(D27&gt;=1, "OK", "missing!")</f>
@@ -4159,7 +4060,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B28" s="35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C28" s="26" t="str">
         <f aca="false">IF(D28&gt;=1, "OK", "missing!")</f>
@@ -4192,7 +4093,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C29" s="26" t="str">
         <f aca="false">IF(D29&gt;=1, "OK", "missing!")</f>
@@ -4225,7 +4126,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="35" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C30" s="26" t="str">
         <f aca="false">IF(D30&gt;=1, "OK", "missing!")</f>
@@ -4258,7 +4159,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="35" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C31" s="26" t="str">
         <f aca="false">IF(D31&gt;=1, "OK", "missing!")</f>
@@ -4918,7 +4819,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="35" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C51" s="26" t="str">
         <f aca="false">IF(D51&gt;=1, "OK", "missing!")</f>
@@ -5578,7 +5479,7 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="35" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C71" s="26" t="str">
         <f aca="false">IF(D71&gt;=1, "OK", "missing!")</f>
@@ -7129,7 +7030,7 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B118" s="38" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C118" s="26" t="str">
         <f aca="false">IF(D118&gt;=1, "OK", "missing!")</f>
@@ -7171,7 +7072,7 @@
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B120" s="38" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C120" s="26" t="str">
         <f aca="false">IF(D120&gt;=1, "OK", "missing!")</f>
@@ -7192,7 +7093,7 @@
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B121" s="38" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C121" s="26" t="str">
         <f aca="false">IF(D121&gt;=1, "OK", "missing!")</f>
@@ -7213,7 +7114,7 @@
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B122" s="38" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C122" s="26" t="str">
         <f aca="false">IF(D122&gt;=1, "OK", "missing!")</f>
@@ -7234,7 +7135,7 @@
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B123" s="38" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C123" s="26" t="str">
         <f aca="false">IF(D123&gt;=1, "OK", "missing!")</f>
@@ -7255,7 +7156,7 @@
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B124" s="38" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C124" s="26" t="str">
         <f aca="false">IF(D124&gt;=1, "OK", "missing!")</f>
@@ -7276,7 +7177,7 @@
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B125" s="38" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C125" s="26" t="str">
         <f aca="false">IF(D125&gt;=1, "OK", "missing!")</f>
@@ -7297,7 +7198,7 @@
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B126" s="38" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C126" s="26" t="str">
         <f aca="false">IF(D126&gt;=1, "OK", "missing!")</f>
@@ -7318,7 +7219,7 @@
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B127" s="38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C127" s="26" t="str">
         <f aca="false">IF(D127&gt;=1, "OK", "missing!")</f>

--- a/inputs/input_template_excel.xlsx
+++ b/inputs/input_template_excel.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="245">
   <si>
     <t xml:space="preserve">Tool for optimizing and simulating off- and on-grid electrification solutions</t>
   </si>
@@ -367,27 +367,18 @@
     <t xml:space="preserve">/kW</t>
   </si>
   <si>
-    <t xml:space="preserve">using capex of eu islands input parameters</t>
-  </si>
-  <si>
     <t xml:space="preserve">genset_cost_opex</t>
   </si>
   <si>
     <t xml:space="preserve">/kW/a</t>
   </si>
   <si>
-    <t xml:space="preserve">per kW/a, not operating hours</t>
-  </si>
-  <si>
     <t xml:space="preserve">genset_cost_var</t>
   </si>
   <si>
     <t xml:space="preserve">genset_efficiency</t>
   </si>
   <si>
-    <t xml:space="preserve">not info from sheet</t>
-  </si>
-  <si>
     <t xml:space="preserve">genset_lifetime</t>
   </si>
   <si>
@@ -457,12 +448,6 @@
     <t xml:space="preserve">/l</t>
   </si>
   <si>
-    <t xml:space="preserve">We show prices for Philippines from 15-Oct-2018 to 21-Jan-2019. The average value for Philippines during that period was 0.89 Euro with a minimum of 0.77 Euro on 07-Jan-2019 and a maximum of 1.02 Euro on 15-Oct-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.globalpetrolprices.com/Philippines/gasoline_prices/</t>
-  </si>
-  <si>
     <t xml:space="preserve">project_cost_fix</t>
   </si>
   <si>
@@ -649,13 +634,13 @@
     <t xml:space="preserve">based_on_case</t>
   </si>
   <si>
-    <t xml:space="preserve">string from list case_name</t>
+    <t xml:space="preserve">True or False</t>
   </si>
   <si>
     <t xml:space="preserve">pv_fixed_capacity</t>
   </si>
   <si>
-    <t xml:space="preserve">False, Value, None</t>
+    <t xml:space="preserve">oem, string (name of base capacity case), None</t>
   </si>
   <si>
     <t xml:space="preserve">storage_fixed_capacity</t>
@@ -685,48 +670,15 @@
     <t xml:space="preserve">renewable_constraint</t>
   </si>
   <si>
-    <t xml:space="preserve">min_renewable share</t>
-  </si>
-  <si>
     <t xml:space="preserve">base_oem</t>
   </si>
   <si>
-    <t xml:space="preserve">base_oem_2Gen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">base_oem_no_stability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">offgrid_fixed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">base_oem_min_loading_1Gen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">base_oem_min_loading_2Gen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">base_oem_min_loading_2Gen_no_stability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">base_oem_min_loading_3Gen_no_stability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">interconnected_buy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">interconnected_buysell</t>
+    <t xml:space="preserve">base_oem_min_loading_3Gen</t>
   </si>
   <si>
     <t xml:space="preserve">oem_grid_tied_mg</t>
   </si>
   <si>
-    <t xml:space="preserve">sole_maingrid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shs_maingrid</t>
-  </si>
-  <si>
     <t xml:space="preserve">perform_simulation</t>
   </si>
   <si>
@@ -752,9 +704,6 @@
   </si>
   <si>
     <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
   </si>
   <si>
     <t xml:space="preserve">3</t>
@@ -910,6 +859,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFCCFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF72BF44"/>
         <bgColor rgb="FF999999"/>
       </patternFill>
@@ -924,12 +879,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFB2B2B2"/>
         <bgColor rgb="FF999999"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFCCFFCC"/>
       </patternFill>
     </fill>
     <fill>
@@ -980,7 +929,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1069,19 +1018,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1093,7 +1046,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1101,23 +1054,23 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1129,7 +1082,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1228,9 +1181,10 @@
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="3" min="1" style="0" width="1.08163265306122"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="34.0204081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="31.8571428571429"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="1.08163265306122"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1440,15 +1394,16 @@
   </sheetPr>
   <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C39" activeCellId="0" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.10714285714286"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.3520408163265"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="10" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.8673469387755"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="10" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1754,7 +1709,7 @@
         <v>73</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1762,7 +1717,7 @@
         <v>74</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1912,18 +1867,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E67"/>
+  <dimension ref="A1:D67"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3877551020408"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.0765306122449"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="10" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="1023" min="4" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="7.4234693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2068,27 +2024,21 @@
       <c r="C13" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D13" s="0" t="s">
-        <v>113</v>
-      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="B14" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="19" t="s">
         <v>114</v>
-      </c>
-      <c r="B14" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B15" s="10" t="n">
         <v>0</v>
@@ -2099,7 +2049,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B16" s="10" t="n">
         <v>0.33</v>
@@ -2107,13 +2057,10 @@
       <c r="C16" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="D16" s="0" t="s">
-        <v>119</v>
-      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B17" s="10" t="n">
         <v>20</v>
@@ -2124,7 +2071,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B18" s="10" t="n">
         <v>1</v>
@@ -2135,7 +2082,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B19" s="10" t="n">
         <v>0.3</v>
@@ -2146,18 +2093,18 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B20" s="10" t="n">
         <v>0</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B21" s="10" t="n">
         <v>0.15</v>
@@ -2168,40 +2115,40 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B22" s="10" t="n">
         <v>0</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B23" s="10" t="n">
         <v>0</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B24" s="10" t="n">
         <v>20</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B25" s="10" t="n">
         <v>0</v>
@@ -2212,7 +2159,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B26" s="10" t="n">
         <v>0</v>
@@ -2223,7 +2170,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B27" s="10" t="n">
         <v>0.05</v>
@@ -2234,7 +2181,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B28" s="10" t="n">
         <v>0</v>
@@ -2245,7 +2192,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B29" s="10" t="n">
         <v>1</v>
@@ -2256,7 +2203,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B30" s="10" t="n">
         <v>0</v>
@@ -2267,18 +2214,18 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B31" s="10" t="n">
         <v>0</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B32" s="10" t="n">
         <v>0</v>
@@ -2289,7 +2236,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B33" s="10" t="n">
         <v>0.95</v>
@@ -2300,7 +2247,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B34" s="10" t="n">
         <v>20</v>
@@ -2311,24 +2258,18 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B35" s="10" t="n">
         <v>0.89</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="D35" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="E35" s="0" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B36" s="10" t="n">
         <v>0</v>
@@ -2339,7 +2280,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B37" s="10" t="n">
         <v>0</v>
@@ -2350,7 +2291,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B38" s="10" t="n">
         <v>20</v>
@@ -2361,40 +2302,40 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B39" s="10" t="n">
         <v>0.5</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B40" s="10" t="n">
         <v>1000</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B41" s="10" t="n">
         <v>0</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B42" s="10" t="n">
         <v>0</v>
@@ -2405,7 +2346,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B43" s="10" t="n">
         <v>20</v>
@@ -2416,7 +2357,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B44" s="10" t="n">
         <v>0.4</v>
@@ -2427,18 +2368,18 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B45" s="10" t="n">
         <v>10</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B46" s="10" t="n">
         <v>1</v>
@@ -2449,7 +2390,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B47" s="10" t="n">
         <v>0.2</v>
@@ -2458,12 +2399,12 @@
         <v>94</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B48" s="10" t="n">
         <v>602</v>
@@ -2474,18 +2415,18 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B49" s="10" t="n">
         <v>0</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B50" s="10" t="n">
         <v>0</v>
@@ -2496,7 +2437,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B51" s="10" t="n">
         <v>1</v>
@@ -2507,7 +2448,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B52" s="20" t="n">
         <v>1</v>
@@ -2518,7 +2459,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B53" s="10" t="n">
         <v>0.9</v>
@@ -2529,18 +2470,18 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C54" s="19" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B55" s="10" t="n">
         <v>15</v>
@@ -2551,7 +2492,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B56" s="10" t="n">
         <v>0</v>
@@ -2562,7 +2503,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B57" s="10" t="n">
         <v>1</v>
@@ -2573,7 +2514,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B58" s="10" t="n">
         <v>0</v>
@@ -2584,7 +2525,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B59" s="10" t="n">
         <v>0.09</v>
@@ -2595,7 +2536,7 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B60" s="10" t="n">
         <v>0</v>
@@ -2606,7 +2547,7 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B61" s="10" t="n">
         <v>0</v>
@@ -2617,7 +2558,7 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B62" s="10" t="n">
         <v>0</v>
@@ -2628,7 +2569,7 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B63" s="10" t="n">
         <v>0.5</v>
@@ -2639,7 +2580,7 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B64" s="10" t="n">
         <v>1100</v>
@@ -2650,18 +2591,18 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B65" s="10" t="n">
         <v>0</v>
       </c>
       <c r="C65" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B66" s="10" t="n">
         <v>0</v>
@@ -2672,7 +2613,7 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B67" s="10" t="n">
         <v>20</v>
@@ -2700,28 +2641,31 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>88</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -2752,15 +2696,17 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="17" min="3" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2769,65 +2715,65 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="F2" s="0" t="s">
         <v>188</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>189</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>191</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>193</v>
       </c>
       <c r="H2" s="10"/>
       <c r="I2" s="19"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="19" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="G3" s="10"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="19" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>201</v>
-      </c>
       <c r="F4" s="0" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -2846,16 +2792,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N30"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I29" activeCellId="0" sqref="I29"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.3112244897959"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.0204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2865,66 +2811,66 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="21" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2932,699 +2878,241 @@
         <v>46</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="131.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="B13" s="0" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="B18" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="B14" s="0" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="185.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="B16" s="23" t="s">
+      <c r="C18" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="22" t="s">
         <v>220</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="B19" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="22" t="s">
         <v>221</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="B20" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="C20" s="24" t="s">
         <v>222</v>
       </c>
-      <c r="E16" s="23" t="s">
+      <c r="D20" s="24" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="22" t="s">
         <v>223</v>
       </c>
-      <c r="F16" s="23" t="s">
+      <c r="B21" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="22" t="s">
         <v>224</v>
       </c>
-      <c r="G16" s="23" t="s">
+      <c r="B22" s="24" t="s">
         <v>225</v>
       </c>
-      <c r="H16" s="23" t="s">
+      <c r="C22" s="24" t="s">
         <v>226</v>
       </c>
-      <c r="I16" s="23" t="s">
+      <c r="D22" s="24" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="22" t="s">
         <v>227</v>
       </c>
-      <c r="J16" s="23" t="s">
+      <c r="B23" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="22" t="s">
         <v>228</v>
       </c>
-      <c r="K16" s="23" t="s">
+      <c r="B24" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="22" t="s">
         <v>229</v>
       </c>
-      <c r="L16" s="23" t="s">
+      <c r="B25" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="B27" s="24" t="s">
         <v>230</v>
       </c>
-      <c r="M16" s="23" t="s">
-        <v>231</v>
-      </c>
-      <c r="N16" s="23" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="24" t="s">
-        <v>233</v>
-      </c>
-      <c r="B17" s="25" t="s">
+      <c r="C27" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="B28" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" s="25" t="s">
+      <c r="C28" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="G17" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="H17" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="I17" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="J17" s="25" t="s">
+      <c r="D28" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="K17" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="L17" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="M17" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="N17" s="25" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="E18" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="F18" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="G18" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="H18" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="I18" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="J18" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="K18" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="L18" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="M18" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="N18" s="25" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="24" t="s">
-        <v>234</v>
-      </c>
-      <c r="B19" s="25" t="s">
-        <v>235</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>235</v>
-      </c>
-      <c r="D19" s="25" t="s">
-        <v>235</v>
-      </c>
-      <c r="E19" s="25" t="s">
-        <v>220</v>
-      </c>
-      <c r="F19" s="25" t="s">
-        <v>235</v>
-      </c>
-      <c r="G19" s="25" t="s">
-        <v>235</v>
-      </c>
-      <c r="H19" s="25" t="s">
-        <v>235</v>
-      </c>
-      <c r="I19" s="25" t="s">
-        <v>235</v>
-      </c>
-      <c r="J19" s="25" t="s">
-        <v>220</v>
-      </c>
-      <c r="K19" s="25" t="s">
-        <v>220</v>
-      </c>
-      <c r="L19" s="25" t="s">
-        <v>235</v>
-      </c>
-      <c r="M19" s="25" t="s">
-        <v>170</v>
-      </c>
-      <c r="N19" s="25" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="24" t="s">
-        <v>236</v>
-      </c>
-      <c r="B20" s="25" t="s">
-        <v>235</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>235</v>
-      </c>
-      <c r="D20" s="25" t="s">
-        <v>235</v>
-      </c>
-      <c r="E20" s="25" t="s">
-        <v>220</v>
-      </c>
-      <c r="F20" s="25" t="s">
-        <v>235</v>
-      </c>
-      <c r="G20" s="25" t="s">
-        <v>235</v>
-      </c>
-      <c r="H20" s="25" t="s">
-        <v>235</v>
-      </c>
-      <c r="I20" s="25" t="s">
-        <v>235</v>
-      </c>
-      <c r="J20" s="25" t="s">
-        <v>220</v>
-      </c>
-      <c r="K20" s="25" t="s">
-        <v>220</v>
-      </c>
-      <c r="L20" s="25" t="s">
-        <v>235</v>
-      </c>
-      <c r="M20" s="25" t="s">
-        <v>170</v>
-      </c>
-      <c r="N20" s="25" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="24" t="s">
-        <v>237</v>
-      </c>
-      <c r="B21" s="25" t="s">
-        <v>235</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>235</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>235</v>
-      </c>
-      <c r="E21" s="25" t="s">
-        <v>220</v>
-      </c>
-      <c r="F21" s="25" t="s">
-        <v>238</v>
-      </c>
-      <c r="G21" s="25" t="s">
-        <v>238</v>
-      </c>
-      <c r="H21" s="25" t="s">
-        <v>238</v>
-      </c>
-      <c r="I21" s="25" t="s">
-        <v>238</v>
-      </c>
-      <c r="J21" s="25" t="s">
-        <v>220</v>
-      </c>
-      <c r="K21" s="25" t="s">
-        <v>220</v>
-      </c>
-      <c r="L21" s="25" t="s">
-        <v>235</v>
-      </c>
-      <c r="M21" s="25" t="s">
-        <v>170</v>
-      </c>
-      <c r="N21" s="25" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="24" t="s">
-        <v>239</v>
-      </c>
-      <c r="B22" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="E22" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="F22" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="G22" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="H22" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="I22" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="J22" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="K22" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="L22" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="M22" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="N22" s="25" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="24" t="s">
-        <v>240</v>
-      </c>
-      <c r="B23" s="25" t="s">
-        <v>241</v>
-      </c>
-      <c r="C23" s="25" t="s">
-        <v>242</v>
-      </c>
-      <c r="D23" s="25" t="s">
-        <v>241</v>
-      </c>
-      <c r="E23" s="25" t="s">
-        <v>241</v>
-      </c>
-      <c r="F23" s="25" t="s">
-        <v>241</v>
-      </c>
-      <c r="G23" s="25" t="s">
-        <v>242</v>
-      </c>
-      <c r="H23" s="25" t="s">
-        <v>242</v>
-      </c>
-      <c r="I23" s="25" t="s">
-        <v>243</v>
-      </c>
-      <c r="J23" s="25" t="s">
-        <v>242</v>
-      </c>
-      <c r="K23" s="25" t="s">
-        <v>242</v>
-      </c>
-      <c r="L23" s="25" t="s">
-        <v>241</v>
-      </c>
-      <c r="M23" s="25" t="s">
-        <v>241</v>
-      </c>
-      <c r="N23" s="25" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="24" t="s">
-        <v>244</v>
-      </c>
-      <c r="B24" s="25" t="s">
-        <v>170</v>
-      </c>
-      <c r="C24" s="25" t="s">
-        <v>170</v>
-      </c>
-      <c r="D24" s="25" t="s">
-        <v>170</v>
-      </c>
-      <c r="E24" s="25" t="s">
-        <v>170</v>
-      </c>
-      <c r="F24" s="25" t="s">
-        <v>170</v>
-      </c>
-      <c r="G24" s="25" t="s">
-        <v>170</v>
-      </c>
-      <c r="H24" s="25" t="s">
-        <v>170</v>
-      </c>
-      <c r="I24" s="25" t="s">
-        <v>170</v>
-      </c>
-      <c r="J24" s="25" t="s">
-        <v>238</v>
-      </c>
-      <c r="K24" s="25" t="s">
-        <v>238</v>
-      </c>
-      <c r="L24" s="25" t="s">
-        <v>238</v>
-      </c>
-      <c r="M24" s="25" t="s">
-        <v>238</v>
-      </c>
-      <c r="N24" s="25" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="24" t="s">
-        <v>245</v>
-      </c>
-      <c r="B25" s="25" t="s">
-        <v>170</v>
-      </c>
-      <c r="C25" s="25" t="s">
-        <v>170</v>
-      </c>
-      <c r="D25" s="25" t="s">
-        <v>170</v>
-      </c>
-      <c r="E25" s="25" t="s">
-        <v>170</v>
-      </c>
-      <c r="F25" s="25" t="s">
-        <v>170</v>
-      </c>
-      <c r="G25" s="25" t="s">
-        <v>170</v>
-      </c>
-      <c r="H25" s="25" t="s">
-        <v>170</v>
-      </c>
-      <c r="I25" s="25" t="s">
-        <v>170</v>
-      </c>
-      <c r="J25" s="25" t="s">
-        <v>170</v>
-      </c>
-      <c r="K25" s="25" t="s">
-        <v>238</v>
-      </c>
-      <c r="L25" s="25" t="s">
-        <v>238</v>
-      </c>
-      <c r="M25" s="25" t="s">
-        <v>170</v>
-      </c>
-      <c r="N25" s="25" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="24" t="s">
-        <v>246</v>
-      </c>
-      <c r="B26" s="25" t="s">
-        <v>235</v>
-      </c>
-      <c r="C26" s="25" t="s">
-        <v>235</v>
-      </c>
-      <c r="D26" s="25" t="s">
-        <v>235</v>
-      </c>
-      <c r="E26" s="25" t="s">
-        <v>220</v>
-      </c>
-      <c r="F26" s="25" t="s">
-        <v>235</v>
-      </c>
-      <c r="G26" s="25" t="s">
-        <v>235</v>
-      </c>
-      <c r="H26" s="25" t="s">
-        <v>235</v>
-      </c>
-      <c r="I26" s="25" t="s">
-        <v>235</v>
-      </c>
-      <c r="J26" s="25" t="s">
-        <v>220</v>
-      </c>
-      <c r="K26" s="25" t="s">
-        <v>220</v>
-      </c>
-      <c r="L26" s="25" t="s">
-        <v>235</v>
-      </c>
-      <c r="M26" s="25" t="s">
-        <v>170</v>
-      </c>
-      <c r="N26" s="25" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="B27" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="C27" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="D27" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="E27" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="F27" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="G27" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="H27" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="I27" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="J27" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="K27" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="L27" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="M27" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="N27" s="25" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="24" t="s">
-        <v>215</v>
-      </c>
-      <c r="B28" s="25" t="s">
-        <v>247</v>
-      </c>
-      <c r="C28" s="25" t="s">
-        <v>247</v>
-      </c>
-      <c r="D28" s="25" t="s">
-        <v>247</v>
-      </c>
-      <c r="E28" s="25" t="s">
-        <v>247</v>
-      </c>
-      <c r="F28" s="25" t="s">
-        <v>247</v>
-      </c>
-      <c r="G28" s="25" t="s">
-        <v>247</v>
-      </c>
-      <c r="H28" s="25" t="s">
-        <v>247</v>
-      </c>
-      <c r="I28" s="25" t="s">
-        <v>247</v>
-      </c>
-      <c r="J28" s="25" t="s">
-        <v>247</v>
-      </c>
-      <c r="K28" s="25" t="s">
-        <v>247</v>
-      </c>
-      <c r="L28" s="25" t="s">
-        <v>247</v>
-      </c>
-      <c r="M28" s="24" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="N28" s="24" t="s">
-        <v>247</v>
-      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="24" t="s">
-        <v>217</v>
+      <c r="A29" s="22" t="s">
+        <v>213</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>43</v>
+        <v>230</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="D29" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="E29" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="F29" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="G29" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="H29" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="I29" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="J29" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="K29" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="L29" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="M29" s="25" t="s">
-        <v>247</v>
-      </c>
-      <c r="N29" s="25" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="B30" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C30" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="D30" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="E30" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="F30" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="G30" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="H30" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="I30" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="J30" s="24" t="s">
-        <v>247</v>
-      </c>
-      <c r="K30" s="24" t="s">
-        <v>247</v>
-      </c>
-      <c r="L30" s="24" t="s">
-        <v>247</v>
-      </c>
-      <c r="M30" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="N30" s="25" t="s">
-        <v>45</v>
+        <v>230</v>
+      </c>
+      <c r="D29" s="26" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -3646,20 +3134,22 @@
   <dimension ref="B1:I130"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
+      <selection pane="topLeft" activeCell="E31" activeCellId="0" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="1.08163265306122"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.4897959183673"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.0051020408163"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.50510204081633"/>
     <col collapsed="false" hidden="false" max="9" min="5" style="0" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="26" t="s">
-        <v>248</v>
+      <c r="B2" s="27" t="s">
+        <v>231</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -3671,7 +3161,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="1" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -3692,12 +3182,12 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="68.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B5" s="27"/>
-      <c r="C5" s="28" t="s">
-        <v>250</v>
+      <c r="B5" s="28"/>
+      <c r="C5" s="29" t="s">
+        <v>233</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -3707,11 +3197,11 @@
     </row>
     <row r="6" customFormat="false" ht="35.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="1"/>
-      <c r="C6" s="29" t="n">
+      <c r="C6" s="30" t="n">
         <v>2</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -3721,11 +3211,11 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="1"/>
-      <c r="C7" s="30" t="s">
-        <v>253</v>
+      <c r="C7" s="31" t="s">
+        <v>236</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -3744,3860 +3234,3860 @@
       <c r="I8" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="31" t="s">
-        <v>255</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>256</v>
-      </c>
-      <c r="D10" s="32" t="s">
-        <v>257</v>
-      </c>
-      <c r="E10" s="31" t="s">
-        <v>258</v>
-      </c>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
+      <c r="B10" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>239</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="E10" s="32" t="s">
+        <v>241</v>
+      </c>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
     </row>
     <row r="11" customFormat="false" ht="71.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="33" t="s">
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="33" t="s">
+      <c r="F11" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="33" t="s">
+      <c r="G11" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="33" t="s">
+      <c r="H11" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="I11" s="33" t="s">
+      <c r="I11" s="34" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="24" t="str">
+      <c r="C12" s="26" t="str">
         <f aca="false">IF(D12&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D12" s="35" t="n">
+      <c r="D12" s="36" t="n">
         <f aca="false">SUM(E12:I12)</f>
         <v>1</v>
       </c>
-      <c r="E12" s="36" t="n">
+      <c r="E12" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B12,settings!B:B, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="F12" s="36" t="n">
+      <c r="F12" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B12, input_constant!A:A, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G12" s="36" t="n">
+      <c r="G12" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B12, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H12" s="36" t="n">
+      <c r="H12" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B12,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I12" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B12, case_definitions!A$17:A$30,1, 0)), 0)</f>
+      <c r="I12" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B12, case_definitions!A$16:A$28,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="24" t="str">
+      <c r="C13" s="26" t="str">
         <f aca="false">IF(D13&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D13" s="35" t="n">
+      <c r="D13" s="36" t="n">
         <f aca="false">SUM(E13:I13)</f>
         <v>1</v>
       </c>
-      <c r="E13" s="36" t="n">
+      <c r="E13" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B13,settings!B:B, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="F13" s="36" t="n">
+      <c r="F13" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B13, input_constant!A:A, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G13" s="36" t="n">
+      <c r="G13" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B13, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H13" s="36" t="n">
+      <c r="H13" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B13,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B13, case_definitions!A$17:A$30,1, 0)), 0)</f>
+      <c r="I13" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B13, case_definitions!A$16:A$28,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="34" t="s">
-        <v>259</v>
-      </c>
-      <c r="C14" s="24" t="str">
+      <c r="B14" s="35" t="s">
+        <v>242</v>
+      </c>
+      <c r="C14" s="26" t="str">
         <f aca="false">IF(D14&gt;=1, "OK", "missing!")</f>
         <v>missing!</v>
       </c>
-      <c r="D14" s="35" t="n">
+      <c r="D14" s="36" t="n">
         <f aca="false">SUM(E14:I14)</f>
         <v>0</v>
       </c>
-      <c r="E14" s="36" t="n">
+      <c r="E14" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B14,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F14" s="36" t="n">
+      <c r="F14" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B14, input_constant!A:A, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G14" s="36" t="n">
+      <c r="G14" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B14, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H14" s="36" t="n">
+      <c r="H14" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B14,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I14" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B14, case_definitions!A$17:A$30,1, 0)), 0)</f>
+      <c r="I14" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B14, case_definitions!A$16:A$28,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="24" t="str">
+      <c r="C15" s="26" t="str">
         <f aca="false">IF(D15&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D15" s="35" t="n">
+      <c r="D15" s="36" t="n">
         <f aca="false">SUM(E15:I15)</f>
         <v>2</v>
       </c>
-      <c r="E15" s="36" t="n">
+      <c r="E15" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B15,settings!B:B, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="F15" s="36" t="n">
+      <c r="F15" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B15, input_constant!A:A, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G15" s="36" t="n">
+      <c r="G15" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B15, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H15" s="36" t="n">
+      <c r="H15" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B15,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I15" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B15, case_definitions!A$17:A$30,1, 0)), 0)</f>
+      <c r="I15" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B15, case_definitions!A$16:A$28,1, 0)), 0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="24" t="str">
+      <c r="C16" s="26" t="str">
         <f aca="false">IF(D16&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D16" s="35" t="n">
+      <c r="D16" s="36" t="n">
         <f aca="false">SUM(E16:I16)</f>
         <v>1</v>
       </c>
-      <c r="E16" s="36" t="n">
+      <c r="E16" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B16,settings!B:B, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="F16" s="36" t="n">
+      <c r="F16" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B16, input_constant!A:A, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G16" s="36" t="n">
+      <c r="G16" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B16, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H16" s="36" t="n">
+      <c r="H16" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B16,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I16" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B16, case_definitions!A$17:A$30,1, 0)), 0)</f>
+      <c r="I16" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B16, case_definitions!A$16:A$28,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="34" t="s">
-        <v>260</v>
-      </c>
-      <c r="C17" s="24" t="str">
+      <c r="B17" s="35" t="s">
+        <v>243</v>
+      </c>
+      <c r="C17" s="26" t="str">
         <f aca="false">IF(D17&gt;=1, "OK", "missing!")</f>
         <v>missing!</v>
       </c>
-      <c r="D17" s="35" t="n">
+      <c r="D17" s="36" t="n">
         <f aca="false">SUM(E17:I17)</f>
         <v>0</v>
       </c>
-      <c r="E17" s="36" t="n">
+      <c r="E17" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B17,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F17" s="36" t="n">
+      <c r="F17" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B17, input_constant!A:A, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="36" t="n">
+      <c r="G17" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B17, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H17" s="36" t="n">
+      <c r="H17" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B17,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I17" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B17, case_definitions!A$17:A$30,1, 0)), 0)</f>
+      <c r="I17" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B17, case_definitions!A$16:A$28,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="24" t="str">
+      <c r="C18" s="26" t="str">
         <f aca="false">IF(D18&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D18" s="35" t="n">
+      <c r="D18" s="36" t="n">
         <f aca="false">SUM(E18:I18)</f>
         <v>1</v>
       </c>
-      <c r="E18" s="36" t="n">
+      <c r="E18" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B18,settings!B:B, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="F18" s="36" t="n">
+      <c r="F18" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B18, input_constant!A:A, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G18" s="36" t="n">
+      <c r="G18" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B18, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H18" s="36" t="n">
+      <c r="H18" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B18,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I18" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B18, case_definitions!A$17:A$30,1, 0)), 0)</f>
+      <c r="I18" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B18, case_definitions!A$16:A$28,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="24" t="str">
+      <c r="C19" s="26" t="str">
         <f aca="false">IF(D19&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D19" s="35" t="n">
+      <c r="D19" s="36" t="n">
         <f aca="false">SUM(E19:I19)</f>
         <v>1</v>
       </c>
-      <c r="E19" s="36" t="n">
+      <c r="E19" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B19,settings!B:B, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="F19" s="36" t="n">
+      <c r="F19" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B19, input_constant!A:A, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G19" s="36" t="n">
+      <c r="G19" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B19, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H19" s="36" t="n">
+      <c r="H19" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B19,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I19" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B19, case_definitions!A$17:A$30,1, 0)), 0)</f>
+      <c r="I19" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B19, case_definitions!A$16:A$28,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="24" t="str">
+      <c r="C20" s="26" t="str">
         <f aca="false">IF(D20&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D20" s="35" t="n">
+      <c r="D20" s="36" t="n">
         <f aca="false">SUM(E20:I20)</f>
         <v>1</v>
       </c>
-      <c r="E20" s="36" t="n">
+      <c r="E20" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B20,settings!B:B, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="F20" s="36" t="n">
+      <c r="F20" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B20, input_constant!A:A, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G20" s="36" t="n">
+      <c r="G20" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B20, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H20" s="36" t="n">
+      <c r="H20" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B20,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I20" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B20, case_definitions!A$17:A$30,1, 0)), 0)</f>
+      <c r="I20" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B20, case_definitions!A$16:A$28,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="24" t="str">
+      <c r="C21" s="26" t="str">
         <f aca="false">IF(D21&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D21" s="35" t="n">
+      <c r="D21" s="36" t="n">
         <f aca="false">SUM(E21:I21)</f>
         <v>1</v>
       </c>
-      <c r="E21" s="36" t="n">
+      <c r="E21" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B21,settings!B:B, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="F21" s="36" t="n">
+      <c r="F21" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B21, input_constant!A:A, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G21" s="36" t="n">
+      <c r="G21" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B21, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H21" s="36" t="n">
+      <c r="H21" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B21,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I21" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B21, case_definitions!A$17:A$30,1, 0)), 0)</f>
+      <c r="I21" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B21, case_definitions!A$16:A$28,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="24" t="str">
+      <c r="C22" s="26" t="str">
         <f aca="false">IF(D22&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D22" s="35" t="n">
+      <c r="D22" s="36" t="n">
         <f aca="false">SUM(E22:I22)</f>
         <v>1</v>
       </c>
-      <c r="E22" s="36" t="n">
+      <c r="E22" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B22,settings!B:B, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="F22" s="36" t="n">
+      <c r="F22" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B22, input_constant!A:A, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G22" s="36" t="n">
+      <c r="G22" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B22, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H22" s="36" t="n">
+      <c r="H22" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B22,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I22" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B22, case_definitions!A$17:A$30,1, 0)), 0)</f>
+      <c r="I22" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B22, case_definitions!A$16:A$28,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="24" t="str">
+      <c r="C23" s="26" t="str">
         <f aca="false">IF(D23&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D23" s="35" t="n">
+      <c r="D23" s="36" t="n">
         <f aca="false">SUM(E23:I23)</f>
         <v>1</v>
       </c>
-      <c r="E23" s="36" t="n">
+      <c r="E23" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B23,settings!B:B, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="F23" s="36" t="n">
+      <c r="F23" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B23, input_constant!A:A, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G23" s="36" t="n">
+      <c r="G23" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B23, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H23" s="36" t="n">
+      <c r="H23" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B23,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I23" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B23, case_definitions!A$17:A$30,1, 0)), 0)</f>
+      <c r="I23" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B23, case_definitions!A$16:A$28,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="24" t="str">
+      <c r="C24" s="26" t="str">
         <f aca="false">IF(D24&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D24" s="35" t="n">
+      <c r="D24" s="36" t="n">
         <f aca="false">SUM(E24:I24)</f>
         <v>1</v>
       </c>
-      <c r="E24" s="36" t="n">
+      <c r="E24" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B24,settings!B:B, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="F24" s="36" t="n">
+      <c r="F24" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B24, input_constant!A:A, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G24" s="36" t="n">
+      <c r="G24" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B24, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H24" s="36" t="n">
+      <c r="H24" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B24,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I24" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B24, case_definitions!A$17:A$30,1, 0)), 0)</f>
+      <c r="I24" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B24, case_definitions!A$16:A$28,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="34" t="s">
+      <c r="B25" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="C25" s="24" t="str">
+      <c r="C25" s="26" t="str">
         <f aca="false">IF(D25&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D25" s="35" t="n">
+      <c r="D25" s="36" t="n">
         <f aca="false">SUM(E25:I25)</f>
         <v>1</v>
       </c>
-      <c r="E25" s="36" t="n">
+      <c r="E25" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B25,settings!B:B, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="F25" s="36" t="n">
+      <c r="F25" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B25, input_constant!A:A, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G25" s="36" t="n">
+      <c r="G25" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B25, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H25" s="36" t="n">
+      <c r="H25" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B25,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I25" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B25, case_definitions!A$17:A$30,1, 0)), 0)</f>
+      <c r="I25" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B25, case_definitions!A$16:A$28,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="34" t="s">
+      <c r="B26" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="24" t="str">
+      <c r="C26" s="26" t="str">
         <f aca="false">IF(D26&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D26" s="35" t="n">
+      <c r="D26" s="36" t="n">
         <f aca="false">SUM(E26:I26)</f>
         <v>1</v>
       </c>
-      <c r="E26" s="36" t="n">
+      <c r="E26" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B26,settings!B:B, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="F26" s="36" t="n">
+      <c r="F26" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B26, input_constant!A:A, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G26" s="36" t="n">
+      <c r="G26" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B26, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H26" s="36" t="n">
+      <c r="H26" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B26,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I26" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B26, case_definitions!A$17:A$30,1, 0)), 0)</f>
+      <c r="I26" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B26, case_definitions!A$16:A$28,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="34" t="s">
+      <c r="B27" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="C27" s="24" t="str">
+      <c r="C27" s="26" t="str">
         <f aca="false">IF(D27&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D27" s="35" t="n">
+      <c r="D27" s="36" t="n">
         <f aca="false">SUM(E27:I27)</f>
         <v>1</v>
       </c>
-      <c r="E27" s="36" t="n">
+      <c r="E27" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B27,settings!B:B, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="F27" s="36" t="n">
+      <c r="F27" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B27, input_constant!A:A, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G27" s="36" t="n">
+      <c r="G27" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B27, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H27" s="36" t="n">
+      <c r="H27" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B27,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I27" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B27, case_definitions!A$17:A$30,1, 0)), 0)</f>
+      <c r="I27" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B27, case_definitions!A$16:A$28,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B28" s="34" t="s">
+      <c r="B28" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="C28" s="24" t="str">
+      <c r="C28" s="26" t="str">
         <f aca="false">IF(D28&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D28" s="35" t="n">
+      <c r="D28" s="36" t="n">
         <f aca="false">SUM(E28:I28)</f>
         <v>1</v>
       </c>
-      <c r="E28" s="36" t="n">
+      <c r="E28" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B28,settings!B:B, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="F28" s="36" t="n">
+      <c r="F28" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B28, input_constant!A:A, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G28" s="36" t="n">
+      <c r="G28" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B28, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H28" s="36" t="n">
+      <c r="H28" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B28,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I28" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B28, case_definitions!A$17:A$30,1, 0)), 0)</f>
+      <c r="I28" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B28, case_definitions!A$16:A$28,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="34" t="s">
+      <c r="B29" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="C29" s="24" t="str">
+      <c r="C29" s="26" t="str">
         <f aca="false">IF(D29&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D29" s="35" t="n">
+      <c r="D29" s="36" t="n">
         <f aca="false">SUM(E29:I29)</f>
         <v>1</v>
       </c>
-      <c r="E29" s="36" t="n">
+      <c r="E29" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B29,settings!B:B, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="F29" s="36" t="n">
+      <c r="F29" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B29, input_constant!A:A, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G29" s="36" t="n">
+      <c r="G29" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B29, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H29" s="36" t="n">
+      <c r="H29" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B29,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I29" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B29, case_definitions!A$17:A$30,1, 0)), 0)</f>
+      <c r="I29" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B29, case_definitions!A$16:A$28,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="34" t="s">
-        <v>261</v>
-      </c>
-      <c r="C30" s="24" t="str">
+      <c r="B30" s="35" t="s">
+        <v>244</v>
+      </c>
+      <c r="C30" s="26" t="str">
         <f aca="false">IF(D30&gt;=1, "OK", "missing!")</f>
         <v>missing!</v>
       </c>
-      <c r="D30" s="35" t="n">
+      <c r="D30" s="36" t="n">
         <f aca="false">SUM(E30:I30)</f>
         <v>0</v>
       </c>
-      <c r="E30" s="36" t="n">
+      <c r="E30" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B30,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F30" s="36" t="n">
+      <c r="F30" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B30, input_constant!A:A, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G30" s="36" t="n">
+      <c r="G30" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B30, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H30" s="36" t="n">
+      <c r="H30" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B30,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I30" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B30, case_definitions!A$17:A$30,1, 0)), 0)</f>
+      <c r="I30" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B30, case_definitions!A$16:A$28,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="34" t="s">
+      <c r="B31" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="C31" s="24" t="str">
+      <c r="C31" s="26" t="str">
         <f aca="false">IF(D31&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D31" s="35" t="n">
+      <c r="D31" s="36" t="n">
         <f aca="false">SUM(E31:I31)</f>
         <v>1</v>
       </c>
-      <c r="E31" s="36" t="n">
+      <c r="E31" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B31,settings!B:B, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="F31" s="36" t="n">
+      <c r="F31" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B31, input_constant!A:A, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G31" s="36" t="n">
+      <c r="G31" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B31, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H31" s="36" t="n">
+      <c r="H31" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B31,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I31" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B31, case_definitions!A$17:A$30,1, 0)), 0)</f>
+      <c r="I31" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B31, case_definitions!A$16:A$28,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="34" t="s">
+      <c r="B32" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="C32" s="24" t="str">
+      <c r="C32" s="26" t="str">
         <f aca="false">IF(D32&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D32" s="35" t="n">
+      <c r="D32" s="36" t="n">
         <f aca="false">SUM(E32:I32)</f>
         <v>1</v>
       </c>
-      <c r="E32" s="36" t="n">
+      <c r="E32" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B32,settings!B:B, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="F32" s="36" t="n">
+      <c r="F32" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B32, input_constant!A:A, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G32" s="36" t="n">
+      <c r="G32" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B32, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H32" s="36" t="n">
+      <c r="H32" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B32,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I32" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B32, case_definitions!A$17:A$30,1, 0)), 0)</f>
+      <c r="I32" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B32, case_definitions!A$16:A$28,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="34" t="s">
+      <c r="B33" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="C33" s="24" t="str">
+      <c r="C33" s="26" t="str">
         <f aca="false">IF(D33&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D33" s="35" t="n">
+      <c r="D33" s="36" t="n">
         <f aca="false">SUM(E33:I33)</f>
         <v>1</v>
       </c>
-      <c r="E33" s="36" t="n">
+      <c r="E33" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B33,settings!B:B, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="F33" s="36" t="n">
+      <c r="F33" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B33, input_constant!A:A, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G33" s="36" t="n">
+      <c r="G33" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B33, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H33" s="36" t="n">
+      <c r="H33" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B33,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I33" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B33, case_definitions!A$17:A$30,1, 0)), 0)</f>
+      <c r="I33" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B33, case_definitions!A$16:A$28,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="34" t="s">
+      <c r="B34" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="C34" s="24" t="str">
+      <c r="C34" s="26" t="str">
         <f aca="false">IF(D34&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D34" s="35" t="n">
+      <c r="D34" s="36" t="n">
         <f aca="false">SUM(E34:I34)</f>
         <v>1</v>
       </c>
-      <c r="E34" s="36" t="n">
+      <c r="E34" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B34,settings!B:B, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="F34" s="36" t="n">
+      <c r="F34" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B34, input_constant!A:A, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G34" s="36" t="n">
+      <c r="G34" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B34, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H34" s="36" t="n">
+      <c r="H34" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B34,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I34" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B34, case_definitions!A$17:A$30,1, 0)), 0)</f>
+      <c r="I34" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B34, case_definitions!A$16:A$28,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="34" t="s">
+      <c r="B35" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="C35" s="24" t="str">
+      <c r="C35" s="26" t="str">
         <f aca="false">IF(D35&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D35" s="35" t="n">
+      <c r="D35" s="36" t="n">
         <f aca="false">SUM(E35:I35)</f>
         <v>1</v>
       </c>
-      <c r="E35" s="36" t="n">
+      <c r="E35" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B35,settings!B:B, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="F35" s="36" t="n">
+      <c r="F35" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B35, input_constant!A:A, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G35" s="36" t="n">
+      <c r="G35" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B35, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H35" s="36" t="n">
+      <c r="H35" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B35,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I35" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B35, case_definitions!A$17:A$30,1, 0)), 0)</f>
+      <c r="I35" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B35, case_definitions!A$16:A$28,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="34" t="s">
+      <c r="B36" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="C36" s="24" t="str">
+      <c r="C36" s="26" t="str">
         <f aca="false">IF(D36&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D36" s="35" t="n">
+      <c r="D36" s="36" t="n">
         <f aca="false">SUM(E36:I36)</f>
         <v>1</v>
       </c>
-      <c r="E36" s="36" t="n">
+      <c r="E36" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B36,settings!B:B, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="F36" s="36" t="n">
+      <c r="F36" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B36, input_constant!A:A, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G36" s="36" t="n">
+      <c r="G36" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B36, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H36" s="36" t="n">
+      <c r="H36" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B36,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I36" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B36, case_definitions!A$17:A$30,1, 0)), 0)</f>
+      <c r="I36" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B36, case_definitions!A$16:A$28,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="34" t="s">
+      <c r="B37" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="C37" s="24" t="str">
+      <c r="C37" s="26" t="str">
         <f aca="false">IF(D37&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D37" s="35" t="n">
+      <c r="D37" s="36" t="n">
         <f aca="false">SUM(E37:I37)</f>
         <v>1</v>
       </c>
-      <c r="E37" s="36" t="n">
+      <c r="E37" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B37,settings!B:B, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="F37" s="36" t="n">
+      <c r="F37" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B37, input_constant!A:A, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G37" s="36" t="n">
+      <c r="G37" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B37, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H37" s="36" t="n">
+      <c r="H37" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B37,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I37" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B37, case_definitions!A$17:A$30,1, 0)), 0)</f>
+      <c r="I37" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B37, case_definitions!A$16:A$28,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="34" t="s">
+      <c r="B38" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="C38" s="24" t="str">
+      <c r="C38" s="26" t="str">
         <f aca="false">IF(D38&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D38" s="35" t="n">
+      <c r="D38" s="36" t="n">
         <f aca="false">SUM(E38:I38)</f>
         <v>1</v>
       </c>
-      <c r="E38" s="36" t="n">
+      <c r="E38" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B38,settings!B:B, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="F38" s="36" t="n">
+      <c r="F38" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B38, input_constant!A:A, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G38" s="36" t="n">
+      <c r="G38" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B38, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H38" s="36" t="n">
+      <c r="H38" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B38,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I38" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B38, case_definitions!A$17:A$30,1, 0)), 0)</f>
+      <c r="I38" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B38, case_definitions!A$16:A$28,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="34" t="s">
+      <c r="B39" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="C39" s="24" t="str">
+      <c r="C39" s="26" t="str">
         <f aca="false">IF(D39&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D39" s="35" t="n">
+      <c r="D39" s="36" t="n">
         <f aca="false">SUM(E39:I39)</f>
         <v>1</v>
       </c>
-      <c r="E39" s="36" t="n">
+      <c r="E39" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B39,settings!B:B, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="F39" s="36" t="n">
+      <c r="F39" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B39, input_constant!A:A, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G39" s="36" t="n">
+      <c r="G39" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B39, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H39" s="36" t="n">
+      <c r="H39" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B39,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I39" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B39, case_definitions!A$17:A$30,1, 0)), 0)</f>
+      <c r="I39" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B39, case_definitions!A$16:A$28,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="34" t="s">
+      <c r="B40" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="C40" s="24" t="str">
+      <c r="C40" s="26" t="str">
         <f aca="false">IF(D40&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D40" s="35" t="n">
+      <c r="D40" s="36" t="n">
         <f aca="false">SUM(E40:I40)</f>
         <v>1</v>
       </c>
-      <c r="E40" s="36" t="n">
+      <c r="E40" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B40,settings!B:B, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="F40" s="36" t="n">
+      <c r="F40" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B40, input_constant!A:A, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G40" s="36" t="n">
+      <c r="G40" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B40, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H40" s="36" t="n">
+      <c r="H40" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B40,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I40" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B40, case_definitions!A$17:A$30,1, 0)), 0)</f>
+      <c r="I40" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B40, case_definitions!A$16:A$28,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="34" t="s">
+      <c r="B41" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="C41" s="24" t="str">
+      <c r="C41" s="26" t="str">
         <f aca="false">IF(D41&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D41" s="35" t="n">
+      <c r="D41" s="36" t="n">
         <f aca="false">SUM(E41:I41)</f>
         <v>1</v>
       </c>
-      <c r="E41" s="36" t="n">
+      <c r="E41" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B41,settings!B:B, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="F41" s="36" t="n">
+      <c r="F41" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B41, input_constant!A:A, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G41" s="36" t="n">
+      <c r="G41" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B41, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H41" s="36" t="n">
+      <c r="H41" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B41,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I41" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B41, case_definitions!A$17:A$30,1, 0)), 0)</f>
+      <c r="I41" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B41, case_definitions!A$16:A$28,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="34" t="s">
+      <c r="B42" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="C42" s="24" t="str">
+      <c r="C42" s="26" t="str">
         <f aca="false">IF(D42&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D42" s="35" t="n">
+      <c r="D42" s="36" t="n">
         <f aca="false">SUM(E42:I42)</f>
         <v>1</v>
       </c>
-      <c r="E42" s="36" t="n">
+      <c r="E42" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B42,settings!B:B, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="F42" s="36" t="n">
+      <c r="F42" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B42, input_constant!A:A, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G42" s="36" t="n">
+      <c r="G42" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B42, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H42" s="36" t="n">
+      <c r="H42" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B42,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I42" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B42, case_definitions!A$17:A$30,1, 0)), 0)</f>
+      <c r="I42" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B42, case_definitions!A$16:A$28,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="34" t="s">
+      <c r="B43" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="C43" s="24" t="str">
+      <c r="C43" s="26" t="str">
         <f aca="false">IF(D43&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D43" s="35" t="n">
+      <c r="D43" s="36" t="n">
         <f aca="false">SUM(E43:I43)</f>
         <v>1</v>
       </c>
-      <c r="E43" s="36" t="n">
+      <c r="E43" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B43,settings!B:B, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="F43" s="36" t="n">
+      <c r="F43" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B43, input_constant!A:A, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G43" s="36" t="n">
+      <c r="G43" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B43, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H43" s="36" t="n">
+      <c r="H43" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B43,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I43" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B43, case_definitions!A$17:A$30,1, 0)), 0)</f>
+      <c r="I43" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B43, case_definitions!A$16:A$28,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="34" t="s">
+      <c r="B44" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="C44" s="24" t="str">
+      <c r="C44" s="26" t="str">
         <f aca="false">IF(D44&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D44" s="35" t="n">
+      <c r="D44" s="36" t="n">
         <f aca="false">SUM(E44:I44)</f>
         <v>1</v>
       </c>
-      <c r="E44" s="36" t="n">
+      <c r="E44" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B44,settings!B:B, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="F44" s="36" t="n">
+      <c r="F44" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B44, input_constant!A:A, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G44" s="36" t="n">
+      <c r="G44" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B44, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H44" s="36" t="n">
+      <c r="H44" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B44,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I44" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B44, case_definitions!A$17:A$30,1, 0)), 0)</f>
+      <c r="I44" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B44, case_definitions!A$16:A$28,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="34" t="s">
+      <c r="B45" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="C45" s="24" t="str">
+      <c r="C45" s="26" t="str">
         <f aca="false">IF(D45&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D45" s="35" t="n">
+      <c r="D45" s="36" t="n">
         <f aca="false">SUM(E45:I45)</f>
         <v>1</v>
       </c>
-      <c r="E45" s="36" t="n">
+      <c r="E45" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B45,settings!B:B, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="F45" s="36" t="n">
+      <c r="F45" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B45, input_constant!A:A, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G45" s="36" t="n">
+      <c r="G45" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B45, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H45" s="36" t="n">
+      <c r="H45" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B45,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I45" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B45, case_definitions!A$17:A$30,1, 0)), 0)</f>
+      <c r="I45" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B45, case_definitions!A$16:A$28,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="34" t="s">
+      <c r="B46" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="C46" s="24" t="str">
+      <c r="C46" s="26" t="str">
         <f aca="false">IF(D46&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D46" s="35" t="n">
+      <c r="D46" s="36" t="n">
         <f aca="false">SUM(E46:I46)</f>
         <v>1</v>
       </c>
-      <c r="E46" s="36" t="n">
+      <c r="E46" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B46,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F46" s="36" t="n">
+      <c r="F46" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B46, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="G46" s="36" t="n">
+      <c r="G46" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B46, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H46" s="36" t="n">
+      <c r="H46" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B46,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I46" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B46, case_definitions!A$17:A$30,1, 0)), 0)</f>
+      <c r="I46" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B46, case_definitions!A$16:A$28,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="34" t="s">
+      <c r="B47" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="C47" s="24" t="str">
+      <c r="C47" s="26" t="str">
         <f aca="false">IF(D47&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D47" s="35" t="n">
+      <c r="D47" s="36" t="n">
         <f aca="false">SUM(E47:I47)</f>
         <v>1</v>
       </c>
-      <c r="E47" s="36" t="n">
+      <c r="E47" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B47,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F47" s="36" t="n">
+      <c r="F47" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B47, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="G47" s="36" t="n">
+      <c r="G47" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B47, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H47" s="36" t="n">
+      <c r="H47" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B47,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I47" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B47, case_definitions!A$17:A$30,1, 0)), 0)</f>
+      <c r="I47" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B47, case_definitions!A$16:A$28,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="34" t="s">
+      <c r="B48" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="C48" s="24" t="str">
+      <c r="C48" s="26" t="str">
         <f aca="false">IF(D48&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D48" s="35" t="n">
+      <c r="D48" s="36" t="n">
         <f aca="false">SUM(E48:I48)</f>
         <v>1</v>
       </c>
-      <c r="E48" s="36" t="n">
+      <c r="E48" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B48,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F48" s="36" t="n">
+      <c r="F48" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B48, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="G48" s="36" t="n">
+      <c r="G48" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B48, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H48" s="36" t="n">
+      <c r="H48" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B48,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I48" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B48, case_definitions!A$17:A$30,1, 0)), 0)</f>
+      <c r="I48" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B48, case_definitions!A$16:A$28,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="34" t="s">
+      <c r="B49" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="C49" s="24" t="str">
+      <c r="C49" s="26" t="str">
         <f aca="false">IF(D49&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D49" s="35" t="n">
+      <c r="D49" s="36" t="n">
         <f aca="false">SUM(E49:I49)</f>
         <v>1</v>
       </c>
-      <c r="E49" s="36" t="n">
+      <c r="E49" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B49,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F49" s="36" t="n">
+      <c r="F49" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B49, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="G49" s="36" t="n">
+      <c r="G49" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B49, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H49" s="36" t="n">
+      <c r="H49" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B49,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I49" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B49, case_definitions!A$17:A$30,1, 0)), 0)</f>
+      <c r="I49" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B49, case_definitions!A$16:A$28,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="34" t="s">
+      <c r="B50" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="C50" s="24" t="str">
+      <c r="C50" s="26" t="str">
         <f aca="false">IF(D50&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D50" s="35" t="n">
+      <c r="D50" s="36" t="n">
         <f aca="false">SUM(E50:I50)</f>
         <v>1</v>
       </c>
-      <c r="E50" s="36" t="n">
+      <c r="E50" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B50,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F50" s="36" t="n">
+      <c r="F50" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B50, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="G50" s="36" t="n">
+      <c r="G50" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B50, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H50" s="36" t="n">
+      <c r="H50" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B50,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I50" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B50, case_definitions!A$17:A$30,1, 0)), 0)</f>
+      <c r="I50" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B50, case_definitions!A$16:A$28,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="34" t="s">
+      <c r="B51" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="C51" s="24" t="str">
+      <c r="C51" s="26" t="str">
         <f aca="false">IF(D51&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D51" s="35" t="n">
+      <c r="D51" s="36" t="n">
         <f aca="false">SUM(E51:I51)</f>
         <v>1</v>
       </c>
-      <c r="E51" s="36" t="n">
+      <c r="E51" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B51,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F51" s="36" t="n">
+      <c r="F51" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B51, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="G51" s="36" t="n">
+      <c r="G51" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B51, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H51" s="36" t="n">
+      <c r="H51" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B51,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I51" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B51, case_definitions!A$17:A$30,1, 0)), 0)</f>
+      <c r="I51" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B51, case_definitions!A$16:A$28,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="34" t="s">
+      <c r="B52" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="C52" s="24" t="str">
+      <c r="C52" s="26" t="str">
         <f aca="false">IF(D52&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D52" s="35" t="n">
+      <c r="D52" s="36" t="n">
         <f aca="false">SUM(E52:I52)</f>
         <v>1</v>
       </c>
-      <c r="E52" s="36" t="n">
+      <c r="E52" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B52,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F52" s="36" t="n">
+      <c r="F52" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B52, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="G52" s="36" t="n">
+      <c r="G52" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B52, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H52" s="36" t="n">
+      <c r="H52" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B52,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I52" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B52, case_definitions!A$17:A$30,1, 0)), 0)</f>
+      <c r="I52" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B52, case_definitions!A$16:A$28,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="34" t="s">
+      <c r="B53" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="C53" s="24" t="str">
+      <c r="C53" s="26" t="str">
         <f aca="false">IF(D53&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D53" s="35" t="n">
+      <c r="D53" s="36" t="n">
         <f aca="false">SUM(E53:I53)</f>
         <v>1</v>
       </c>
-      <c r="E53" s="36" t="n">
+      <c r="E53" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B53,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F53" s="36" t="n">
+      <c r="F53" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B53, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="G53" s="36" t="n">
+      <c r="G53" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B53, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H53" s="36" t="n">
+      <c r="H53" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B53,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I53" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B53, case_definitions!A$17:A$30,1, 0)), 0)</f>
+      <c r="I53" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B53, case_definitions!A$16:A$28,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="34" t="s">
+      <c r="B54" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="C54" s="24" t="str">
+      <c r="C54" s="26" t="str">
         <f aca="false">IF(D54&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D54" s="35" t="n">
+      <c r="D54" s="36" t="n">
         <f aca="false">SUM(E54:I54)</f>
         <v>1</v>
       </c>
-      <c r="E54" s="36" t="n">
+      <c r="E54" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B54,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F54" s="36" t="n">
+      <c r="F54" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B54, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="G54" s="36" t="n">
+      <c r="G54" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B54, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H54" s="36" t="n">
+      <c r="H54" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B54,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I54" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B54, case_definitions!A$17:A$30,1, 0)), 0)</f>
+      <c r="I54" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B54, case_definitions!A$16:A$28,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="34" t="s">
+      <c r="B55" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="C55" s="24" t="str">
+      <c r="C55" s="26" t="str">
         <f aca="false">IF(D55&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D55" s="35" t="n">
+      <c r="D55" s="36" t="n">
         <f aca="false">SUM(E55:I55)</f>
         <v>1</v>
       </c>
-      <c r="E55" s="36" t="n">
+      <c r="E55" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B55,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F55" s="36" t="n">
+      <c r="F55" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B55, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="G55" s="36" t="n">
+      <c r="G55" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B55, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H55" s="36" t="n">
+      <c r="H55" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B55,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I55" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B55, case_definitions!A$17:A$30,1, 0)), 0)</f>
+      <c r="I55" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B55, case_definitions!A$16:A$28,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="34" t="s">
+      <c r="B56" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="C56" s="24" t="str">
+      <c r="C56" s="26" t="str">
         <f aca="false">IF(D56&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D56" s="35" t="n">
+      <c r="D56" s="36" t="n">
         <f aca="false">SUM(E56:I56)</f>
         <v>1</v>
       </c>
-      <c r="E56" s="36" t="n">
+      <c r="E56" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B56,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F56" s="36" t="n">
+      <c r="F56" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B56, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="G56" s="36" t="n">
+      <c r="G56" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B56, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H56" s="36" t="n">
+      <c r="H56" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B56,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I56" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B56, case_definitions!A$17:A$30,1, 0)), 0)</f>
+      <c r="I56" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B56, case_definitions!A$16:A$28,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="34" t="s">
+      <c r="B57" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="C57" s="24" t="str">
+      <c r="C57" s="26" t="str">
         <f aca="false">IF(D57&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D57" s="35" t="n">
+      <c r="D57" s="36" t="n">
         <f aca="false">SUM(E57:I57)</f>
         <v>1</v>
       </c>
-      <c r="E57" s="36" t="n">
+      <c r="E57" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B57,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F57" s="36" t="n">
+      <c r="F57" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B57, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="G57" s="36" t="n">
+      <c r="G57" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B57, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H57" s="36" t="n">
+      <c r="H57" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B57,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I57" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B57, case_definitions!A$17:A$30,1, 0)), 0)</f>
+      <c r="I57" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B57, case_definitions!A$16:A$28,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="C58" s="24" t="str">
+      <c r="B58" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="C58" s="26" t="str">
         <f aca="false">IF(D58&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D58" s="35" t="n">
+      <c r="D58" s="36" t="n">
         <f aca="false">SUM(E58:I58)</f>
         <v>1</v>
       </c>
-      <c r="E58" s="36" t="n">
+      <c r="E58" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B58,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F58" s="36" t="n">
+      <c r="F58" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B58, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="G58" s="36" t="n">
+      <c r="G58" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B58, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H58" s="36" t="n">
+      <c r="H58" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B58,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I58" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B58, case_definitions!A$17:A$30,1, 0)), 0)</f>
+      <c r="I58" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B58, case_definitions!A$16:A$28,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="34" t="s">
+      <c r="B59" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="C59" s="26" t="str">
+        <f aca="false">IF(D59&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
+      </c>
+      <c r="D59" s="36" t="n">
+        <f aca="false">SUM(E59:I59)</f>
+        <v>1</v>
+      </c>
+      <c r="E59" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B59,settings!B:B, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F59" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B59, input_constant!A:A, 1, 0)), 0)</f>
+        <v>1</v>
+      </c>
+      <c r="G59" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B59, input_sensitivity!B:B, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H59" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(HLOOKUP(B59,project_sites!$2:$2, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="I59" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B59, case_definitions!A$16:A$28,1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="C60" s="26" t="str">
+        <f aca="false">IF(D60&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
+      </c>
+      <c r="D60" s="36" t="n">
+        <f aca="false">SUM(E60:I60)</f>
+        <v>1</v>
+      </c>
+      <c r="E60" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B60,settings!B:B, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F60" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B60, input_constant!A:A, 1, 0)), 0)</f>
+        <v>1</v>
+      </c>
+      <c r="G60" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B60, input_sensitivity!B:B, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H60" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(HLOOKUP(B60,project_sites!$2:$2, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="I60" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B60, case_definitions!A$16:A$28,1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B61" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="C59" s="24" t="str">
-        <f aca="false">IF(D59&gt;=1, "OK", "missing!")</f>
-        <v>OK</v>
-      </c>
-      <c r="D59" s="35" t="n">
-        <f aca="false">SUM(E59:I59)</f>
-        <v>1</v>
-      </c>
-      <c r="E59" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B59,settings!B:B, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="F59" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B59, input_constant!A:A, 1, 0)), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="G59" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B59, input_sensitivity!B:B, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H59" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(HLOOKUP(B59,project_sites!$2:$2, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="I59" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B59, case_definitions!A$17:A$30,1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="34" t="s">
+      <c r="C61" s="26" t="str">
+        <f aca="false">IF(D61&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
+      </c>
+      <c r="D61" s="36" t="n">
+        <f aca="false">SUM(E61:I61)</f>
+        <v>1</v>
+      </c>
+      <c r="E61" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B61,settings!B:B, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F61" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B61, input_constant!A:A, 1, 0)), 0)</f>
+        <v>1</v>
+      </c>
+      <c r="G61" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B61, input_sensitivity!B:B, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H61" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(HLOOKUP(B61,project_sites!$2:$2, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="I61" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B61, case_definitions!A$16:A$28,1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B62" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="C60" s="24" t="str">
-        <f aca="false">IF(D60&gt;=1, "OK", "missing!")</f>
-        <v>OK</v>
-      </c>
-      <c r="D60" s="35" t="n">
-        <f aca="false">SUM(E60:I60)</f>
-        <v>1</v>
-      </c>
-      <c r="E60" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B60,settings!B:B, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="F60" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B60, input_constant!A:A, 1, 0)), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="G60" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B60, input_sensitivity!B:B, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H60" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(HLOOKUP(B60,project_sites!$2:$2, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="I60" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B60, case_definitions!A$17:A$30,1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="34" t="s">
+      <c r="C62" s="26" t="str">
+        <f aca="false">IF(D62&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
+      </c>
+      <c r="D62" s="36" t="n">
+        <f aca="false">SUM(E62:I62)</f>
+        <v>1</v>
+      </c>
+      <c r="E62" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B62,settings!B:B, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F62" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B62, input_constant!A:A, 1, 0)), 0)</f>
+        <v>1</v>
+      </c>
+      <c r="G62" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B62, input_sensitivity!B:B, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H62" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(HLOOKUP(B62,project_sites!$2:$2, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="I62" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B62, case_definitions!A$16:A$28,1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B63" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="C63" s="26" t="str">
+        <f aca="false">IF(D63&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
+      </c>
+      <c r="D63" s="36" t="n">
+        <f aca="false">SUM(E63:I63)</f>
+        <v>1</v>
+      </c>
+      <c r="E63" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B63,settings!B:B, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F63" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B63, input_constant!A:A, 1, 0)), 0)</f>
+        <v>1</v>
+      </c>
+      <c r="G63" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B63, input_sensitivity!B:B, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H63" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(HLOOKUP(B63,project_sites!$2:$2, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="I63" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B63, case_definitions!A$16:A$28,1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="C61" s="24" t="str">
-        <f aca="false">IF(D61&gt;=1, "OK", "missing!")</f>
-        <v>OK</v>
-      </c>
-      <c r="D61" s="35" t="n">
-        <f aca="false">SUM(E61:I61)</f>
-        <v>1</v>
-      </c>
-      <c r="E61" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B61,settings!B:B, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="F61" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B61, input_constant!A:A, 1, 0)), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="G61" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B61, input_sensitivity!B:B, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H61" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(HLOOKUP(B61,project_sites!$2:$2, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="I61" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B61, case_definitions!A$17:A$30,1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="C62" s="24" t="str">
-        <f aca="false">IF(D62&gt;=1, "OK", "missing!")</f>
-        <v>OK</v>
-      </c>
-      <c r="D62" s="35" t="n">
-        <f aca="false">SUM(E62:I62)</f>
-        <v>1</v>
-      </c>
-      <c r="E62" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B62,settings!B:B, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="F62" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B62, input_constant!A:A, 1, 0)), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="G62" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B62, input_sensitivity!B:B, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H62" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(HLOOKUP(B62,project_sites!$2:$2, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="I62" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B62, case_definitions!A$17:A$30,1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="34" t="s">
+      <c r="C64" s="26" t="str">
+        <f aca="false">IF(D64&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
+      </c>
+      <c r="D64" s="36" t="n">
+        <f aca="false">SUM(E64:I64)</f>
+        <v>1</v>
+      </c>
+      <c r="E64" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B64,settings!B:B, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F64" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B64, input_constant!A:A, 1, 0)), 0)</f>
+        <v>1</v>
+      </c>
+      <c r="G64" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B64, input_sensitivity!B:B, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H64" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(HLOOKUP(B64,project_sites!$2:$2, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="I64" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B64, case_definitions!A$16:A$28,1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B65" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="C63" s="24" t="str">
-        <f aca="false">IF(D63&gt;=1, "OK", "missing!")</f>
-        <v>OK</v>
-      </c>
-      <c r="D63" s="35" t="n">
-        <f aca="false">SUM(E63:I63)</f>
-        <v>1</v>
-      </c>
-      <c r="E63" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B63,settings!B:B, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="F63" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B63, input_constant!A:A, 1, 0)), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="G63" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B63, input_sensitivity!B:B, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H63" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(HLOOKUP(B63,project_sites!$2:$2, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="I63" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B63, case_definitions!A$17:A$30,1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="34" t="s">
+      <c r="C65" s="26" t="str">
+        <f aca="false">IF(D65&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
+      </c>
+      <c r="D65" s="36" t="n">
+        <f aca="false">SUM(E65:I65)</f>
+        <v>1</v>
+      </c>
+      <c r="E65" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B65,settings!B:B, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F65" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B65, input_constant!A:A, 1, 0)), 0)</f>
+        <v>1</v>
+      </c>
+      <c r="G65" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B65, input_sensitivity!B:B, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H65" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(HLOOKUP(B65,project_sites!$2:$2, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="I65" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B65, case_definitions!A$16:A$28,1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B66" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="C64" s="24" t="str">
-        <f aca="false">IF(D64&gt;=1, "OK", "missing!")</f>
-        <v>OK</v>
-      </c>
-      <c r="D64" s="35" t="n">
-        <f aca="false">SUM(E64:I64)</f>
-        <v>1</v>
-      </c>
-      <c r="E64" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B64,settings!B:B, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="F64" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B64, input_constant!A:A, 1, 0)), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="G64" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B64, input_sensitivity!B:B, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H64" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(HLOOKUP(B64,project_sites!$2:$2, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="I64" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B64, case_definitions!A$17:A$30,1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="34" t="s">
+      <c r="C66" s="26" t="str">
+        <f aca="false">IF(D66&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
+      </c>
+      <c r="D66" s="36" t="n">
+        <f aca="false">SUM(E66:I66)</f>
+        <v>1</v>
+      </c>
+      <c r="E66" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B66,settings!B:B, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F66" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B66, input_constant!A:A, 1, 0)), 0)</f>
+        <v>1</v>
+      </c>
+      <c r="G66" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B66, input_sensitivity!B:B, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H66" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(HLOOKUP(B66,project_sites!$2:$2, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="I66" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B66, case_definitions!A$16:A$28,1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B67" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="C65" s="24" t="str">
-        <f aca="false">IF(D65&gt;=1, "OK", "missing!")</f>
-        <v>OK</v>
-      </c>
-      <c r="D65" s="35" t="n">
-        <f aca="false">SUM(E65:I65)</f>
-        <v>1</v>
-      </c>
-      <c r="E65" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B65,settings!B:B, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="F65" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B65, input_constant!A:A, 1, 0)), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="G65" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B65, input_sensitivity!B:B, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H65" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(HLOOKUP(B65,project_sites!$2:$2, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="I65" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B65, case_definitions!A$17:A$30,1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="34" t="s">
-        <v>126</v>
-      </c>
-      <c r="C66" s="24" t="str">
-        <f aca="false">IF(D66&gt;=1, "OK", "missing!")</f>
-        <v>OK</v>
-      </c>
-      <c r="D66" s="35" t="n">
-        <f aca="false">SUM(E66:I66)</f>
-        <v>1</v>
-      </c>
-      <c r="E66" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B66,settings!B:B, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="F66" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B66, input_constant!A:A, 1, 0)), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="G66" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B66, input_sensitivity!B:B, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H66" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(HLOOKUP(B66,project_sites!$2:$2, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="I66" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B66, case_definitions!A$17:A$30,1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B67" s="34" t="s">
+      <c r="C67" s="26" t="str">
+        <f aca="false">IF(D67&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
+      </c>
+      <c r="D67" s="36" t="n">
+        <f aca="false">SUM(E67:I67)</f>
+        <v>1</v>
+      </c>
+      <c r="E67" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B67,settings!B:B, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F67" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B67, input_constant!A:A, 1, 0)), 0)</f>
+        <v>1</v>
+      </c>
+      <c r="G67" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B67, input_sensitivity!B:B, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H67" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(HLOOKUP(B67,project_sites!$2:$2, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="I67" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B67, case_definitions!A$16:A$28,1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B68" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="C68" s="26" t="str">
+        <f aca="false">IF(D68&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
+      </c>
+      <c r="D68" s="36" t="n">
+        <f aca="false">SUM(E68:I68)</f>
+        <v>1</v>
+      </c>
+      <c r="E68" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B68,settings!B:B, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F68" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B68, input_constant!A:A, 1, 0)), 0)</f>
+        <v>1</v>
+      </c>
+      <c r="G68" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B68, input_sensitivity!B:B, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H68" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(HLOOKUP(B68,project_sites!$2:$2, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="I68" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B68, case_definitions!A$16:A$28,1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B69" s="35" t="s">
         <v>128</v>
       </c>
-      <c r="C67" s="24" t="str">
-        <f aca="false">IF(D67&gt;=1, "OK", "missing!")</f>
-        <v>OK</v>
-      </c>
-      <c r="D67" s="35" t="n">
-        <f aca="false">SUM(E67:I67)</f>
-        <v>1</v>
-      </c>
-      <c r="E67" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B67,settings!B:B, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="F67" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B67, input_constant!A:A, 1, 0)), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="G67" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B67, input_sensitivity!B:B, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H67" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(HLOOKUP(B67,project_sites!$2:$2, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="I67" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B67, case_definitions!A$17:A$30,1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B68" s="34" t="s">
+      <c r="C69" s="26" t="str">
+        <f aca="false">IF(D69&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
+      </c>
+      <c r="D69" s="36" t="n">
+        <f aca="false">SUM(E69:I69)</f>
+        <v>1</v>
+      </c>
+      <c r="E69" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B69,settings!B:B, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F69" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B69, input_constant!A:A, 1, 0)), 0)</f>
+        <v>1</v>
+      </c>
+      <c r="G69" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B69, input_sensitivity!B:B, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H69" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(HLOOKUP(B69,project_sites!$2:$2, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="I69" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B69, case_definitions!A$16:A$28,1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B70" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="C70" s="26" t="str">
+        <f aca="false">IF(D70&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
+      </c>
+      <c r="D70" s="36" t="n">
+        <f aca="false">SUM(E70:I70)</f>
+        <v>1</v>
+      </c>
+      <c r="E70" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B70,settings!B:B, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F70" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B70, input_constant!A:A, 1, 0)), 0)</f>
+        <v>1</v>
+      </c>
+      <c r="G70" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B70, input_sensitivity!B:B, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H70" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(HLOOKUP(B70,project_sites!$2:$2, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="I70" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B70, case_definitions!A$16:A$28,1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B71" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="C68" s="24" t="str">
-        <f aca="false">IF(D68&gt;=1, "OK", "missing!")</f>
-        <v>OK</v>
-      </c>
-      <c r="D68" s="35" t="n">
-        <f aca="false">SUM(E68:I68)</f>
-        <v>1</v>
-      </c>
-      <c r="E68" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B68,settings!B:B, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="F68" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B68, input_constant!A:A, 1, 0)), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="G68" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B68, input_sensitivity!B:B, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H68" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(HLOOKUP(B68,project_sites!$2:$2, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="I68" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B68, case_definitions!A$17:A$30,1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B69" s="34" t="s">
+      <c r="C71" s="26" t="str">
+        <f aca="false">IF(D71&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
+      </c>
+      <c r="D71" s="36" t="n">
+        <f aca="false">SUM(E71:I71)</f>
+        <v>1</v>
+      </c>
+      <c r="E71" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B71,settings!B:B, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F71" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B71, input_constant!A:A, 1, 0)), 0)</f>
+        <v>1</v>
+      </c>
+      <c r="G71" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B71, input_sensitivity!B:B, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H71" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(HLOOKUP(B71,project_sites!$2:$2, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="I71" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B71, case_definitions!A$16:A$28,1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B72" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="C69" s="24" t="str">
-        <f aca="false">IF(D69&gt;=1, "OK", "missing!")</f>
-        <v>OK</v>
-      </c>
-      <c r="D69" s="35" t="n">
-        <f aca="false">SUM(E69:I69)</f>
-        <v>1</v>
-      </c>
-      <c r="E69" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B69,settings!B:B, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="F69" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B69, input_constant!A:A, 1, 0)), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="G69" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B69, input_sensitivity!B:B, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H69" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(HLOOKUP(B69,project_sites!$2:$2, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="I69" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B69, case_definitions!A$17:A$30,1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B70" s="34" t="s">
+      <c r="C72" s="26" t="str">
+        <f aca="false">IF(D72&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
+      </c>
+      <c r="D72" s="36" t="n">
+        <f aca="false">SUM(E72:I72)</f>
+        <v>1</v>
+      </c>
+      <c r="E72" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B72,settings!B:B, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F72" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B72, input_constant!A:A, 1, 0)), 0)</f>
+        <v>1</v>
+      </c>
+      <c r="G72" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B72, input_sensitivity!B:B, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H72" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(HLOOKUP(B72,project_sites!$2:$2, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="I72" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B72, case_definitions!A$16:A$28,1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B73" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="C70" s="24" t="str">
-        <f aca="false">IF(D70&gt;=1, "OK", "missing!")</f>
-        <v>OK</v>
-      </c>
-      <c r="D70" s="35" t="n">
-        <f aca="false">SUM(E70:I70)</f>
-        <v>1</v>
-      </c>
-      <c r="E70" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B70,settings!B:B, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="F70" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B70, input_constant!A:A, 1, 0)), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="G70" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B70, input_sensitivity!B:B, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H70" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(HLOOKUP(B70,project_sites!$2:$2, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="I70" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B70, case_definitions!A$17:A$30,1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B71" s="34" t="s">
+      <c r="C73" s="26" t="str">
+        <f aca="false">IF(D73&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
+      </c>
+      <c r="D73" s="36" t="n">
+        <f aca="false">SUM(E73:I73)</f>
+        <v>1</v>
+      </c>
+      <c r="E73" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B73,settings!B:B, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F73" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B73, input_constant!A:A, 1, 0)), 0)</f>
+        <v>1</v>
+      </c>
+      <c r="G73" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B73, input_sensitivity!B:B, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H73" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(HLOOKUP(B73,project_sites!$2:$2, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="I73" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B73, case_definitions!A$16:A$28,1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B74" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="C71" s="24" t="str">
-        <f aca="false">IF(D71&gt;=1, "OK", "missing!")</f>
-        <v>OK</v>
-      </c>
-      <c r="D71" s="35" t="n">
-        <f aca="false">SUM(E71:I71)</f>
-        <v>1</v>
-      </c>
-      <c r="E71" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B71,settings!B:B, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="F71" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B71, input_constant!A:A, 1, 0)), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="G71" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B71, input_sensitivity!B:B, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H71" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(HLOOKUP(B71,project_sites!$2:$2, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="I71" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B71, case_definitions!A$17:A$30,1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B72" s="34" t="s">
+      <c r="C74" s="26" t="str">
+        <f aca="false">IF(D74&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
+      </c>
+      <c r="D74" s="36" t="n">
+        <f aca="false">SUM(E74:I74)</f>
+        <v>1</v>
+      </c>
+      <c r="E74" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B74,settings!B:B, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F74" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B74, input_constant!A:A, 1, 0)), 0)</f>
+        <v>1</v>
+      </c>
+      <c r="G74" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B74, input_sensitivity!B:B, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H74" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(HLOOKUP(B74,project_sites!$2:$2, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="I74" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B74, case_definitions!A$16:A$28,1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B75" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="C72" s="24" t="str">
-        <f aca="false">IF(D72&gt;=1, "OK", "missing!")</f>
-        <v>OK</v>
-      </c>
-      <c r="D72" s="35" t="n">
-        <f aca="false">SUM(E72:I72)</f>
-        <v>1</v>
-      </c>
-      <c r="E72" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B72,settings!B:B, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="F72" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B72, input_constant!A:A, 1, 0)), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="G72" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B72, input_sensitivity!B:B, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H72" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(HLOOKUP(B72,project_sites!$2:$2, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="I72" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B72, case_definitions!A$17:A$30,1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B73" s="34" t="s">
+      <c r="C75" s="26" t="str">
+        <f aca="false">IF(D75&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
+      </c>
+      <c r="D75" s="36" t="n">
+        <f aca="false">SUM(E75:I75)</f>
+        <v>1</v>
+      </c>
+      <c r="E75" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B75,settings!B:B, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F75" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B75, input_constant!A:A, 1, 0)), 0)</f>
+        <v>1</v>
+      </c>
+      <c r="G75" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B75, input_sensitivity!B:B, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H75" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(HLOOKUP(B75,project_sites!$2:$2, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="I75" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B75, case_definitions!A$16:A$28,1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B76" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="C73" s="24" t="str">
-        <f aca="false">IF(D73&gt;=1, "OK", "missing!")</f>
-        <v>OK</v>
-      </c>
-      <c r="D73" s="35" t="n">
-        <f aca="false">SUM(E73:I73)</f>
-        <v>1</v>
-      </c>
-      <c r="E73" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B73,settings!B:B, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="F73" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B73, input_constant!A:A, 1, 0)), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="G73" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B73, input_sensitivity!B:B, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H73" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(HLOOKUP(B73,project_sites!$2:$2, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="I73" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B73, case_definitions!A$17:A$30,1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B74" s="34" t="s">
+      <c r="C76" s="26" t="str">
+        <f aca="false">IF(D76&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
+      </c>
+      <c r="D76" s="36" t="n">
+        <f aca="false">SUM(E76:I76)</f>
+        <v>1</v>
+      </c>
+      <c r="E76" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B76,settings!B:B, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F76" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B76, input_constant!A:A, 1, 0)), 0)</f>
+        <v>1</v>
+      </c>
+      <c r="G76" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B76, input_sensitivity!B:B, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H76" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(HLOOKUP(B76,project_sites!$2:$2, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="I76" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B76, case_definitions!A$16:A$28,1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B77" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="C74" s="24" t="str">
-        <f aca="false">IF(D74&gt;=1, "OK", "missing!")</f>
-        <v>OK</v>
-      </c>
-      <c r="D74" s="35" t="n">
-        <f aca="false">SUM(E74:I74)</f>
-        <v>1</v>
-      </c>
-      <c r="E74" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B74,settings!B:B, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="F74" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B74, input_constant!A:A, 1, 0)), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="G74" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B74, input_sensitivity!B:B, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H74" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(HLOOKUP(B74,project_sites!$2:$2, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="I74" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B74, case_definitions!A$17:A$30,1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B75" s="34" t="s">
+      <c r="C77" s="26" t="str">
+        <f aca="false">IF(D77&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
+      </c>
+      <c r="D77" s="36" t="n">
+        <f aca="false">SUM(E77:I77)</f>
+        <v>1</v>
+      </c>
+      <c r="E77" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B77,settings!B:B, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F77" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B77, input_constant!A:A, 1, 0)), 0)</f>
+        <v>1</v>
+      </c>
+      <c r="G77" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B77, input_sensitivity!B:B, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H77" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(HLOOKUP(B77,project_sites!$2:$2, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="I77" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B77, case_definitions!A$16:A$28,1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B78" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="C75" s="24" t="str">
-        <f aca="false">IF(D75&gt;=1, "OK", "missing!")</f>
-        <v>OK</v>
-      </c>
-      <c r="D75" s="35" t="n">
-        <f aca="false">SUM(E75:I75)</f>
-        <v>1</v>
-      </c>
-      <c r="E75" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B75,settings!B:B, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="F75" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B75, input_constant!A:A, 1, 0)), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="G75" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B75, input_sensitivity!B:B, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H75" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(HLOOKUP(B75,project_sites!$2:$2, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="I75" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B75, case_definitions!A$17:A$30,1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B76" s="34" t="s">
+      <c r="C78" s="26" t="str">
+        <f aca="false">IF(D78&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
+      </c>
+      <c r="D78" s="36" t="n">
+        <f aca="false">SUM(E78:I78)</f>
+        <v>1</v>
+      </c>
+      <c r="E78" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B78,settings!B:B, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F78" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B78, input_constant!A:A, 1, 0)), 0)</f>
+        <v>1</v>
+      </c>
+      <c r="G78" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B78, input_sensitivity!B:B, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H78" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(HLOOKUP(B78,project_sites!$2:$2, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="I78" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B78, case_definitions!A$16:A$28,1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B79" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="C76" s="24" t="str">
-        <f aca="false">IF(D76&gt;=1, "OK", "missing!")</f>
-        <v>OK</v>
-      </c>
-      <c r="D76" s="35" t="n">
-        <f aca="false">SUM(E76:I76)</f>
-        <v>1</v>
-      </c>
-      <c r="E76" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B76,settings!B:B, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="F76" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B76, input_constant!A:A, 1, 0)), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="G76" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B76, input_sensitivity!B:B, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H76" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(HLOOKUP(B76,project_sites!$2:$2, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="I76" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B76, case_definitions!A$17:A$30,1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B77" s="34" t="s">
-        <v>139</v>
-      </c>
-      <c r="C77" s="24" t="str">
-        <f aca="false">IF(D77&gt;=1, "OK", "missing!")</f>
-        <v>OK</v>
-      </c>
-      <c r="D77" s="35" t="n">
-        <f aca="false">SUM(E77:I77)</f>
-        <v>1</v>
-      </c>
-      <c r="E77" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B77,settings!B:B, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="F77" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B77, input_constant!A:A, 1, 0)), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="G77" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B77, input_sensitivity!B:B, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H77" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(HLOOKUP(B77,project_sites!$2:$2, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="I77" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B77, case_definitions!A$17:A$30,1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B78" s="34" t="s">
+      <c r="C79" s="26" t="str">
+        <f aca="false">IF(D79&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
+      </c>
+      <c r="D79" s="36" t="n">
+        <f aca="false">SUM(E79:I79)</f>
+        <v>1</v>
+      </c>
+      <c r="E79" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B79,settings!B:B, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F79" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B79, input_constant!A:A, 1, 0)), 0)</f>
+        <v>1</v>
+      </c>
+      <c r="G79" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B79, input_sensitivity!B:B, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H79" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(HLOOKUP(B79,project_sites!$2:$2, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="I79" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B79, case_definitions!A$16:A$28,1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B80" s="35" t="s">
         <v>140</v>
       </c>
-      <c r="C78" s="24" t="str">
-        <f aca="false">IF(D78&gt;=1, "OK", "missing!")</f>
-        <v>OK</v>
-      </c>
-      <c r="D78" s="35" t="n">
-        <f aca="false">SUM(E78:I78)</f>
-        <v>1</v>
-      </c>
-      <c r="E78" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B78,settings!B:B, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="F78" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B78, input_constant!A:A, 1, 0)), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="G78" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B78, input_sensitivity!B:B, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H78" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(HLOOKUP(B78,project_sites!$2:$2, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="I78" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B78, case_definitions!A$17:A$30,1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B79" s="34" t="s">
+      <c r="C80" s="26" t="str">
+        <f aca="false">IF(D80&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
+      </c>
+      <c r="D80" s="36" t="n">
+        <f aca="false">SUM(E80:I80)</f>
+        <v>1</v>
+      </c>
+      <c r="E80" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B80,settings!B:B, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F80" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B80, input_constant!A:A, 1, 0)), 0)</f>
+        <v>1</v>
+      </c>
+      <c r="G80" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B80, input_sensitivity!B:B, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H80" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(HLOOKUP(B80,project_sites!$2:$2, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="I80" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B80, case_definitions!A$16:A$28,1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B81" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="C79" s="24" t="str">
-        <f aca="false">IF(D79&gt;=1, "OK", "missing!")</f>
-        <v>OK</v>
-      </c>
-      <c r="D79" s="35" t="n">
-        <f aca="false">SUM(E79:I79)</f>
-        <v>1</v>
-      </c>
-      <c r="E79" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B79,settings!B:B, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="F79" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B79, input_constant!A:A, 1, 0)), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="G79" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B79, input_sensitivity!B:B, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H79" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(HLOOKUP(B79,project_sites!$2:$2, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="I79" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B79, case_definitions!A$17:A$30,1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B80" s="34" t="s">
+      <c r="C81" s="26" t="str">
+        <f aca="false">IF(D81&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
+      </c>
+      <c r="D81" s="36" t="n">
+        <f aca="false">SUM(E81:I81)</f>
+        <v>1</v>
+      </c>
+      <c r="E81" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B81,settings!B:B, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F81" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B81, input_constant!A:A, 1, 0)), 0)</f>
+        <v>1</v>
+      </c>
+      <c r="G81" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B81, input_sensitivity!B:B, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H81" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(HLOOKUP(B81,project_sites!$2:$2, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="I81" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B81, case_definitions!A$16:A$28,1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B82" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="C82" s="26" t="str">
+        <f aca="false">IF(D82&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
+      </c>
+      <c r="D82" s="36" t="n">
+        <f aca="false">SUM(E82:I82)</f>
+        <v>1</v>
+      </c>
+      <c r="E82" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B82,settings!B:B, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F82" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B82, input_constant!A:A, 1, 0)), 0)</f>
+        <v>1</v>
+      </c>
+      <c r="G82" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B82, input_sensitivity!B:B, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H82" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(HLOOKUP(B82,project_sites!$2:$2, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="I82" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B82, case_definitions!A$16:A$28,1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B83" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="C83" s="26" t="str">
+        <f aca="false">IF(D83&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
+      </c>
+      <c r="D83" s="36" t="n">
+        <f aca="false">SUM(E83:I83)</f>
+        <v>1</v>
+      </c>
+      <c r="E83" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B83,settings!B:B, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F83" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B83, input_constant!A:A, 1, 0)), 0)</f>
+        <v>1</v>
+      </c>
+      <c r="G83" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B83, input_sensitivity!B:B, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H83" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(HLOOKUP(B83,project_sites!$2:$2, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="I83" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B83, case_definitions!A$16:A$28,1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B84" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="C80" s="24" t="str">
-        <f aca="false">IF(D80&gt;=1, "OK", "missing!")</f>
-        <v>OK</v>
-      </c>
-      <c r="D80" s="35" t="n">
-        <f aca="false">SUM(E80:I80)</f>
-        <v>1</v>
-      </c>
-      <c r="E80" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B80,settings!B:B, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="F80" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B80, input_constant!A:A, 1, 0)), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="G80" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B80, input_sensitivity!B:B, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H80" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(HLOOKUP(B80,project_sites!$2:$2, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="I80" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B80, case_definitions!A$17:A$30,1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B81" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="C81" s="24" t="str">
-        <f aca="false">IF(D81&gt;=1, "OK", "missing!")</f>
-        <v>OK</v>
-      </c>
-      <c r="D81" s="35" t="n">
-        <f aca="false">SUM(E81:I81)</f>
-        <v>1</v>
-      </c>
-      <c r="E81" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B81,settings!B:B, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="F81" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B81, input_constant!A:A, 1, 0)), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="G81" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B81, input_sensitivity!B:B, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H81" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(HLOOKUP(B81,project_sites!$2:$2, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="I81" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B81, case_definitions!A$17:A$30,1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B82" s="34" t="s">
+      <c r="C84" s="26" t="str">
+        <f aca="false">IF(D84&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
+      </c>
+      <c r="D84" s="36" t="n">
+        <f aca="false">SUM(E84:I84)</f>
+        <v>1</v>
+      </c>
+      <c r="E84" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B84,settings!B:B, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F84" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B84, input_constant!A:A, 1, 0)), 0)</f>
+        <v>1</v>
+      </c>
+      <c r="G84" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B84, input_sensitivity!B:B, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H84" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(HLOOKUP(B84,project_sites!$2:$2, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="I84" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B84, case_definitions!A$16:A$28,1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B85" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="C82" s="24" t="str">
-        <f aca="false">IF(D82&gt;=1, "OK", "missing!")</f>
-        <v>OK</v>
-      </c>
-      <c r="D82" s="35" t="n">
-        <f aca="false">SUM(E82:I82)</f>
-        <v>1</v>
-      </c>
-      <c r="E82" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B82,settings!B:B, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="F82" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B82, input_constant!A:A, 1, 0)), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="G82" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B82, input_sensitivity!B:B, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H82" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(HLOOKUP(B82,project_sites!$2:$2, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="I82" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B82, case_definitions!A$17:A$30,1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B83" s="34" t="s">
-        <v>148</v>
-      </c>
-      <c r="C83" s="24" t="str">
-        <f aca="false">IF(D83&gt;=1, "OK", "missing!")</f>
-        <v>OK</v>
-      </c>
-      <c r="D83" s="35" t="n">
-        <f aca="false">SUM(E83:I83)</f>
-        <v>1</v>
-      </c>
-      <c r="E83" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B83,settings!B:B, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="F83" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B83, input_constant!A:A, 1, 0)), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="G83" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B83, input_sensitivity!B:B, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H83" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(HLOOKUP(B83,project_sites!$2:$2, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="I83" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B83, case_definitions!A$17:A$30,1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B84" s="34" t="s">
+      <c r="C85" s="26" t="str">
+        <f aca="false">IF(D85&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
+      </c>
+      <c r="D85" s="36" t="n">
+        <f aca="false">SUM(E85:I85)</f>
+        <v>1</v>
+      </c>
+      <c r="E85" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B85,settings!B:B, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F85" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B85, input_constant!A:A, 1, 0)), 0)</f>
+        <v>1</v>
+      </c>
+      <c r="G85" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B85, input_sensitivity!B:B, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H85" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(HLOOKUP(B85,project_sites!$2:$2, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="I85" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B85, case_definitions!A$16:A$28,1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B86" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="C86" s="26" t="str">
+        <f aca="false">IF(D86&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
+      </c>
+      <c r="D86" s="36" t="n">
+        <f aca="false">SUM(E86:I86)</f>
+        <v>1</v>
+      </c>
+      <c r="E86" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B86,settings!B:B, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F86" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B86, input_constant!A:A, 1, 0)), 0)</f>
+        <v>1</v>
+      </c>
+      <c r="G86" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B86, input_sensitivity!B:B, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H86" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(HLOOKUP(B86,project_sites!$2:$2, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="I86" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B86, case_definitions!A$16:A$28,1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B87" s="35" t="s">
         <v>150</v>
       </c>
-      <c r="C84" s="24" t="str">
-        <f aca="false">IF(D84&gt;=1, "OK", "missing!")</f>
-        <v>OK</v>
-      </c>
-      <c r="D84" s="35" t="n">
-        <f aca="false">SUM(E84:I84)</f>
-        <v>1</v>
-      </c>
-      <c r="E84" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B84,settings!B:B, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="F84" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B84, input_constant!A:A, 1, 0)), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="G84" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B84, input_sensitivity!B:B, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H84" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(HLOOKUP(B84,project_sites!$2:$2, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="I84" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B84, case_definitions!A$17:A$30,1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B85" s="34" t="s">
+      <c r="C87" s="26" t="str">
+        <f aca="false">IF(D87&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
+      </c>
+      <c r="D87" s="36" t="n">
+        <f aca="false">SUM(E87:I87)</f>
+        <v>1</v>
+      </c>
+      <c r="E87" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B87,settings!B:B, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F87" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B87, input_constant!A:A, 1, 0)), 0)</f>
+        <v>1</v>
+      </c>
+      <c r="G87" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B87, input_sensitivity!B:B, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H87" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(HLOOKUP(B87,project_sites!$2:$2, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="I87" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B87, case_definitions!A$16:A$28,1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B88" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="C88" s="26" t="str">
+        <f aca="false">IF(D88&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
+      </c>
+      <c r="D88" s="36" t="n">
+        <f aca="false">SUM(E88:I88)</f>
+        <v>1</v>
+      </c>
+      <c r="E88" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B88,settings!B:B, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F88" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B88, input_constant!A:A, 1, 0)), 0)</f>
+        <v>1</v>
+      </c>
+      <c r="G88" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B88, input_sensitivity!B:B, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H88" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(HLOOKUP(B88,project_sites!$2:$2, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="I88" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B88, case_definitions!A$16:A$28,1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B89" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="C85" s="24" t="str">
-        <f aca="false">IF(D85&gt;=1, "OK", "missing!")</f>
-        <v>OK</v>
-      </c>
-      <c r="D85" s="35" t="n">
-        <f aca="false">SUM(E85:I85)</f>
-        <v>1</v>
-      </c>
-      <c r="E85" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B85,settings!B:B, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="F85" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B85, input_constant!A:A, 1, 0)), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="G85" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B85, input_sensitivity!B:B, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H85" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(HLOOKUP(B85,project_sites!$2:$2, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="I85" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B85, case_definitions!A$17:A$30,1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B86" s="34" t="s">
+      <c r="C89" s="26" t="str">
+        <f aca="false">IF(D89&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
+      </c>
+      <c r="D89" s="36" t="n">
+        <f aca="false">SUM(E89:I89)</f>
+        <v>1</v>
+      </c>
+      <c r="E89" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B89,settings!B:B, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F89" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B89, input_constant!A:A, 1, 0)), 0)</f>
+        <v>1</v>
+      </c>
+      <c r="G89" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B89, input_sensitivity!B:B, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H89" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(HLOOKUP(B89,project_sites!$2:$2, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="I89" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B89, case_definitions!A$16:A$28,1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B90" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="C86" s="24" t="str">
-        <f aca="false">IF(D86&gt;=1, "OK", "missing!")</f>
-        <v>OK</v>
-      </c>
-      <c r="D86" s="35" t="n">
-        <f aca="false">SUM(E86:I86)</f>
-        <v>1</v>
-      </c>
-      <c r="E86" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B86,settings!B:B, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="F86" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B86, input_constant!A:A, 1, 0)), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="G86" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B86, input_sensitivity!B:B, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H86" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(HLOOKUP(B86,project_sites!$2:$2, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="I86" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B86, case_definitions!A$17:A$30,1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B87" s="34" t="s">
+      <c r="C90" s="26" t="str">
+        <f aca="false">IF(D90&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
+      </c>
+      <c r="D90" s="36" t="n">
+        <f aca="false">SUM(E90:I90)</f>
+        <v>1</v>
+      </c>
+      <c r="E90" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B90,settings!B:B, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F90" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B90, input_constant!A:A, 1, 0)), 0)</f>
+        <v>1</v>
+      </c>
+      <c r="G90" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B90, input_sensitivity!B:B, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H90" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(HLOOKUP(B90,project_sites!$2:$2, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="I90" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B90, case_definitions!A$16:A$28,1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B91" s="35" t="s">
         <v>155</v>
       </c>
-      <c r="C87" s="24" t="str">
-        <f aca="false">IF(D87&gt;=1, "OK", "missing!")</f>
-        <v>OK</v>
-      </c>
-      <c r="D87" s="35" t="n">
-        <f aca="false">SUM(E87:I87)</f>
-        <v>1</v>
-      </c>
-      <c r="E87" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B87,settings!B:B, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="F87" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B87, input_constant!A:A, 1, 0)), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="G87" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B87, input_sensitivity!B:B, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H87" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(HLOOKUP(B87,project_sites!$2:$2, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="I87" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B87, case_definitions!A$17:A$30,1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B88" s="34" t="s">
-        <v>156</v>
-      </c>
-      <c r="C88" s="24" t="str">
-        <f aca="false">IF(D88&gt;=1, "OK", "missing!")</f>
-        <v>OK</v>
-      </c>
-      <c r="D88" s="35" t="n">
-        <f aca="false">SUM(E88:I88)</f>
-        <v>1</v>
-      </c>
-      <c r="E88" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B88,settings!B:B, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="F88" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B88, input_constant!A:A, 1, 0)), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="G88" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B88, input_sensitivity!B:B, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H88" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(HLOOKUP(B88,project_sites!$2:$2, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="I88" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B88, case_definitions!A$17:A$30,1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B89" s="34" t="s">
+      <c r="C91" s="26" t="str">
+        <f aca="false">IF(D91&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
+      </c>
+      <c r="D91" s="36" t="n">
+        <f aca="false">SUM(E91:I91)</f>
+        <v>1</v>
+      </c>
+      <c r="E91" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B91,settings!B:B, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F91" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B91, input_constant!A:A, 1, 0)), 0)</f>
+        <v>1</v>
+      </c>
+      <c r="G91" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B91, input_sensitivity!B:B, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H91" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(HLOOKUP(B91,project_sites!$2:$2, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="I91" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B91, case_definitions!A$16:A$28,1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B92" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="C89" s="24" t="str">
-        <f aca="false">IF(D89&gt;=1, "OK", "missing!")</f>
-        <v>OK</v>
-      </c>
-      <c r="D89" s="35" t="n">
-        <f aca="false">SUM(E89:I89)</f>
-        <v>1</v>
-      </c>
-      <c r="E89" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B89,settings!B:B, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="F89" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B89, input_constant!A:A, 1, 0)), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="G89" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B89, input_sensitivity!B:B, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H89" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(HLOOKUP(B89,project_sites!$2:$2, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="I89" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B89, case_definitions!A$17:A$30,1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B90" s="34" t="s">
-        <v>159</v>
-      </c>
-      <c r="C90" s="24" t="str">
-        <f aca="false">IF(D90&gt;=1, "OK", "missing!")</f>
-        <v>OK</v>
-      </c>
-      <c r="D90" s="35" t="n">
-        <f aca="false">SUM(E90:I90)</f>
-        <v>1</v>
-      </c>
-      <c r="E90" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B90,settings!B:B, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="F90" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B90, input_constant!A:A, 1, 0)), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="G90" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B90, input_sensitivity!B:B, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H90" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(HLOOKUP(B90,project_sites!$2:$2, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="I90" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B90, case_definitions!A$17:A$30,1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B91" s="34" t="s">
+      <c r="C92" s="26" t="str">
+        <f aca="false">IF(D92&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
+      </c>
+      <c r="D92" s="36" t="n">
+        <f aca="false">SUM(E92:I92)</f>
+        <v>1</v>
+      </c>
+      <c r="E92" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B92,settings!B:B, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F92" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B92, input_constant!A:A, 1, 0)), 0)</f>
+        <v>1</v>
+      </c>
+      <c r="G92" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B92, input_sensitivity!B:B, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H92" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(HLOOKUP(B92,project_sites!$2:$2, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="I92" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B92, case_definitions!A$16:A$28,1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B93" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="C93" s="26" t="str">
+        <f aca="false">IF(D93&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
+      </c>
+      <c r="D93" s="36" t="n">
+        <f aca="false">SUM(E93:I93)</f>
+        <v>1</v>
+      </c>
+      <c r="E93" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B93,settings!B:B, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F93" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B93, input_constant!A:A, 1, 0)), 0)</f>
+        <v>1</v>
+      </c>
+      <c r="G93" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B93, input_sensitivity!B:B, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H93" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(HLOOKUP(B93,project_sites!$2:$2, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="I93" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B93, case_definitions!A$16:A$28,1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B94" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="C91" s="24" t="str">
-        <f aca="false">IF(D91&gt;=1, "OK", "missing!")</f>
-        <v>OK</v>
-      </c>
-      <c r="D91" s="35" t="n">
-        <f aca="false">SUM(E91:I91)</f>
-        <v>1</v>
-      </c>
-      <c r="E91" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B91,settings!B:B, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="F91" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B91, input_constant!A:A, 1, 0)), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="G91" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B91, input_sensitivity!B:B, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H91" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(HLOOKUP(B91,project_sites!$2:$2, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="I91" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B91, case_definitions!A$17:A$30,1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B92" s="34" t="s">
+      <c r="C94" s="26" t="str">
+        <f aca="false">IF(D94&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
+      </c>
+      <c r="D94" s="36" t="n">
+        <f aca="false">SUM(E94:I94)</f>
+        <v>1</v>
+      </c>
+      <c r="E94" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B94,settings!B:B, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F94" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B94, input_constant!A:A, 1, 0)), 0)</f>
+        <v>1</v>
+      </c>
+      <c r="G94" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B94, input_sensitivity!B:B, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H94" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(HLOOKUP(B94,project_sites!$2:$2, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="I94" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B94, case_definitions!A$16:A$28,1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B95" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="C95" s="26" t="str">
+        <f aca="false">IF(D95&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
+      </c>
+      <c r="D95" s="36" t="n">
+        <f aca="false">SUM(E95:I95)</f>
+        <v>1</v>
+      </c>
+      <c r="E95" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B95,settings!B:B, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F95" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B95, input_constant!A:A, 1, 0)), 0)</f>
+        <v>1</v>
+      </c>
+      <c r="G95" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B95, input_sensitivity!B:B, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H95" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(HLOOKUP(B95,project_sites!$2:$2, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="I95" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B95, case_definitions!A$16:A$28,1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B96" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="C92" s="24" t="str">
-        <f aca="false">IF(D92&gt;=1, "OK", "missing!")</f>
-        <v>OK</v>
-      </c>
-      <c r="D92" s="35" t="n">
-        <f aca="false">SUM(E92:I92)</f>
-        <v>1</v>
-      </c>
-      <c r="E92" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B92,settings!B:B, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="F92" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B92, input_constant!A:A, 1, 0)), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="G92" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B92, input_sensitivity!B:B, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H92" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(HLOOKUP(B92,project_sites!$2:$2, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="I92" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B92, case_definitions!A$17:A$30,1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B93" s="34" t="s">
+      <c r="C96" s="26" t="str">
+        <f aca="false">IF(D96&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
+      </c>
+      <c r="D96" s="36" t="n">
+        <f aca="false">SUM(E96:I96)</f>
+        <v>1</v>
+      </c>
+      <c r="E96" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B96,settings!B:B, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F96" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B96, input_constant!A:A, 1, 0)), 0)</f>
+        <v>1</v>
+      </c>
+      <c r="G96" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B96, input_sensitivity!B:B, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H96" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(HLOOKUP(B96,project_sites!$2:$2, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="I96" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B96, case_definitions!A$16:A$28,1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B97" s="35" t="s">
         <v>163</v>
       </c>
-      <c r="C93" s="24" t="str">
-        <f aca="false">IF(D93&gt;=1, "OK", "missing!")</f>
-        <v>OK</v>
-      </c>
-      <c r="D93" s="35" t="n">
-        <f aca="false">SUM(E93:I93)</f>
-        <v>1</v>
-      </c>
-      <c r="E93" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B93,settings!B:B, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="F93" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B93, input_constant!A:A, 1, 0)), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="G93" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B93, input_sensitivity!B:B, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H93" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(HLOOKUP(B93,project_sites!$2:$2, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="I93" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B93, case_definitions!A$17:A$30,1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B94" s="34" t="s">
-        <v>165</v>
-      </c>
-      <c r="C94" s="24" t="str">
-        <f aca="false">IF(D94&gt;=1, "OK", "missing!")</f>
-        <v>OK</v>
-      </c>
-      <c r="D94" s="35" t="n">
-        <f aca="false">SUM(E94:I94)</f>
-        <v>1</v>
-      </c>
-      <c r="E94" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B94,settings!B:B, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="F94" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B94, input_constant!A:A, 1, 0)), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="G94" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B94, input_sensitivity!B:B, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H94" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(HLOOKUP(B94,project_sites!$2:$2, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="I94" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B94, case_definitions!A$17:A$30,1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B95" s="34" t="s">
-        <v>166</v>
-      </c>
-      <c r="C95" s="24" t="str">
-        <f aca="false">IF(D95&gt;=1, "OK", "missing!")</f>
-        <v>OK</v>
-      </c>
-      <c r="D95" s="35" t="n">
-        <f aca="false">SUM(E95:I95)</f>
-        <v>1</v>
-      </c>
-      <c r="E95" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B95,settings!B:B, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="F95" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B95, input_constant!A:A, 1, 0)), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="G95" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B95, input_sensitivity!B:B, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H95" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(HLOOKUP(B95,project_sites!$2:$2, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="I95" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B95, case_definitions!A$17:A$30,1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B96" s="34" t="s">
+      <c r="C97" s="26" t="str">
+        <f aca="false">IF(D97&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
+      </c>
+      <c r="D97" s="36" t="n">
+        <f aca="false">SUM(E97:I97)</f>
+        <v>1</v>
+      </c>
+      <c r="E97" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B97,settings!B:B, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F97" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B97, input_constant!A:A, 1, 0)), 0)</f>
+        <v>1</v>
+      </c>
+      <c r="G97" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B97, input_sensitivity!B:B, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H97" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(HLOOKUP(B97,project_sites!$2:$2, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="I97" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B97, case_definitions!A$16:A$28,1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B98" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="C98" s="26" t="str">
+        <f aca="false">IF(D98&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
+      </c>
+      <c r="D98" s="36" t="n">
+        <f aca="false">SUM(E98:I98)</f>
+        <v>1</v>
+      </c>
+      <c r="E98" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B98,settings!B:B, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F98" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B98, input_constant!A:A, 1, 0)), 0)</f>
+        <v>1</v>
+      </c>
+      <c r="G98" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B98, input_sensitivity!B:B, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H98" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(HLOOKUP(B98,project_sites!$2:$2, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="I98" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B98, case_definitions!A$16:A$28,1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B99" s="35" t="s">
         <v>167</v>
       </c>
-      <c r="C96" s="24" t="str">
-        <f aca="false">IF(D96&gt;=1, "OK", "missing!")</f>
-        <v>OK</v>
-      </c>
-      <c r="D96" s="35" t="n">
-        <f aca="false">SUM(E96:I96)</f>
-        <v>1</v>
-      </c>
-      <c r="E96" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B96,settings!B:B, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="F96" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B96, input_constant!A:A, 1, 0)), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="G96" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B96, input_sensitivity!B:B, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H96" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(HLOOKUP(B96,project_sites!$2:$2, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="I96" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B96, case_definitions!A$17:A$30,1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B97" s="34" t="s">
+      <c r="C99" s="26" t="str">
+        <f aca="false">IF(D99&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
+      </c>
+      <c r="D99" s="36" t="n">
+        <f aca="false">SUM(E99:I99)</f>
+        <v>1</v>
+      </c>
+      <c r="E99" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B99,settings!B:B, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F99" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B99, input_constant!A:A, 1, 0)), 0)</f>
+        <v>1</v>
+      </c>
+      <c r="G99" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B99, input_sensitivity!B:B, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H99" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(HLOOKUP(B99,project_sites!$2:$2, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="I99" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B99, case_definitions!A$16:A$28,1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B100" s="35" t="s">
         <v>168</v>
       </c>
-      <c r="C97" s="24" t="str">
-        <f aca="false">IF(D97&gt;=1, "OK", "missing!")</f>
-        <v>OK</v>
-      </c>
-      <c r="D97" s="35" t="n">
-        <f aca="false">SUM(E97:I97)</f>
-        <v>1</v>
-      </c>
-      <c r="E97" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B97,settings!B:B, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="F97" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B97, input_constant!A:A, 1, 0)), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="G97" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B97, input_sensitivity!B:B, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H97" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(HLOOKUP(B97,project_sites!$2:$2, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="I97" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B97, case_definitions!A$17:A$30,1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B98" s="34" t="s">
+      <c r="C100" s="26" t="str">
+        <f aca="false">IF(D100&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
+      </c>
+      <c r="D100" s="36" t="n">
+        <f aca="false">SUM(E100:I100)</f>
+        <v>1</v>
+      </c>
+      <c r="E100" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B100,settings!B:B, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F100" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B100, input_constant!A:A, 1, 0)), 0)</f>
+        <v>1</v>
+      </c>
+      <c r="G100" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B100, input_sensitivity!B:B, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H100" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(HLOOKUP(B100,project_sites!$2:$2, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="I100" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B100, case_definitions!A$16:A$28,1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B101" s="35" t="s">
         <v>169</v>
       </c>
-      <c r="C98" s="24" t="str">
-        <f aca="false">IF(D98&gt;=1, "OK", "missing!")</f>
-        <v>OK</v>
-      </c>
-      <c r="D98" s="35" t="n">
-        <f aca="false">SUM(E98:I98)</f>
-        <v>1</v>
-      </c>
-      <c r="E98" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B98,settings!B:B, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="F98" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B98, input_constant!A:A, 1, 0)), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="G98" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B98, input_sensitivity!B:B, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H98" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(HLOOKUP(B98,project_sites!$2:$2, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="I98" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B98, case_definitions!A$17:A$30,1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B99" s="34" t="s">
+      <c r="C101" s="26" t="str">
+        <f aca="false">IF(D101&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
+      </c>
+      <c r="D101" s="36" t="n">
+        <f aca="false">SUM(E101:I101)</f>
+        <v>1</v>
+      </c>
+      <c r="E101" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B101,settings!B:B, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F101" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B101, input_constant!A:A, 1, 0)), 0)</f>
+        <v>1</v>
+      </c>
+      <c r="G101" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B101, input_sensitivity!B:B, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H101" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(HLOOKUP(B101,project_sites!$2:$2, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="I101" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B101, case_definitions!A$16:A$28,1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B102" s="35" t="s">
+        <v>170</v>
+      </c>
+      <c r="C102" s="26" t="str">
+        <f aca="false">IF(D102&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
+      </c>
+      <c r="D102" s="36" t="n">
+        <f aca="false">SUM(E102:I102)</f>
+        <v>1</v>
+      </c>
+      <c r="E102" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B102,settings!B:B, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F102" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B102, input_constant!A:A, 1, 0)), 0)</f>
+        <v>1</v>
+      </c>
+      <c r="G102" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B102, input_sensitivity!B:B, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H102" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(HLOOKUP(B102,project_sites!$2:$2, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="I102" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B102, case_definitions!A$16:A$28,1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B103" s="35" t="s">
+        <v>171</v>
+      </c>
+      <c r="C103" s="26" t="str">
+        <f aca="false">IF(D103&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
+      </c>
+      <c r="D103" s="36" t="n">
+        <f aca="false">SUM(E103:I103)</f>
+        <v>1</v>
+      </c>
+      <c r="E103" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B103,settings!B:B, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F103" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B103, input_constant!A:A, 1, 0)), 0)</f>
+        <v>1</v>
+      </c>
+      <c r="G103" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B103, input_sensitivity!B:B, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H103" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(HLOOKUP(B103,project_sites!$2:$2, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="I103" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B103, case_definitions!A$16:A$28,1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B104" s="35" t="s">
         <v>172</v>
       </c>
-      <c r="C99" s="24" t="str">
-        <f aca="false">IF(D99&gt;=1, "OK", "missing!")</f>
-        <v>OK</v>
-      </c>
-      <c r="D99" s="35" t="n">
-        <f aca="false">SUM(E99:I99)</f>
-        <v>1</v>
-      </c>
-      <c r="E99" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B99,settings!B:B, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="F99" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B99, input_constant!A:A, 1, 0)), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="G99" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B99, input_sensitivity!B:B, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H99" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(HLOOKUP(B99,project_sites!$2:$2, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="I99" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B99, case_definitions!A$17:A$30,1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B100" s="34" t="s">
+      <c r="C104" s="26" t="str">
+        <f aca="false">IF(D104&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
+      </c>
+      <c r="D104" s="36" t="n">
+        <f aca="false">SUM(E104:I104)</f>
+        <v>1</v>
+      </c>
+      <c r="E104" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B104,settings!B:B, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F104" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B104, input_constant!A:A, 1, 0)), 0)</f>
+        <v>1</v>
+      </c>
+      <c r="G104" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B104, input_sensitivity!B:B, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H104" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(HLOOKUP(B104,project_sites!$2:$2, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="I104" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B104, case_definitions!A$16:A$28,1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B105" s="35" t="s">
         <v>173</v>
       </c>
-      <c r="C100" s="24" t="str">
-        <f aca="false">IF(D100&gt;=1, "OK", "missing!")</f>
-        <v>OK</v>
-      </c>
-      <c r="D100" s="35" t="n">
-        <f aca="false">SUM(E100:I100)</f>
-        <v>1</v>
-      </c>
-      <c r="E100" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B100,settings!B:B, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="F100" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B100, input_constant!A:A, 1, 0)), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="G100" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B100, input_sensitivity!B:B, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H100" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(HLOOKUP(B100,project_sites!$2:$2, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="I100" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B100, case_definitions!A$17:A$30,1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B101" s="34" t="s">
+      <c r="C105" s="26" t="str">
+        <f aca="false">IF(D105&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
+      </c>
+      <c r="D105" s="36" t="n">
+        <f aca="false">SUM(E105:I105)</f>
+        <v>1</v>
+      </c>
+      <c r="E105" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B105,settings!B:B, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F105" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B105, input_constant!A:A, 1, 0)), 0)</f>
+        <v>1</v>
+      </c>
+      <c r="G105" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B105, input_sensitivity!B:B, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H105" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(HLOOKUP(B105,project_sites!$2:$2, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="I105" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B105, case_definitions!A$16:A$28,1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B106" s="35" t="s">
         <v>174</v>
       </c>
-      <c r="C101" s="24" t="str">
-        <f aca="false">IF(D101&gt;=1, "OK", "missing!")</f>
-        <v>OK</v>
-      </c>
-      <c r="D101" s="35" t="n">
-        <f aca="false">SUM(E101:I101)</f>
-        <v>1</v>
-      </c>
-      <c r="E101" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B101,settings!B:B, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="F101" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B101, input_constant!A:A, 1, 0)), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="G101" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B101, input_sensitivity!B:B, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H101" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(HLOOKUP(B101,project_sites!$2:$2, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="I101" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B101, case_definitions!A$17:A$30,1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B102" s="34" t="s">
+      <c r="C106" s="26" t="str">
+        <f aca="false">IF(D106&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
+      </c>
+      <c r="D106" s="36" t="n">
+        <f aca="false">SUM(E106:I106)</f>
+        <v>1</v>
+      </c>
+      <c r="E106" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B106,settings!B:B, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F106" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B106, input_constant!A:A, 1, 0)), 0)</f>
+        <v>1</v>
+      </c>
+      <c r="G106" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B106, input_sensitivity!B:B, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H106" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(HLOOKUP(B106,project_sites!$2:$2, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="I106" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B106, case_definitions!A$16:A$28,1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B107" s="35" t="s">
         <v>175</v>
       </c>
-      <c r="C102" s="24" t="str">
-        <f aca="false">IF(D102&gt;=1, "OK", "missing!")</f>
-        <v>OK</v>
-      </c>
-      <c r="D102" s="35" t="n">
-        <f aca="false">SUM(E102:I102)</f>
-        <v>1</v>
-      </c>
-      <c r="E102" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B102,settings!B:B, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="F102" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B102, input_constant!A:A, 1, 0)), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="G102" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B102, input_sensitivity!B:B, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H102" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(HLOOKUP(B102,project_sites!$2:$2, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="I102" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B102, case_definitions!A$17:A$30,1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B103" s="34" t="s">
+      <c r="C107" s="26" t="str">
+        <f aca="false">IF(D107&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
+      </c>
+      <c r="D107" s="36" t="n">
+        <f aca="false">SUM(E107:I107)</f>
+        <v>1</v>
+      </c>
+      <c r="E107" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B107,settings!B:B, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F107" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B107, input_constant!A:A, 1, 0)), 0)</f>
+        <v>1</v>
+      </c>
+      <c r="G107" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B107, input_sensitivity!B:B, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H107" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(HLOOKUP(B107,project_sites!$2:$2, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="I107" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B107, case_definitions!A$16:A$28,1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B108" s="35" t="s">
         <v>176</v>
       </c>
-      <c r="C103" s="24" t="str">
-        <f aca="false">IF(D103&gt;=1, "OK", "missing!")</f>
-        <v>OK</v>
-      </c>
-      <c r="D103" s="35" t="n">
-        <f aca="false">SUM(E103:I103)</f>
-        <v>1</v>
-      </c>
-      <c r="E103" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B103,settings!B:B, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="F103" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B103, input_constant!A:A, 1, 0)), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="G103" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B103, input_sensitivity!B:B, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H103" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(HLOOKUP(B103,project_sites!$2:$2, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="I103" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B103, case_definitions!A$17:A$30,1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B104" s="34" t="s">
+      <c r="C108" s="26" t="str">
+        <f aca="false">IF(D108&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
+      </c>
+      <c r="D108" s="36" t="n">
+        <f aca="false">SUM(E108:I108)</f>
+        <v>1</v>
+      </c>
+      <c r="E108" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B108,settings!B:B, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F108" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B108, input_constant!A:A, 1, 0)), 0)</f>
+        <v>1</v>
+      </c>
+      <c r="G108" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B108, input_sensitivity!B:B, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H108" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(HLOOKUP(B108,project_sites!$2:$2, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="I108" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B108, case_definitions!A$16:A$28,1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B109" s="35" t="s">
         <v>177</v>
       </c>
-      <c r="C104" s="24" t="str">
-        <f aca="false">IF(D104&gt;=1, "OK", "missing!")</f>
-        <v>OK</v>
-      </c>
-      <c r="D104" s="35" t="n">
-        <f aca="false">SUM(E104:I104)</f>
-        <v>1</v>
-      </c>
-      <c r="E104" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B104,settings!B:B, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="F104" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B104, input_constant!A:A, 1, 0)), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="G104" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B104, input_sensitivity!B:B, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H104" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(HLOOKUP(B104,project_sites!$2:$2, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="I104" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B104, case_definitions!A$17:A$30,1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B105" s="34" t="s">
+      <c r="C109" s="26" t="str">
+        <f aca="false">IF(D109&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
+      </c>
+      <c r="D109" s="36" t="n">
+        <f aca="false">SUM(E109:I109)</f>
+        <v>1</v>
+      </c>
+      <c r="E109" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B109,settings!B:B, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F109" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B109, input_constant!A:A, 1, 0)), 0)</f>
+        <v>1</v>
+      </c>
+      <c r="G109" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B109, input_sensitivity!B:B, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H109" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(HLOOKUP(B109,project_sites!$2:$2, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="I109" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B109, case_definitions!A$16:A$28,1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B110" s="35" t="s">
         <v>178</v>
       </c>
-      <c r="C105" s="24" t="str">
-        <f aca="false">IF(D105&gt;=1, "OK", "missing!")</f>
-        <v>OK</v>
-      </c>
-      <c r="D105" s="35" t="n">
-        <f aca="false">SUM(E105:I105)</f>
-        <v>1</v>
-      </c>
-      <c r="E105" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B105,settings!B:B, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="F105" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B105, input_constant!A:A, 1, 0)), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="G105" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B105, input_sensitivity!B:B, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H105" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(HLOOKUP(B105,project_sites!$2:$2, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="I105" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B105, case_definitions!A$17:A$30,1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B106" s="34" t="s">
+      <c r="C110" s="26" t="str">
+        <f aca="false">IF(D110&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
+      </c>
+      <c r="D110" s="36" t="n">
+        <f aca="false">SUM(E110:I110)</f>
+        <v>1</v>
+      </c>
+      <c r="E110" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B110,settings!B:B, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F110" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B110, input_constant!A:A, 1, 0)), 0)</f>
+        <v>1</v>
+      </c>
+      <c r="G110" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B110, input_sensitivity!B:B, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H110" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(HLOOKUP(B110,project_sites!$2:$2, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="I110" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B110, case_definitions!A$16:A$28,1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B111" s="35" t="s">
         <v>179</v>
       </c>
-      <c r="C106" s="24" t="str">
-        <f aca="false">IF(D106&gt;=1, "OK", "missing!")</f>
-        <v>OK</v>
-      </c>
-      <c r="D106" s="35" t="n">
-        <f aca="false">SUM(E106:I106)</f>
-        <v>1</v>
-      </c>
-      <c r="E106" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B106,settings!B:B, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="F106" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B106, input_constant!A:A, 1, 0)), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="G106" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B106, input_sensitivity!B:B, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H106" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(HLOOKUP(B106,project_sites!$2:$2, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="I106" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B106, case_definitions!A$17:A$30,1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B107" s="34" t="s">
-        <v>180</v>
-      </c>
-      <c r="C107" s="24" t="str">
-        <f aca="false">IF(D107&gt;=1, "OK", "missing!")</f>
-        <v>OK</v>
-      </c>
-      <c r="D107" s="35" t="n">
-        <f aca="false">SUM(E107:I107)</f>
-        <v>1</v>
-      </c>
-      <c r="E107" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B107,settings!B:B, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="F107" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B107, input_constant!A:A, 1, 0)), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="G107" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B107, input_sensitivity!B:B, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H107" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(HLOOKUP(B107,project_sites!$2:$2, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="I107" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B107, case_definitions!A$17:A$30,1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B108" s="34" t="s">
-        <v>181</v>
-      </c>
-      <c r="C108" s="24" t="str">
-        <f aca="false">IF(D108&gt;=1, "OK", "missing!")</f>
-        <v>OK</v>
-      </c>
-      <c r="D108" s="35" t="n">
-        <f aca="false">SUM(E108:I108)</f>
-        <v>1</v>
-      </c>
-      <c r="E108" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B108,settings!B:B, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="F108" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B108, input_constant!A:A, 1, 0)), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="G108" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B108, input_sensitivity!B:B, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H108" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(HLOOKUP(B108,project_sites!$2:$2, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="I108" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B108, case_definitions!A$17:A$30,1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B109" s="34" t="s">
-        <v>182</v>
-      </c>
-      <c r="C109" s="24" t="str">
-        <f aca="false">IF(D109&gt;=1, "OK", "missing!")</f>
-        <v>OK</v>
-      </c>
-      <c r="D109" s="35" t="n">
-        <f aca="false">SUM(E109:I109)</f>
-        <v>1</v>
-      </c>
-      <c r="E109" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B109,settings!B:B, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="F109" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B109, input_constant!A:A, 1, 0)), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="G109" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B109, input_sensitivity!B:B, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H109" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(HLOOKUP(B109,project_sites!$2:$2, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="I109" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B109, case_definitions!A$17:A$30,1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B110" s="34" t="s">
+      <c r="C111" s="26" t="str">
+        <f aca="false">IF(D111&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
+      </c>
+      <c r="D111" s="36" t="n">
+        <f aca="false">SUM(E111:I111)</f>
+        <v>1</v>
+      </c>
+      <c r="E111" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B111,settings!B:B, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F111" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B111, input_constant!A:A, 1, 0)), 0)</f>
+        <v>1</v>
+      </c>
+      <c r="G111" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B111, input_sensitivity!B:B, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H111" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(HLOOKUP(B111,project_sites!$2:$2, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="I111" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B111, case_definitions!A$16:A$28,1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B112" s="35" t="s">
         <v>183</v>
       </c>
-      <c r="C110" s="24" t="str">
-        <f aca="false">IF(D110&gt;=1, "OK", "missing!")</f>
-        <v>OK</v>
-      </c>
-      <c r="D110" s="35" t="n">
-        <f aca="false">SUM(E110:I110)</f>
-        <v>1</v>
-      </c>
-      <c r="E110" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B110,settings!B:B, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="F110" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B110, input_constant!A:A, 1, 0)), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="G110" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B110, input_sensitivity!B:B, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H110" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(HLOOKUP(B110,project_sites!$2:$2, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="I110" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B110, case_definitions!A$17:A$30,1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B111" s="34" t="s">
+      <c r="C112" s="26" t="str">
+        <f aca="false">IF(D112&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
+      </c>
+      <c r="D112" s="36" t="n">
+        <f aca="false">SUM(E112:I112)</f>
+        <v>1</v>
+      </c>
+      <c r="E112" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B112,settings!B:B, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F112" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B112, input_constant!A:A, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G112" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B112, input_sensitivity!B:B, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H112" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(HLOOKUP(B112,project_sites!$2:$2, 1, 0)), 0)</f>
+        <v>1</v>
+      </c>
+      <c r="I112" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B112, case_definitions!A$16:A$28,1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B113" s="35" t="s">
         <v>184</v>
       </c>
-      <c r="C111" s="24" t="str">
-        <f aca="false">IF(D111&gt;=1, "OK", "missing!")</f>
-        <v>OK</v>
-      </c>
-      <c r="D111" s="35" t="n">
-        <f aca="false">SUM(E111:I111)</f>
-        <v>1</v>
-      </c>
-      <c r="E111" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B111,settings!B:B, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="F111" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B111, input_constant!A:A, 1, 0)), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="G111" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B111, input_sensitivity!B:B, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H111" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(HLOOKUP(B111,project_sites!$2:$2, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="I111" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B111, case_definitions!A$17:A$30,1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B112" s="34" t="s">
+      <c r="C113" s="26" t="str">
+        <f aca="false">IF(D113&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
+      </c>
+      <c r="D113" s="36" t="n">
+        <f aca="false">SUM(E113:I113)</f>
+        <v>1</v>
+      </c>
+      <c r="E113" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B113,settings!B:B, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F113" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B113, input_constant!A:A, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G113" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B113, input_sensitivity!B:B, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H113" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(HLOOKUP(B113,project_sites!$2:$2, 1, 0)), 0)</f>
+        <v>1</v>
+      </c>
+      <c r="I113" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B113, case_definitions!A$16:A$28,1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B114" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="C114" s="26" t="str">
+        <f aca="false">IF(D114&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
+      </c>
+      <c r="D114" s="36" t="n">
+        <f aca="false">SUM(E114:I114)</f>
+        <v>1</v>
+      </c>
+      <c r="E114" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B114,settings!B:B, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F114" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B114, input_constant!A:A, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G114" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B114, input_sensitivity!B:B, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H114" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(HLOOKUP(B114,project_sites!$2:$2, 1, 0)), 0)</f>
+        <v>1</v>
+      </c>
+      <c r="I114" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B114, case_definitions!A$16:A$28,1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B115" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="C115" s="26" t="str">
+        <f aca="false">IF(D115&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
+      </c>
+      <c r="D115" s="36" t="n">
+        <f aca="false">SUM(E115:I115)</f>
+        <v>1</v>
+      </c>
+      <c r="E115" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B115,settings!B:B, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F115" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B115, input_constant!A:A, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G115" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B115, input_sensitivity!B:B, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H115" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(HLOOKUP(B115,project_sites!$2:$2, 1, 0)), 0)</f>
+        <v>1</v>
+      </c>
+      <c r="I115" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B115, case_definitions!A$16:A$28,1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B116" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="C116" s="26" t="str">
+        <f aca="false">IF(D116&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
+      </c>
+      <c r="D116" s="36" t="n">
+        <f aca="false">SUM(E116:I116)</f>
+        <v>1</v>
+      </c>
+      <c r="E116" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B116,settings!B:B, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F116" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B116, input_constant!A:A, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G116" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B116, input_sensitivity!B:B, 1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H116" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(HLOOKUP(B116,project_sites!$2:$2, 1, 0)), 0)</f>
+        <v>1</v>
+      </c>
+      <c r="I116" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B116, case_definitions!A$16:A$28,1, 0)), 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B117" s="35" t="s">
         <v>188</v>
       </c>
-      <c r="C112" s="24" t="str">
-        <f aca="false">IF(D112&gt;=1, "OK", "missing!")</f>
-        <v>OK</v>
-      </c>
-      <c r="D112" s="35" t="n">
-        <f aca="false">SUM(E112:I112)</f>
-        <v>1</v>
-      </c>
-      <c r="E112" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B112,settings!B:B, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="F112" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B112, input_constant!A:A, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="G112" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B112, input_sensitivity!B:B, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H112" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(HLOOKUP(B112,project_sites!$2:$2, 1, 0)), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="I112" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B112, case_definitions!A$17:A$30,1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B113" s="34" t="s">
-        <v>189</v>
-      </c>
-      <c r="C113" s="24" t="str">
-        <f aca="false">IF(D113&gt;=1, "OK", "missing!")</f>
-        <v>OK</v>
-      </c>
-      <c r="D113" s="35" t="n">
-        <f aca="false">SUM(E113:I113)</f>
-        <v>1</v>
-      </c>
-      <c r="E113" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B113,settings!B:B, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="F113" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B113, input_constant!A:A, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="G113" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B113, input_sensitivity!B:B, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H113" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(HLOOKUP(B113,project_sites!$2:$2, 1, 0)), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="I113" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B113, case_definitions!A$17:A$30,1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B114" s="34" t="s">
-        <v>190</v>
-      </c>
-      <c r="C114" s="24" t="str">
-        <f aca="false">IF(D114&gt;=1, "OK", "missing!")</f>
-        <v>OK</v>
-      </c>
-      <c r="D114" s="35" t="n">
-        <f aca="false">SUM(E114:I114)</f>
-        <v>1</v>
-      </c>
-      <c r="E114" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B114,settings!B:B, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="F114" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B114, input_constant!A:A, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="G114" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B114, input_sensitivity!B:B, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H114" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(HLOOKUP(B114,project_sites!$2:$2, 1, 0)), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="I114" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B114, case_definitions!A$17:A$30,1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B115" s="34" t="s">
-        <v>191</v>
-      </c>
-      <c r="C115" s="24" t="str">
-        <f aca="false">IF(D115&gt;=1, "OK", "missing!")</f>
-        <v>OK</v>
-      </c>
-      <c r="D115" s="35" t="n">
-        <f aca="false">SUM(E115:I115)</f>
-        <v>1</v>
-      </c>
-      <c r="E115" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B115,settings!B:B, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="F115" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B115, input_constant!A:A, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="G115" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B115, input_sensitivity!B:B, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H115" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(HLOOKUP(B115,project_sites!$2:$2, 1, 0)), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="I115" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B115, case_definitions!A$17:A$30,1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B116" s="34" t="s">
-        <v>192</v>
-      </c>
-      <c r="C116" s="24" t="str">
-        <f aca="false">IF(D116&gt;=1, "OK", "missing!")</f>
-        <v>OK</v>
-      </c>
-      <c r="D116" s="35" t="n">
-        <f aca="false">SUM(E116:I116)</f>
-        <v>1</v>
-      </c>
-      <c r="E116" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B116,settings!B:B, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="F116" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B116, input_constant!A:A, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="G116" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B116, input_sensitivity!B:B, 1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H116" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(HLOOKUP(B116,project_sites!$2:$2, 1, 0)), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="I116" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B116, case_definitions!A$17:A$30,1, 0)), 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B117" s="34" t="s">
-        <v>193</v>
-      </c>
-      <c r="C117" s="24" t="str">
+      <c r="C117" s="26" t="str">
         <f aca="false">IF(D117&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D117" s="35" t="n">
+      <c r="D117" s="36" t="n">
         <f aca="false">SUM(E117:I117)</f>
         <v>1</v>
       </c>
-      <c r="E117" s="36" t="n">
+      <c r="E117" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B117,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F117" s="36" t="n">
+      <c r="F117" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B117, input_constant!A:A, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G117" s="36" t="n">
+      <c r="G117" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B117, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H117" s="36" t="n">
+      <c r="H117" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B117,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="I117" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B117, case_definitions!A$17:A$30,1, 0)), 0)</f>
+      <c r="I117" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B117, case_definitions!A$16:A$28,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B118" s="37" t="s">
-        <v>233</v>
-      </c>
-      <c r="C118" s="24" t="str">
+      <c r="B118" s="38" t="s">
+        <v>217</v>
+      </c>
+      <c r="C118" s="26" t="str">
         <f aca="false">IF(D118&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D118" s="35" t="n">
+      <c r="D118" s="36" t="n">
         <f aca="false">SUM(E118:I118)</f>
         <v>1</v>
       </c>
-      <c r="E118" s="38"/>
-      <c r="F118" s="38"/>
-      <c r="G118" s="38"/>
-      <c r="H118" s="38"/>
-      <c r="I118" s="35" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B118, case_definitions!A$17:A$30,1, 0)), 0)</f>
+      <c r="E118" s="39"/>
+      <c r="F118" s="39"/>
+      <c r="G118" s="39"/>
+      <c r="H118" s="39"/>
+      <c r="I118" s="36" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B118, case_definitions!A$16:A$28,1, 0)), 0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B119" s="37" t="s">
-        <v>206</v>
-      </c>
-      <c r="C119" s="24" t="str">
+      <c r="B119" s="38" t="s">
+        <v>201</v>
+      </c>
+      <c r="C119" s="26" t="str">
         <f aca="false">IF(D119&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D119" s="35" t="n">
+      <c r="D119" s="36" t="n">
         <f aca="false">SUM(E119:I119)</f>
         <v>1</v>
       </c>
-      <c r="E119" s="38"/>
-      <c r="F119" s="38"/>
-      <c r="G119" s="38"/>
-      <c r="H119" s="38"/>
-      <c r="I119" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B119, case_definitions!A$17:A$30,1, 0)), 0)</f>
+      <c r="E119" s="39"/>
+      <c r="F119" s="39"/>
+      <c r="G119" s="39"/>
+      <c r="H119" s="39"/>
+      <c r="I119" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B119, case_definitions!A$16:A$28,1, 0)), 0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B120" s="37" t="s">
-        <v>234</v>
-      </c>
-      <c r="C120" s="24" t="str">
+      <c r="B120" s="38" t="s">
+        <v>218</v>
+      </c>
+      <c r="C120" s="26" t="str">
         <f aca="false">IF(D120&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D120" s="35" t="n">
+      <c r="D120" s="36" t="n">
         <f aca="false">SUM(E120:I120)</f>
         <v>1</v>
       </c>
-      <c r="E120" s="38"/>
-      <c r="F120" s="38"/>
-      <c r="G120" s="38"/>
-      <c r="H120" s="38"/>
-      <c r="I120" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B120, case_definitions!A$17:A$30,1, 0)), 0)</f>
+      <c r="E120" s="39"/>
+      <c r="F120" s="39"/>
+      <c r="G120" s="39"/>
+      <c r="H120" s="39"/>
+      <c r="I120" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B120, case_definitions!A$16:A$28,1, 0)), 0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B121" s="37" t="s">
-        <v>236</v>
-      </c>
-      <c r="C121" s="24" t="str">
+      <c r="B121" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="C121" s="26" t="str">
         <f aca="false">IF(D121&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D121" s="35" t="n">
+      <c r="D121" s="36" t="n">
         <f aca="false">SUM(E121:I121)</f>
         <v>1</v>
       </c>
-      <c r="E121" s="38"/>
-      <c r="F121" s="38"/>
-      <c r="G121" s="38"/>
-      <c r="H121" s="38"/>
-      <c r="I121" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B121, case_definitions!A$17:A$30,1, 0)), 0)</f>
+      <c r="E121" s="39"/>
+      <c r="F121" s="39"/>
+      <c r="G121" s="39"/>
+      <c r="H121" s="39"/>
+      <c r="I121" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B121, case_definitions!A$16:A$28,1, 0)), 0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B122" s="37" t="s">
-        <v>237</v>
-      </c>
-      <c r="C122" s="24" t="str">
+      <c r="B122" s="38" t="s">
+        <v>221</v>
+      </c>
+      <c r="C122" s="26" t="str">
         <f aca="false">IF(D122&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D122" s="35" t="n">
+      <c r="D122" s="36" t="n">
         <f aca="false">SUM(E122:I122)</f>
         <v>1</v>
       </c>
-      <c r="E122" s="38"/>
-      <c r="F122" s="38"/>
-      <c r="G122" s="38"/>
-      <c r="H122" s="38"/>
-      <c r="I122" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B122, case_definitions!A$17:A$30,1, 0)), 0)</f>
+      <c r="E122" s="39"/>
+      <c r="F122" s="39"/>
+      <c r="G122" s="39"/>
+      <c r="H122" s="39"/>
+      <c r="I122" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B122, case_definitions!A$16:A$28,1, 0)), 0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B123" s="37" t="s">
-        <v>239</v>
-      </c>
-      <c r="C123" s="24" t="str">
+      <c r="B123" s="38" t="s">
+        <v>223</v>
+      </c>
+      <c r="C123" s="26" t="str">
         <f aca="false">IF(D123&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D123" s="35" t="n">
+      <c r="D123" s="36" t="n">
         <f aca="false">SUM(E123:I123)</f>
         <v>1</v>
       </c>
-      <c r="E123" s="38"/>
-      <c r="F123" s="38"/>
-      <c r="G123" s="38"/>
-      <c r="H123" s="38"/>
-      <c r="I123" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B123, case_definitions!A$17:A$30,1, 0)), 0)</f>
+      <c r="E123" s="39"/>
+      <c r="F123" s="39"/>
+      <c r="G123" s="39"/>
+      <c r="H123" s="39"/>
+      <c r="I123" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B123, case_definitions!A$16:A$28,1, 0)), 0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B124" s="37" t="s">
-        <v>244</v>
-      </c>
-      <c r="C124" s="24" t="str">
+      <c r="B124" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="C124" s="26" t="str">
         <f aca="false">IF(D124&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D124" s="35" t="n">
+      <c r="D124" s="36" t="n">
         <f aca="false">SUM(E124:I124)</f>
         <v>1</v>
       </c>
-      <c r="E124" s="38"/>
-      <c r="F124" s="38"/>
-      <c r="G124" s="38"/>
-      <c r="H124" s="38"/>
-      <c r="I124" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B124, case_definitions!A$17:A$30,1, 0)), 0)</f>
+      <c r="E124" s="39"/>
+      <c r="F124" s="39"/>
+      <c r="G124" s="39"/>
+      <c r="H124" s="39"/>
+      <c r="I124" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B124, case_definitions!A$16:A$28,1, 0)), 0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B125" s="37" t="s">
-        <v>245</v>
-      </c>
-      <c r="C125" s="24" t="str">
+      <c r="B125" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="C125" s="26" t="str">
         <f aca="false">IF(D125&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D125" s="35" t="n">
+      <c r="D125" s="36" t="n">
         <f aca="false">SUM(E125:I125)</f>
         <v>1</v>
       </c>
-      <c r="E125" s="38"/>
-      <c r="F125" s="38"/>
-      <c r="G125" s="38"/>
-      <c r="H125" s="38"/>
-      <c r="I125" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B125, case_definitions!A$17:A$30,1, 0)), 0)</f>
+      <c r="E125" s="39"/>
+      <c r="F125" s="39"/>
+      <c r="G125" s="39"/>
+      <c r="H125" s="39"/>
+      <c r="I125" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B125, case_definitions!A$16:A$28,1, 0)), 0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B126" s="37" t="s">
-        <v>246</v>
-      </c>
-      <c r="C126" s="24" t="str">
+      <c r="B126" s="38" t="s">
+        <v>229</v>
+      </c>
+      <c r="C126" s="26" t="str">
         <f aca="false">IF(D126&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D126" s="35" t="n">
+      <c r="D126" s="36" t="n">
         <f aca="false">SUM(E126:I126)</f>
         <v>1</v>
       </c>
-      <c r="E126" s="38"/>
-      <c r="F126" s="38"/>
-      <c r="G126" s="38"/>
-      <c r="H126" s="38"/>
-      <c r="I126" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B126, case_definitions!A$17:A$30,1, 0)), 0)</f>
+      <c r="E126" s="39"/>
+      <c r="F126" s="39"/>
+      <c r="G126" s="39"/>
+      <c r="H126" s="39"/>
+      <c r="I126" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B126, case_definitions!A$16:A$28,1, 0)), 0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B127" s="37" t="s">
+      <c r="B127" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="C127" s="24" t="str">
+      <c r="C127" s="26" t="str">
         <f aca="false">IF(D127&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D127" s="35" t="n">
+      <c r="D127" s="36" t="n">
         <f aca="false">SUM(E127:I127)</f>
         <v>2</v>
       </c>
-      <c r="E127" s="36" t="n">
+      <c r="E127" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B127,settings!B:B, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="F127" s="36" t="n">
+      <c r="F127" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B127, input_constant!A:A, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G127" s="36" t="n">
+      <c r="G127" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B127, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H127" s="36" t="n">
+      <c r="H127" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B127,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I127" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B127, case_definitions!A$17:A$30,1, 0)), 0)</f>
+      <c r="I127" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B127, case_definitions!A$16:A$28,1, 0)), 0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B128" s="37" t="s">
-        <v>215</v>
-      </c>
-      <c r="C128" s="24" t="str">
+      <c r="B128" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="C128" s="26" t="str">
         <f aca="false">IF(D128&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D128" s="35" t="n">
+      <c r="D128" s="36" t="n">
         <f aca="false">SUM(E128:I128)</f>
         <v>1</v>
       </c>
-      <c r="E128" s="36" t="n">
+      <c r="E128" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B128,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F128" s="36" t="n">
+      <c r="F128" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B128, input_constant!A:A, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G128" s="36" t="n">
+      <c r="G128" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B128, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H128" s="36" t="n">
+      <c r="H128" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B128,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I128" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B128, case_definitions!A$17:A$30,1, 0)), 0)</f>
+      <c r="I128" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B128, case_definitions!A$16:A$28,1, 0)), 0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B129" s="37" t="s">
-        <v>217</v>
-      </c>
-      <c r="C129" s="24" t="str">
+      <c r="B129" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="C129" s="26" t="str">
         <f aca="false">IF(D129&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D129" s="35" t="n">
+      <c r="D129" s="36" t="n">
         <f aca="false">SUM(E129:I129)</f>
         <v>1</v>
       </c>
-      <c r="E129" s="36" t="n">
+      <c r="E129" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B129,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F129" s="36" t="n">
+      <c r="F129" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B129, input_constant!A:A, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G129" s="36" t="n">
+      <c r="G129" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B129, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H129" s="36" t="n">
+      <c r="H129" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B129,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I129" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B129, case_definitions!A$17:A$30,1, 0)), 0)</f>
+      <c r="I129" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B129, case_definitions!A$16:A$28,1, 0)), 0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B130" s="37" t="s">
-        <v>218</v>
-      </c>
-      <c r="C130" s="24" t="str">
+      <c r="B130" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="C130" s="26" t="str">
         <f aca="false">IF(D130&gt;=1, "OK", "missing!")</f>
-        <v>OK</v>
-      </c>
-      <c r="D130" s="35" t="n">
+        <v>missing!</v>
+      </c>
+      <c r="D130" s="36" t="n">
         <f aca="false">SUM(E130:I130)</f>
-        <v>1</v>
-      </c>
-      <c r="E130" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E130" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B130,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F130" s="36" t="n">
+      <c r="F130" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B130, input_constant!A:A, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G130" s="36" t="n">
+      <c r="G130" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B130, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H130" s="36" t="n">
+      <c r="H130" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B130,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I130" s="36" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B130, case_definitions!A$17:A$30,1, 0)), 0)</f>
-        <v>1</v>
+      <c r="I130" s="37" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B130, case_definitions!A$16:A$28,1, 0)), 0)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/inputs/input_template_excel.xlsx
+++ b/inputs/input_template_excel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="269">
   <si>
     <t xml:space="preserve">Tool for optimizing and simulating off- and on-grid electrification solutions</t>
   </si>
@@ -157,12 +157,15 @@
     <t xml:space="preserve">restore_oemof_if_existant</t>
   </si>
   <si>
+    <t xml:space="preserve">True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">restore_blackouts_if_existant</t>
+  </si>
+  <si>
     <t xml:space="preserve">False</t>
   </si>
   <si>
-    <t xml:space="preserve">restore_blackouts_if_existant</t>
-  </si>
-  <si>
     <t xml:space="preserve">allow_shortage</t>
   </si>
   <si>
@@ -241,9 +244,6 @@
     <t xml:space="preserve">save_oemofresults</t>
   </si>
   <si>
-    <t xml:space="preserve">True</t>
-  </si>
-  <si>
     <t xml:space="preserve">save_to_csv_flows_storage</t>
   </si>
   <si>
@@ -734,6 +734,9 @@
   </si>
   <si>
     <t xml:space="preserve">solarhybrid_usage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">solarhybrid_usage_no_min_load</t>
   </si>
   <si>
     <t xml:space="preserve">perform_simulation</t>
@@ -844,7 +847,7 @@
     <numFmt numFmtId="167" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="168" formatCode="#,##0.00"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -879,11 +882,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1088,11 +1086,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1112,7 +1110,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1124,7 +1122,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1148,11 +1146,11 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1160,7 +1158,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1180,7 +1178,6 @@
         <charset val="1"/>
         <family val="2"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
       <font>
@@ -1188,7 +1185,6 @@
         <charset val="1"/>
         <family val="2"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
       <font>
@@ -1196,7 +1192,6 @@
         <charset val="1"/>
         <family val="2"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
   </dxfs>
   <colors>
@@ -1269,17 +1264,17 @@
   </sheetPr>
   <dimension ref="B2:F21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E28" activeCellId="0" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="1.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="34.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="1.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="8.67"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="1.08163265306122"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="33.2091836734694"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="1.08163265306122"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1474,7 +1469,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -1489,16 +1484,16 @@
   </sheetPr>
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R45" activeCellId="0" sqref="R45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="10" width="11.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.67"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.10714285714286"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.6785714285714"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="10" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1623,20 +1618,20 @@
         <v>44</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="15" t="s">
         <v>45</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C16" s="10" t="n">
         <v>365</v>
@@ -1644,7 +1639,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C17" s="16" t="n">
         <v>43101</v>
@@ -1652,24 +1647,24 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1683,34 +1678,34 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C25" s="10" t="n">
         <v>0.03</v>
@@ -1728,29 +1723,29 @@
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="14"/>
       <c r="B28" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C28" s="17"/>
       <c r="D28" s="14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="14"/>
       <c r="B29" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="14"/>
       <c r="B30" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1758,7 +1753,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C32" s="0"/>
       <c r="D32" s="18"/>
@@ -1766,29 +1761,29 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1796,7 +1791,7 @@
         <v>72</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1804,7 +1799,7 @@
         <v>73</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1822,7 +1817,7 @@
         <v>74</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D40" s="0" t="s">
         <v>75</v>
@@ -1833,7 +1828,7 @@
         <v>76</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D41" s="0" t="s">
         <v>75</v>
@@ -1844,7 +1839,7 @@
         <v>77</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1852,7 +1847,7 @@
         <v>78</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1870,7 +1865,7 @@
         <v>79</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1878,7 +1873,7 @@
         <v>80</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1886,7 +1881,7 @@
         <v>81</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1894,7 +1889,7 @@
         <v>82</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1911,7 +1906,7 @@
         <v>83</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1919,7 +1914,7 @@
         <v>84</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1927,7 +1922,7 @@
         <v>85</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1935,13 +1930,13 @@
         <v>86</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -1956,17 +1951,17 @@
   </sheetPr>
   <dimension ref="A1:D67"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B63" activeCellId="0" sqref="B63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="10" width="6.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="4" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="8.1"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="10" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="1023" min="4" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="7.83163265306122"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2721,7 +2716,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -2736,13 +2731,13 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D34" activeCellId="0" sqref="D34"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2776,7 +2771,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -2791,18 +2786,17 @@
   </sheetPr>
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M14" activeCellId="0" sqref="M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="3" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="15.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="20" style="0" width="8.67"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.7857142857143"/>
+    <col collapsed="false" hidden="false" max="17" min="3" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3035,7 +3029,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -3048,19 +3042,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="19.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="8.67"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.234693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="18.4948979591837"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3134,7 +3128,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>227</v>
@@ -3164,7 +3158,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="139.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="23" t="s">
         <v>217</v>
       </c>
@@ -3177,10 +3171,13 @@
       <c r="D15" s="24" t="s">
         <v>235</v>
       </c>
+      <c r="E15" s="24" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="23" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B16" s="25" t="s">
         <v>43</v>
@@ -3189,6 +3186,9 @@
         <v>43</v>
       </c>
       <c r="D16" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="25" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3197,88 +3197,106 @@
         <v>219</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>43</v>
+        <v>45</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="23" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>43</v>
+        <v>167</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>238</v>
+        <v>239</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="23" t="s">
+        <v>240</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="C19" s="25" t="s">
         <v>239</v>
       </c>
-      <c r="B19" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>238</v>
-      </c>
       <c r="D19" s="25" t="s">
-        <v>238</v>
+        <v>239</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="23" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>241</v>
+        <v>242</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="23" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>71</v>
+        <v>43</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="23" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>244</v>
+        <v>245</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="23" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B23" s="25" t="s">
         <v>167</v>
@@ -3289,10 +3307,13 @@
       <c r="D23" s="25" t="s">
         <v>167</v>
       </c>
+      <c r="E23" s="25" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="23" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B24" s="25" t="s">
         <v>167</v>
@@ -3303,10 +3324,13 @@
       <c r="D24" s="25" t="s">
         <v>167</v>
       </c>
+      <c r="E24" s="25" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="23" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B25" s="25" t="s">
         <v>167</v>
@@ -3317,19 +3341,25 @@
       <c r="D25" s="25" t="s">
         <v>167</v>
       </c>
+      <c r="E25" s="25" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B26" s="25" t="s">
         <v>43</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>71</v>
+        <v>43</v>
+      </c>
+      <c r="E26" s="25" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3337,13 +3367,16 @@
         <v>228</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>248</v>
+        <v>249</v>
+      </c>
+      <c r="E27" s="25" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3351,13 +3384,16 @@
         <v>230</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C28" s="26" t="s">
+        <v>251</v>
+      </c>
+      <c r="D28" s="26" t="s">
         <v>250</v>
       </c>
-      <c r="D28" s="26" t="s">
-        <v>249</v>
+      <c r="E28" s="26" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3365,19 +3401,22 @@
         <v>232</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>43</v>
+        <v>45</v>
+      </c>
+      <c r="E29" s="25" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -3392,23 +3431,23 @@
   </sheetPr>
   <dimension ref="B1:I130"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="1.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="5" style="0" width="6.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="8.67"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="1.08163265306122"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.8112244897959"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="9" min="5" style="0" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="27" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -3420,7 +3459,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -3443,10 +3482,10 @@
     <row r="5" customFormat="false" ht="68.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B5" s="28"/>
       <c r="C5" s="29" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -3460,7 +3499,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -3471,10 +3510,10 @@
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="1"/>
       <c r="C7" s="31" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -3494,16 +3533,16 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B10" s="32" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E10" s="32" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F10" s="32"/>
       <c r="G10" s="32"/>
@@ -3598,7 +3637,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="35" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C14" s="26" t="str">
         <f aca="false">IF(D14&gt;=1, "OK", "missing!")</f>
@@ -3631,7 +3670,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C15" s="26" t="str">
         <f aca="false">IF(D15&gt;=1, "OK", "missing!")</f>
@@ -3664,7 +3703,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="35" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C16" s="26" t="str">
         <f aca="false">IF(D16&gt;=1, "OK", "missing!")</f>
@@ -3697,7 +3736,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="35" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C17" s="26" t="str">
         <f aca="false">IF(D17&gt;=1, "OK", "missing!")</f>
@@ -3730,7 +3769,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C18" s="26" t="str">
         <f aca="false">IF(D18&gt;=1, "OK", "missing!")</f>
@@ -3763,7 +3802,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C19" s="26" t="str">
         <f aca="false">IF(D19&gt;=1, "OK", "missing!")</f>
@@ -3796,7 +3835,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="35" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C20" s="26" t="str">
         <f aca="false">IF(D20&gt;=1, "OK", "missing!")</f>
@@ -3829,7 +3868,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="35" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C21" s="26" t="str">
         <f aca="false">IF(D21&gt;=1, "OK", "missing!")</f>
@@ -3862,7 +3901,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C22" s="26" t="str">
         <f aca="false">IF(D22&gt;=1, "OK", "missing!")</f>
@@ -3895,7 +3934,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="35" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C23" s="26" t="str">
         <f aca="false">IF(D23&gt;=1, "OK", "missing!")</f>
@@ -3928,7 +3967,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="35" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C24" s="26" t="str">
         <f aca="false">IF(D24&gt;=1, "OK", "missing!")</f>
@@ -3961,7 +4000,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="35" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C25" s="26" t="str">
         <f aca="false">IF(D25&gt;=1, "OK", "missing!")</f>
@@ -3994,7 +4033,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="35" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C26" s="26" t="str">
         <f aca="false">IF(D26&gt;=1, "OK", "missing!")</f>
@@ -4027,7 +4066,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="35" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C27" s="26" t="str">
         <f aca="false">IF(D27&gt;=1, "OK", "missing!")</f>
@@ -4060,7 +4099,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B28" s="35" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C28" s="26" t="str">
         <f aca="false">IF(D28&gt;=1, "OK", "missing!")</f>
@@ -4093,7 +4132,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="35" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C29" s="26" t="str">
         <f aca="false">IF(D29&gt;=1, "OK", "missing!")</f>
@@ -4126,7 +4165,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="35" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C30" s="26" t="str">
         <f aca="false">IF(D30&gt;=1, "OK", "missing!")</f>
@@ -4159,7 +4198,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="35" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C31" s="26" t="str">
         <f aca="false">IF(D31&gt;=1, "OK", "missing!")</f>
@@ -4819,7 +4858,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="35" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C51" s="26" t="str">
         <f aca="false">IF(D51&gt;=1, "OK", "missing!")</f>
@@ -5479,7 +5518,7 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="35" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C71" s="26" t="str">
         <f aca="false">IF(D71&gt;=1, "OK", "missing!")</f>
@@ -7030,7 +7069,7 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B118" s="38" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C118" s="26" t="str">
         <f aca="false">IF(D118&gt;=1, "OK", "missing!")</f>
@@ -7072,7 +7111,7 @@
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B120" s="38" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C120" s="26" t="str">
         <f aca="false">IF(D120&gt;=1, "OK", "missing!")</f>
@@ -7093,7 +7132,7 @@
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B121" s="38" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C121" s="26" t="str">
         <f aca="false">IF(D121&gt;=1, "OK", "missing!")</f>
@@ -7114,7 +7153,7 @@
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B122" s="38" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C122" s="26" t="str">
         <f aca="false">IF(D122&gt;=1, "OK", "missing!")</f>
@@ -7135,7 +7174,7 @@
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B123" s="38" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C123" s="26" t="str">
         <f aca="false">IF(D123&gt;=1, "OK", "missing!")</f>
@@ -7156,7 +7195,7 @@
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B124" s="38" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C124" s="26" t="str">
         <f aca="false">IF(D124&gt;=1, "OK", "missing!")</f>
@@ -7177,7 +7216,7 @@
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B125" s="38" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C125" s="26" t="str">
         <f aca="false">IF(D125&gt;=1, "OK", "missing!")</f>
@@ -7198,7 +7237,7 @@
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B126" s="38" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C126" s="26" t="str">
         <f aca="false">IF(D126&gt;=1, "OK", "missing!")</f>
@@ -7219,7 +7258,7 @@
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B127" s="38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C127" s="26" t="str">
         <f aca="false">IF(D127&gt;=1, "OK", "missing!")</f>
@@ -7374,7 +7413,7 @@
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/inputs/input_template_excel.xlsx
+++ b/inputs/input_template_excel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="249">
   <si>
     <t xml:space="preserve">Tool for optimizing and simulating off- and on-grid electrification solutions</t>
   </si>
@@ -157,93 +157,93 @@
     <t xml:space="preserve">restore_oemof_if_existant</t>
   </si>
   <si>
+    <t xml:space="preserve">False</t>
+  </si>
+  <si>
+    <t xml:space="preserve">restore_blackouts_if_existant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">allow_shortage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">evaluated_days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">time_start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">time_frequency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">currently only hourly timestep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sensitivity_all_combinations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If TRUE: All possible combinations of sensitivity parameters are analysed. Results in a huge number of experiments, but enables indentifyin interdependencies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">solver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cbc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">solver_verbose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cmdline_option</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ratioGap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ratioGap, mipgap, AllowedGap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cmdline_option_value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">input_folder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">! this is standardized currently!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">output_folder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">./simulation_results</t>
+  </si>
+  <si>
+    <t xml:space="preserve">output_file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">results</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Output – files</t>
+  </si>
+  <si>
+    <t xml:space="preserve">save_lp_file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lp_file_for_only_3_timesteps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This will perform whole simulation with only 3 timesteps! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">save_oemofresults</t>
+  </si>
+  <si>
     <t xml:space="preserve">True</t>
   </si>
   <si>
-    <t xml:space="preserve">restore_blackouts_if_existant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">False</t>
-  </si>
-  <si>
-    <t xml:space="preserve">allow_shortage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">evaluated_days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">time_start</t>
-  </si>
-  <si>
-    <t xml:space="preserve">time_frequency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">currently only hourly timestep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sensitivity_all_combinations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If TRUE: All possible combinations of sensitivity parameters are analysed. Results in a huge number of experiments, but enables indentifyin interdependencies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">solver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cbc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">solver_verbose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cmdline_option</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ratioGap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ratioGap, mipgap, AllowedGap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cmdline_option_value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">input_folder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">! this is standardized currently!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">output_folder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">./simulation_results</t>
-  </si>
-  <si>
-    <t xml:space="preserve">output_file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">results</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Output – files</t>
-  </si>
-  <si>
-    <t xml:space="preserve">save_lp_file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lp_file_for_only_3_timesteps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This will perform whole simulation with only 3 timesteps! </t>
-  </si>
-  <si>
-    <t xml:space="preserve">save_oemofresults</t>
-  </si>
-  <si>
     <t xml:space="preserve">save_to_csv_flows_storage</t>
   </si>
   <si>
@@ -583,9 +583,6 @@
     <t xml:space="preserve">Step</t>
   </si>
   <si>
-    <t xml:space="preserve">shortage_max_share</t>
-  </si>
-  <si>
     <t xml:space="preserve">project_site_name</t>
   </si>
   <si>
@@ -604,10 +601,13 @@
     <t xml:space="preserve">title_wind</t>
   </si>
   <si>
-    <t xml:space="preserve">17_Polo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">./inputs/timeseries/17_Polo.csv</t>
+    <t xml:space="preserve">title_grid_availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">consumer_tier2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">./inputs/timeseries/intermediate_tier2.csv</t>
   </si>
   <si>
     <t xml:space="preserve">Demand</t>
@@ -619,58 +619,10 @@
     <t xml:space="preserve">Wind</t>
   </si>
   <si>
-    <t xml:space="preserve">20_Mamburao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">./inputs/timeseries/20_Mamburao.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32_Taytay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">./inputs/timeseries/32_Taytay.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34_Araceli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">./inputs/timeseries/34_Araceli.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53_Nabuctot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">./inputs/timeseries/53_Nabuctot.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">105_Cinco-Rama</t>
-  </si>
-  <si>
-    <t xml:space="preserve">./inputs/timeseries/105_Cinco-Rama.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">107_Balut Is.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">./inputs/timeseries/107_Balut Is..csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">108_Lebak-Kalamansig</t>
-  </si>
-  <si>
-    <t xml:space="preserve">./inputs/timeseries/108_Lebak-Kalamansig.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">121_Tandubanak.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">./inputs/timeseries/121_Tandubanak.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">126_Pangutaran</t>
-  </si>
-  <si>
-    <t xml:space="preserve">./inputs/timeseries/126_Pangutaran.csv</t>
+    <t xml:space="preserve">GridAvailability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">consumer_tier2_b</t>
   </si>
   <si>
     <t xml:space="preserve">Attribute</t>
@@ -727,16 +679,7 @@
     <t xml:space="preserve">renewable_constraint</t>
   </si>
   <si>
-    <t xml:space="preserve">diesel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">solarhybrid_backup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">solarhybrid_usage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">solarhybrid_usage_no_min_load</t>
+    <t xml:space="preserve">solar_backup</t>
   </si>
   <si>
     <t xml:space="preserve">perform_simulation</t>
@@ -754,21 +697,21 @@
     <t xml:space="preserve">capacity_genset_kW</t>
   </si>
   <si>
+    <t xml:space="preserve">genset_with_minimal_loading</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number_of_equal_generators</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">capacity_pcc_consumption_kW</t>
+  </si>
+  <si>
     <t xml:space="preserve">peak_demand</t>
   </si>
   <si>
-    <t xml:space="preserve">genset_with_minimal_loading</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number_of_equal_generators</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">capacity_pcc_consumption_kW</t>
-  </si>
-  <si>
     <t xml:space="preserve">capacity_pcc_feedin_kW</t>
   </si>
   <si>
@@ -779,9 +722,6 @@
   </si>
   <si>
     <t xml:space="preserve">share_usage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">share_backup</t>
   </si>
   <si>
     <t xml:space="preserve">Data Sufficiency Check</t>
@@ -847,7 +787,7 @@
     <numFmt numFmtId="167" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="168" formatCode="#,##0.00"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -879,6 +819,13 @@
     <font>
       <b val="true"/>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -1001,7 +948,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1094,6 +1041,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1106,11 +1057,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1122,7 +1069,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1146,11 +1093,15 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1158,7 +1109,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1271,10 +1222,10 @@
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="3" min="1" style="0" width="1.08163265306122"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="33.2091836734694"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.6683673469388"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="1.08163265306122"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1484,16 +1435,16 @@
   </sheetPr>
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R45" activeCellId="0" sqref="R45"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.10714285714286"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.6785714285714"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="10" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.4081632653061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="10" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1618,20 +1569,20 @@
         <v>44</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C16" s="10" t="n">
         <v>365</v>
@@ -1639,7 +1590,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C17" s="16" t="n">
         <v>43101</v>
@@ -1647,24 +1598,24 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="D18" s="0" t="s">
         <v>50</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="0" t="s">
         <v>52</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1678,34 +1629,34 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="10" t="s">
         <v>54</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="D24" s="0" t="s">
         <v>58</v>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C25" s="10" t="n">
         <v>0.03</v>
@@ -1723,29 +1674,29 @@
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="14"/>
       <c r="B28" s="0" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C28" s="17"/>
       <c r="D28" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="14"/>
       <c r="B29" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="10" t="s">
         <v>63</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="14"/>
       <c r="B30" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" s="10" t="s">
         <v>65</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1753,7 +1704,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C32" s="0"/>
       <c r="D32" s="18"/>
@@ -1761,29 +1712,29 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="0" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" s="0" t="s">
         <v>69</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D34" s="0" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" s="15" t="s">
         <v>71</v>
-      </c>
-      <c r="C35" s="15" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1791,7 +1742,7 @@
         <v>72</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1799,7 +1750,7 @@
         <v>73</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1817,7 +1768,7 @@
         <v>74</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D40" s="0" t="s">
         <v>75</v>
@@ -1828,7 +1779,7 @@
         <v>76</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D41" s="0" t="s">
         <v>75</v>
@@ -1839,7 +1790,7 @@
         <v>77</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1847,7 +1798,7 @@
         <v>78</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1865,7 +1816,7 @@
         <v>79</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1873,7 +1824,7 @@
         <v>80</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1881,7 +1832,7 @@
         <v>81</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1889,7 +1840,7 @@
         <v>82</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1906,7 +1857,7 @@
         <v>83</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1914,7 +1865,7 @@
         <v>84</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1922,7 +1873,7 @@
         <v>85</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1930,7 +1881,7 @@
         <v>86</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1951,17 +1902,17 @@
   </sheetPr>
   <dimension ref="A1:D67"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B63" activeCellId="0" sqref="B63"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A18" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B42" activeCellId="0" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6581632653061"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.0765306122449"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="10" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="1023" min="4" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="1023" min="4" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="7.69387755102041"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2729,15 +2680,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2752,20 +2703,6 @@
       </c>
       <c r="D1" s="0" t="s">
         <v>184</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>185</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>0.03</v>
       </c>
     </row>
   </sheetData>
@@ -2784,19 +2721,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M14" activeCellId="0" sqref="M14"/>
+      <selection pane="topLeft" activeCell="J31" activeCellId="0" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.7857142857143"/>
-    <col collapsed="false" hidden="false" max="17" min="3" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.3775510204082"/>
+    <col collapsed="false" hidden="false" max="17" min="3" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2805,21 +2743,24 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>186</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="C2" s="0" t="s">
         <v>187</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="D2" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="E2" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="G2" s="0" t="s">
         <v>191</v>
       </c>
       <c r="H2" s="10"/>
@@ -2844,186 +2785,31 @@
       <c r="F3" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="G3" s="10"/>
+      <c r="G3" s="22" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="19" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>167</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" s="21" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>199</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>200</v>
-      </c>
-      <c r="C5" s="0" t="s">
+      <c r="G4" s="22" t="s">
         <v>167</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>194</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>195</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>201</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>202</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>194</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>195</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>204</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>194</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>195</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>205</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>206</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>194</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>195</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>207</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>208</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>194</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>195</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>209</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>210</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>194</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>195</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>211</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>212</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>194</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>195</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>213</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>194</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>195</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -3042,19 +2828,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B28" activeCellId="0" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.234693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="18.4948979591837"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.83163265306122"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.8265306122449"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="18.2244897959184"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3063,354 +2849,219 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="22" t="s">
-        <v>215</v>
+      <c r="A2" s="23" t="s">
+        <v>199</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="B13" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="58.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="B23" s="26" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="139.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="23" t="s">
-        <v>217</v>
-      </c>
-      <c r="B15" s="24" t="s">
-        <v>233</v>
-      </c>
-      <c r="C15" s="24" t="s">
-        <v>234</v>
-      </c>
-      <c r="D15" s="24" t="s">
-        <v>235</v>
-      </c>
-      <c r="E15" s="24" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="23" t="s">
-        <v>237</v>
-      </c>
-      <c r="B16" s="25" t="s">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="B27" s="26" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="B28" s="26" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="B29" s="26" t="s">
         <v>43</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="25" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="23" t="s">
-        <v>219</v>
-      </c>
-      <c r="B17" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" s="25" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="23" t="s">
-        <v>238</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>239</v>
-      </c>
-      <c r="D18" s="25" t="s">
-        <v>239</v>
-      </c>
-      <c r="E18" s="25" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="23" t="s">
-        <v>240</v>
-      </c>
-      <c r="B19" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>239</v>
-      </c>
-      <c r="D19" s="25" t="s">
-        <v>239</v>
-      </c>
-      <c r="E19" s="25" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="23" t="s">
-        <v>241</v>
-      </c>
-      <c r="B20" s="25" t="s">
-        <v>242</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>242</v>
-      </c>
-      <c r="D20" s="25" t="s">
-        <v>242</v>
-      </c>
-      <c r="E20" s="25" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="23" t="s">
-        <v>243</v>
-      </c>
-      <c r="B21" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" s="25" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="23" t="s">
-        <v>244</v>
-      </c>
-      <c r="B22" s="25" t="s">
-        <v>245</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>245</v>
-      </c>
-      <c r="D22" s="25" t="s">
-        <v>245</v>
-      </c>
-      <c r="E22" s="25" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="23" t="s">
-        <v>246</v>
-      </c>
-      <c r="B23" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="C23" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="D23" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="E23" s="25" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="23" t="s">
-        <v>247</v>
-      </c>
-      <c r="B24" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="C24" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="D24" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="E24" s="25" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="23" t="s">
-        <v>248</v>
-      </c>
-      <c r="B25" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="C25" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="D25" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="E25" s="25" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="B26" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="D26" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="E26" s="25" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="23" t="s">
-        <v>228</v>
-      </c>
-      <c r="B27" s="25" t="s">
-        <v>249</v>
-      </c>
-      <c r="C27" s="25" t="s">
-        <v>249</v>
-      </c>
-      <c r="D27" s="25" t="s">
-        <v>249</v>
-      </c>
-      <c r="E27" s="25" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="23" t="s">
-        <v>230</v>
-      </c>
-      <c r="B28" s="25" t="s">
-        <v>250</v>
-      </c>
-      <c r="C28" s="26" t="s">
-        <v>251</v>
-      </c>
-      <c r="D28" s="26" t="s">
-        <v>250</v>
-      </c>
-      <c r="E28" s="26" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="23" t="s">
-        <v>232</v>
-      </c>
-      <c r="B29" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="D29" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="E29" s="25" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -3438,16 +3089,16 @@
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="1.08163265306122"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.8112244897959"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.5459183673469"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.23469387755102"/>
     <col collapsed="false" hidden="false" max="9" min="5" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="27" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -3459,7 +3110,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="1" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -3482,10 +3133,10 @@
     <row r="5" customFormat="false" ht="68.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B5" s="28"/>
       <c r="C5" s="29" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -3499,7 +3150,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -3510,10 +3161,10 @@
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="1"/>
       <c r="C7" s="31" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>258</v>
+        <v>238</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -3533,16 +3184,16 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B10" s="32" t="s">
-        <v>259</v>
+        <v>239</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
       <c r="E10" s="32" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="F10" s="32"/>
       <c r="G10" s="32"/>
@@ -3573,31 +3224,31 @@
       <c r="B12" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="26" t="str">
+      <c r="C12" s="36" t="str">
         <f aca="false">IF(D12&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D12" s="36" t="n">
+      <c r="D12" s="37" t="n">
         <f aca="false">SUM(E12:I12)</f>
         <v>1</v>
       </c>
-      <c r="E12" s="37" t="n">
+      <c r="E12" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B12,settings!B:B, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="F12" s="37" t="n">
+      <c r="F12" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B12, input_constant!A:A, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G12" s="37" t="n">
+      <c r="G12" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B12, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H12" s="37" t="n">
+      <c r="H12" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B12,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I12" s="37" t="n">
+      <c r="I12" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B12, case_definitions!A$16:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
@@ -3606,625 +3257,625 @@
       <c r="B13" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="26" t="str">
+      <c r="C13" s="36" t="str">
         <f aca="false">IF(D13&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D13" s="36" t="n">
+      <c r="D13" s="37" t="n">
         <f aca="false">SUM(E13:I13)</f>
         <v>1</v>
       </c>
-      <c r="E13" s="37" t="n">
+      <c r="E13" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B13,settings!B:B, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="F13" s="37" t="n">
+      <c r="F13" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B13, input_constant!A:A, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G13" s="37" t="n">
+      <c r="G13" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B13, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H13" s="37" t="n">
+      <c r="H13" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B13,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="37" t="n">
+      <c r="I13" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B13, case_definitions!A$16:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="35" t="s">
-        <v>263</v>
-      </c>
-      <c r="C14" s="26" t="str">
+        <v>243</v>
+      </c>
+      <c r="C14" s="36" t="str">
         <f aca="false">IF(D14&gt;=1, "OK", "missing!")</f>
         <v>missing!</v>
       </c>
-      <c r="D14" s="36" t="n">
+      <c r="D14" s="37" t="n">
         <f aca="false">SUM(E14:I14)</f>
         <v>0</v>
       </c>
-      <c r="E14" s="37" t="n">
+      <c r="E14" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B14,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F14" s="37" t="n">
+      <c r="F14" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B14, input_constant!A:A, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G14" s="37" t="n">
+      <c r="G14" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B14, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H14" s="37" t="n">
+      <c r="H14" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B14,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I14" s="37" t="n">
+      <c r="I14" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B14, case_definitions!A$16:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="26" t="str">
+        <v>45</v>
+      </c>
+      <c r="C15" s="36" t="str">
         <f aca="false">IF(D15&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D15" s="36" t="n">
+      <c r="D15" s="37" t="n">
         <f aca="false">SUM(E15:I15)</f>
         <v>2</v>
       </c>
-      <c r="E15" s="37" t="n">
+      <c r="E15" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B15,settings!B:B, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="F15" s="37" t="n">
+      <c r="F15" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B15, input_constant!A:A, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G15" s="37" t="n">
+      <c r="G15" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B15, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H15" s="37" t="n">
+      <c r="H15" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B15,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I15" s="37" t="n">
+      <c r="I15" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B15, case_definitions!A$16:A$29,1, 0)), 0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="35" t="s">
-        <v>264</v>
-      </c>
-      <c r="C16" s="26" t="str">
+        <v>244</v>
+      </c>
+      <c r="C16" s="36" t="str">
         <f aca="false">IF(D16&gt;=1, "OK", "missing!")</f>
         <v>missing!</v>
       </c>
-      <c r="D16" s="36" t="n">
+      <c r="D16" s="37" t="n">
         <f aca="false">SUM(E16:I16)</f>
         <v>0</v>
       </c>
-      <c r="E16" s="37" t="n">
+      <c r="E16" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B16,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F16" s="37" t="n">
+      <c r="F16" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B16, input_constant!A:A, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G16" s="37" t="n">
+      <c r="G16" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B16, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H16" s="37" t="n">
+      <c r="H16" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B16,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I16" s="37" t="n">
+      <c r="I16" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B16, case_definitions!A$16:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="35" t="s">
-        <v>265</v>
-      </c>
-      <c r="C17" s="26" t="str">
+        <v>245</v>
+      </c>
+      <c r="C17" s="36" t="str">
         <f aca="false">IF(D17&gt;=1, "OK", "missing!")</f>
         <v>missing!</v>
       </c>
-      <c r="D17" s="36" t="n">
+      <c r="D17" s="37" t="n">
         <f aca="false">SUM(E17:I17)</f>
         <v>0</v>
       </c>
-      <c r="E17" s="37" t="n">
+      <c r="E17" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B17,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F17" s="37" t="n">
+      <c r="F17" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B17, input_constant!A:A, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="37" t="n">
+      <c r="G17" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B17, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H17" s="37" t="n">
+      <c r="H17" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B17,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I17" s="37" t="n">
+      <c r="I17" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B17, case_definitions!A$16:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="26" t="str">
+        <v>46</v>
+      </c>
+      <c r="C18" s="36" t="str">
         <f aca="false">IF(D18&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D18" s="36" t="n">
+      <c r="D18" s="37" t="n">
         <f aca="false">SUM(E18:I18)</f>
         <v>1</v>
       </c>
-      <c r="E18" s="37" t="n">
+      <c r="E18" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B18,settings!B:B, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="F18" s="37" t="n">
+      <c r="F18" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B18, input_constant!A:A, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G18" s="37" t="n">
+      <c r="G18" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B18, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H18" s="37" t="n">
+      <c r="H18" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B18,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I18" s="37" t="n">
+      <c r="I18" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B18, case_definitions!A$16:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="26" t="str">
+        <v>47</v>
+      </c>
+      <c r="C19" s="36" t="str">
         <f aca="false">IF(D19&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D19" s="36" t="n">
+      <c r="D19" s="37" t="n">
         <f aca="false">SUM(E19:I19)</f>
         <v>1</v>
       </c>
-      <c r="E19" s="37" t="n">
+      <c r="E19" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B19,settings!B:B, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="F19" s="37" t="n">
+      <c r="F19" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B19, input_constant!A:A, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G19" s="37" t="n">
+      <c r="G19" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B19, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H19" s="37" t="n">
+      <c r="H19" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B19,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I19" s="37" t="n">
+      <c r="I19" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B19, case_definitions!A$16:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="26" t="str">
+        <v>48</v>
+      </c>
+      <c r="C20" s="36" t="str">
         <f aca="false">IF(D20&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D20" s="36" t="n">
+      <c r="D20" s="37" t="n">
         <f aca="false">SUM(E20:I20)</f>
         <v>1</v>
       </c>
-      <c r="E20" s="37" t="n">
+      <c r="E20" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B20,settings!B:B, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="F20" s="37" t="n">
+      <c r="F20" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B20, input_constant!A:A, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G20" s="37" t="n">
+      <c r="G20" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B20, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H20" s="37" t="n">
+      <c r="H20" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B20,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I20" s="37" t="n">
+      <c r="I20" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B20, case_definitions!A$16:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="26" t="str">
+        <v>51</v>
+      </c>
+      <c r="C21" s="36" t="str">
         <f aca="false">IF(D21&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D21" s="36" t="n">
+      <c r="D21" s="37" t="n">
         <f aca="false">SUM(E21:I21)</f>
         <v>1</v>
       </c>
-      <c r="E21" s="37" t="n">
+      <c r="E21" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B21,settings!B:B, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="F21" s="37" t="n">
+      <c r="F21" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B21, input_constant!A:A, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G21" s="37" t="n">
+      <c r="G21" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B21, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H21" s="37" t="n">
+      <c r="H21" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B21,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I21" s="37" t="n">
+      <c r="I21" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B21, case_definitions!A$16:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" s="26" t="str">
+        <v>53</v>
+      </c>
+      <c r="C22" s="36" t="str">
         <f aca="false">IF(D22&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D22" s="36" t="n">
+      <c r="D22" s="37" t="n">
         <f aca="false">SUM(E22:I22)</f>
         <v>1</v>
       </c>
-      <c r="E22" s="37" t="n">
+      <c r="E22" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B22,settings!B:B, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="F22" s="37" t="n">
+      <c r="F22" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B22, input_constant!A:A, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G22" s="37" t="n">
+      <c r="G22" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B22, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H22" s="37" t="n">
+      <c r="H22" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B22,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I22" s="37" t="n">
+      <c r="I22" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B22, case_definitions!A$16:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23" s="26" t="str">
+        <v>55</v>
+      </c>
+      <c r="C23" s="36" t="str">
         <f aca="false">IF(D23&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D23" s="36" t="n">
+      <c r="D23" s="37" t="n">
         <f aca="false">SUM(E23:I23)</f>
         <v>1</v>
       </c>
-      <c r="E23" s="37" t="n">
+      <c r="E23" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B23,settings!B:B, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="F23" s="37" t="n">
+      <c r="F23" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B23, input_constant!A:A, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G23" s="37" t="n">
+      <c r="G23" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B23, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H23" s="37" t="n">
+      <c r="H23" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B23,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I23" s="37" t="n">
+      <c r="I23" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B23, case_definitions!A$16:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="C24" s="26" t="str">
+        <v>56</v>
+      </c>
+      <c r="C24" s="36" t="str">
         <f aca="false">IF(D24&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D24" s="36" t="n">
+      <c r="D24" s="37" t="n">
         <f aca="false">SUM(E24:I24)</f>
         <v>1</v>
       </c>
-      <c r="E24" s="37" t="n">
+      <c r="E24" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B24,settings!B:B, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="F24" s="37" t="n">
+      <c r="F24" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B24, input_constant!A:A, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G24" s="37" t="n">
+      <c r="G24" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B24, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H24" s="37" t="n">
+      <c r="H24" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B24,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I24" s="37" t="n">
+      <c r="I24" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B24, case_definitions!A$16:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" s="26" t="str">
+        <v>59</v>
+      </c>
+      <c r="C25" s="36" t="str">
         <f aca="false">IF(D25&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D25" s="36" t="n">
+      <c r="D25" s="37" t="n">
         <f aca="false">SUM(E25:I25)</f>
         <v>1</v>
       </c>
-      <c r="E25" s="37" t="n">
+      <c r="E25" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B25,settings!B:B, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="F25" s="37" t="n">
+      <c r="F25" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B25, input_constant!A:A, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G25" s="37" t="n">
+      <c r="G25" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B25, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H25" s="37" t="n">
+      <c r="H25" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B25,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I25" s="37" t="n">
+      <c r="I25" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B25, case_definitions!A$16:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="C26" s="26" t="str">
+        <v>60</v>
+      </c>
+      <c r="C26" s="36" t="str">
         <f aca="false">IF(D26&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D26" s="36" t="n">
+      <c r="D26" s="37" t="n">
         <f aca="false">SUM(E26:I26)</f>
         <v>1</v>
       </c>
-      <c r="E26" s="37" t="n">
+      <c r="E26" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B26,settings!B:B, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="F26" s="37" t="n">
+      <c r="F26" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B26, input_constant!A:A, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G26" s="37" t="n">
+      <c r="G26" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B26, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H26" s="37" t="n">
+      <c r="H26" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B26,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I26" s="37" t="n">
+      <c r="I26" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B26, case_definitions!A$16:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="C27" s="26" t="str">
+        <v>62</v>
+      </c>
+      <c r="C27" s="36" t="str">
         <f aca="false">IF(D27&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D27" s="36" t="n">
+      <c r="D27" s="37" t="n">
         <f aca="false">SUM(E27:I27)</f>
         <v>1</v>
       </c>
-      <c r="E27" s="37" t="n">
+      <c r="E27" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B27,settings!B:B, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="F27" s="37" t="n">
+      <c r="F27" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B27, input_constant!A:A, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G27" s="37" t="n">
+      <c r="G27" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B27, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H27" s="37" t="n">
+      <c r="H27" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B27,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I27" s="37" t="n">
+      <c r="I27" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B27, case_definitions!A$16:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B28" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="C28" s="26" t="str">
+        <v>64</v>
+      </c>
+      <c r="C28" s="36" t="str">
         <f aca="false">IF(D28&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D28" s="36" t="n">
+      <c r="D28" s="37" t="n">
         <f aca="false">SUM(E28:I28)</f>
         <v>1</v>
       </c>
-      <c r="E28" s="37" t="n">
+      <c r="E28" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B28,settings!B:B, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="F28" s="37" t="n">
+      <c r="F28" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B28, input_constant!A:A, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G28" s="37" t="n">
+      <c r="G28" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B28, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H28" s="37" t="n">
+      <c r="H28" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B28,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I28" s="37" t="n">
+      <c r="I28" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B28, case_definitions!A$16:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="C29" s="26" t="str">
+        <v>67</v>
+      </c>
+      <c r="C29" s="36" t="str">
         <f aca="false">IF(D29&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D29" s="36" t="n">
+      <c r="D29" s="37" t="n">
         <f aca="false">SUM(E29:I29)</f>
         <v>1</v>
       </c>
-      <c r="E29" s="37" t="n">
+      <c r="E29" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B29,settings!B:B, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="F29" s="37" t="n">
+      <c r="F29" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B29, input_constant!A:A, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G29" s="37" t="n">
+      <c r="G29" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B29, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H29" s="37" t="n">
+      <c r="H29" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B29,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I29" s="37" t="n">
+      <c r="I29" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B29, case_definitions!A$16:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="35" t="s">
-        <v>266</v>
-      </c>
-      <c r="C30" s="26" t="str">
+        <v>246</v>
+      </c>
+      <c r="C30" s="36" t="str">
         <f aca="false">IF(D30&gt;=1, "OK", "missing!")</f>
         <v>missing!</v>
       </c>
-      <c r="D30" s="36" t="n">
+      <c r="D30" s="37" t="n">
         <f aca="false">SUM(E30:I30)</f>
         <v>0</v>
       </c>
-      <c r="E30" s="37" t="n">
+      <c r="E30" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B30,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F30" s="37" t="n">
+      <c r="F30" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B30, input_constant!A:A, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G30" s="37" t="n">
+      <c r="G30" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B30, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H30" s="37" t="n">
+      <c r="H30" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B30,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I30" s="37" t="n">
+      <c r="I30" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B30, case_definitions!A$16:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="C31" s="26" t="str">
+        <v>70</v>
+      </c>
+      <c r="C31" s="36" t="str">
         <f aca="false">IF(D31&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D31" s="36" t="n">
+      <c r="D31" s="37" t="n">
         <f aca="false">SUM(E31:I31)</f>
         <v>1</v>
       </c>
-      <c r="E31" s="37" t="n">
+      <c r="E31" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B31,settings!B:B, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="F31" s="37" t="n">
+      <c r="F31" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B31, input_constant!A:A, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G31" s="37" t="n">
+      <c r="G31" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B31, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H31" s="37" t="n">
+      <c r="H31" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B31,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I31" s="37" t="n">
+      <c r="I31" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B31, case_definitions!A$16:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
@@ -4233,31 +3884,31 @@
       <c r="B32" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="C32" s="26" t="str">
+      <c r="C32" s="36" t="str">
         <f aca="false">IF(D32&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D32" s="36" t="n">
+      <c r="D32" s="37" t="n">
         <f aca="false">SUM(E32:I32)</f>
         <v>1</v>
       </c>
-      <c r="E32" s="37" t="n">
+      <c r="E32" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B32,settings!B:B, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="F32" s="37" t="n">
+      <c r="F32" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B32, input_constant!A:A, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G32" s="37" t="n">
+      <c r="G32" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B32, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H32" s="37" t="n">
+      <c r="H32" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B32,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I32" s="37" t="n">
+      <c r="I32" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B32, case_definitions!A$16:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
@@ -4266,31 +3917,31 @@
       <c r="B33" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="C33" s="26" t="str">
+      <c r="C33" s="36" t="str">
         <f aca="false">IF(D33&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D33" s="36" t="n">
+      <c r="D33" s="37" t="n">
         <f aca="false">SUM(E33:I33)</f>
         <v>1</v>
       </c>
-      <c r="E33" s="37" t="n">
+      <c r="E33" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B33,settings!B:B, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="F33" s="37" t="n">
+      <c r="F33" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B33, input_constant!A:A, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G33" s="37" t="n">
+      <c r="G33" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B33, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H33" s="37" t="n">
+      <c r="H33" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B33,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I33" s="37" t="n">
+      <c r="I33" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B33, case_definitions!A$16:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
@@ -4299,31 +3950,31 @@
       <c r="B34" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="C34" s="26" t="str">
+      <c r="C34" s="36" t="str">
         <f aca="false">IF(D34&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D34" s="36" t="n">
+      <c r="D34" s="37" t="n">
         <f aca="false">SUM(E34:I34)</f>
         <v>1</v>
       </c>
-      <c r="E34" s="37" t="n">
+      <c r="E34" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B34,settings!B:B, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="F34" s="37" t="n">
+      <c r="F34" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B34, input_constant!A:A, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G34" s="37" t="n">
+      <c r="G34" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B34, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H34" s="37" t="n">
+      <c r="H34" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B34,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I34" s="37" t="n">
+      <c r="I34" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B34, case_definitions!A$16:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
@@ -4332,31 +3983,31 @@
       <c r="B35" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="C35" s="26" t="str">
+      <c r="C35" s="36" t="str">
         <f aca="false">IF(D35&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D35" s="36" t="n">
+      <c r="D35" s="37" t="n">
         <f aca="false">SUM(E35:I35)</f>
         <v>1</v>
       </c>
-      <c r="E35" s="37" t="n">
+      <c r="E35" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B35,settings!B:B, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="F35" s="37" t="n">
+      <c r="F35" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B35, input_constant!A:A, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G35" s="37" t="n">
+      <c r="G35" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B35, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H35" s="37" t="n">
+      <c r="H35" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B35,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I35" s="37" t="n">
+      <c r="I35" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B35, case_definitions!A$16:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
@@ -4365,31 +4016,31 @@
       <c r="B36" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="C36" s="26" t="str">
+      <c r="C36" s="36" t="str">
         <f aca="false">IF(D36&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D36" s="36" t="n">
+      <c r="D36" s="37" t="n">
         <f aca="false">SUM(E36:I36)</f>
         <v>1</v>
       </c>
-      <c r="E36" s="37" t="n">
+      <c r="E36" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B36,settings!B:B, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="F36" s="37" t="n">
+      <c r="F36" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B36, input_constant!A:A, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G36" s="37" t="n">
+      <c r="G36" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B36, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H36" s="37" t="n">
+      <c r="H36" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B36,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I36" s="37" t="n">
+      <c r="I36" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B36, case_definitions!A$16:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
@@ -4398,31 +4049,31 @@
       <c r="B37" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="C37" s="26" t="str">
+      <c r="C37" s="36" t="str">
         <f aca="false">IF(D37&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D37" s="36" t="n">
+      <c r="D37" s="37" t="n">
         <f aca="false">SUM(E37:I37)</f>
         <v>1</v>
       </c>
-      <c r="E37" s="37" t="n">
+      <c r="E37" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B37,settings!B:B, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="F37" s="37" t="n">
+      <c r="F37" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B37, input_constant!A:A, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G37" s="37" t="n">
+      <c r="G37" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B37, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H37" s="37" t="n">
+      <c r="H37" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B37,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I37" s="37" t="n">
+      <c r="I37" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B37, case_definitions!A$16:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
@@ -4431,31 +4082,31 @@
       <c r="B38" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="C38" s="26" t="str">
+      <c r="C38" s="36" t="str">
         <f aca="false">IF(D38&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D38" s="36" t="n">
+      <c r="D38" s="37" t="n">
         <f aca="false">SUM(E38:I38)</f>
         <v>1</v>
       </c>
-      <c r="E38" s="37" t="n">
+      <c r="E38" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B38,settings!B:B, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="F38" s="37" t="n">
+      <c r="F38" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B38, input_constant!A:A, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G38" s="37" t="n">
+      <c r="G38" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B38, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H38" s="37" t="n">
+      <c r="H38" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B38,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I38" s="37" t="n">
+      <c r="I38" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B38, case_definitions!A$16:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
@@ -4464,31 +4115,31 @@
       <c r="B39" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="C39" s="26" t="str">
+      <c r="C39" s="36" t="str">
         <f aca="false">IF(D39&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D39" s="36" t="n">
+      <c r="D39" s="37" t="n">
         <f aca="false">SUM(E39:I39)</f>
         <v>1</v>
       </c>
-      <c r="E39" s="37" t="n">
+      <c r="E39" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B39,settings!B:B, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="F39" s="37" t="n">
+      <c r="F39" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B39, input_constant!A:A, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G39" s="37" t="n">
+      <c r="G39" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B39, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H39" s="37" t="n">
+      <c r="H39" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B39,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I39" s="37" t="n">
+      <c r="I39" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B39, case_definitions!A$16:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
@@ -4497,31 +4148,31 @@
       <c r="B40" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="C40" s="26" t="str">
+      <c r="C40" s="36" t="str">
         <f aca="false">IF(D40&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D40" s="36" t="n">
+      <c r="D40" s="37" t="n">
         <f aca="false">SUM(E40:I40)</f>
         <v>1</v>
       </c>
-      <c r="E40" s="37" t="n">
+      <c r="E40" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B40,settings!B:B, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="F40" s="37" t="n">
+      <c r="F40" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B40, input_constant!A:A, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G40" s="37" t="n">
+      <c r="G40" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B40, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H40" s="37" t="n">
+      <c r="H40" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B40,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I40" s="37" t="n">
+      <c r="I40" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B40, case_definitions!A$16:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
@@ -4530,31 +4181,31 @@
       <c r="B41" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="C41" s="26" t="str">
+      <c r="C41" s="36" t="str">
         <f aca="false">IF(D41&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D41" s="36" t="n">
+      <c r="D41" s="37" t="n">
         <f aca="false">SUM(E41:I41)</f>
         <v>1</v>
       </c>
-      <c r="E41" s="37" t="n">
+      <c r="E41" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B41,settings!B:B, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="F41" s="37" t="n">
+      <c r="F41" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B41, input_constant!A:A, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G41" s="37" t="n">
+      <c r="G41" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B41, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H41" s="37" t="n">
+      <c r="H41" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B41,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I41" s="37" t="n">
+      <c r="I41" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B41, case_definitions!A$16:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
@@ -4563,31 +4214,31 @@
       <c r="B42" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="C42" s="26" t="str">
+      <c r="C42" s="36" t="str">
         <f aca="false">IF(D42&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D42" s="36" t="n">
+      <c r="D42" s="37" t="n">
         <f aca="false">SUM(E42:I42)</f>
         <v>1</v>
       </c>
-      <c r="E42" s="37" t="n">
+      <c r="E42" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B42,settings!B:B, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="F42" s="37" t="n">
+      <c r="F42" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B42, input_constant!A:A, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G42" s="37" t="n">
+      <c r="G42" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B42, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H42" s="37" t="n">
+      <c r="H42" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B42,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I42" s="37" t="n">
+      <c r="I42" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B42, case_definitions!A$16:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
@@ -4596,31 +4247,31 @@
       <c r="B43" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="C43" s="26" t="str">
+      <c r="C43" s="36" t="str">
         <f aca="false">IF(D43&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D43" s="36" t="n">
+      <c r="D43" s="37" t="n">
         <f aca="false">SUM(E43:I43)</f>
         <v>1</v>
       </c>
-      <c r="E43" s="37" t="n">
+      <c r="E43" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B43,settings!B:B, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="F43" s="37" t="n">
+      <c r="F43" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B43, input_constant!A:A, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G43" s="37" t="n">
+      <c r="G43" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B43, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H43" s="37" t="n">
+      <c r="H43" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B43,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I43" s="37" t="n">
+      <c r="I43" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B43, case_definitions!A$16:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
@@ -4629,31 +4280,31 @@
       <c r="B44" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="C44" s="26" t="str">
+      <c r="C44" s="36" t="str">
         <f aca="false">IF(D44&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D44" s="36" t="n">
+      <c r="D44" s="37" t="n">
         <f aca="false">SUM(E44:I44)</f>
         <v>1</v>
       </c>
-      <c r="E44" s="37" t="n">
+      <c r="E44" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B44,settings!B:B, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="F44" s="37" t="n">
+      <c r="F44" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B44, input_constant!A:A, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G44" s="37" t="n">
+      <c r="G44" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B44, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H44" s="37" t="n">
+      <c r="H44" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B44,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I44" s="37" t="n">
+      <c r="I44" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B44, case_definitions!A$16:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
@@ -4662,31 +4313,31 @@
       <c r="B45" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="C45" s="26" t="str">
+      <c r="C45" s="36" t="str">
         <f aca="false">IF(D45&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D45" s="36" t="n">
+      <c r="D45" s="37" t="n">
         <f aca="false">SUM(E45:I45)</f>
         <v>1</v>
       </c>
-      <c r="E45" s="37" t="n">
+      <c r="E45" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B45,settings!B:B, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="F45" s="37" t="n">
+      <c r="F45" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B45, input_constant!A:A, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G45" s="37" t="n">
+      <c r="G45" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B45, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H45" s="37" t="n">
+      <c r="H45" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B45,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I45" s="37" t="n">
+      <c r="I45" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B45, case_definitions!A$16:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
@@ -4695,31 +4346,31 @@
       <c r="B46" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="C46" s="26" t="str">
+      <c r="C46" s="36" t="str">
         <f aca="false">IF(D46&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D46" s="36" t="n">
+      <c r="D46" s="37" t="n">
         <f aca="false">SUM(E46:I46)</f>
         <v>1</v>
       </c>
-      <c r="E46" s="37" t="n">
+      <c r="E46" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B46,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F46" s="37" t="n">
+      <c r="F46" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B46, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="G46" s="37" t="n">
+      <c r="G46" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B46, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H46" s="37" t="n">
+      <c r="H46" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B46,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I46" s="37" t="n">
+      <c r="I46" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B46, case_definitions!A$16:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
@@ -4728,31 +4379,31 @@
       <c r="B47" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="C47" s="26" t="str">
+      <c r="C47" s="36" t="str">
         <f aca="false">IF(D47&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D47" s="36" t="n">
+      <c r="D47" s="37" t="n">
         <f aca="false">SUM(E47:I47)</f>
         <v>1</v>
       </c>
-      <c r="E47" s="37" t="n">
+      <c r="E47" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B47,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F47" s="37" t="n">
+      <c r="F47" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B47, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="G47" s="37" t="n">
+      <c r="G47" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B47, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H47" s="37" t="n">
+      <c r="H47" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B47,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I47" s="37" t="n">
+      <c r="I47" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B47, case_definitions!A$16:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
@@ -4761,31 +4412,31 @@
       <c r="B48" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="C48" s="26" t="str">
+      <c r="C48" s="36" t="str">
         <f aca="false">IF(D48&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D48" s="36" t="n">
+      <c r="D48" s="37" t="n">
         <f aca="false">SUM(E48:I48)</f>
         <v>1</v>
       </c>
-      <c r="E48" s="37" t="n">
+      <c r="E48" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B48,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F48" s="37" t="n">
+      <c r="F48" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B48, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="G48" s="37" t="n">
+      <c r="G48" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B48, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H48" s="37" t="n">
+      <c r="H48" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B48,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I48" s="37" t="n">
+      <c r="I48" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B48, case_definitions!A$16:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
@@ -4794,31 +4445,31 @@
       <c r="B49" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="C49" s="26" t="str">
+      <c r="C49" s="36" t="str">
         <f aca="false">IF(D49&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D49" s="36" t="n">
+      <c r="D49" s="37" t="n">
         <f aca="false">SUM(E49:I49)</f>
         <v>1</v>
       </c>
-      <c r="E49" s="37" t="n">
+      <c r="E49" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B49,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F49" s="37" t="n">
+      <c r="F49" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B49, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="G49" s="37" t="n">
+      <c r="G49" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B49, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H49" s="37" t="n">
+      <c r="H49" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B49,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I49" s="37" t="n">
+      <c r="I49" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B49, case_definitions!A$16:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
@@ -4827,64 +4478,64 @@
       <c r="B50" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="C50" s="26" t="str">
+      <c r="C50" s="36" t="str">
         <f aca="false">IF(D50&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D50" s="36" t="n">
+      <c r="D50" s="37" t="n">
         <f aca="false">SUM(E50:I50)</f>
         <v>1</v>
       </c>
-      <c r="E50" s="37" t="n">
+      <c r="E50" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B50,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F50" s="37" t="n">
+      <c r="F50" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B50, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="G50" s="37" t="n">
+      <c r="G50" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B50, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H50" s="37" t="n">
+      <c r="H50" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B50,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I50" s="37" t="n">
+      <c r="I50" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B50, case_definitions!A$16:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="35" t="s">
-        <v>267</v>
-      </c>
-      <c r="C51" s="26" t="str">
+        <v>247</v>
+      </c>
+      <c r="C51" s="36" t="str">
         <f aca="false">IF(D51&gt;=1, "OK", "missing!")</f>
         <v>missing!</v>
       </c>
-      <c r="D51" s="36" t="n">
+      <c r="D51" s="37" t="n">
         <f aca="false">SUM(E51:I51)</f>
         <v>0</v>
       </c>
-      <c r="E51" s="37" t="n">
+      <c r="E51" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B51,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F51" s="37" t="n">
+      <c r="F51" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B51, input_constant!A:A, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G51" s="37" t="n">
+      <c r="G51" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B51, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H51" s="37" t="n">
+      <c r="H51" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B51,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I51" s="37" t="n">
+      <c r="I51" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B51, case_definitions!A$16:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
@@ -4893,31 +4544,31 @@
       <c r="B52" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="C52" s="26" t="str">
+      <c r="C52" s="36" t="str">
         <f aca="false">IF(D52&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D52" s="36" t="n">
+      <c r="D52" s="37" t="n">
         <f aca="false">SUM(E52:I52)</f>
         <v>1</v>
       </c>
-      <c r="E52" s="37" t="n">
+      <c r="E52" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B52,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F52" s="37" t="n">
+      <c r="F52" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B52, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="G52" s="37" t="n">
+      <c r="G52" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B52, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H52" s="37" t="n">
+      <c r="H52" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B52,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I52" s="37" t="n">
+      <c r="I52" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B52, case_definitions!A$16:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
@@ -4926,31 +4577,31 @@
       <c r="B53" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="C53" s="26" t="str">
+      <c r="C53" s="36" t="str">
         <f aca="false">IF(D53&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D53" s="36" t="n">
+      <c r="D53" s="37" t="n">
         <f aca="false">SUM(E53:I53)</f>
         <v>1</v>
       </c>
-      <c r="E53" s="37" t="n">
+      <c r="E53" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B53,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F53" s="37" t="n">
+      <c r="F53" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B53, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="G53" s="37" t="n">
+      <c r="G53" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B53, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H53" s="37" t="n">
+      <c r="H53" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B53,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I53" s="37" t="n">
+      <c r="I53" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B53, case_definitions!A$16:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
@@ -4959,31 +4610,31 @@
       <c r="B54" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="C54" s="26" t="str">
+      <c r="C54" s="36" t="str">
         <f aca="false">IF(D54&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D54" s="36" t="n">
+      <c r="D54" s="37" t="n">
         <f aca="false">SUM(E54:I54)</f>
         <v>1</v>
       </c>
-      <c r="E54" s="37" t="n">
+      <c r="E54" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B54,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F54" s="37" t="n">
+      <c r="F54" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B54, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="G54" s="37" t="n">
+      <c r="G54" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B54, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H54" s="37" t="n">
+      <c r="H54" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B54,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I54" s="37" t="n">
+      <c r="I54" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B54, case_definitions!A$16:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
@@ -4992,31 +4643,31 @@
       <c r="B55" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="C55" s="26" t="str">
+      <c r="C55" s="36" t="str">
         <f aca="false">IF(D55&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D55" s="36" t="n">
+      <c r="D55" s="37" t="n">
         <f aca="false">SUM(E55:I55)</f>
         <v>1</v>
       </c>
-      <c r="E55" s="37" t="n">
+      <c r="E55" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B55,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F55" s="37" t="n">
+      <c r="F55" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B55, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="G55" s="37" t="n">
+      <c r="G55" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B55, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H55" s="37" t="n">
+      <c r="H55" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B55,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I55" s="37" t="n">
+      <c r="I55" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B55, case_definitions!A$16:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
@@ -5025,31 +4676,31 @@
       <c r="B56" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="C56" s="26" t="str">
+      <c r="C56" s="36" t="str">
         <f aca="false">IF(D56&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D56" s="36" t="n">
+      <c r="D56" s="37" t="n">
         <f aca="false">SUM(E56:I56)</f>
         <v>1</v>
       </c>
-      <c r="E56" s="37" t="n">
+      <c r="E56" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B56,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F56" s="37" t="n">
+      <c r="F56" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B56, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="G56" s="37" t="n">
+      <c r="G56" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B56, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H56" s="37" t="n">
+      <c r="H56" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B56,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I56" s="37" t="n">
+      <c r="I56" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B56, case_definitions!A$16:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
@@ -5058,31 +4709,31 @@
       <c r="B57" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="C57" s="26" t="str">
+      <c r="C57" s="36" t="str">
         <f aca="false">IF(D57&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D57" s="36" t="n">
+      <c r="D57" s="37" t="n">
         <f aca="false">SUM(E57:I57)</f>
         <v>1</v>
       </c>
-      <c r="E57" s="37" t="n">
+      <c r="E57" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B57,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F57" s="37" t="n">
+      <c r="F57" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B57, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="G57" s="37" t="n">
+      <c r="G57" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B57, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H57" s="37" t="n">
+      <c r="H57" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B57,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I57" s="37" t="n">
+      <c r="I57" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B57, case_definitions!A$16:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
@@ -5091,31 +4742,31 @@
       <c r="B58" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="C58" s="26" t="str">
+      <c r="C58" s="36" t="str">
         <f aca="false">IF(D58&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D58" s="36" t="n">
+      <c r="D58" s="37" t="n">
         <f aca="false">SUM(E58:I58)</f>
         <v>1</v>
       </c>
-      <c r="E58" s="37" t="n">
+      <c r="E58" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B58,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F58" s="37" t="n">
+      <c r="F58" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B58, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="G58" s="37" t="n">
+      <c r="G58" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B58, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H58" s="37" t="n">
+      <c r="H58" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B58,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I58" s="37" t="n">
+      <c r="I58" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B58, case_definitions!A$16:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
@@ -5124,31 +4775,31 @@
       <c r="B59" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="C59" s="26" t="str">
+      <c r="C59" s="36" t="str">
         <f aca="false">IF(D59&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D59" s="36" t="n">
+      <c r="D59" s="37" t="n">
         <f aca="false">SUM(E59:I59)</f>
         <v>1</v>
       </c>
-      <c r="E59" s="37" t="n">
+      <c r="E59" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B59,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F59" s="37" t="n">
+      <c r="F59" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B59, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="G59" s="37" t="n">
+      <c r="G59" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B59, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H59" s="37" t="n">
+      <c r="H59" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B59,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I59" s="37" t="n">
+      <c r="I59" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B59, case_definitions!A$16:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
@@ -5157,31 +4808,31 @@
       <c r="B60" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="C60" s="26" t="str">
+      <c r="C60" s="36" t="str">
         <f aca="false">IF(D60&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D60" s="36" t="n">
+      <c r="D60" s="37" t="n">
         <f aca="false">SUM(E60:I60)</f>
         <v>1</v>
       </c>
-      <c r="E60" s="37" t="n">
+      <c r="E60" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B60,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F60" s="37" t="n">
+      <c r="F60" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B60, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="G60" s="37" t="n">
+      <c r="G60" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B60, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H60" s="37" t="n">
+      <c r="H60" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B60,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I60" s="37" t="n">
+      <c r="I60" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B60, case_definitions!A$16:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
@@ -5190,31 +4841,31 @@
       <c r="B61" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="C61" s="26" t="str">
+      <c r="C61" s="36" t="str">
         <f aca="false">IF(D61&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D61" s="36" t="n">
+      <c r="D61" s="37" t="n">
         <f aca="false">SUM(E61:I61)</f>
         <v>1</v>
       </c>
-      <c r="E61" s="37" t="n">
+      <c r="E61" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B61,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F61" s="37" t="n">
+      <c r="F61" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B61, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="G61" s="37" t="n">
+      <c r="G61" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B61, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H61" s="37" t="n">
+      <c r="H61" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B61,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I61" s="37" t="n">
+      <c r="I61" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B61, case_definitions!A$16:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
@@ -5223,31 +4874,31 @@
       <c r="B62" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="C62" s="26" t="str">
+      <c r="C62" s="36" t="str">
         <f aca="false">IF(D62&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D62" s="36" t="n">
+      <c r="D62" s="37" t="n">
         <f aca="false">SUM(E62:I62)</f>
         <v>1</v>
       </c>
-      <c r="E62" s="37" t="n">
+      <c r="E62" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B62,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F62" s="37" t="n">
+      <c r="F62" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B62, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="G62" s="37" t="n">
+      <c r="G62" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B62, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H62" s="37" t="n">
+      <c r="H62" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B62,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I62" s="37" t="n">
+      <c r="I62" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B62, case_definitions!A$16:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
@@ -5256,31 +4907,31 @@
       <c r="B63" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="C63" s="26" t="str">
+      <c r="C63" s="36" t="str">
         <f aca="false">IF(D63&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D63" s="36" t="n">
+      <c r="D63" s="37" t="n">
         <f aca="false">SUM(E63:I63)</f>
         <v>1</v>
       </c>
-      <c r="E63" s="37" t="n">
+      <c r="E63" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B63,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F63" s="37" t="n">
+      <c r="F63" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B63, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="G63" s="37" t="n">
+      <c r="G63" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B63, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H63" s="37" t="n">
+      <c r="H63" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B63,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I63" s="37" t="n">
+      <c r="I63" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B63, case_definitions!A$16:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
@@ -5289,31 +4940,31 @@
       <c r="B64" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="C64" s="26" t="str">
+      <c r="C64" s="36" t="str">
         <f aca="false">IF(D64&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D64" s="36" t="n">
+      <c r="D64" s="37" t="n">
         <f aca="false">SUM(E64:I64)</f>
         <v>1</v>
       </c>
-      <c r="E64" s="37" t="n">
+      <c r="E64" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B64,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F64" s="37" t="n">
+      <c r="F64" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B64, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="G64" s="37" t="n">
+      <c r="G64" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B64, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H64" s="37" t="n">
+      <c r="H64" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B64,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I64" s="37" t="n">
+      <c r="I64" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B64, case_definitions!A$16:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
@@ -5322,31 +4973,31 @@
       <c r="B65" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="C65" s="26" t="str">
+      <c r="C65" s="36" t="str">
         <f aca="false">IF(D65&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D65" s="36" t="n">
+      <c r="D65" s="37" t="n">
         <f aca="false">SUM(E65:I65)</f>
         <v>1</v>
       </c>
-      <c r="E65" s="37" t="n">
+      <c r="E65" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B65,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F65" s="37" t="n">
+      <c r="F65" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B65, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="G65" s="37" t="n">
+      <c r="G65" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B65, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H65" s="37" t="n">
+      <c r="H65" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B65,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I65" s="37" t="n">
+      <c r="I65" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B65, case_definitions!A$16:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
@@ -5355,31 +5006,31 @@
       <c r="B66" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="C66" s="26" t="str">
+      <c r="C66" s="36" t="str">
         <f aca="false">IF(D66&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D66" s="36" t="n">
+      <c r="D66" s="37" t="n">
         <f aca="false">SUM(E66:I66)</f>
         <v>1</v>
       </c>
-      <c r="E66" s="37" t="n">
+      <c r="E66" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B66,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F66" s="37" t="n">
+      <c r="F66" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B66, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="G66" s="37" t="n">
+      <c r="G66" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B66, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H66" s="37" t="n">
+      <c r="H66" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B66,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I66" s="37" t="n">
+      <c r="I66" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B66, case_definitions!A$16:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
@@ -5388,31 +5039,31 @@
       <c r="B67" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="C67" s="26" t="str">
+      <c r="C67" s="36" t="str">
         <f aca="false">IF(D67&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D67" s="36" t="n">
+      <c r="D67" s="37" t="n">
         <f aca="false">SUM(E67:I67)</f>
         <v>1</v>
       </c>
-      <c r="E67" s="37" t="n">
+      <c r="E67" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B67,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F67" s="37" t="n">
+      <c r="F67" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B67, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="G67" s="37" t="n">
+      <c r="G67" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B67, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H67" s="37" t="n">
+      <c r="H67" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B67,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I67" s="37" t="n">
+      <c r="I67" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B67, case_definitions!A$16:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
@@ -5421,31 +5072,31 @@
       <c r="B68" s="35" t="s">
         <v>128</v>
       </c>
-      <c r="C68" s="26" t="str">
+      <c r="C68" s="36" t="str">
         <f aca="false">IF(D68&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D68" s="36" t="n">
+      <c r="D68" s="37" t="n">
         <f aca="false">SUM(E68:I68)</f>
         <v>1</v>
       </c>
-      <c r="E68" s="37" t="n">
+      <c r="E68" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B68,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F68" s="37" t="n">
+      <c r="F68" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B68, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="G68" s="37" t="n">
+      <c r="G68" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B68, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H68" s="37" t="n">
+      <c r="H68" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B68,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I68" s="37" t="n">
+      <c r="I68" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B68, case_definitions!A$16:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
@@ -5454,31 +5105,31 @@
       <c r="B69" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="C69" s="26" t="str">
+      <c r="C69" s="36" t="str">
         <f aca="false">IF(D69&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D69" s="36" t="n">
+      <c r="D69" s="37" t="n">
         <f aca="false">SUM(E69:I69)</f>
         <v>1</v>
       </c>
-      <c r="E69" s="37" t="n">
+      <c r="E69" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B69,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F69" s="37" t="n">
+      <c r="F69" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B69, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="G69" s="37" t="n">
+      <c r="G69" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B69, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H69" s="37" t="n">
+      <c r="H69" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B69,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I69" s="37" t="n">
+      <c r="I69" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B69, case_definitions!A$16:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
@@ -5487,64 +5138,64 @@
       <c r="B70" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="C70" s="26" t="str">
+      <c r="C70" s="36" t="str">
         <f aca="false">IF(D70&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D70" s="36" t="n">
+      <c r="D70" s="37" t="n">
         <f aca="false">SUM(E70:I70)</f>
         <v>1</v>
       </c>
-      <c r="E70" s="37" t="n">
+      <c r="E70" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B70,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F70" s="37" t="n">
+      <c r="F70" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B70, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="G70" s="37" t="n">
+      <c r="G70" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B70, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H70" s="37" t="n">
+      <c r="H70" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B70,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I70" s="37" t="n">
+      <c r="I70" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B70, case_definitions!A$16:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="35" t="s">
-        <v>268</v>
-      </c>
-      <c r="C71" s="26" t="str">
+        <v>248</v>
+      </c>
+      <c r="C71" s="36" t="str">
         <f aca="false">IF(D71&gt;=1, "OK", "missing!")</f>
         <v>missing!</v>
       </c>
-      <c r="D71" s="36" t="n">
+      <c r="D71" s="37" t="n">
         <f aca="false">SUM(E71:I71)</f>
         <v>0</v>
       </c>
-      <c r="E71" s="37" t="n">
+      <c r="E71" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B71,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F71" s="37" t="n">
+      <c r="F71" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B71, input_constant!A:A, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G71" s="37" t="n">
+      <c r="G71" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B71, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H71" s="37" t="n">
+      <c r="H71" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B71,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I71" s="37" t="n">
+      <c r="I71" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B71, case_definitions!A$16:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
@@ -5553,31 +5204,31 @@
       <c r="B72" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="C72" s="26" t="str">
+      <c r="C72" s="36" t="str">
         <f aca="false">IF(D72&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D72" s="36" t="n">
+      <c r="D72" s="37" t="n">
         <f aca="false">SUM(E72:I72)</f>
         <v>1</v>
       </c>
-      <c r="E72" s="37" t="n">
+      <c r="E72" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B72,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F72" s="37" t="n">
+      <c r="F72" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B72, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="G72" s="37" t="n">
+      <c r="G72" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B72, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H72" s="37" t="n">
+      <c r="H72" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B72,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I72" s="37" t="n">
+      <c r="I72" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B72, case_definitions!A$16:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
@@ -5586,31 +5237,31 @@
       <c r="B73" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="C73" s="26" t="str">
+      <c r="C73" s="36" t="str">
         <f aca="false">IF(D73&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D73" s="36" t="n">
+      <c r="D73" s="37" t="n">
         <f aca="false">SUM(E73:I73)</f>
         <v>1</v>
       </c>
-      <c r="E73" s="37" t="n">
+      <c r="E73" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B73,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F73" s="37" t="n">
+      <c r="F73" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B73, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="G73" s="37" t="n">
+      <c r="G73" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B73, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H73" s="37" t="n">
+      <c r="H73" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B73,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I73" s="37" t="n">
+      <c r="I73" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B73, case_definitions!A$16:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
@@ -5619,31 +5270,31 @@
       <c r="B74" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="C74" s="26" t="str">
+      <c r="C74" s="36" t="str">
         <f aca="false">IF(D74&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D74" s="36" t="n">
+      <c r="D74" s="37" t="n">
         <f aca="false">SUM(E74:I74)</f>
         <v>1</v>
       </c>
-      <c r="E74" s="37" t="n">
+      <c r="E74" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B74,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F74" s="37" t="n">
+      <c r="F74" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B74, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="G74" s="37" t="n">
+      <c r="G74" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B74, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H74" s="37" t="n">
+      <c r="H74" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B74,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I74" s="37" t="n">
+      <c r="I74" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B74, case_definitions!A$16:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
@@ -5652,31 +5303,31 @@
       <c r="B75" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="C75" s="26" t="str">
+      <c r="C75" s="36" t="str">
         <f aca="false">IF(D75&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D75" s="36" t="n">
+      <c r="D75" s="37" t="n">
         <f aca="false">SUM(E75:I75)</f>
         <v>1</v>
       </c>
-      <c r="E75" s="37" t="n">
+      <c r="E75" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B75,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F75" s="37" t="n">
+      <c r="F75" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B75, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="G75" s="37" t="n">
+      <c r="G75" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B75, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H75" s="37" t="n">
+      <c r="H75" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B75,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I75" s="37" t="n">
+      <c r="I75" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B75, case_definitions!A$16:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
@@ -5685,31 +5336,31 @@
       <c r="B76" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="C76" s="26" t="str">
+      <c r="C76" s="36" t="str">
         <f aca="false">IF(D76&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D76" s="36" t="n">
+      <c r="D76" s="37" t="n">
         <f aca="false">SUM(E76:I76)</f>
         <v>1</v>
       </c>
-      <c r="E76" s="37" t="n">
+      <c r="E76" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B76,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F76" s="37" t="n">
+      <c r="F76" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B76, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="G76" s="37" t="n">
+      <c r="G76" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B76, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H76" s="37" t="n">
+      <c r="H76" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B76,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I76" s="37" t="n">
+      <c r="I76" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B76, case_definitions!A$16:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
@@ -5718,31 +5369,31 @@
       <c r="B77" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="C77" s="26" t="str">
+      <c r="C77" s="36" t="str">
         <f aca="false">IF(D77&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D77" s="36" t="n">
+      <c r="D77" s="37" t="n">
         <f aca="false">SUM(E77:I77)</f>
         <v>1</v>
       </c>
-      <c r="E77" s="37" t="n">
+      <c r="E77" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B77,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F77" s="37" t="n">
+      <c r="F77" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B77, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="G77" s="37" t="n">
+      <c r="G77" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B77, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H77" s="37" t="n">
+      <c r="H77" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B77,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I77" s="37" t="n">
+      <c r="I77" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B77, case_definitions!A$16:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
@@ -5751,31 +5402,31 @@
       <c r="B78" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="C78" s="26" t="str">
+      <c r="C78" s="36" t="str">
         <f aca="false">IF(D78&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D78" s="36" t="n">
+      <c r="D78" s="37" t="n">
         <f aca="false">SUM(E78:I78)</f>
         <v>1</v>
       </c>
-      <c r="E78" s="37" t="n">
+      <c r="E78" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B78,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F78" s="37" t="n">
+      <c r="F78" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B78, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="G78" s="37" t="n">
+      <c r="G78" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B78, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H78" s="37" t="n">
+      <c r="H78" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B78,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I78" s="37" t="n">
+      <c r="I78" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B78, case_definitions!A$16:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
@@ -5784,31 +5435,31 @@
       <c r="B79" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="C79" s="26" t="str">
+      <c r="C79" s="36" t="str">
         <f aca="false">IF(D79&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D79" s="36" t="n">
+      <c r="D79" s="37" t="n">
         <f aca="false">SUM(E79:I79)</f>
         <v>1</v>
       </c>
-      <c r="E79" s="37" t="n">
+      <c r="E79" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B79,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F79" s="37" t="n">
+      <c r="F79" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B79, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="G79" s="37" t="n">
+      <c r="G79" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B79, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H79" s="37" t="n">
+      <c r="H79" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B79,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I79" s="37" t="n">
+      <c r="I79" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B79, case_definitions!A$16:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
@@ -5817,31 +5468,31 @@
       <c r="B80" s="35" t="s">
         <v>140</v>
       </c>
-      <c r="C80" s="26" t="str">
+      <c r="C80" s="36" t="str">
         <f aca="false">IF(D80&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D80" s="36" t="n">
+      <c r="D80" s="37" t="n">
         <f aca="false">SUM(E80:I80)</f>
         <v>1</v>
       </c>
-      <c r="E80" s="37" t="n">
+      <c r="E80" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B80,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F80" s="37" t="n">
+      <c r="F80" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B80, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="G80" s="37" t="n">
+      <c r="G80" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B80, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H80" s="37" t="n">
+      <c r="H80" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B80,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I80" s="37" t="n">
+      <c r="I80" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B80, case_definitions!A$16:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
@@ -5850,31 +5501,31 @@
       <c r="B81" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="C81" s="26" t="str">
+      <c r="C81" s="36" t="str">
         <f aca="false">IF(D81&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D81" s="36" t="n">
+      <c r="D81" s="37" t="n">
         <f aca="false">SUM(E81:I81)</f>
         <v>1</v>
       </c>
-      <c r="E81" s="37" t="n">
+      <c r="E81" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B81,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F81" s="37" t="n">
+      <c r="F81" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B81, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="G81" s="37" t="n">
+      <c r="G81" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B81, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H81" s="37" t="n">
+      <c r="H81" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B81,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I81" s="37" t="n">
+      <c r="I81" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B81, case_definitions!A$16:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
@@ -5883,31 +5534,31 @@
       <c r="B82" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="C82" s="26" t="str">
+      <c r="C82" s="36" t="str">
         <f aca="false">IF(D82&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D82" s="36" t="n">
+      <c r="D82" s="37" t="n">
         <f aca="false">SUM(E82:I82)</f>
         <v>1</v>
       </c>
-      <c r="E82" s="37" t="n">
+      <c r="E82" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B82,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F82" s="37" t="n">
+      <c r="F82" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B82, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="G82" s="37" t="n">
+      <c r="G82" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B82, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H82" s="37" t="n">
+      <c r="H82" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B82,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I82" s="37" t="n">
+      <c r="I82" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B82, case_definitions!A$16:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
@@ -5916,31 +5567,31 @@
       <c r="B83" s="35" t="s">
         <v>143</v>
       </c>
-      <c r="C83" s="26" t="str">
+      <c r="C83" s="36" t="str">
         <f aca="false">IF(D83&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D83" s="36" t="n">
+      <c r="D83" s="37" t="n">
         <f aca="false">SUM(E83:I83)</f>
         <v>1</v>
       </c>
-      <c r="E83" s="37" t="n">
+      <c r="E83" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B83,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F83" s="37" t="n">
+      <c r="F83" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B83, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="G83" s="37" t="n">
+      <c r="G83" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B83, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H83" s="37" t="n">
+      <c r="H83" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B83,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I83" s="37" t="n">
+      <c r="I83" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B83, case_definitions!A$16:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
@@ -5949,31 +5600,31 @@
       <c r="B84" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="C84" s="26" t="str">
+      <c r="C84" s="36" t="str">
         <f aca="false">IF(D84&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D84" s="36" t="n">
+      <c r="D84" s="37" t="n">
         <f aca="false">SUM(E84:I84)</f>
         <v>1</v>
       </c>
-      <c r="E84" s="37" t="n">
+      <c r="E84" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B84,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F84" s="37" t="n">
+      <c r="F84" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B84, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="G84" s="37" t="n">
+      <c r="G84" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B84, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H84" s="37" t="n">
+      <c r="H84" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B84,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I84" s="37" t="n">
+      <c r="I84" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B84, case_definitions!A$16:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
@@ -5982,31 +5633,31 @@
       <c r="B85" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="C85" s="26" t="str">
+      <c r="C85" s="36" t="str">
         <f aca="false">IF(D85&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D85" s="36" t="n">
+      <c r="D85" s="37" t="n">
         <f aca="false">SUM(E85:I85)</f>
         <v>1</v>
       </c>
-      <c r="E85" s="37" t="n">
+      <c r="E85" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B85,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F85" s="37" t="n">
+      <c r="F85" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B85, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="G85" s="37" t="n">
+      <c r="G85" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B85, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H85" s="37" t="n">
+      <c r="H85" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B85,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I85" s="37" t="n">
+      <c r="I85" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B85, case_definitions!A$16:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
@@ -6015,31 +5666,31 @@
       <c r="B86" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="C86" s="26" t="str">
+      <c r="C86" s="36" t="str">
         <f aca="false">IF(D86&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D86" s="36" t="n">
+      <c r="D86" s="37" t="n">
         <f aca="false">SUM(E86:I86)</f>
         <v>1</v>
       </c>
-      <c r="E86" s="37" t="n">
+      <c r="E86" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B86,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F86" s="37" t="n">
+      <c r="F86" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B86, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="G86" s="37" t="n">
+      <c r="G86" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B86, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H86" s="37" t="n">
+      <c r="H86" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B86,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I86" s="37" t="n">
+      <c r="I86" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B86, case_definitions!A$16:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
@@ -6048,31 +5699,31 @@
       <c r="B87" s="35" t="s">
         <v>150</v>
       </c>
-      <c r="C87" s="26" t="str">
+      <c r="C87" s="36" t="str">
         <f aca="false">IF(D87&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D87" s="36" t="n">
+      <c r="D87" s="37" t="n">
         <f aca="false">SUM(E87:I87)</f>
         <v>1</v>
       </c>
-      <c r="E87" s="37" t="n">
+      <c r="E87" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B87,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F87" s="37" t="n">
+      <c r="F87" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B87, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="G87" s="37" t="n">
+      <c r="G87" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B87, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H87" s="37" t="n">
+      <c r="H87" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B87,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I87" s="37" t="n">
+      <c r="I87" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B87, case_definitions!A$16:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
@@ -6081,31 +5732,31 @@
       <c r="B88" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="C88" s="26" t="str">
+      <c r="C88" s="36" t="str">
         <f aca="false">IF(D88&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D88" s="36" t="n">
+      <c r="D88" s="37" t="n">
         <f aca="false">SUM(E88:I88)</f>
         <v>1</v>
       </c>
-      <c r="E88" s="37" t="n">
+      <c r="E88" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B88,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F88" s="37" t="n">
+      <c r="F88" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B88, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="G88" s="37" t="n">
+      <c r="G88" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B88, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H88" s="37" t="n">
+      <c r="H88" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B88,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I88" s="37" t="n">
+      <c r="I88" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B88, case_definitions!A$16:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
@@ -6114,31 +5765,31 @@
       <c r="B89" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="C89" s="26" t="str">
+      <c r="C89" s="36" t="str">
         <f aca="false">IF(D89&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D89" s="36" t="n">
+      <c r="D89" s="37" t="n">
         <f aca="false">SUM(E89:I89)</f>
         <v>1</v>
       </c>
-      <c r="E89" s="37" t="n">
+      <c r="E89" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B89,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F89" s="37" t="n">
+      <c r="F89" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B89, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="G89" s="37" t="n">
+      <c r="G89" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B89, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H89" s="37" t="n">
+      <c r="H89" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B89,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I89" s="37" t="n">
+      <c r="I89" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B89, case_definitions!A$16:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
@@ -6147,31 +5798,31 @@
       <c r="B90" s="35" t="s">
         <v>156</v>
       </c>
-      <c r="C90" s="26" t="str">
+      <c r="C90" s="36" t="str">
         <f aca="false">IF(D90&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D90" s="36" t="n">
+      <c r="D90" s="37" t="n">
         <f aca="false">SUM(E90:I90)</f>
         <v>1</v>
       </c>
-      <c r="E90" s="37" t="n">
+      <c r="E90" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B90,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F90" s="37" t="n">
+      <c r="F90" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B90, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="G90" s="37" t="n">
+      <c r="G90" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B90, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H90" s="37" t="n">
+      <c r="H90" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B90,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I90" s="37" t="n">
+      <c r="I90" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B90, case_definitions!A$16:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
@@ -6180,31 +5831,31 @@
       <c r="B91" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="C91" s="26" t="str">
+      <c r="C91" s="36" t="str">
         <f aca="false">IF(D91&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D91" s="36" t="n">
+      <c r="D91" s="37" t="n">
         <f aca="false">SUM(E91:I91)</f>
         <v>1</v>
       </c>
-      <c r="E91" s="37" t="n">
+      <c r="E91" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B91,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F91" s="37" t="n">
+      <c r="F91" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B91, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="G91" s="37" t="n">
+      <c r="G91" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B91, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H91" s="37" t="n">
+      <c r="H91" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B91,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I91" s="37" t="n">
+      <c r="I91" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B91, case_definitions!A$16:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
@@ -6213,31 +5864,31 @@
       <c r="B92" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="C92" s="26" t="str">
+      <c r="C92" s="36" t="str">
         <f aca="false">IF(D92&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D92" s="36" t="n">
+      <c r="D92" s="37" t="n">
         <f aca="false">SUM(E92:I92)</f>
         <v>1</v>
       </c>
-      <c r="E92" s="37" t="n">
+      <c r="E92" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B92,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F92" s="37" t="n">
+      <c r="F92" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B92, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="G92" s="37" t="n">
+      <c r="G92" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B92, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H92" s="37" t="n">
+      <c r="H92" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B92,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I92" s="37" t="n">
+      <c r="I92" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B92, case_definitions!A$16:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
@@ -6246,31 +5897,31 @@
       <c r="B93" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="C93" s="26" t="str">
+      <c r="C93" s="36" t="str">
         <f aca="false">IF(D93&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D93" s="36" t="n">
+      <c r="D93" s="37" t="n">
         <f aca="false">SUM(E93:I93)</f>
         <v>1</v>
       </c>
-      <c r="E93" s="37" t="n">
+      <c r="E93" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B93,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F93" s="37" t="n">
+      <c r="F93" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B93, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="G93" s="37" t="n">
+      <c r="G93" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B93, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H93" s="37" t="n">
+      <c r="H93" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B93,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I93" s="37" t="n">
+      <c r="I93" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B93, case_definitions!A$16:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
@@ -6279,31 +5930,31 @@
       <c r="B94" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="C94" s="26" t="str">
+      <c r="C94" s="36" t="str">
         <f aca="false">IF(D94&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D94" s="36" t="n">
+      <c r="D94" s="37" t="n">
         <f aca="false">SUM(E94:I94)</f>
         <v>1</v>
       </c>
-      <c r="E94" s="37" t="n">
+      <c r="E94" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B94,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F94" s="37" t="n">
+      <c r="F94" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B94, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="G94" s="37" t="n">
+      <c r="G94" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B94, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H94" s="37" t="n">
+      <c r="H94" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B94,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I94" s="37" t="n">
+      <c r="I94" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B94, case_definitions!A$16:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
@@ -6312,31 +5963,31 @@
       <c r="B95" s="35" t="s">
         <v>163</v>
       </c>
-      <c r="C95" s="26" t="str">
+      <c r="C95" s="36" t="str">
         <f aca="false">IF(D95&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D95" s="36" t="n">
+      <c r="D95" s="37" t="n">
         <f aca="false">SUM(E95:I95)</f>
         <v>1</v>
       </c>
-      <c r="E95" s="37" t="n">
+      <c r="E95" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B95,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F95" s="37" t="n">
+      <c r="F95" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B95, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="G95" s="37" t="n">
+      <c r="G95" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B95, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H95" s="37" t="n">
+      <c r="H95" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B95,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I95" s="37" t="n">
+      <c r="I95" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B95, case_definitions!A$16:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
@@ -6345,31 +5996,31 @@
       <c r="B96" s="35" t="s">
         <v>164</v>
       </c>
-      <c r="C96" s="26" t="str">
+      <c r="C96" s="36" t="str">
         <f aca="false">IF(D96&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D96" s="36" t="n">
+      <c r="D96" s="37" t="n">
         <f aca="false">SUM(E96:I96)</f>
         <v>1</v>
       </c>
-      <c r="E96" s="37" t="n">
+      <c r="E96" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B96,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F96" s="37" t="n">
+      <c r="F96" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B96, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="G96" s="37" t="n">
+      <c r="G96" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B96, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H96" s="37" t="n">
+      <c r="H96" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B96,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I96" s="37" t="n">
+      <c r="I96" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B96, case_definitions!A$16:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
@@ -6378,31 +6029,31 @@
       <c r="B97" s="35" t="s">
         <v>165</v>
       </c>
-      <c r="C97" s="26" t="str">
+      <c r="C97" s="36" t="str">
         <f aca="false">IF(D97&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D97" s="36" t="n">
+      <c r="D97" s="37" t="n">
         <f aca="false">SUM(E97:I97)</f>
         <v>1</v>
       </c>
-      <c r="E97" s="37" t="n">
+      <c r="E97" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B97,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F97" s="37" t="n">
+      <c r="F97" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B97, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="G97" s="37" t="n">
+      <c r="G97" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B97, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H97" s="37" t="n">
+      <c r="H97" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B97,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I97" s="37" t="n">
+      <c r="I97" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B97, case_definitions!A$16:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
@@ -6411,31 +6062,31 @@
       <c r="B98" s="35" t="s">
         <v>166</v>
       </c>
-      <c r="C98" s="26" t="str">
+      <c r="C98" s="36" t="str">
         <f aca="false">IF(D98&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D98" s="36" t="n">
+      <c r="D98" s="37" t="n">
         <f aca="false">SUM(E98:I98)</f>
         <v>1</v>
       </c>
-      <c r="E98" s="37" t="n">
+      <c r="E98" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B98,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F98" s="37" t="n">
+      <c r="F98" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B98, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="G98" s="37" t="n">
+      <c r="G98" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B98, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H98" s="37" t="n">
+      <c r="H98" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B98,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I98" s="37" t="n">
+      <c r="I98" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B98, case_definitions!A$16:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
@@ -6444,31 +6095,31 @@
       <c r="B99" s="35" t="s">
         <v>169</v>
       </c>
-      <c r="C99" s="26" t="str">
+      <c r="C99" s="36" t="str">
         <f aca="false">IF(D99&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D99" s="36" t="n">
+      <c r="D99" s="37" t="n">
         <f aca="false">SUM(E99:I99)</f>
         <v>1</v>
       </c>
-      <c r="E99" s="37" t="n">
+      <c r="E99" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B99,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F99" s="37" t="n">
+      <c r="F99" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B99, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="G99" s="37" t="n">
+      <c r="G99" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B99, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H99" s="37" t="n">
+      <c r="H99" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B99,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I99" s="37" t="n">
+      <c r="I99" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B99, case_definitions!A$16:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
@@ -6477,31 +6128,31 @@
       <c r="B100" s="35" t="s">
         <v>170</v>
       </c>
-      <c r="C100" s="26" t="str">
+      <c r="C100" s="36" t="str">
         <f aca="false">IF(D100&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D100" s="36" t="n">
+      <c r="D100" s="37" t="n">
         <f aca="false">SUM(E100:I100)</f>
         <v>1</v>
       </c>
-      <c r="E100" s="37" t="n">
+      <c r="E100" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B100,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F100" s="37" t="n">
+      <c r="F100" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B100, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="G100" s="37" t="n">
+      <c r="G100" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B100, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H100" s="37" t="n">
+      <c r="H100" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B100,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I100" s="37" t="n">
+      <c r="I100" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B100, case_definitions!A$16:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
@@ -6510,31 +6161,31 @@
       <c r="B101" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="C101" s="26" t="str">
+      <c r="C101" s="36" t="str">
         <f aca="false">IF(D101&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D101" s="36" t="n">
+      <c r="D101" s="37" t="n">
         <f aca="false">SUM(E101:I101)</f>
         <v>1</v>
       </c>
-      <c r="E101" s="37" t="n">
+      <c r="E101" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B101,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F101" s="37" t="n">
+      <c r="F101" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B101, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="G101" s="37" t="n">
+      <c r="G101" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B101, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H101" s="37" t="n">
+      <c r="H101" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B101,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I101" s="37" t="n">
+      <c r="I101" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B101, case_definitions!A$16:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
@@ -6543,31 +6194,31 @@
       <c r="B102" s="35" t="s">
         <v>172</v>
       </c>
-      <c r="C102" s="26" t="str">
+      <c r="C102" s="36" t="str">
         <f aca="false">IF(D102&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D102" s="36" t="n">
+      <c r="D102" s="37" t="n">
         <f aca="false">SUM(E102:I102)</f>
         <v>1</v>
       </c>
-      <c r="E102" s="37" t="n">
+      <c r="E102" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B102,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F102" s="37" t="n">
+      <c r="F102" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B102, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="G102" s="37" t="n">
+      <c r="G102" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B102, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H102" s="37" t="n">
+      <c r="H102" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B102,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I102" s="37" t="n">
+      <c r="I102" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B102, case_definitions!A$16:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
@@ -6576,31 +6227,31 @@
       <c r="B103" s="35" t="s">
         <v>173</v>
       </c>
-      <c r="C103" s="26" t="str">
+      <c r="C103" s="36" t="str">
         <f aca="false">IF(D103&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D103" s="36" t="n">
+      <c r="D103" s="37" t="n">
         <f aca="false">SUM(E103:I103)</f>
         <v>1</v>
       </c>
-      <c r="E103" s="37" t="n">
+      <c r="E103" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B103,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F103" s="37" t="n">
+      <c r="F103" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B103, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="G103" s="37" t="n">
+      <c r="G103" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B103, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H103" s="37" t="n">
+      <c r="H103" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B103,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I103" s="37" t="n">
+      <c r="I103" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B103, case_definitions!A$16:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
@@ -6609,31 +6260,31 @@
       <c r="B104" s="35" t="s">
         <v>174</v>
       </c>
-      <c r="C104" s="26" t="str">
+      <c r="C104" s="36" t="str">
         <f aca="false">IF(D104&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D104" s="36" t="n">
+      <c r="D104" s="37" t="n">
         <f aca="false">SUM(E104:I104)</f>
         <v>1</v>
       </c>
-      <c r="E104" s="37" t="n">
+      <c r="E104" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B104,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F104" s="37" t="n">
+      <c r="F104" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B104, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="G104" s="37" t="n">
+      <c r="G104" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B104, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H104" s="37" t="n">
+      <c r="H104" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B104,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I104" s="37" t="n">
+      <c r="I104" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B104, case_definitions!A$16:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
@@ -6642,31 +6293,31 @@
       <c r="B105" s="35" t="s">
         <v>175</v>
       </c>
-      <c r="C105" s="26" t="str">
+      <c r="C105" s="36" t="str">
         <f aca="false">IF(D105&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D105" s="36" t="n">
+      <c r="D105" s="37" t="n">
         <f aca="false">SUM(E105:I105)</f>
         <v>1</v>
       </c>
-      <c r="E105" s="37" t="n">
+      <c r="E105" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B105,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F105" s="37" t="n">
+      <c r="F105" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B105, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="G105" s="37" t="n">
+      <c r="G105" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B105, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H105" s="37" t="n">
+      <c r="H105" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B105,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I105" s="37" t="n">
+      <c r="I105" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B105, case_definitions!A$16:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
@@ -6675,31 +6326,31 @@
       <c r="B106" s="35" t="s">
         <v>176</v>
       </c>
-      <c r="C106" s="26" t="str">
+      <c r="C106" s="36" t="str">
         <f aca="false">IF(D106&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D106" s="36" t="n">
+      <c r="D106" s="37" t="n">
         <f aca="false">SUM(E106:I106)</f>
         <v>1</v>
       </c>
-      <c r="E106" s="37" t="n">
+      <c r="E106" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B106,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F106" s="37" t="n">
+      <c r="F106" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B106, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="G106" s="37" t="n">
+      <c r="G106" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B106, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H106" s="37" t="n">
+      <c r="H106" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B106,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I106" s="37" t="n">
+      <c r="I106" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B106, case_definitions!A$16:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
@@ -6708,31 +6359,31 @@
       <c r="B107" s="35" t="s">
         <v>177</v>
       </c>
-      <c r="C107" s="26" t="str">
+      <c r="C107" s="36" t="str">
         <f aca="false">IF(D107&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D107" s="36" t="n">
+      <c r="D107" s="37" t="n">
         <f aca="false">SUM(E107:I107)</f>
         <v>1</v>
       </c>
-      <c r="E107" s="37" t="n">
+      <c r="E107" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B107,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F107" s="37" t="n">
+      <c r="F107" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B107, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="G107" s="37" t="n">
+      <c r="G107" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B107, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H107" s="37" t="n">
+      <c r="H107" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B107,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I107" s="37" t="n">
+      <c r="I107" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B107, case_definitions!A$16:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
@@ -6741,31 +6392,31 @@
       <c r="B108" s="35" t="s">
         <v>178</v>
       </c>
-      <c r="C108" s="26" t="str">
+      <c r="C108" s="36" t="str">
         <f aca="false">IF(D108&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D108" s="36" t="n">
+      <c r="D108" s="37" t="n">
         <f aca="false">SUM(E108:I108)</f>
         <v>1</v>
       </c>
-      <c r="E108" s="37" t="n">
+      <c r="E108" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B108,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F108" s="37" t="n">
+      <c r="F108" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B108, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="G108" s="37" t="n">
+      <c r="G108" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B108, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H108" s="37" t="n">
+      <c r="H108" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B108,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I108" s="37" t="n">
+      <c r="I108" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B108, case_definitions!A$16:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
@@ -6774,31 +6425,31 @@
       <c r="B109" s="35" t="s">
         <v>179</v>
       </c>
-      <c r="C109" s="26" t="str">
+      <c r="C109" s="36" t="str">
         <f aca="false">IF(D109&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D109" s="36" t="n">
+      <c r="D109" s="37" t="n">
         <f aca="false">SUM(E109:I109)</f>
         <v>1</v>
       </c>
-      <c r="E109" s="37" t="n">
+      <c r="E109" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B109,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F109" s="37" t="n">
+      <c r="F109" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B109, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="G109" s="37" t="n">
+      <c r="G109" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B109, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H109" s="37" t="n">
+      <c r="H109" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B109,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I109" s="37" t="n">
+      <c r="I109" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B109, case_definitions!A$16:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
@@ -6807,31 +6458,31 @@
       <c r="B110" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="C110" s="26" t="str">
+      <c r="C110" s="36" t="str">
         <f aca="false">IF(D110&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D110" s="36" t="n">
+      <c r="D110" s="37" t="n">
         <f aca="false">SUM(E110:I110)</f>
         <v>1</v>
       </c>
-      <c r="E110" s="37" t="n">
+      <c r="E110" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B110,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F110" s="37" t="n">
+      <c r="F110" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B110, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="G110" s="37" t="n">
+      <c r="G110" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B110, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H110" s="37" t="n">
+      <c r="H110" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B110,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I110" s="37" t="n">
+      <c r="I110" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B110, case_definitions!A$16:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
@@ -6840,550 +6491,550 @@
       <c r="B111" s="35" t="s">
         <v>181</v>
       </c>
-      <c r="C111" s="26" t="str">
+      <c r="C111" s="36" t="str">
         <f aca="false">IF(D111&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D111" s="36" t="n">
+      <c r="D111" s="37" t="n">
         <f aca="false">SUM(E111:I111)</f>
         <v>1</v>
       </c>
-      <c r="E111" s="37" t="n">
+      <c r="E111" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B111,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F111" s="37" t="n">
+      <c r="F111" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B111, input_constant!A:A, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="G111" s="37" t="n">
+      <c r="G111" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B111, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H111" s="37" t="n">
+      <c r="H111" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B111,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I111" s="37" t="n">
+      <c r="I111" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B111, case_definitions!A$16:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B112" s="35" t="s">
-        <v>186</v>
-      </c>
-      <c r="C112" s="26" t="str">
+        <v>185</v>
+      </c>
+      <c r="C112" s="36" t="str">
         <f aca="false">IF(D112&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D112" s="36" t="n">
+      <c r="D112" s="37" t="n">
         <f aca="false">SUM(E112:I112)</f>
         <v>1</v>
       </c>
-      <c r="E112" s="37" t="n">
+      <c r="E112" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B112,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F112" s="37" t="n">
+      <c r="F112" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B112, input_constant!A:A, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G112" s="37" t="n">
+      <c r="G112" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B112, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H112" s="37" t="n">
+      <c r="H112" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B112,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="I112" s="37" t="n">
+      <c r="I112" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B112, case_definitions!A$16:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B113" s="35" t="s">
-        <v>187</v>
-      </c>
-      <c r="C113" s="26" t="str">
+        <v>186</v>
+      </c>
+      <c r="C113" s="36" t="str">
         <f aca="false">IF(D113&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D113" s="36" t="n">
+      <c r="D113" s="37" t="n">
         <f aca="false">SUM(E113:I113)</f>
         <v>1</v>
       </c>
-      <c r="E113" s="37" t="n">
+      <c r="E113" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B113,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F113" s="37" t="n">
+      <c r="F113" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B113, input_constant!A:A, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G113" s="37" t="n">
+      <c r="G113" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B113, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H113" s="37" t="n">
+      <c r="H113" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B113,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="I113" s="37" t="n">
+      <c r="I113" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B113, case_definitions!A$16:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B114" s="35" t="s">
-        <v>188</v>
-      </c>
-      <c r="C114" s="26" t="str">
+        <v>187</v>
+      </c>
+      <c r="C114" s="36" t="str">
         <f aca="false">IF(D114&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D114" s="36" t="n">
+      <c r="D114" s="37" t="n">
         <f aca="false">SUM(E114:I114)</f>
         <v>1</v>
       </c>
-      <c r="E114" s="37" t="n">
+      <c r="E114" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B114,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F114" s="37" t="n">
+      <c r="F114" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B114, input_constant!A:A, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G114" s="37" t="n">
+      <c r="G114" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B114, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H114" s="37" t="n">
+      <c r="H114" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B114,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="I114" s="37" t="n">
+      <c r="I114" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B114, case_definitions!A$16:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B115" s="35" t="s">
-        <v>189</v>
-      </c>
-      <c r="C115" s="26" t="str">
+        <v>188</v>
+      </c>
+      <c r="C115" s="36" t="str">
         <f aca="false">IF(D115&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D115" s="36" t="n">
+      <c r="D115" s="37" t="n">
         <f aca="false">SUM(E115:I115)</f>
         <v>1</v>
       </c>
-      <c r="E115" s="37" t="n">
+      <c r="E115" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B115,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F115" s="37" t="n">
+      <c r="F115" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B115, input_constant!A:A, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G115" s="37" t="n">
+      <c r="G115" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B115, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H115" s="37" t="n">
+      <c r="H115" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B115,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="I115" s="37" t="n">
+      <c r="I115" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B115, case_definitions!A$16:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B116" s="35" t="s">
-        <v>190</v>
-      </c>
-      <c r="C116" s="26" t="str">
+        <v>189</v>
+      </c>
+      <c r="C116" s="36" t="str">
         <f aca="false">IF(D116&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D116" s="36" t="n">
+      <c r="D116" s="37" t="n">
         <f aca="false">SUM(E116:I116)</f>
         <v>1</v>
       </c>
-      <c r="E116" s="37" t="n">
+      <c r="E116" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B116,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F116" s="37" t="n">
+      <c r="F116" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B116, input_constant!A:A, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G116" s="37" t="n">
+      <c r="G116" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B116, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H116" s="37" t="n">
+      <c r="H116" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B116,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="I116" s="37" t="n">
+      <c r="I116" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B116, case_definitions!A$16:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B117" s="35" t="s">
-        <v>191</v>
-      </c>
-      <c r="C117" s="26" t="str">
+        <v>190</v>
+      </c>
+      <c r="C117" s="36" t="str">
         <f aca="false">IF(D117&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D117" s="36" t="n">
+      <c r="D117" s="37" t="n">
         <f aca="false">SUM(E117:I117)</f>
         <v>1</v>
       </c>
-      <c r="E117" s="37" t="n">
+      <c r="E117" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B117,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F117" s="37" t="n">
+      <c r="F117" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B117, input_constant!A:A, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G117" s="37" t="n">
+      <c r="G117" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B117, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H117" s="37" t="n">
+      <c r="H117" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B117,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="I117" s="37" t="n">
+      <c r="I117" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B117, case_definitions!A$16:A$29,1, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B118" s="38" t="s">
-        <v>237</v>
-      </c>
-      <c r="C118" s="26" t="str">
+      <c r="B118" s="39" t="s">
+        <v>218</v>
+      </c>
+      <c r="C118" s="36" t="str">
         <f aca="false">IF(D118&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D118" s="36" t="n">
+      <c r="D118" s="37" t="n">
         <f aca="false">SUM(E118:I118)</f>
         <v>1</v>
       </c>
-      <c r="E118" s="39"/>
-      <c r="F118" s="39"/>
-      <c r="G118" s="39"/>
-      <c r="H118" s="39"/>
-      <c r="I118" s="36" t="n">
+      <c r="E118" s="40"/>
+      <c r="F118" s="40"/>
+      <c r="G118" s="40"/>
+      <c r="H118" s="40"/>
+      <c r="I118" s="37" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B118, case_definitions!A$16:A$29,1, 0)), 0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B119" s="38" t="s">
+      <c r="B119" s="39" t="s">
+        <v>203</v>
+      </c>
+      <c r="C119" s="36" t="str">
+        <f aca="false">IF(D119&gt;=1, "OK", "missing!")</f>
+        <v>OK</v>
+      </c>
+      <c r="D119" s="37" t="n">
+        <f aca="false">SUM(E119:I119)</f>
+        <v>1</v>
+      </c>
+      <c r="E119" s="40"/>
+      <c r="F119" s="40"/>
+      <c r="G119" s="40"/>
+      <c r="H119" s="40"/>
+      <c r="I119" s="38" t="n">
+        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B119, case_definitions!A$16:A$29,1, 0)), 0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B120" s="39" t="s">
         <v>219</v>
       </c>
-      <c r="C119" s="26" t="str">
-        <f aca="false">IF(D119&gt;=1, "OK", "missing!")</f>
-        <v>OK</v>
-      </c>
-      <c r="D119" s="36" t="n">
-        <f aca="false">SUM(E119:I119)</f>
-        <v>1</v>
-      </c>
-      <c r="E119" s="39"/>
-      <c r="F119" s="39"/>
-      <c r="G119" s="39"/>
-      <c r="H119" s="39"/>
-      <c r="I119" s="37" t="n">
-        <f aca="false">IFERROR(ISTEXT(VLOOKUP(B119, case_definitions!A$16:A$29,1, 0)), 0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B120" s="38" t="s">
-        <v>238</v>
-      </c>
-      <c r="C120" s="26" t="str">
+      <c r="C120" s="36" t="str">
         <f aca="false">IF(D120&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D120" s="36" t="n">
+      <c r="D120" s="37" t="n">
         <f aca="false">SUM(E120:I120)</f>
         <v>1</v>
       </c>
-      <c r="E120" s="39"/>
-      <c r="F120" s="39"/>
-      <c r="G120" s="39"/>
-      <c r="H120" s="39"/>
-      <c r="I120" s="37" t="n">
+      <c r="E120" s="40"/>
+      <c r="F120" s="40"/>
+      <c r="G120" s="40"/>
+      <c r="H120" s="40"/>
+      <c r="I120" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B120, case_definitions!A$16:A$29,1, 0)), 0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B121" s="38" t="s">
-        <v>240</v>
-      </c>
-      <c r="C121" s="26" t="str">
+      <c r="B121" s="39" t="s">
+        <v>221</v>
+      </c>
+      <c r="C121" s="36" t="str">
         <f aca="false">IF(D121&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D121" s="36" t="n">
+      <c r="D121" s="37" t="n">
         <f aca="false">SUM(E121:I121)</f>
         <v>1</v>
       </c>
-      <c r="E121" s="39"/>
-      <c r="F121" s="39"/>
-      <c r="G121" s="39"/>
-      <c r="H121" s="39"/>
-      <c r="I121" s="37" t="n">
+      <c r="E121" s="40"/>
+      <c r="F121" s="40"/>
+      <c r="G121" s="40"/>
+      <c r="H121" s="40"/>
+      <c r="I121" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B121, case_definitions!A$16:A$29,1, 0)), 0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B122" s="38" t="s">
-        <v>241</v>
-      </c>
-      <c r="C122" s="26" t="str">
+      <c r="B122" s="39" t="s">
+        <v>222</v>
+      </c>
+      <c r="C122" s="36" t="str">
         <f aca="false">IF(D122&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D122" s="36" t="n">
+      <c r="D122" s="37" t="n">
         <f aca="false">SUM(E122:I122)</f>
         <v>1</v>
       </c>
-      <c r="E122" s="39"/>
-      <c r="F122" s="39"/>
-      <c r="G122" s="39"/>
-      <c r="H122" s="39"/>
-      <c r="I122" s="37" t="n">
+      <c r="E122" s="40"/>
+      <c r="F122" s="40"/>
+      <c r="G122" s="40"/>
+      <c r="H122" s="40"/>
+      <c r="I122" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B122, case_definitions!A$16:A$29,1, 0)), 0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B123" s="38" t="s">
-        <v>243</v>
-      </c>
-      <c r="C123" s="26" t="str">
+      <c r="B123" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="C123" s="36" t="str">
         <f aca="false">IF(D123&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D123" s="36" t="n">
+      <c r="D123" s="37" t="n">
         <f aca="false">SUM(E123:I123)</f>
         <v>1</v>
       </c>
-      <c r="E123" s="39"/>
-      <c r="F123" s="39"/>
-      <c r="G123" s="39"/>
-      <c r="H123" s="39"/>
-      <c r="I123" s="37" t="n">
+      <c r="E123" s="40"/>
+      <c r="F123" s="40"/>
+      <c r="G123" s="40"/>
+      <c r="H123" s="40"/>
+      <c r="I123" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B123, case_definitions!A$16:A$29,1, 0)), 0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B124" s="38" t="s">
-        <v>246</v>
-      </c>
-      <c r="C124" s="26" t="str">
+      <c r="B124" s="39" t="s">
+        <v>226</v>
+      </c>
+      <c r="C124" s="36" t="str">
         <f aca="false">IF(D124&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D124" s="36" t="n">
+      <c r="D124" s="37" t="n">
         <f aca="false">SUM(E124:I124)</f>
         <v>1</v>
       </c>
-      <c r="E124" s="39"/>
-      <c r="F124" s="39"/>
-      <c r="G124" s="39"/>
-      <c r="H124" s="39"/>
-      <c r="I124" s="37" t="n">
+      <c r="E124" s="40"/>
+      <c r="F124" s="40"/>
+      <c r="G124" s="40"/>
+      <c r="H124" s="40"/>
+      <c r="I124" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B124, case_definitions!A$16:A$29,1, 0)), 0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B125" s="38" t="s">
-        <v>247</v>
-      </c>
-      <c r="C125" s="26" t="str">
+      <c r="B125" s="39" t="s">
+        <v>228</v>
+      </c>
+      <c r="C125" s="36" t="str">
         <f aca="false">IF(D125&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D125" s="36" t="n">
+      <c r="D125" s="37" t="n">
         <f aca="false">SUM(E125:I125)</f>
         <v>1</v>
       </c>
-      <c r="E125" s="39"/>
-      <c r="F125" s="39"/>
-      <c r="G125" s="39"/>
-      <c r="H125" s="39"/>
-      <c r="I125" s="37" t="n">
+      <c r="E125" s="40"/>
+      <c r="F125" s="40"/>
+      <c r="G125" s="40"/>
+      <c r="H125" s="40"/>
+      <c r="I125" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B125, case_definitions!A$16:A$29,1, 0)), 0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B126" s="38" t="s">
-        <v>248</v>
-      </c>
-      <c r="C126" s="26" t="str">
+      <c r="B126" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="C126" s="36" t="str">
         <f aca="false">IF(D126&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D126" s="36" t="n">
+      <c r="D126" s="37" t="n">
         <f aca="false">SUM(E126:I126)</f>
         <v>1</v>
       </c>
-      <c r="E126" s="39"/>
-      <c r="F126" s="39"/>
-      <c r="G126" s="39"/>
-      <c r="H126" s="39"/>
-      <c r="I126" s="37" t="n">
+      <c r="E126" s="40"/>
+      <c r="F126" s="40"/>
+      <c r="G126" s="40"/>
+      <c r="H126" s="40"/>
+      <c r="I126" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B126, case_definitions!A$16:A$29,1, 0)), 0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B127" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="C127" s="26" t="str">
+      <c r="B127" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="C127" s="36" t="str">
         <f aca="false">IF(D127&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D127" s="36" t="n">
+      <c r="D127" s="37" t="n">
         <f aca="false">SUM(E127:I127)</f>
         <v>2</v>
       </c>
-      <c r="E127" s="37" t="n">
+      <c r="E127" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B127,settings!B:B, 1, 0)), 0)</f>
         <v>1</v>
       </c>
-      <c r="F127" s="37" t="n">
+      <c r="F127" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B127, input_constant!A:A, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G127" s="37" t="n">
+      <c r="G127" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B127, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H127" s="37" t="n">
+      <c r="H127" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B127,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I127" s="37" t="n">
+      <c r="I127" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B127, case_definitions!A$16:A$29,1, 0)), 0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B128" s="38" t="s">
-        <v>228</v>
-      </c>
-      <c r="C128" s="26" t="str">
+      <c r="B128" s="39" t="s">
+        <v>212</v>
+      </c>
+      <c r="C128" s="36" t="str">
         <f aca="false">IF(D128&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D128" s="36" t="n">
+      <c r="D128" s="37" t="n">
         <f aca="false">SUM(E128:I128)</f>
         <v>1</v>
       </c>
-      <c r="E128" s="37" t="n">
+      <c r="E128" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B128,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F128" s="37" t="n">
+      <c r="F128" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B128, input_constant!A:A, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G128" s="37" t="n">
+      <c r="G128" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B128, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H128" s="37" t="n">
+      <c r="H128" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B128,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I128" s="37" t="n">
+      <c r="I128" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B128, case_definitions!A$16:A$29,1, 0)), 0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B129" s="38" t="s">
-        <v>230</v>
-      </c>
-      <c r="C129" s="26" t="str">
+      <c r="B129" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="C129" s="36" t="str">
         <f aca="false">IF(D129&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D129" s="36" t="n">
+      <c r="D129" s="37" t="n">
         <f aca="false">SUM(E129:I129)</f>
         <v>1</v>
       </c>
-      <c r="E129" s="37" t="n">
+      <c r="E129" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B129,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F129" s="37" t="n">
+      <c r="F129" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B129, input_constant!A:A, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G129" s="37" t="n">
+      <c r="G129" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B129, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H129" s="37" t="n">
+      <c r="H129" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B129,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I129" s="37" t="n">
+      <c r="I129" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B129, case_definitions!A$16:A$29,1, 0)), 0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B130" s="38" t="s">
-        <v>232</v>
-      </c>
-      <c r="C130" s="26" t="str">
+      <c r="B130" s="39" t="s">
+        <v>216</v>
+      </c>
+      <c r="C130" s="36" t="str">
         <f aca="false">IF(D130&gt;=1, "OK", "missing!")</f>
         <v>OK</v>
       </c>
-      <c r="D130" s="36" t="n">
+      <c r="D130" s="37" t="n">
         <f aca="false">SUM(E130:I130)</f>
         <v>1</v>
       </c>
-      <c r="E130" s="37" t="n">
+      <c r="E130" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B130,settings!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="F130" s="37" t="n">
+      <c r="F130" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B130, input_constant!A:A, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G130" s="37" t="n">
+      <c r="G130" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B130, input_sensitivity!B:B, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H130" s="37" t="n">
+      <c r="H130" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(HLOOKUP(B130,project_sites!$2:$2, 1, 0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="I130" s="37" t="n">
+      <c r="I130" s="38" t="n">
         <f aca="false">IFERROR(ISTEXT(VLOOKUP(B130, case_definitions!A$16:A$29,1, 0)), 0)</f>
         <v>1</v>
       </c>

--- a/inputs/input_template_excel.xlsx
+++ b/inputs/input_template_excel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="980" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="251">
   <si>
     <t xml:space="preserve">Tool for optimizing and simulating off- and on-grid electrification solutions</t>
   </si>
@@ -157,12 +157,15 @@
     <t xml:space="preserve">restore_oemof_if_existant</t>
   </si>
   <si>
+    <t xml:space="preserve">True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">restore_blackouts_if_existant</t>
+  </si>
+  <si>
     <t xml:space="preserve">False</t>
   </si>
   <si>
-    <t xml:space="preserve">restore_blackouts_if_existant</t>
-  </si>
-  <si>
     <t xml:space="preserve">allow_shortage</t>
   </si>
   <si>
@@ -241,9 +244,6 @@
     <t xml:space="preserve">save_oemofresults</t>
   </si>
   <si>
-    <t xml:space="preserve">True</t>
-  </si>
-  <si>
     <t xml:space="preserve">save_to_csv_flows_storage</t>
   </si>
   <si>
@@ -604,7 +604,7 @@
     <t xml:space="preserve">title_grid_availability</t>
   </si>
   <si>
-    <t xml:space="preserve">consumer_tier2</t>
+    <t xml:space="preserve">gridavailability_from_file</t>
   </si>
   <si>
     <t xml:space="preserve">./inputs/timeseries/intermediate_tier2.csv</t>
@@ -622,7 +622,7 @@
     <t xml:space="preserve">GridAvailability</t>
   </si>
   <si>
-    <t xml:space="preserve">consumer_tier2_b</t>
+    <t xml:space="preserve">gridavailability_internal_randomized</t>
   </si>
   <si>
     <t xml:space="preserve">Attribute</t>
@@ -679,6 +679,9 @@
     <t xml:space="preserve">renewable_constraint</t>
   </si>
   <si>
+    <t xml:space="preserve">shs_backup</t>
+  </si>
+  <si>
     <t xml:space="preserve">solar_backup</t>
   </si>
   <si>
@@ -719,6 +722,9 @@
   </si>
   <si>
     <t xml:space="preserve">default</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.27</t>
   </si>
   <si>
     <t xml:space="preserve">share_usage</t>
@@ -1222,10 +1228,10 @@
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="3" min="1" style="0" width="1.08163265306122"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.6683673469388"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="31.4540816326531"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="1.08163265306122"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1435,16 +1441,16 @@
   </sheetPr>
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.10714285714286"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.4081632653061"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="10" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.5969387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="10" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1569,20 +1575,20 @@
         <v>44</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="15" t="s">
         <v>45</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C16" s="10" t="n">
         <v>365</v>
@@ -1590,7 +1596,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C17" s="16" t="n">
         <v>43101</v>
@@ -1598,24 +1604,24 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1629,34 +1635,34 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C25" s="10" t="n">
         <v>0.03</v>
@@ -1674,29 +1680,29 @@
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="14"/>
       <c r="B28" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C28" s="17"/>
       <c r="D28" s="14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="14"/>
       <c r="B29" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="14"/>
       <c r="B30" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1704,7 +1710,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C32" s="0"/>
       <c r="D32" s="18"/>
@@ -1712,29 +1718,29 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1742,7 +1748,7 @@
         <v>72</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1750,7 +1756,7 @@
         <v>73</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1768,7 +1774,7 @@
         <v>74</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D40" s="0" t="s">
         <v>75</v>
@@ -1779,7 +1785,7 @@
         <v>76</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D41" s="0" t="s">
         <v>75</v>
@@ -1790,7 +1796,7 @@
         <v>77</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1798,7 +1804,7 @@
         <v>78</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1816,7 +1822,7 @@
         <v>79</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1824,7 +1830,7 @@
         <v>80</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1832,7 +1838,7 @@
         <v>81</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1840,7 +1846,7 @@
         <v>82</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1857,7 +1863,7 @@
         <v>83</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1873,7 +1879,7 @@
         <v>85</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1881,7 +1887,7 @@
         <v>86</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1902,17 +1908,17 @@
   </sheetPr>
   <dimension ref="A1:D67"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A18" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B42" activeCellId="0" sqref="B42"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2551020408163"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.0765306122449"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="10" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="1023" min="4" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="1023" min="4" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="7.29081632653061"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1931,7 +1937,7 @@
         <v>90</v>
       </c>
       <c r="B2" s="10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>91</v>
@@ -1953,7 +1959,7 @@
         <v>94</v>
       </c>
       <c r="B4" s="10" t="n">
-        <v>0</v>
+        <v>191</v>
       </c>
       <c r="C4" s="19" t="s">
         <v>95</v>
@@ -2688,7 +2694,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2724,17 +2730,16 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J31" activeCellId="0" sqref="J31"/>
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.3775510204082"/>
-    <col collapsed="false" hidden="false" max="17" min="3" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.5663265306122"/>
+    <col collapsed="false" hidden="false" max="17" min="3" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2828,19 +2833,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B28" activeCellId="0" sqref="B28"/>
+      <selection pane="topLeft" activeCell="C29" activeCellId="0" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.8265306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="18.2244897959184"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.69387755102041"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.6122448979592"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2914,7 +2919,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>211</v>
@@ -2951,13 +2956,19 @@
       <c r="B15" s="25" t="s">
         <v>217</v>
       </c>
+      <c r="C15" s="25" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="24" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>71</v>
+        <v>43</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2965,79 +2976,109 @@
         <v>203</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>43</v>
+        <v>45</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="24" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>220</v>
+        <v>221</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="B19" s="26" t="s">
         <v>221</v>
       </c>
-      <c r="B19" s="26" t="s">
-        <v>220</v>
+      <c r="C19" s="26" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="24" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B20" s="26" t="s">
         <v>167</v>
       </c>
+      <c r="C20" s="26" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="24" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>43</v>
+        <v>45</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="24" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>225</v>
+        <v>226</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="24" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>227</v>
+        <v>228</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="24" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B24" s="26" t="s">
         <v>167</v>
       </c>
+      <c r="C24" s="26" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="24" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B25" s="26" t="s">
         <v>167</v>
       </c>
+      <c r="C25" s="26" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>71</v>
+        <v>43</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3045,7 +3086,10 @@
         <v>212</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>230</v>
+        <v>231</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3053,7 +3097,10 @@
         <v>214</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>231</v>
+        <v>233</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3061,7 +3108,10 @@
         <v>216</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>43</v>
+        <v>45</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -3089,16 +3139,16 @@
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="1.08163265306122"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.5459183673469"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.734693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.36734693877551"/>
     <col collapsed="false" hidden="false" max="9" min="5" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="27" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -3110,7 +3160,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -3133,10 +3183,10 @@
     <row r="5" customFormat="false" ht="68.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B5" s="28"/>
       <c r="C5" s="29" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -3150,7 +3200,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -3161,10 +3211,10 @@
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="1"/>
       <c r="C7" s="31" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -3184,16 +3234,16 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B10" s="32" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E10" s="32" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F10" s="32"/>
       <c r="G10" s="32"/>
@@ -3288,7 +3338,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="35" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C14" s="36" t="str">
         <f aca="false">IF(D14&gt;=1, "OK", "missing!")</f>
@@ -3321,7 +3371,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C15" s="36" t="str">
         <f aca="false">IF(D15&gt;=1, "OK", "missing!")</f>
@@ -3354,7 +3404,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="35" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C16" s="36" t="str">
         <f aca="false">IF(D16&gt;=1, "OK", "missing!")</f>
@@ -3387,7 +3437,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="35" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C17" s="36" t="str">
         <f aca="false">IF(D17&gt;=1, "OK", "missing!")</f>
@@ -3420,7 +3470,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C18" s="36" t="str">
         <f aca="false">IF(D18&gt;=1, "OK", "missing!")</f>
@@ -3453,7 +3503,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C19" s="36" t="str">
         <f aca="false">IF(D19&gt;=1, "OK", "missing!")</f>
@@ -3486,7 +3536,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="35" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C20" s="36" t="str">
         <f aca="false">IF(D20&gt;=1, "OK", "missing!")</f>
@@ -3519,7 +3569,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="35" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C21" s="36" t="str">
         <f aca="false">IF(D21&gt;=1, "OK", "missing!")</f>
@@ -3552,7 +3602,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C22" s="36" t="str">
         <f aca="false">IF(D22&gt;=1, "OK", "missing!")</f>
@@ -3585,7 +3635,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="35" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C23" s="36" t="str">
         <f aca="false">IF(D23&gt;=1, "OK", "missing!")</f>
@@ -3618,7 +3668,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="35" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C24" s="36" t="str">
         <f aca="false">IF(D24&gt;=1, "OK", "missing!")</f>
@@ -3651,7 +3701,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="35" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C25" s="36" t="str">
         <f aca="false">IF(D25&gt;=1, "OK", "missing!")</f>
@@ -3684,7 +3734,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="35" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C26" s="36" t="str">
         <f aca="false">IF(D26&gt;=1, "OK", "missing!")</f>
@@ -3717,7 +3767,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="35" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C27" s="36" t="str">
         <f aca="false">IF(D27&gt;=1, "OK", "missing!")</f>
@@ -3750,7 +3800,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B28" s="35" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C28" s="36" t="str">
         <f aca="false">IF(D28&gt;=1, "OK", "missing!")</f>
@@ -3783,7 +3833,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="35" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C29" s="36" t="str">
         <f aca="false">IF(D29&gt;=1, "OK", "missing!")</f>
@@ -3816,7 +3866,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="35" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C30" s="36" t="str">
         <f aca="false">IF(D30&gt;=1, "OK", "missing!")</f>
@@ -3849,7 +3899,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="35" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C31" s="36" t="str">
         <f aca="false">IF(D31&gt;=1, "OK", "missing!")</f>
@@ -4509,7 +4559,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="35" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C51" s="36" t="str">
         <f aca="false">IF(D51&gt;=1, "OK", "missing!")</f>
@@ -5169,7 +5219,7 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="35" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C71" s="36" t="str">
         <f aca="false">IF(D71&gt;=1, "OK", "missing!")</f>
@@ -6720,7 +6770,7 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B118" s="39" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C118" s="36" t="str">
         <f aca="false">IF(D118&gt;=1, "OK", "missing!")</f>
@@ -6762,7 +6812,7 @@
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B120" s="39" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C120" s="36" t="str">
         <f aca="false">IF(D120&gt;=1, "OK", "missing!")</f>
@@ -6783,7 +6833,7 @@
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B121" s="39" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C121" s="36" t="str">
         <f aca="false">IF(D121&gt;=1, "OK", "missing!")</f>
@@ -6804,7 +6854,7 @@
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B122" s="39" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C122" s="36" t="str">
         <f aca="false">IF(D122&gt;=1, "OK", "missing!")</f>
@@ -6825,7 +6875,7 @@
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B123" s="39" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C123" s="36" t="str">
         <f aca="false">IF(D123&gt;=1, "OK", "missing!")</f>
@@ -6846,7 +6896,7 @@
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B124" s="39" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C124" s="36" t="str">
         <f aca="false">IF(D124&gt;=1, "OK", "missing!")</f>
@@ -6867,7 +6917,7 @@
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B125" s="39" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C125" s="36" t="str">
         <f aca="false">IF(D125&gt;=1, "OK", "missing!")</f>
@@ -6888,7 +6938,7 @@
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B126" s="39" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C126" s="36" t="str">
         <f aca="false">IF(D126&gt;=1, "OK", "missing!")</f>
@@ -6909,7 +6959,7 @@
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B127" s="39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C127" s="36" t="str">
         <f aca="false">IF(D127&gt;=1, "OK", "missing!")</f>

--- a/inputs/input_template_excel.xlsx
+++ b/inputs/input_template_excel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="980" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="252">
   <si>
     <t xml:space="preserve">Tool for optimizing and simulating off- and on-grid electrification solutions</t>
   </si>
@@ -683,6 +683,9 @@
   </si>
   <si>
     <t xml:space="preserve">solar_backup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diesel_solar</t>
   </si>
   <si>
     <t xml:space="preserve">perform_simulation</t>
@@ -1228,10 +1231,10 @@
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="3" min="1" style="0" width="1.08163265306122"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="31.4540816326531"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="31.0459183673469"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="1.08163265306122"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1441,16 +1444,16 @@
   </sheetPr>
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.10714285714286"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.5969387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="10" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.3265306122449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="10" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1914,11 +1917,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1173469387755"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.0765306122449"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="10" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="1023" min="4" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="1023" min="4" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="7.1530612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2694,7 +2697,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2735,11 +2738,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.5663265306122"/>
-    <col collapsed="false" hidden="false" max="17" min="3" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.3010204081633"/>
+    <col collapsed="false" hidden="false" max="17" min="3" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2833,19 +2837,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C29" activeCellId="0" sqref="C29"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D28" activeCellId="0" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.6122448979592"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.29081632653061"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.2091836734694"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.1530612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2959,15 +2963,21 @@
       <c r="C15" s="25" t="s">
         <v>218</v>
       </c>
+      <c r="D15" s="25" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="24" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B16" s="26" t="s">
         <v>43</v>
       </c>
       <c r="C16" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="26" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2981,32 +2991,41 @@
       <c r="C17" s="26" t="s">
         <v>45</v>
       </c>
+      <c r="D17" s="26" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="24" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>221</v>
+        <v>222</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="B19" s="26" t="s">
         <v>222</v>
-      </c>
-      <c r="B19" s="26" t="s">
-        <v>221</v>
       </c>
       <c r="C19" s="26" t="s">
         <v>167</v>
       </c>
+      <c r="D19" s="26" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="24" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B20" s="26" t="s">
         <v>167</v>
@@ -3014,10 +3033,13 @@
       <c r="C20" s="26" t="s">
         <v>167</v>
       </c>
+      <c r="D20" s="26" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="24" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B21" s="26" t="s">
         <v>45</v>
@@ -3025,32 +3047,41 @@
       <c r="C21" s="26" t="s">
         <v>45</v>
       </c>
+      <c r="D21" s="26" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="24" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>226</v>
+        <v>227</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="24" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>228</v>
+        <v>229</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="24" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B24" s="26" t="s">
         <v>167</v>
@@ -3058,15 +3089,21 @@
       <c r="C24" s="26" t="s">
         <v>167</v>
       </c>
+      <c r="D24" s="26" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="24" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B25" s="26" t="s">
         <v>167</v>
       </c>
       <c r="C25" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="D25" s="26" t="s">
         <v>167</v>
       </c>
     </row>
@@ -3080,15 +3117,21 @@
       <c r="C26" s="26" t="s">
         <v>43</v>
       </c>
+      <c r="D26" s="26" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="24" t="s">
         <v>212</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C27" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="D27" s="26" t="s">
         <v>232</v>
       </c>
     </row>
@@ -3097,10 +3140,13 @@
         <v>214</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C28" s="26" t="s">
         <v>45</v>
+      </c>
+      <c r="D28" s="26" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3111,6 +3157,9 @@
         <v>45</v>
       </c>
       <c r="C29" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" s="26" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3139,16 +3188,16 @@
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="1.08163265306122"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.734693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.4642857142857"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.23469387755102"/>
     <col collapsed="false" hidden="false" max="9" min="5" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="27" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -3160,7 +3209,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -3183,10 +3232,10 @@
     <row r="5" customFormat="false" ht="68.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B5" s="28"/>
       <c r="C5" s="29" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -3200,7 +3249,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -3211,10 +3260,10 @@
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="1"/>
       <c r="C7" s="31" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -3234,16 +3283,16 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B10" s="32" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E10" s="32" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F10" s="32"/>
       <c r="G10" s="32"/>
@@ -3338,7 +3387,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="35" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C14" s="36" t="str">
         <f aca="false">IF(D14&gt;=1, "OK", "missing!")</f>
@@ -3404,7 +3453,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="35" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C16" s="36" t="str">
         <f aca="false">IF(D16&gt;=1, "OK", "missing!")</f>
@@ -3437,7 +3486,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="35" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C17" s="36" t="str">
         <f aca="false">IF(D17&gt;=1, "OK", "missing!")</f>
@@ -3866,7 +3915,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="35" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C30" s="36" t="str">
         <f aca="false">IF(D30&gt;=1, "OK", "missing!")</f>
@@ -4559,7 +4608,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="35" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C51" s="36" t="str">
         <f aca="false">IF(D51&gt;=1, "OK", "missing!")</f>
@@ -5219,7 +5268,7 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="35" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C71" s="36" t="str">
         <f aca="false">IF(D71&gt;=1, "OK", "missing!")</f>
@@ -6770,7 +6819,7 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B118" s="39" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C118" s="36" t="str">
         <f aca="false">IF(D118&gt;=1, "OK", "missing!")</f>
@@ -6812,7 +6861,7 @@
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B120" s="39" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C120" s="36" t="str">
         <f aca="false">IF(D120&gt;=1, "OK", "missing!")</f>
@@ -6833,7 +6882,7 @@
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B121" s="39" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C121" s="36" t="str">
         <f aca="false">IF(D121&gt;=1, "OK", "missing!")</f>
@@ -6854,7 +6903,7 @@
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B122" s="39" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C122" s="36" t="str">
         <f aca="false">IF(D122&gt;=1, "OK", "missing!")</f>
@@ -6875,7 +6924,7 @@
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B123" s="39" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C123" s="36" t="str">
         <f aca="false">IF(D123&gt;=1, "OK", "missing!")</f>
@@ -6896,7 +6945,7 @@
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B124" s="39" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C124" s="36" t="str">
         <f aca="false">IF(D124&gt;=1, "OK", "missing!")</f>
@@ -6917,7 +6966,7 @@
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B125" s="39" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C125" s="36" t="str">
         <f aca="false">IF(D125&gt;=1, "OK", "missing!")</f>
@@ -6938,7 +6987,7 @@
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B126" s="39" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C126" s="36" t="str">
         <f aca="false">IF(D126&gt;=1, "OK", "missing!")</f>

--- a/inputs/input_template_excel.xlsx
+++ b/inputs/input_template_excel.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="272">
   <si>
     <t xml:space="preserve">Tool for optimizing and simulating off- and on-grid electrification solutions</t>
   </si>
@@ -583,6 +583,9 @@
     <t xml:space="preserve">Step</t>
   </si>
   <si>
+    <t xml:space="preserve">shortage_max_share</t>
+  </si>
+  <si>
     <t xml:space="preserve">project_site_name</t>
   </si>
   <si>
@@ -604,10 +607,13 @@
     <t xml:space="preserve">title_grid_availability</t>
   </si>
   <si>
-    <t xml:space="preserve">gridavailability_from_file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">./inputs/timeseries/intermediate_tier2.csv</t>
+    <t xml:space="preserve">seperator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17_Polo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">./inputs/timeseries/17_Polo.csv</t>
   </si>
   <si>
     <t xml:space="preserve">Demand</t>
@@ -619,10 +625,61 @@
     <t xml:space="preserve">Wind</t>
   </si>
   <si>
-    <t xml:space="preserve">GridAvailability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gridavailability_internal_randomized</t>
+    <t xml:space="preserve">;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20_Mamburao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">./inputs/timeseries/20_Mamburao.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32_Taytay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">./inputs/timeseries/32_Taytay.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34_Araceli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">./inputs/timeseries/34_Araceli.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53_Nabuctot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">./inputs/timeseries/53_Nabuctot.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">105_Cinco-Rama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">./inputs/timeseries/105_Cinco-Rama.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">107_Balut Is.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">./inputs/timeseries/107_Balut Is..csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">108_Lebak-Kalamansig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">./inputs/timeseries/108_Lebak-Kalamansig.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">121_Tandubanak.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">./inputs/timeseries/121_Tandubanak.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">126_Pangutaran</t>
+  </si>
+  <si>
+    <t xml:space="preserve">./inputs/timeseries/126_Pangutaran.csv</t>
   </si>
   <si>
     <t xml:space="preserve">Attribute</t>
@@ -679,13 +736,16 @@
     <t xml:space="preserve">renewable_constraint</t>
   </si>
   <si>
-    <t xml:space="preserve">shs_backup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">solar_backup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">diesel_solar</t>
+    <t xml:space="preserve">mg_hybrid_no_min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mg_hybrid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">solar_battery_mg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diesel_mg</t>
   </si>
   <si>
     <t xml:space="preserve">perform_simulation</t>
@@ -703,6 +763,9 @@
     <t xml:space="preserve">capacity_genset_kW</t>
   </si>
   <si>
+    <t xml:space="preserve">peak_demand</t>
+  </si>
+  <si>
     <t xml:space="preserve">genset_with_minimal_loading</t>
   </si>
   <si>
@@ -712,12 +775,12 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
     <t xml:space="preserve">capacity_pcc_consumption_kW</t>
   </si>
   <si>
-    <t xml:space="preserve">peak_demand</t>
-  </si>
-  <si>
     <t xml:space="preserve">capacity_pcc_feedin_kW</t>
   </si>
   <si>
@@ -727,10 +790,7 @@
     <t xml:space="preserve">default</t>
   </si>
   <si>
-    <t xml:space="preserve">0.27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">share_usage</t>
+    <t xml:space="preserve">share_hybrid</t>
   </si>
   <si>
     <t xml:space="preserve">Data Sufficiency Check</t>
@@ -1132,27 +1192,9 @@
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
   <dxfs count="3">
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-      </font>
-    </dxf>
+    <dxf/>
+    <dxf/>
+    <dxf/>
   </dxfs>
   <colors>
     <indexedColors>
@@ -1231,10 +1273,10 @@
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="3" min="1" style="0" width="1.08163265306122"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="31.0459183673469"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.6173469387755"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="1.08163265306122"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1445,15 +1487,15 @@
   <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.10714285714286"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.3265306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="10" width="9.98979591836735"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.5714285714286"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="10" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1917,11 +1959,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.5"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.0765306122449"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="10" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="1023" min="4" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="7.1530612244898"/>
+    <col collapsed="false" hidden="false" max="1023" min="4" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="6.3469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1940,7 +1982,7 @@
         <v>90</v>
       </c>
       <c r="B2" s="10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>91</v>
@@ -1962,7 +2004,7 @@
         <v>94</v>
       </c>
       <c r="B4" s="10" t="n">
-        <v>191</v>
+        <v>0</v>
       </c>
       <c r="C4" s="19" t="s">
         <v>95</v>
@@ -2689,15 +2731,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2712,6 +2754,20 @@
       </c>
       <c r="D1" s="0" t="s">
         <v>184</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>0.03</v>
       </c>
     </row>
   </sheetData>
@@ -2730,20 +2786,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.3010204081633"/>
-    <col collapsed="false" hidden="false" max="17" min="3" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.2755102040816"/>
+    <col collapsed="false" hidden="false" max="17" min="3" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2752,73 +2808,289 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>191</v>
-      </c>
-      <c r="H2" s="10"/>
+        <v>192</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>193</v>
+      </c>
       <c r="I2" s="19"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="19" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>167</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>197</v>
+        <v>167</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="19" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>167</v>
       </c>
-      <c r="D4" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>195</v>
-      </c>
-      <c r="F4" s="21" t="s">
+      <c r="D4" s="0" t="s">
         <v>196</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>198</v>
       </c>
       <c r="G4" s="22" t="s">
         <v>167</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9"